--- a/Planilla Segundo Parcial.xlsx
+++ b/Planilla Segundo Parcial.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="81">
   <si>
     <t>b1</t>
   </si>
@@ -241,6 +241,30 @@
   <si>
     <t>Info. Mutua:</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>(ruido)</t>
+  </si>
+  <si>
+    <t>Informacion a posteriori I(ai/bj)</t>
+  </si>
+  <si>
+    <t>I(ai/bj)</t>
+  </si>
+  <si>
+    <t>H(A/bj)</t>
+  </si>
+  <si>
+    <t>Entropias a posteriori H(A/bj)</t>
+  </si>
+  <si>
+    <t>Media a posteriori</t>
+  </si>
+  <si>
+    <t>H(A)</t>
+  </si>
 </sst>
 </file>
 
@@ -417,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -430,10 +454,43 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -442,25 +499,19 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -469,36 +520,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -956,7 +981,7 @@
   <dimension ref="A3:R69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,29 +996,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E3" s="30"/>
-      <c r="G3" s="27" t="s">
+      <c r="E3" s="15"/>
+      <c r="G3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
     </row>
     <row r="4" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="15"/>
       <c r="G4" s="1" t="s">
         <v>68</v>
       </c>
@@ -1062,28 +1087,24 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="7">
         <f>IF(C6&lt;&gt;"",LOG(1/C6,2),"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I6" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.25</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1101,28 +1122,24 @@
         <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D7" s="7">
         <f>IF(C7&lt;&gt;"",LOG(1/C7,2),"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="1">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1139,29 +1156,19 @@
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="C8" s="1"/>
+      <c r="D8" s="7" t="str">
         <f>IF(C8&lt;&gt;"",LOG(1/C8,2),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1180,7 +1187,7 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="7" t="str">
-        <f t="shared" ref="D9:D15" si="0">IF(C9&lt;&gt;"",LOG(1/C9,2),"")</f>
+        <f>IF(C9&lt;&gt;"",LOG(1/C9,2),"")</f>
         <v/>
       </c>
       <c r="F9" s="1"/>
@@ -1209,7 +1216,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D9:D15" si="0">IF(C10&lt;&gt;"",LOG(1/C10,2),"")</f>
         <v/>
       </c>
       <c r="F10" s="1"/>
@@ -1377,7 +1384,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="14" t="s">
         <v>66</v>
       </c>
       <c r="C16" s="3">
@@ -1386,19 +1393,19 @@
       </c>
     </row>
     <row r="17" spans="3:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
@@ -1409,19 +1416,19 @@
       </c>
       <c r="H18" s="7">
         <f>SUMPRODUCT(H6:H15,$C$6:$C$15)</f>
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="I18" s="7">
         <f>SUMPRODUCT(I6:I15,$C$6:$C$15)</f>
-        <v>0.125</v>
+        <v>0.75</v>
       </c>
       <c r="J18" s="7">
         <f>SUMPRODUCT(J6:J15,$C$6:$C$15)</f>
-        <v>0.3125</v>
+        <v>0</v>
       </c>
       <c r="K18" s="7">
         <f>SUMPRODUCT(K6:K15,$C$6:$C$15)</f>
-        <v>0.1875</v>
+        <v>0</v>
       </c>
       <c r="L18" s="7">
         <f>SUMPRODUCT(L6:L15,$C$6:$C$15)</f>
@@ -1454,19 +1461,25 @@
       </c>
       <c r="D19" s="7">
         <f>SUMPRODUCT(C6:C15,D6:D15)</f>
-        <v>1.5</v>
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C20" s="5" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="D20" s="7">
         <f>SUMPRODUCT(H18:Q18,H69:Q69)</f>
-        <v>0.99214393630795106</v>
+        <v>0.68872187554086717</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>71</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="3:17" ht="23.25" x14ac:dyDescent="0.35">
@@ -1475,21 +1488,21 @@
       </c>
       <c r="D22" s="7">
         <f>D19-D20</f>
-        <v>0.50785606369204894</v>
-      </c>
-      <c r="G22" s="34" t="s">
+        <v>0.31127812445913283</v>
+      </c>
+      <c r="G22" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.25">
       <c r="G23" s="1" t="s">
@@ -1542,25 +1555,28 @@
       </c>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>73</v>
+      </c>
       <c r="F25" s="1"/>
       <c r="G25" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H25" s="7">
         <f>IF(OR($C6=0,H$18=0),"",H6/H$18*$C6)</f>
-        <v>0.16666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
         <f>IF(OR($C6=0,I$18=0),"",I6/I$18*$C6)</f>
-        <v>0.5</v>
-      </c>
-      <c r="J25" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J25" s="7" t="str">
         <f>IF(OR($C6=0,J$18=0),"",J6/J$18*$C6)</f>
-        <v>0.2</v>
-      </c>
-      <c r="K25" s="7">
+        <v/>
+      </c>
+      <c r="K25" s="7" t="str">
         <f>IF(OR($C6=0,K$18=0),"",K6/K$18*$C6)</f>
-        <v>0.33333333333333331</v>
+        <v/>
       </c>
       <c r="L25" s="7" t="str">
         <f>IF(OR($C6=0,L$18=0),"",L6/L$18*$C6)</f>
@@ -1593,43 +1609,43 @@
         <v>11</v>
       </c>
       <c r="H26" s="7">
-        <f>IF(OR($C7=0,H$18=0),"",H7/H$18*$C7)</f>
-        <v>0.16666666666666666</v>
+        <f t="shared" ref="H26:Q26" si="2">IF(OR($C7=0,H$18=0),"",H7/H$18*$C7)</f>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <f>IF(OR($C7=0,I$18=0),"",I7/I$18*$C7)</f>
-        <v>0.5</v>
-      </c>
-      <c r="J26" s="7">
-        <f>IF(OR($C7=0,J$18=0),"",J7/J$18*$C7)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="7">
-        <f>IF(OR($C7=0,K$18=0),"",K7/K$18*$C7)</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
+      <c r="J26" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K26" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
       <c r="L26" s="7" t="str">
-        <f>IF(OR($C7=0,L$18=0),"",L7/L$18*$C7)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M26" s="7" t="str">
-        <f>IF(OR($C7=0,M$18=0),"",M7/M$18*$C7)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="N26" s="7" t="str">
-        <f>IF(OR($C7=0,N$18=0),"",N7/N$18*$C7)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="O26" s="7" t="str">
-        <f>IF(OR($C7=0,O$18=0),"",O7/O$18*$C7)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="P26" s="7" t="str">
-        <f>IF(OR($C7=0,P$18=0),"",P7/P$18*$C7)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q26" s="7" t="str">
-        <f>IF(OR($C7=0,Q$18=0),"",Q7/Q$18*$C7)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -1638,44 +1654,44 @@
       <c r="G27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="7">
-        <f>IF(OR($C8=0,H$18=0),"",H8/H$18*$C8)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I27" s="7">
-        <f>IF(OR($C8=0,I$18=0),"",I8/I$18*$C8)</f>
-        <v>0</v>
-      </c>
-      <c r="J27" s="7">
-        <f>IF(OR($C8=0,J$18=0),"",J8/J$18*$C8)</f>
-        <v>0.8</v>
-      </c>
-      <c r="K27" s="7">
-        <f>IF(OR($C8=0,K$18=0),"",K8/K$18*$C8)</f>
-        <v>0</v>
+      <c r="H27" s="7" t="str">
+        <f t="shared" ref="H27:Q27" si="3">IF(OR($C8=0,H$18=0),"",H8/H$18*$C8)</f>
+        <v/>
+      </c>
+      <c r="I27" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="J27" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K27" s="7" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="L27" s="7" t="str">
-        <f>IF(OR($C8=0,L$18=0),"",L8/L$18*$C8)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M27" s="7" t="str">
-        <f>IF(OR($C8=0,M$18=0),"",M8/M$18*$C8)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N27" s="7" t="str">
-        <f>IF(OR($C8=0,N$18=0),"",N8/N$18*$C8)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O27" s="7" t="str">
-        <f>IF(OR($C8=0,O$18=0),"",O8/O$18*$C8)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P27" s="7" t="str">
-        <f>IF(OR($C8=0,P$18=0),"",P8/P$18*$C8)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q27" s="7" t="str">
-        <f>IF(OR($C8=0,Q$18=0),"",Q8/Q$18*$C8)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -1731,43 +1747,43 @@
         <v>14</v>
       </c>
       <c r="H29" s="7" t="str">
-        <f>IF(OR($C10=0,H$18=0),"",H10/H$18*$C10)</f>
+        <f t="shared" ref="H29:Q29" si="4">IF(OR($C10=0,H$18=0),"",H10/H$18*$C10)</f>
         <v/>
       </c>
       <c r="I29" s="7" t="str">
-        <f>IF(OR($C10=0,I$18=0),"",I10/I$18*$C10)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J29" s="7" t="str">
-        <f>IF(OR($C10=0,J$18=0),"",J10/J$18*$C10)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K29" s="7" t="str">
-        <f>IF(OR($C10=0,K$18=0),"",K10/K$18*$C10)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L29" s="7" t="str">
-        <f>IF(OR($C10=0,L$18=0),"",L10/L$18*$C10)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M29" s="7" t="str">
-        <f>IF(OR($C10=0,M$18=0),"",M10/M$18*$C10)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N29" s="7" t="str">
-        <f>IF(OR($C10=0,N$18=0),"",N10/N$18*$C10)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O29" s="7" t="str">
-        <f>IF(OR($C10=0,O$18=0),"",O10/O$18*$C10)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P29" s="7" t="str">
-        <f>IF(OR($C10=0,P$18=0),"",P10/P$18*$C10)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q29" s="7" t="str">
-        <f>IF(OR($C10=0,Q$18=0),"",Q10/Q$18*$C10)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -1777,43 +1793,43 @@
         <v>15</v>
       </c>
       <c r="H30" s="7" t="str">
-        <f>IF(OR($C11=0,H$18=0),"",H11/H$18*$C11)</f>
+        <f t="shared" ref="H30:Q30" si="5">IF(OR($C11=0,H$18=0),"",H11/H$18*$C11)</f>
         <v/>
       </c>
       <c r="I30" s="7" t="str">
-        <f>IF(OR($C11=0,I$18=0),"",I11/I$18*$C11)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J30" s="7" t="str">
-        <f>IF(OR($C11=0,J$18=0),"",J11/J$18*$C11)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K30" s="7" t="str">
-        <f>IF(OR($C11=0,K$18=0),"",K11/K$18*$C11)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L30" s="7" t="str">
-        <f>IF(OR($C11=0,L$18=0),"",L11/L$18*$C11)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M30" s="7" t="str">
-        <f>IF(OR($C11=0,M$18=0),"",M11/M$18*$C11)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N30" s="7" t="str">
-        <f>IF(OR($C11=0,N$18=0),"",N11/N$18*$C11)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O30" s="7" t="str">
-        <f>IF(OR($C11=0,O$18=0),"",O11/O$18*$C11)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P30" s="7" t="str">
-        <f>IF(OR($C11=0,P$18=0),"",P11/P$18*$C11)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q30" s="7" t="str">
-        <f>IF(OR($C11=0,Q$18=0),"",Q11/Q$18*$C11)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -1823,43 +1839,43 @@
         <v>16</v>
       </c>
       <c r="H31" s="7" t="str">
-        <f>IF(OR($C12=0,H$18=0),"",H12/H$18*$C12)</f>
+        <f t="shared" ref="H31:Q31" si="6">IF(OR($C12=0,H$18=0),"",H12/H$18*$C12)</f>
         <v/>
       </c>
       <c r="I31" s="7" t="str">
-        <f>IF(OR($C12=0,I$18=0),"",I12/I$18*$C12)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J31" s="7" t="str">
-        <f>IF(OR($C12=0,J$18=0),"",J12/J$18*$C12)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K31" s="7" t="str">
-        <f>IF(OR($C12=0,K$18=0),"",K12/K$18*$C12)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L31" s="7" t="str">
-        <f>IF(OR($C12=0,L$18=0),"",L12/L$18*$C12)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M31" s="7" t="str">
-        <f>IF(OR($C12=0,M$18=0),"",M12/M$18*$C12)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N31" s="7" t="str">
-        <f>IF(OR($C12=0,N$18=0),"",N12/N$18*$C12)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O31" s="7" t="str">
-        <f>IF(OR($C12=0,O$18=0),"",O12/O$18*$C12)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P31" s="7" t="str">
-        <f>IF(OR($C12=0,P$18=0),"",P12/P$18*$C12)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q31" s="7" t="str">
-        <f>IF(OR($C12=0,Q$18=0),"",Q12/Q$18*$C12)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -1869,43 +1885,43 @@
         <v>17</v>
       </c>
       <c r="H32" s="7" t="str">
-        <f>IF(OR($C13=0,H$18=0),"",H13/H$18*$C13)</f>
+        <f t="shared" ref="H32:Q32" si="7">IF(OR($C13=0,H$18=0),"",H13/H$18*$C13)</f>
         <v/>
       </c>
       <c r="I32" s="7" t="str">
-        <f>IF(OR($C13=0,I$18=0),"",I13/I$18*$C13)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J32" s="7" t="str">
-        <f>IF(OR($C13=0,J$18=0),"",J13/J$18*$C13)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K32" s="7" t="str">
-        <f>IF(OR($C13=0,K$18=0),"",K13/K$18*$C13)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L32" s="7" t="str">
-        <f>IF(OR($C13=0,L$18=0),"",L13/L$18*$C13)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M32" s="7" t="str">
-        <f>IF(OR($C13=0,M$18=0),"",M13/M$18*$C13)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N32" s="7" t="str">
-        <f>IF(OR($C13=0,N$18=0),"",N13/N$18*$C13)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O32" s="7" t="str">
-        <f>IF(OR($C13=0,O$18=0),"",O13/O$18*$C13)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P32" s="7" t="str">
-        <f>IF(OR($C13=0,P$18=0),"",P13/P$18*$C13)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q32" s="7" t="str">
-        <f>IF(OR($C13=0,Q$18=0),"",Q13/Q$18*$C13)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -1915,43 +1931,43 @@
         <v>18</v>
       </c>
       <c r="H33" s="7" t="str">
-        <f>IF(OR($C14=0,H$18=0),"",H14/H$18*$C14)</f>
+        <f t="shared" ref="H33:Q33" si="8">IF(OR($C14=0,H$18=0),"",H14/H$18*$C14)</f>
         <v/>
       </c>
       <c r="I33" s="7" t="str">
-        <f>IF(OR($C14=0,I$18=0),"",I14/I$18*$C14)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J33" s="7" t="str">
-        <f>IF(OR($C14=0,J$18=0),"",J14/J$18*$C14)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K33" s="7" t="str">
-        <f>IF(OR($C14=0,K$18=0),"",K14/K$18*$C14)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="L33" s="7" t="str">
-        <f>IF(OR($C14=0,L$18=0),"",L14/L$18*$C14)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M33" s="7" t="str">
-        <f>IF(OR($C14=0,M$18=0),"",M14/M$18*$C14)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N33" s="7" t="str">
-        <f>IF(OR($C14=0,N$18=0),"",N14/N$18*$C14)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O33" s="7" t="str">
-        <f>IF(OR($C14=0,O$18=0),"",O14/O$18*$C14)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P33" s="7" t="str">
-        <f>IF(OR($C14=0,P$18=0),"",P14/P$18*$C14)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Q33" s="7" t="str">
-        <f>IF(OR($C14=0,Q$18=0),"",Q14/Q$18*$C14)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -1961,43 +1977,43 @@
         <v>19</v>
       </c>
       <c r="H34" s="7" t="str">
-        <f>IF(OR($C15=0,H$18=0),"",H15/H$18*$C15)</f>
+        <f t="shared" ref="H34:Q34" si="9">IF(OR($C15=0,H$18=0),"",H15/H$18*$C15)</f>
         <v/>
       </c>
       <c r="I34" s="7" t="str">
-        <f>IF(OR($C15=0,I$18=0),"",I15/I$18*$C15)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J34" s="7" t="str">
-        <f>IF(OR($C15=0,J$18=0),"",J15/J$18*$C15)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K34" s="7" t="str">
-        <f>IF(OR($C15=0,K$18=0),"",K15/K$18*$C15)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L34" s="7" t="str">
-        <f>IF(OR($C15=0,L$18=0),"",L15/L$18*$C15)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M34" s="7" t="str">
-        <f>IF(OR($C15=0,M$18=0),"",M15/M$18*$C15)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N34" s="7" t="str">
-        <f>IF(OR($C15=0,N$18=0),"",N15/N$18*$C15)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O34" s="7" t="str">
-        <f>IF(OR($C15=0,O$18=0),"",O15/O$18*$C15)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P34" s="7" t="str">
-        <f>IF(OR($C15=0,P$18=0),"",P15/P$18*$C15)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q34" s="7" t="str">
-        <f>IF(OR($C15=0,Q$18=0),"",Q15/Q$18*$C15)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2010,56 +2026,56 @@
         <v>1</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" ref="I35:Q35" si="2">IF(SUM(I25:I34)=0,1,SUM(I25:I34))</f>
+        <f t="shared" ref="I35:Q35" si="10">IF(SUM(I25:I34)=0,1,SUM(I25:I34))</f>
         <v>1</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="M35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="P35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="Q35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
     </row>
     <row r="38" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G38" s="1" t="s">
@@ -2118,19 +2134,19 @@
       </c>
       <c r="H40" s="7">
         <f>IF(OR($C6="",H6=""),"",H6*$C6)</f>
-        <v>6.25E-2</v>
+        <v>0.25</v>
       </c>
       <c r="I40" s="7">
         <f>IF(OR($C6="",I6=""),"",I6*$C6)</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="J40" s="7">
+        <v>0.25</v>
+      </c>
+      <c r="J40" s="7" t="str">
         <f>IF(OR($C6="",J6=""),"",J6*$C6)</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="K40" s="7">
+        <v/>
+      </c>
+      <c r="K40" s="7" t="str">
         <f>IF(OR($C6="",K6=""),"",K6*$C6)</f>
-        <v>6.25E-2</v>
+        <v/>
       </c>
       <c r="L40" s="7" t="str">
         <f>IF(OR($C6="",L6=""),"",L6*$C6)</f>
@@ -2163,43 +2179,43 @@
         <v>11</v>
       </c>
       <c r="H41" s="7">
-        <f>IF(OR($C7="",H7=""),"",H7*$C7)</f>
-        <v>6.25E-2</v>
+        <f t="shared" ref="H41:Q41" si="11">IF(OR($C7="",H7=""),"",H7*$C7)</f>
+        <v>0</v>
       </c>
       <c r="I41" s="7">
-        <f>IF(OR($C7="",I7=""),"",I7*$C7)</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="J41" s="7">
-        <f>IF(OR($C7="",J7=""),"",J7*$C7)</f>
-        <v>0</v>
-      </c>
-      <c r="K41" s="7">
-        <f>IF(OR($C7="",K7=""),"",K7*$C7)</f>
-        <v>0.125</v>
+        <f t="shared" si="11"/>
+        <v>0.5</v>
+      </c>
+      <c r="J41" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="K41" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
       </c>
       <c r="L41" s="7" t="str">
-        <f>IF(OR($C7="",L7=""),"",L7*$C7)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M41" s="7" t="str">
-        <f>IF(OR($C7="",M7=""),"",M7*$C7)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N41" s="7" t="str">
-        <f>IF(OR($C7="",N7=""),"",N7*$C7)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O41" s="7" t="str">
-        <f>IF(OR($C7="",O7=""),"",O7*$C7)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="P41" s="7" t="str">
-        <f>IF(OR($C7="",P7=""),"",P7*$C7)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q41" s="7" t="str">
-        <f>IF(OR($C7="",Q7=""),"",Q7*$C7)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -2208,44 +2224,44 @@
       <c r="G42" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="7">
-        <f>IF(OR($C8="",H8=""),"",H8*$C8)</f>
-        <v>0.25</v>
-      </c>
-      <c r="I42" s="7">
-        <f>IF(OR($C8="",I8=""),"",I8*$C8)</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="7">
-        <f>IF(OR($C8="",J8=""),"",J8*$C8)</f>
-        <v>0.25</v>
-      </c>
-      <c r="K42" s="7">
-        <f>IF(OR($C8="",K8=""),"",K8*$C8)</f>
-        <v>0</v>
+      <c r="H42" s="7" t="str">
+        <f t="shared" ref="H42:Q42" si="12">IF(OR($C8="",H8=""),"",H8*$C8)</f>
+        <v/>
+      </c>
+      <c r="I42" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="J42" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="K42" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
       </c>
       <c r="L42" s="7" t="str">
-        <f>IF(OR($C8="",L8=""),"",L8*$C8)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M42" s="7" t="str">
-        <f>IF(OR($C8="",M8=""),"",M8*$C8)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N42" s="7" t="str">
-        <f>IF(OR($C8="",N8=""),"",N8*$C8)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O42" s="7" t="str">
-        <f>IF(OR($C8="",O8=""),"",O8*$C8)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="P42" s="7" t="str">
-        <f>IF(OR($C8="",P8=""),"",P8*$C8)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q42" s="7" t="str">
-        <f>IF(OR($C8="",Q8=""),"",Q8*$C8)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -2301,43 +2317,43 @@
         <v>14</v>
       </c>
       <c r="H44" s="7" t="str">
-        <f>IF(OR($C10="",H10=""),"",H10*$C10)</f>
+        <f t="shared" ref="H44:Q44" si="13">IF(OR($C10="",H10=""),"",H10*$C10)</f>
         <v/>
       </c>
       <c r="I44" s="7" t="str">
-        <f>IF(OR($C10="",I10=""),"",I10*$C10)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J44" s="7" t="str">
-        <f>IF(OR($C10="",J10=""),"",J10*$C10)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="K44" s="7" t="str">
-        <f>IF(OR($C10="",K10=""),"",K10*$C10)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L44" s="7" t="str">
-        <f>IF(OR($C10="",L10=""),"",L10*$C10)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M44" s="7" t="str">
-        <f>IF(OR($C10="",M10=""),"",M10*$C10)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N44" s="7" t="str">
-        <f>IF(OR($C10="",N10=""),"",N10*$C10)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O44" s="7" t="str">
-        <f>IF(OR($C10="",O10=""),"",O10*$C10)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="P44" s="7" t="str">
-        <f>IF(OR($C10="",P10=""),"",P10*$C10)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Q44" s="7" t="str">
-        <f>IF(OR($C10="",Q10=""),"",Q10*$C10)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -2347,43 +2363,43 @@
         <v>15</v>
       </c>
       <c r="H45" s="7" t="str">
-        <f>IF(OR($C11="",H11=""),"",H11*$C11)</f>
+        <f t="shared" ref="H45:Q45" si="14">IF(OR($C11="",H11=""),"",H11*$C11)</f>
         <v/>
       </c>
       <c r="I45" s="7" t="str">
-        <f>IF(OR($C11="",I11=""),"",I11*$C11)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J45" s="7" t="str">
-        <f>IF(OR($C11="",J11=""),"",J11*$C11)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K45" s="7" t="str">
-        <f>IF(OR($C11="",K11=""),"",K11*$C11)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L45" s="7" t="str">
-        <f>IF(OR($C11="",L11=""),"",L11*$C11)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M45" s="7" t="str">
-        <f>IF(OR($C11="",M11=""),"",M11*$C11)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N45" s="7" t="str">
-        <f>IF(OR($C11="",N11=""),"",N11*$C11)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="O45" s="7" t="str">
-        <f>IF(OR($C11="",O11=""),"",O11*$C11)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P45" s="7" t="str">
-        <f>IF(OR($C11="",P11=""),"",P11*$C11)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="Q45" s="7" t="str">
-        <f>IF(OR($C11="",Q11=""),"",Q11*$C11)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -2393,43 +2409,43 @@
         <v>16</v>
       </c>
       <c r="H46" s="7" t="str">
-        <f>IF(OR($C12="",H12=""),"",H12*$C12)</f>
+        <f t="shared" ref="H46:Q46" si="15">IF(OR($C12="",H12=""),"",H12*$C12)</f>
         <v/>
       </c>
       <c r="I46" s="7" t="str">
-        <f>IF(OR($C12="",I12=""),"",I12*$C12)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="J46" s="7" t="str">
-        <f>IF(OR($C12="",J12=""),"",J12*$C12)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K46" s="7" t="str">
-        <f>IF(OR($C12="",K12=""),"",K12*$C12)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L46" s="7" t="str">
-        <f>IF(OR($C12="",L12=""),"",L12*$C12)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M46" s="7" t="str">
-        <f>IF(OR($C12="",M12=""),"",M12*$C12)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N46" s="7" t="str">
-        <f>IF(OR($C12="",N12=""),"",N12*$C12)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O46" s="7" t="str">
-        <f>IF(OR($C12="",O12=""),"",O12*$C12)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P46" s="7" t="str">
-        <f>IF(OR($C12="",P12=""),"",P12*$C12)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q46" s="7" t="str">
-        <f>IF(OR($C12="",Q12=""),"",Q12*$C12)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -2439,43 +2455,43 @@
         <v>17</v>
       </c>
       <c r="H47" s="7" t="str">
-        <f>IF(OR($C13="",H13=""),"",H13*$C13)</f>
+        <f t="shared" ref="H47:Q47" si="16">IF(OR($C13="",H13=""),"",H13*$C13)</f>
         <v/>
       </c>
       <c r="I47" s="7" t="str">
-        <f>IF(OR($C13="",I13=""),"",I13*$C13)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J47" s="7" t="str">
-        <f>IF(OR($C13="",J13=""),"",J13*$C13)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K47" s="7" t="str">
-        <f>IF(OR($C13="",K13=""),"",K13*$C13)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L47" s="7" t="str">
-        <f>IF(OR($C13="",L13=""),"",L13*$C13)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M47" s="7" t="str">
-        <f>IF(OR($C13="",M13=""),"",M13*$C13)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N47" s="7" t="str">
-        <f>IF(OR($C13="",N13=""),"",N13*$C13)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O47" s="7" t="str">
-        <f>IF(OR($C13="",O13=""),"",O13*$C13)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P47" s="7" t="str">
-        <f>IF(OR($C13="",P13=""),"",P13*$C13)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q47" s="7" t="str">
-        <f>IF(OR($C13="",Q13=""),"",Q13*$C13)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -2485,43 +2501,43 @@
         <v>18</v>
       </c>
       <c r="H48" s="7" t="str">
-        <f>IF(OR($C14="",H14=""),"",H14*$C14)</f>
+        <f t="shared" ref="H48:Q48" si="17">IF(OR($C14="",H14=""),"",H14*$C14)</f>
         <v/>
       </c>
       <c r="I48" s="7" t="str">
-        <f>IF(OR($C14="",I14=""),"",I14*$C14)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J48" s="7" t="str">
-        <f>IF(OR($C14="",J14=""),"",J14*$C14)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="K48" s="7" t="str">
-        <f>IF(OR($C14="",K14=""),"",K14*$C14)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L48" s="7" t="str">
-        <f>IF(OR($C14="",L14=""),"",L14*$C14)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="M48" s="7" t="str">
-        <f>IF(OR($C14="",M14=""),"",M14*$C14)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N48" s="7" t="str">
-        <f>IF(OR($C14="",N14=""),"",N14*$C14)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="O48" s="7" t="str">
-        <f>IF(OR($C14="",O14=""),"",O14*$C14)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P48" s="7" t="str">
-        <f>IF(OR($C14="",P14=""),"",P14*$C14)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Q48" s="7" t="str">
-        <f>IF(OR($C14="",Q14=""),"",Q14*$C14)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -2531,60 +2547,60 @@
         <v>19</v>
       </c>
       <c r="H49" s="7" t="str">
-        <f>IF(OR($C15="",H15=""),"",H15*$C15)</f>
+        <f t="shared" ref="H49:Q49" si="18">IF(OR($C15="",H15=""),"",H15*$C15)</f>
         <v/>
       </c>
       <c r="I49" s="7" t="str">
-        <f>IF(OR($C15="",I15=""),"",I15*$C15)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J49" s="7" t="str">
-        <f>IF(OR($C15="",J15=""),"",J15*$C15)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K49" s="7" t="str">
-        <f>IF(OR($C15="",K15=""),"",K15*$C15)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L49" s="7" t="str">
-        <f>IF(OR($C15="",L15=""),"",L15*$C15)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M49" s="7" t="str">
-        <f>IF(OR($C15="",M15=""),"",M15*$C15)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N49" s="7" t="str">
-        <f>IF(OR($C15="",N15=""),"",N15*$C15)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O49" s="7" t="str">
-        <f>IF(OR($C15="",O15=""),"",O15*$C15)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="P49" s="7" t="str">
-        <f>IF(OR($C15="",P15=""),"",P15*$C15)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q49" s="7" t="str">
-        <f>IF(OR($C15="",Q15=""),"",Q15*$C15)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G52" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="32"/>
+      <c r="G52" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
     </row>
     <row r="53" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G53" s="1" t="s">
@@ -2602,7 +2618,9 @@
       <c r="Q53" s="1"/>
     </row>
     <row r="54" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="G54" s="9"/>
+      <c r="G54" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="H54" s="5" t="s">
         <v>0</v>
       </c>
@@ -2641,42 +2659,42 @@
       </c>
       <c r="H55" s="7">
         <f>IF(H25&lt;&gt;"",IF(H25=0,0,LOG(1/H25,2)),"")</f>
-        <v>2.5849625007211561</v>
+        <v>0</v>
       </c>
       <c r="I55" s="7">
-        <f t="shared" ref="I55:Q55" si="3">IF(I25&lt;&gt;"",IF(I25=0,0,LOG(1/I25,2)),"")</f>
-        <v>1</v>
-      </c>
-      <c r="J55" s="7">
-        <f t="shared" si="3"/>
-        <v>2.3219280948873622</v>
-      </c>
-      <c r="K55" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I55:Q55" si="19">IF(I25&lt;&gt;"",IF(I25=0,0,LOG(1/I25,2)),"")</f>
         <v>1.5849625007211563</v>
       </c>
+      <c r="J55" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="K55" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
       <c r="L55" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M55" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="N55" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O55" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P55" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="Q55" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -2686,43 +2704,43 @@
         <v>11</v>
       </c>
       <c r="H56" s="7">
-        <f t="shared" ref="H56:Q64" si="4">IF(H26&lt;&gt;"",IF(H26=0,0,LOG(1/H26,2)),"")</f>
-        <v>2.5849625007211561</v>
+        <f t="shared" ref="H56:Q64" si="20">IF(H26&lt;&gt;"",IF(H26=0,0,LOG(1/H26,2)),"")</f>
+        <v>0</v>
       </c>
       <c r="I56" s="7">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J56" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K56" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v>0.58496250072115619</v>
       </c>
+      <c r="J56" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="K56" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
       <c r="L56" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M56" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="N56" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O56" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P56" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q56" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -2731,44 +2749,44 @@
       <c r="G57" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H57" s="7">
-        <f t="shared" si="4"/>
-        <v>0.58496250072115619</v>
-      </c>
-      <c r="I57" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="7">
-        <f t="shared" si="4"/>
-        <v>0.32192809488736235</v>
-      </c>
-      <c r="K57" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
+      <c r="H57" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="I57" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="J57" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="K57" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v/>
       </c>
       <c r="L57" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M57" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="N57" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O57" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P57" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q57" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -2778,43 +2796,43 @@
         <v>13</v>
       </c>
       <c r="H58" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I58" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J58" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K58" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L58" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M58" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="N58" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O58" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P58" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q58" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -2824,43 +2842,43 @@
         <v>14</v>
       </c>
       <c r="H59" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I59" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J59" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K59" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L59" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M59" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="N59" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O59" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P59" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q59" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -2870,43 +2888,43 @@
         <v>15</v>
       </c>
       <c r="H60" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I60" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J60" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K60" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L60" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M60" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="N60" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O60" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P60" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q60" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -2916,43 +2934,43 @@
         <v>16</v>
       </c>
       <c r="H61" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I61" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J61" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K61" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L61" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M61" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="N61" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O61" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P61" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q61" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -2962,43 +2980,43 @@
         <v>17</v>
       </c>
       <c r="H62" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I62" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J62" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K62" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L62" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M62" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="N62" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O62" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P62" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q62" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -3008,43 +3026,43 @@
         <v>18</v>
       </c>
       <c r="H63" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I63" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J63" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K63" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L63" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M63" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="N63" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O63" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P63" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q63" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -3054,63 +3072,65 @@
         <v>19</v>
       </c>
       <c r="H64" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I64" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J64" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K64" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L64" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M64" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="N64" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O64" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P64" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q64" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="7:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G67" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="31"/>
+      <c r="G67" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
     </row>
     <row r="68" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G68" s="9"/>
+      <c r="G68" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="H68" s="5" t="s">
         <v>0</v>
       </c>
@@ -3148,42 +3168,42 @@
       </c>
       <c r="H69" s="7">
         <f>SUMPRODUCT(H25:H34,H55:H64)</f>
-        <v>1.2516291673878228</v>
+        <v>0</v>
       </c>
       <c r="I69" s="7">
-        <f t="shared" ref="I69:Q69" si="5">SUMPRODUCT(I25:I34,I55:I64)</f>
-        <v>1</v>
+        <f t="shared" ref="I69:Q69" si="21">SUMPRODUCT(I25:I34,I55:I64)</f>
+        <v>0.91829583405448956</v>
       </c>
       <c r="J69" s="7">
-        <f t="shared" si="5"/>
-        <v>0.72192809488736231</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="K69" s="7">
-        <f t="shared" si="5"/>
-        <v>0.91829583405448956</v>
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
       <c r="L69" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M69" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N69" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O69" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P69" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q69" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -3240,7 +3260,7 @@
       <c r="B4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="12" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3251,7 +3271,7 @@
       <c r="B5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="12">
         <f>LEN(SUBSTITUTE($B$4," ",""))</f>
         <v>26</v>
       </c>
@@ -3260,19 +3280,19 @@
       <c r="A6" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="12">
         <f>LEN(SUBSTITUTE($B$5," ",""))</f>
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
@@ -3624,15 +3644,15 @@
         <v>0</v>
       </c>
       <c r="C27" s="7">
-        <f>COUNTIF($K$20:$AJ$20,"="&amp;CONCATENATE(C$26,$B27))</f>
+        <f t="shared" ref="C27:E28" si="2">COUNTIF($K$20:$AJ$20,"="&amp;CONCATENATE(C$26,$B27))</f>
         <v>7</v>
       </c>
       <c r="D27" s="7">
-        <f>COUNTIF($K$20:$AJ$20,"="&amp;CONCATENATE(D$26,$B27))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E27" s="7">
-        <f>COUNTIF($K$20:$AJ$20,"="&amp;CONCATENATE(E$26,$B27))</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="G27" t="s">
@@ -3644,15 +3664,15 @@
         <v>1</v>
       </c>
       <c r="C28" s="7">
-        <f>COUNTIF($K$20:$AJ$20,"="&amp;CONCATENATE(C$26,$B28))</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="D28" s="7">
-        <f>COUNTIF($K$20:$AJ$20,"="&amp;CONCATENATE(D$26,$B28))</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E28" s="7">
-        <f>COUNTIF($K$20:$AJ$20,"="&amp;CONCATENATE(E$26,$B28))</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F28" s="7" t="s">
@@ -3668,11 +3688,11 @@
         <v>13</v>
       </c>
       <c r="D29" s="7">
-        <f t="shared" ref="D29:E29" si="2">SUM(D27:D28)</f>
+        <f t="shared" ref="D29:E29" si="3">SUM(D27:D28)</f>
         <v>5</v>
       </c>
       <c r="E29" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F29" s="3">
@@ -3708,11 +3728,11 @@
         <v>0.53846153846153844</v>
       </c>
       <c r="D33" s="7">
-        <f t="shared" ref="D33:E34" si="3">D27/D$29</f>
+        <f t="shared" ref="D33:E34" si="4">D27/D$29</f>
         <v>0.6</v>
       </c>
       <c r="E33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.625</v>
       </c>
     </row>
@@ -3725,11 +3745,11 @@
         <v>0.46153846153846156</v>
       </c>
       <c r="D34" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.4</v>
       </c>
       <c r="E34" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.375</v>
       </c>
     </row>
@@ -3855,13 +3875,13 @@
       </c>
     </row>
     <row r="17" spans="2:44" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
     </row>
     <row r="18" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
@@ -4295,7 +4315,7 @@
         <v>6</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" ref="D27:E28" si="10">COUNTIF($K$20:$AR$20,"="&amp;CONCATENATE(D$26,$B27))</f>
+        <f t="shared" ref="D27:D28" si="10">COUNTIF($K$20:$AR$20,"="&amp;CONCATENATE(D$26,$B27))</f>
         <v>5</v>
       </c>
       <c r="E27" s="7"/>
@@ -4329,7 +4349,7 @@
         <v>15</v>
       </c>
       <c r="D29" s="7">
-        <f t="shared" ref="D29:E29" si="11">SUM(D27:D28)</f>
+        <f t="shared" ref="D29" si="11">SUM(D27:D28)</f>
         <v>19</v>
       </c>
       <c r="E29" s="7"/>
@@ -4378,7 +4398,7 @@
         <v>0.6</v>
       </c>
       <c r="D34" s="7">
-        <f t="shared" ref="D33:E34" si="12">D28/D$29</f>
+        <f t="shared" ref="D34" si="12">D28/D$29</f>
         <v>0.73684210526315785</v>
       </c>
       <c r="E34" s="7"/>
@@ -4488,7 +4508,7 @@
       <c r="C4" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="19" t="str">
+      <c r="D4" s="13" t="str">
         <f>SUBSTITUTE(B4," ","")</f>
         <v>110101100110101100110101100111110011</v>
       </c>
@@ -4510,7 +4530,7 @@
       <c r="C5" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="19" t="str">
+      <c r="D5" s="13" t="str">
         <f>SUBSTITUTE(B5," ","")</f>
         <v>110021102110022010220121122100112011</v>
       </c>
@@ -4528,13 +4548,13 @@
       </c>
     </row>
     <row r="17" spans="2:46" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
@@ -5082,11 +5102,11 @@
         <v>0</v>
       </c>
       <c r="C34" s="7">
-        <f>C27/C$30</f>
+        <f t="shared" ref="C34:D36" si="15">C27/C$30</f>
         <v>0.42857142857142855</v>
       </c>
       <c r="D34" s="7">
-        <f>D27/D$30</f>
+        <f t="shared" si="15"/>
         <v>0.22727272727272727</v>
       </c>
       <c r="E34" s="7"/>
@@ -5096,11 +5116,11 @@
         <v>1</v>
       </c>
       <c r="C35" s="7">
-        <f>C28/C$30</f>
+        <f t="shared" si="15"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="D35" s="7">
-        <f>D28/D$30</f>
+        <f t="shared" si="15"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="E35" s="7"/>
@@ -5110,11 +5130,11 @@
         <v>2</v>
       </c>
       <c r="C36" s="7">
-        <f>C29/C$30</f>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="D36" s="7">
-        <f>D29/D$30</f>
+        <f t="shared" si="15"/>
         <v>0.13636363636363635</v>
       </c>
     </row>
@@ -5200,25 +5220,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="E3" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -5554,7 +5574,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B15" s="3">
@@ -5563,62 +5583,62 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
     </row>
     <row r="17" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="5">
-        <f>SUMPRODUCT(F5:F14,$B$5:$B$14)</f>
+        <f t="shared" ref="F17:O17" si="2">SUMPRODUCT(F5:F14,$B$5:$B$14)</f>
         <v>0.30557792207792206</v>
       </c>
       <c r="G17" s="5">
-        <f>SUMPRODUCT(G5:G14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0.41660389610389609</v>
       </c>
       <c r="H17" s="5">
-        <f>SUMPRODUCT(H5:H14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0.2778181818181818</v>
       </c>
       <c r="I17" s="5">
-        <f>SUMPRODUCT(I5:I14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J17" s="5">
-        <f>SUMPRODUCT(J5:J14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K17" s="5">
-        <f>SUMPRODUCT(K5:K14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L17" s="5">
-        <f>SUMPRODUCT(L5:L14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M17" s="5">
-        <f>SUMPRODUCT(M5:M14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N17" s="5">
-        <f>SUMPRODUCT(N5:N14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O17" s="5">
-        <f>SUMPRODUCT(O5:O14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5694,60 +5714,60 @@
       </c>
     </row>
     <row r="21" spans="5:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
       <c r="S21" s="6" t="s">
         <v>0</v>
       </c>
       <c r="T21" s="7">
-        <f t="shared" ref="T21:AC21" si="2">IF(OR(T$19=0,F5=""),"",F5*T$19)</f>
+        <f t="shared" ref="T21:AC21" si="3">IF(OR(T$19=0,F5=""),"",F5*T$19)</f>
         <v>0.1667142857142857</v>
       </c>
       <c r="U21" s="7">
-        <f>IF(OR(U$19=0,G5=""),"",G5*U$19)</f>
+        <f t="shared" ref="U21:U30" si="4">IF(OR(U$19=0,G5=""),"",G5*U$19)</f>
         <v>4.3642857142857143E-2</v>
       </c>
       <c r="V21" s="7" t="str">
-        <f>IF(OR(V$19=0,H5=""),"",H5*V$19)</f>
+        <f t="shared" ref="V21:V30" si="5">IF(OR(V$19=0,H5=""),"",H5*V$19)</f>
         <v/>
       </c>
       <c r="W21" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="X21" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Y21" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Z21" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AA21" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AB21" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AC21" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -5789,43 +5809,43 @@
         <v>1</v>
       </c>
       <c r="T22" s="7">
-        <f>IF(OR(T$19=0,F6=""),"",F6*T$19)</f>
+        <f t="shared" ref="T22:T30" si="6">IF(OR(T$19=0,F6=""),"",F6*T$19)</f>
         <v>8.8409090909090909E-2</v>
       </c>
       <c r="U22" s="7">
-        <f>IF(OR(U$19=0,G6=""),"",G6*U$19)</f>
+        <f t="shared" si="4"/>
         <v>0.38881818181818179</v>
       </c>
       <c r="V22" s="7" t="str">
-        <f>IF(OR(V$19=0,H6=""),"",H6*V$19)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W22" s="7" t="str">
-        <f>IF(OR(W$19=0,I6=""),"",I6*W$19)</f>
+        <f t="shared" ref="W22:W30" si="7">IF(OR(W$19=0,I6=""),"",I6*W$19)</f>
         <v/>
       </c>
       <c r="X22" s="7" t="str">
-        <f>IF(OR(X$19=0,J6=""),"",J6*X$19)</f>
+        <f t="shared" ref="X22:X30" si="8">IF(OR(X$19=0,J6=""),"",J6*X$19)</f>
         <v/>
       </c>
       <c r="Y22" s="7" t="str">
-        <f>IF(OR(Y$19=0,K6=""),"",K6*Y$19)</f>
+        <f t="shared" ref="Y22:Y30" si="9">IF(OR(Y$19=0,K6=""),"",K6*Y$19)</f>
         <v/>
       </c>
       <c r="Z22" s="7" t="str">
-        <f>IF(OR(Z$19=0,L6=""),"",L6*Z$19)</f>
+        <f t="shared" ref="Z22:Z30" si="10">IF(OR(Z$19=0,L6=""),"",L6*Z$19)</f>
         <v/>
       </c>
       <c r="AA22" s="7" t="str">
-        <f>IF(OR(AA$19=0,M6=""),"",M6*AA$19)</f>
+        <f t="shared" ref="AA22:AA30" si="11">IF(OR(AA$19=0,M6=""),"",M6*AA$19)</f>
         <v/>
       </c>
       <c r="AB22" s="7" t="str">
-        <f>IF(OR(AB$19=0,N6=""),"",N6*AB$19)</f>
+        <f t="shared" ref="AB22:AB30" si="12">IF(OR(AB$19=0,N6=""),"",N6*AB$19)</f>
         <v/>
       </c>
       <c r="AC22" s="7" t="str">
-        <f>IF(OR(AC$19=0,O6=""),"",O6*AC$19)</f>
+        <f t="shared" ref="AC22:AC30" si="13">IF(OR(AC$19=0,O6=""),"",O6*AC$19)</f>
         <v/>
       </c>
     </row>
@@ -5834,86 +5854,86 @@
         <v>10</v>
       </c>
       <c r="F23" s="7">
-        <f>IF(OR($B5=0,F$17=0),"",F5/F$17*$B5)</f>
+        <f t="shared" ref="F23:O23" si="14">IF(OR($B5=0,F$17=0),"",F5/F$17*$B5)</f>
         <v>0.54557045411079708</v>
       </c>
       <c r="G23" s="7">
-        <f>IF(OR($B5=0,G$17=0),"",G5/G$17*$B5)</f>
+        <f t="shared" si="14"/>
         <v>6.6695761958944472E-2</v>
       </c>
       <c r="H23" s="7">
-        <f>IF(OR($B5=0,H$17=0),"",H5/H$17*$B5)</f>
+        <f t="shared" si="14"/>
         <v>0.70009816753926712</v>
       </c>
       <c r="I23" s="7" t="str">
-        <f>IF(OR($B5=0,I$17=0),"",I5/I$17*$B5)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J23" s="7" t="str">
-        <f>IF(OR($B5=0,J$17=0),"",J5/J$17*$B5)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K23" s="7" t="str">
-        <f>IF(OR($B5=0,K$17=0),"",K5/K$17*$B5)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L23" s="7" t="str">
-        <f>IF(OR($B5=0,L$17=0),"",L5/L$17*$B5)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M23" s="7" t="str">
-        <f>IF(OR($B5=0,M$17=0),"",M5/M$17*$B5)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N23" s="7" t="str">
-        <f>IF(OR($B5=0,N$17=0),"",N5/N$17*$B5)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="O23" s="7" t="str">
-        <f>IF(OR($B5=0,O$17=0),"",O5/O$17*$B5)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="S23" s="5" t="s">
         <v>2</v>
       </c>
       <c r="T23" s="7" t="str">
-        <f>IF(OR(T$19=0,F7=""),"",F7*T$19)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U23" s="7" t="str">
-        <f>IF(OR(U$19=0,G7=""),"",G7*U$19)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V23" s="7" t="str">
-        <f>IF(OR(V$19=0,H7=""),"",H7*V$19)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W23" s="7" t="str">
-        <f>IF(OR(W$19=0,I7=""),"",I7*W$19)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X23" s="7" t="str">
-        <f>IF(OR(X$19=0,J7=""),"",J7*X$19)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y23" s="7" t="str">
-        <f>IF(OR(Y$19=0,K7=""),"",K7*Y$19)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z23" s="7" t="str">
-        <f>IF(OR(Z$19=0,L7=""),"",L7*Z$19)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AA23" s="7" t="str">
-        <f>IF(OR(AA$19=0,M7=""),"",M7*AA$19)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB23" s="7" t="str">
-        <f>IF(OR(AB$19=0,N7=""),"",N7*AB$19)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC23" s="7" t="str">
-        <f>IF(OR(AC$19=0,O7=""),"",O7*AC$19)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -5922,86 +5942,86 @@
         <v>11</v>
       </c>
       <c r="F24" s="7">
-        <f>IF(OR($B6=0,F$17=0),"",F6/F$17*$B6)</f>
+        <f t="shared" ref="F24:O24" si="15">IF(OR($B6=0,F$17=0),"",F6/F$17*$B6)</f>
         <v>0.45442954588920287</v>
       </c>
       <c r="G24" s="7">
-        <f>IF(OR($B6=0,G$17=0),"",G6/G$17*$B6)</f>
+        <f t="shared" si="15"/>
         <v>0.93330423804105556</v>
       </c>
       <c r="H24" s="7">
-        <f>IF(OR($B6=0,H$17=0),"",H6/H$17*$B6)</f>
+        <f t="shared" si="15"/>
         <v>0.29990183246073299</v>
       </c>
       <c r="I24" s="7" t="str">
-        <f>IF(OR($B6=0,I$17=0),"",I6/I$17*$B6)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="J24" s="7" t="str">
-        <f>IF(OR($B6=0,J$17=0),"",J6/J$17*$B6)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K24" s="7" t="str">
-        <f>IF(OR($B6=0,K$17=0),"",K6/K$17*$B6)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L24" s="7" t="str">
-        <f>IF(OR($B6=0,L$17=0),"",L6/L$17*$B6)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M24" s="7" t="str">
-        <f>IF(OR($B6=0,M$17=0),"",M6/M$17*$B6)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N24" s="7" t="str">
-        <f>IF(OR($B6=0,N$17=0),"",N6/N$17*$B6)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O24" s="7" t="str">
-        <f>IF(OR($B6=0,O$17=0),"",O6/O$17*$B6)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="S24" s="6" t="s">
         <v>3</v>
       </c>
       <c r="T24" s="7" t="str">
-        <f>IF(OR(T$19=0,F8=""),"",F8*T$19)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U24" s="7" t="str">
-        <f>IF(OR(U$19=0,G8=""),"",G8*U$19)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V24" s="7" t="str">
-        <f>IF(OR(V$19=0,H8=""),"",H8*V$19)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W24" s="7" t="str">
-        <f>IF(OR(W$19=0,I8=""),"",I8*W$19)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X24" s="7" t="str">
-        <f>IF(OR(X$19=0,J8=""),"",J8*X$19)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y24" s="7" t="str">
-        <f>IF(OR(Y$19=0,K8=""),"",K8*Y$19)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z24" s="7" t="str">
-        <f>IF(OR(Z$19=0,L8=""),"",L8*Z$19)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AA24" s="7" t="str">
-        <f>IF(OR(AA$19=0,M8=""),"",M8*AA$19)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB24" s="7" t="str">
-        <f>IF(OR(AB$19=0,N8=""),"",N8*AB$19)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC24" s="7" t="str">
-        <f>IF(OR(AC$19=0,O8=""),"",O8*AC$19)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -6010,86 +6030,86 @@
         <v>12</v>
       </c>
       <c r="F25" s="7" t="str">
-        <f>IF(OR($B7=0,F$17=0),"",F7/F$17*$B7)</f>
+        <f t="shared" ref="F25:O25" si="16">IF(OR($B7=0,F$17=0),"",F7/F$17*$B7)</f>
         <v/>
       </c>
       <c r="G25" s="7" t="str">
-        <f>IF(OR($B7=0,G$17=0),"",G7/G$17*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H25" s="7" t="str">
-        <f>IF(OR($B7=0,H$17=0),"",H7/H$17*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I25" s="7" t="str">
-        <f>IF(OR($B7=0,I$17=0),"",I7/I$17*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J25" s="7" t="str">
-        <f>IF(OR($B7=0,J$17=0),"",J7/J$17*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K25" s="7" t="str">
-        <f>IF(OR($B7=0,K$17=0),"",K7/K$17*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L25" s="7" t="str">
-        <f>IF(OR($B7=0,L$17=0),"",L7/L$17*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M25" s="7" t="str">
-        <f>IF(OR($B7=0,M$17=0),"",M7/M$17*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N25" s="7" t="str">
-        <f>IF(OR($B7=0,N$17=0),"",N7/N$17*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O25" s="7" t="str">
-        <f>IF(OR($B7=0,O$17=0),"",O7/O$17*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="S25" s="5" t="s">
         <v>4</v>
       </c>
       <c r="T25" s="7" t="str">
-        <f>IF(OR(T$19=0,F9=""),"",F9*T$19)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U25" s="7" t="str">
-        <f>IF(OR(U$19=0,G9=""),"",G9*U$19)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V25" s="7" t="str">
-        <f>IF(OR(V$19=0,H9=""),"",H9*V$19)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W25" s="7" t="str">
-        <f>IF(OR(W$19=0,I9=""),"",I9*W$19)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X25" s="7" t="str">
-        <f>IF(OR(X$19=0,J9=""),"",J9*X$19)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y25" s="7" t="str">
-        <f>IF(OR(Y$19=0,K9=""),"",K9*Y$19)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z25" s="7" t="str">
-        <f>IF(OR(Z$19=0,L9=""),"",L9*Z$19)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AA25" s="7" t="str">
-        <f>IF(OR(AA$19=0,M9=""),"",M9*AA$19)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB25" s="7" t="str">
-        <f>IF(OR(AB$19=0,N9=""),"",N9*AB$19)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC25" s="7" t="str">
-        <f>IF(OR(AC$19=0,O9=""),"",O9*AC$19)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -6098,86 +6118,86 @@
         <v>13</v>
       </c>
       <c r="F26" s="7" t="str">
-        <f>IF(OR($B8=0,F$17=0),"",F8/F$17*$B8)</f>
+        <f t="shared" ref="F26:O26" si="17">IF(OR($B8=0,F$17=0),"",F8/F$17*$B8)</f>
         <v/>
       </c>
       <c r="G26" s="7" t="str">
-        <f>IF(OR($B8=0,G$17=0),"",G8/G$17*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H26" s="7" t="str">
-        <f>IF(OR($B8=0,H$17=0),"",H8/H$17*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I26" s="7" t="str">
-        <f>IF(OR($B8=0,I$17=0),"",I8/I$17*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J26" s="7" t="str">
-        <f>IF(OR($B8=0,J$17=0),"",J8/J$17*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="K26" s="7" t="str">
-        <f>IF(OR($B8=0,K$17=0),"",K8/K$17*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L26" s="7" t="str">
-        <f>IF(OR($B8=0,L$17=0),"",L8/L$17*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="M26" s="7" t="str">
-        <f>IF(OR($B8=0,M$17=0),"",M8/M$17*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N26" s="7" t="str">
-        <f>IF(OR($B8=0,N$17=0),"",N8/N$17*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="O26" s="7" t="str">
-        <f>IF(OR($B8=0,O$17=0),"",O8/O$17*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="T26" s="7" t="str">
-        <f>IF(OR(T$19=0,F10=""),"",F10*T$19)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U26" s="7" t="str">
-        <f>IF(OR(U$19=0,G10=""),"",G10*U$19)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V26" s="7" t="str">
-        <f>IF(OR(V$19=0,H10=""),"",H10*V$19)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W26" s="7" t="str">
-        <f>IF(OR(W$19=0,I10=""),"",I10*W$19)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X26" s="7" t="str">
-        <f>IF(OR(X$19=0,J10=""),"",J10*X$19)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y26" s="7" t="str">
-        <f>IF(OR(Y$19=0,K10=""),"",K10*Y$19)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z26" s="7" t="str">
-        <f>IF(OR(Z$19=0,L10=""),"",L10*Z$19)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AA26" s="7" t="str">
-        <f>IF(OR(AA$19=0,M10=""),"",M10*AA$19)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB26" s="7" t="str">
-        <f>IF(OR(AB$19=0,N10=""),"",N10*AB$19)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC26" s="7" t="str">
-        <f>IF(OR(AC$19=0,O10=""),"",O10*AC$19)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -6186,86 +6206,86 @@
         <v>14</v>
       </c>
       <c r="F27" s="7" t="str">
-        <f>IF(OR($B9=0,F$17=0),"",F9/F$17*$B9)</f>
+        <f t="shared" ref="F27:O27" si="18">IF(OR($B9=0,F$17=0),"",F9/F$17*$B9)</f>
         <v/>
       </c>
       <c r="G27" s="7" t="str">
-        <f>IF(OR($B9=0,G$17=0),"",G9/G$17*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H27" s="7" t="str">
-        <f>IF(OR($B9=0,H$17=0),"",H9/H$17*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I27" s="7" t="str">
-        <f>IF(OR($B9=0,I$17=0),"",I9/I$17*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J27" s="7" t="str">
-        <f>IF(OR($B9=0,J$17=0),"",J9/J$17*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K27" s="7" t="str">
-        <f>IF(OR($B9=0,K$17=0),"",K9/K$17*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L27" s="7" t="str">
-        <f>IF(OR($B9=0,L$17=0),"",L9/L$17*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M27" s="7" t="str">
-        <f>IF(OR($B9=0,M$17=0),"",M9/M$17*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N27" s="7" t="str">
-        <f>IF(OR($B9=0,N$17=0),"",N9/N$17*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O27" s="7" t="str">
-        <f>IF(OR($B9=0,O$17=0),"",O9/O$17*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S27" s="5" t="s">
         <v>6</v>
       </c>
       <c r="T27" s="7" t="str">
-        <f>IF(OR(T$19=0,F11=""),"",F11*T$19)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U27" s="7" t="str">
-        <f>IF(OR(U$19=0,G11=""),"",G11*U$19)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V27" s="7" t="str">
-        <f>IF(OR(V$19=0,H11=""),"",H11*V$19)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W27" s="7" t="str">
-        <f>IF(OR(W$19=0,I11=""),"",I11*W$19)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X27" s="7" t="str">
-        <f>IF(OR(X$19=0,J11=""),"",J11*X$19)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y27" s="7" t="str">
-        <f>IF(OR(Y$19=0,K11=""),"",K11*Y$19)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z27" s="7" t="str">
-        <f>IF(OR(Z$19=0,L11=""),"",L11*Z$19)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AA27" s="7" t="str">
-        <f>IF(OR(AA$19=0,M11=""),"",M11*AA$19)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB27" s="7" t="str">
-        <f>IF(OR(AB$19=0,N11=""),"",N11*AB$19)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC27" s="7" t="str">
-        <f>IF(OR(AC$19=0,O11=""),"",O11*AC$19)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -6274,86 +6294,86 @@
         <v>15</v>
       </c>
       <c r="F28" s="7" t="str">
-        <f>IF(OR($B10=0,F$17=0),"",F10/F$17*$B10)</f>
+        <f t="shared" ref="F28:O28" si="19">IF(OR($B10=0,F$17=0),"",F10/F$17*$B10)</f>
         <v/>
       </c>
       <c r="G28" s="7" t="str">
-        <f>IF(OR($B10=0,G$17=0),"",G10/G$17*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H28" s="7" t="str">
-        <f>IF(OR($B10=0,H$17=0),"",H10/H$17*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I28" s="7" t="str">
-        <f>IF(OR($B10=0,I$17=0),"",I10/I$17*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="J28" s="7" t="str">
-        <f>IF(OR($B10=0,J$17=0),"",J10/J$17*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K28" s="7" t="str">
-        <f>IF(OR($B10=0,K$17=0),"",K10/K$17*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L28" s="7" t="str">
-        <f>IF(OR($B10=0,L$17=0),"",L10/L$17*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M28" s="7" t="str">
-        <f>IF(OR($B10=0,M$17=0),"",M10/M$17*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="N28" s="7" t="str">
-        <f>IF(OR($B10=0,N$17=0),"",N10/N$17*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O28" s="7" t="str">
-        <f>IF(OR($B10=0,O$17=0),"",O10/O$17*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="S28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="T28" s="7" t="str">
-        <f>IF(OR(T$19=0,F12=""),"",F12*T$19)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U28" s="7" t="str">
-        <f>IF(OR(U$19=0,G12=""),"",G12*U$19)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V28" s="7" t="str">
-        <f>IF(OR(V$19=0,H12=""),"",H12*V$19)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W28" s="7" t="str">
-        <f>IF(OR(W$19=0,I12=""),"",I12*W$19)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X28" s="7" t="str">
-        <f>IF(OR(X$19=0,J12=""),"",J12*X$19)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y28" s="7" t="str">
-        <f>IF(OR(Y$19=0,K12=""),"",K12*Y$19)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z28" s="7" t="str">
-        <f>IF(OR(Z$19=0,L12=""),"",L12*Z$19)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AA28" s="7" t="str">
-        <f>IF(OR(AA$19=0,M12=""),"",M12*AA$19)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB28" s="7" t="str">
-        <f>IF(OR(AB$19=0,N12=""),"",N12*AB$19)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC28" s="7" t="str">
-        <f>IF(OR(AC$19=0,O12=""),"",O12*AC$19)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -6362,86 +6382,86 @@
         <v>16</v>
       </c>
       <c r="F29" s="7" t="str">
-        <f>IF(OR($B11=0,F$17=0),"",F11/F$17*$B11)</f>
+        <f t="shared" ref="F29:O29" si="20">IF(OR($B11=0,F$17=0),"",F11/F$17*$B11)</f>
         <v/>
       </c>
       <c r="G29" s="7" t="str">
-        <f>IF(OR($B11=0,G$17=0),"",G11/G$17*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="H29" s="7" t="str">
-        <f>IF(OR($B11=0,H$17=0),"",H11/H$17*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I29" s="7" t="str">
-        <f>IF(OR($B11=0,I$17=0),"",I11/I$17*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J29" s="7" t="str">
-        <f>IF(OR($B11=0,J$17=0),"",J11/J$17*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K29" s="7" t="str">
-        <f>IF(OR($B11=0,K$17=0),"",K11/K$17*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L29" s="7" t="str">
-        <f>IF(OR($B11=0,L$17=0),"",L11/L$17*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M29" s="7" t="str">
-        <f>IF(OR($B11=0,M$17=0),"",M11/M$17*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="N29" s="7" t="str">
-        <f>IF(OR($B11=0,N$17=0),"",N11/N$17*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O29" s="7" t="str">
-        <f>IF(OR($B11=0,O$17=0),"",O11/O$17*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="S29" s="5" t="s">
         <v>8</v>
       </c>
       <c r="T29" s="7" t="str">
-        <f>IF(OR(T$19=0,F13=""),"",F13*T$19)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U29" s="7" t="str">
-        <f>IF(OR(U$19=0,G13=""),"",G13*U$19)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V29" s="7" t="str">
-        <f>IF(OR(V$19=0,H13=""),"",H13*V$19)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W29" s="7" t="str">
-        <f>IF(OR(W$19=0,I13=""),"",I13*W$19)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X29" s="7" t="str">
-        <f>IF(OR(X$19=0,J13=""),"",J13*X$19)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y29" s="7" t="str">
-        <f>IF(OR(Y$19=0,K13=""),"",K13*Y$19)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z29" s="7" t="str">
-        <f>IF(OR(Z$19=0,L13=""),"",L13*Z$19)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AA29" s="7" t="str">
-        <f>IF(OR(AA$19=0,M13=""),"",M13*AA$19)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB29" s="7" t="str">
-        <f>IF(OR(AB$19=0,N13=""),"",N13*AB$19)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC29" s="7" t="str">
-        <f>IF(OR(AC$19=0,O13=""),"",O13*AC$19)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -6450,86 +6470,86 @@
         <v>17</v>
       </c>
       <c r="F30" s="7" t="str">
-        <f>IF(OR($B12=0,F$17=0),"",F12/F$17*$B12)</f>
+        <f t="shared" ref="F30:O30" si="21">IF(OR($B12=0,F$17=0),"",F12/F$17*$B12)</f>
         <v/>
       </c>
       <c r="G30" s="7" t="str">
-        <f>IF(OR($B12=0,G$17=0),"",G12/G$17*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="H30" s="7" t="str">
-        <f>IF(OR($B12=0,H$17=0),"",H12/H$17*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="I30" s="7" t="str">
-        <f>IF(OR($B12=0,I$17=0),"",I12/I$17*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J30" s="7" t="str">
-        <f>IF(OR($B12=0,J$17=0),"",J12/J$17*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K30" s="7" t="str">
-        <f>IF(OR($B12=0,K$17=0),"",K12/K$17*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="L30" s="7" t="str">
-        <f>IF(OR($B12=0,L$17=0),"",L12/L$17*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M30" s="7" t="str">
-        <f>IF(OR($B12=0,M$17=0),"",M12/M$17*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N30" s="7" t="str">
-        <f>IF(OR($B12=0,N$17=0),"",N12/N$17*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O30" s="7" t="str">
-        <f>IF(OR($B12=0,O$17=0),"",O12/O$17*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S30" s="5" t="s">
         <v>9</v>
       </c>
       <c r="T30" s="7" t="str">
-        <f>IF(OR(T$19=0,F14=""),"",F14*T$19)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U30" s="7" t="str">
-        <f>IF(OR(U$19=0,G14=""),"",G14*U$19)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V30" s="7" t="str">
-        <f>IF(OR(V$19=0,H14=""),"",H14*V$19)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W30" s="7" t="str">
-        <f>IF(OR(W$19=0,I14=""),"",I14*W$19)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X30" s="7" t="str">
-        <f>IF(OR(X$19=0,J14=""),"",J14*X$19)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y30" s="7" t="str">
-        <f>IF(OR(Y$19=0,K14=""),"",K14*Y$19)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z30" s="7" t="str">
-        <f>IF(OR(Z$19=0,L14=""),"",L14*Z$19)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AA30" s="7" t="str">
-        <f>IF(OR(AA$19=0,M14=""),"",M14*AA$19)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB30" s="7" t="str">
-        <f>IF(OR(AB$19=0,N14=""),"",N14*AB$19)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC30" s="7" t="str">
-        <f>IF(OR(AC$19=0,O14=""),"",O14*AC$19)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -6538,43 +6558,43 @@
         <v>18</v>
       </c>
       <c r="F31" s="7" t="str">
-        <f>IF(OR($B13=0,F$17=0),"",F13/F$17*$B13)</f>
+        <f t="shared" ref="F31:O31" si="22">IF(OR($B13=0,F$17=0),"",F13/F$17*$B13)</f>
         <v/>
       </c>
       <c r="G31" s="7" t="str">
-        <f>IF(OR($B13=0,G$17=0),"",G13/G$17*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H31" s="7" t="str">
-        <f>IF(OR($B13=0,H$17=0),"",H13/H$17*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I31" s="7" t="str">
-        <f>IF(OR($B13=0,I$17=0),"",I13/I$17*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="J31" s="7" t="str">
-        <f>IF(OR($B13=0,J$17=0),"",J13/J$17*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="K31" s="7" t="str">
-        <f>IF(OR($B13=0,K$17=0),"",K13/K$17*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="L31" s="7" t="str">
-        <f>IF(OR($B13=0,L$17=0),"",L13/L$17*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="M31" s="7" t="str">
-        <f>IF(OR($B13=0,M$17=0),"",M13/M$17*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="N31" s="7" t="str">
-        <f>IF(OR($B13=0,N$17=0),"",N13/N$17*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O31" s="7" t="str">
-        <f>IF(OR($B13=0,O$17=0),"",O13/O$17*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -6583,43 +6603,43 @@
         <v>19</v>
       </c>
       <c r="F32" s="7" t="str">
-        <f>IF(OR($B14=0,F$17=0),"",F14/F$17*$B14)</f>
+        <f t="shared" ref="F32:O32" si="23">IF(OR($B14=0,F$17=0),"",F14/F$17*$B14)</f>
         <v/>
       </c>
       <c r="G32" s="7" t="str">
-        <f>IF(OR($B14=0,G$17=0),"",G14/G$17*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H32" s="7" t="str">
-        <f>IF(OR($B14=0,H$17=0),"",H14/H$17*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I32" s="7" t="str">
-        <f>IF(OR($B14=0,I$17=0),"",I14/I$17*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="J32" s="7" t="str">
-        <f>IF(OR($B14=0,J$17=0),"",J14/J$17*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="K32" s="7" t="str">
-        <f>IF(OR($B14=0,K$17=0),"",K14/K$17*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="L32" s="7" t="str">
-        <f>IF(OR($B14=0,L$17=0),"",L14/L$17*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="M32" s="7" t="str">
-        <f>IF(OR($B14=0,M$17=0),"",M14/M$17*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="N32" s="7" t="str">
-        <f>IF(OR($B14=0,N$17=0),"",N14/N$17*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O32" s="7" t="str">
-        <f>IF(OR($B14=0,O$17=0),"",O14/O$17*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -6632,39 +6652,39 @@
         <v>1</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" ref="G33:O33" si="3">IF(SUM(G23:G32)=0,1,SUM(G23:G32))</f>
+        <f t="shared" ref="G33:O33" si="24">IF(SUM(G23:G32)=0,1,SUM(G23:G32))</f>
         <v>1</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="O33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
@@ -6733,25 +6753,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="E3" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -7083,7 +7103,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B15" s="3">
@@ -7092,62 +7112,62 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
     </row>
     <row r="17" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="5">
-        <f>SUMPRODUCT(F5:F14,$B$5:$B$14)</f>
+        <f t="shared" ref="F17:O17" si="2">SUMPRODUCT(F5:F14,$B$5:$B$14)</f>
         <v>0.32350526315789474</v>
       </c>
       <c r="G17" s="5">
-        <f>SUMPRODUCT(G5:G14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0.67649473684210526</v>
       </c>
       <c r="H17" s="5">
-        <f>SUMPRODUCT(H5:H14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I17" s="5">
-        <f>SUMPRODUCT(I5:I14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J17" s="5">
-        <f>SUMPRODUCT(J5:J14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K17" s="5">
-        <f>SUMPRODUCT(K5:K14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L17" s="5">
-        <f>SUMPRODUCT(L5:L14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M17" s="5">
-        <f>SUMPRODUCT(M5:M14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N17" s="5">
-        <f>SUMPRODUCT(N5:N14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O17" s="5">
-        <f>SUMPRODUCT(O5:O14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -7223,60 +7243,60 @@
       </c>
     </row>
     <row r="21" spans="5:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E21" s="22" t="s">
+      <c r="E21" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
       <c r="S21" s="6" t="s">
         <v>0</v>
       </c>
       <c r="T21" s="7">
-        <f t="shared" ref="T21:AC21" si="2">IF(OR(T$19=0,F5=""),"",F5*T$19)</f>
+        <f t="shared" ref="T21:AC21" si="3">IF(OR(T$19=0,F5=""),"",F5*T$19)</f>
         <v>0.1764</v>
       </c>
       <c r="U21" s="7">
-        <f>IF(OR(U$19=0,G5=""),"",G5*U$19)</f>
+        <f t="shared" ref="U21:U30" si="4">IF(OR(U$19=0,G5=""),"",G5*U$19)</f>
         <v>0.33540000000000003</v>
       </c>
       <c r="V21" s="7" t="str">
-        <f>IF(OR(V$19=0,H5=""),"",H5*V$19)</f>
+        <f t="shared" ref="V21:V30" si="5">IF(OR(V$19=0,H5=""),"",H5*V$19)</f>
         <v/>
       </c>
       <c r="W21" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="X21" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Y21" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Z21" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AA21" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AB21" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="AC21" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -7318,43 +7338,43 @@
         <v>1</v>
       </c>
       <c r="T22" s="7">
-        <f>IF(OR(T$19=0,F6=""),"",F6*T$19)</f>
+        <f t="shared" ref="T22:T30" si="6">IF(OR(T$19=0,F6=""),"",F6*T$19)</f>
         <v>0.11605263157894737</v>
       </c>
       <c r="U22" s="7">
-        <f>IF(OR(U$19=0,G6=""),"",G6*U$19)</f>
+        <f t="shared" si="4"/>
         <v>0.41189473684210526</v>
       </c>
       <c r="V22" s="7" t="str">
-        <f>IF(OR(V$19=0,H6=""),"",H6*V$19)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W22" s="7" t="str">
-        <f>IF(OR(W$19=0,I6=""),"",I6*W$19)</f>
+        <f t="shared" ref="W22:W30" si="7">IF(OR(W$19=0,I6=""),"",I6*W$19)</f>
         <v/>
       </c>
       <c r="X22" s="7" t="str">
-        <f>IF(OR(X$19=0,J6=""),"",J6*X$19)</f>
+        <f t="shared" ref="X22:X30" si="8">IF(OR(X$19=0,J6=""),"",J6*X$19)</f>
         <v/>
       </c>
       <c r="Y22" s="7" t="str">
-        <f>IF(OR(Y$19=0,K6=""),"",K6*Y$19)</f>
+        <f t="shared" ref="Y22:Y30" si="9">IF(OR(Y$19=0,K6=""),"",K6*Y$19)</f>
         <v/>
       </c>
       <c r="Z22" s="7" t="str">
-        <f>IF(OR(Z$19=0,L6=""),"",L6*Z$19)</f>
+        <f t="shared" ref="Z22:Z30" si="10">IF(OR(Z$19=0,L6=""),"",L6*Z$19)</f>
         <v/>
       </c>
       <c r="AA22" s="7" t="str">
-        <f>IF(OR(AA$19=0,M6=""),"",M6*AA$19)</f>
+        <f t="shared" ref="AA22:AA30" si="11">IF(OR(AA$19=0,M6=""),"",M6*AA$19)</f>
         <v/>
       </c>
       <c r="AB22" s="7" t="str">
-        <f>IF(OR(AB$19=0,N6=""),"",N6*AB$19)</f>
+        <f t="shared" ref="AB22:AB30" si="12">IF(OR(AB$19=0,N6=""),"",N6*AB$19)</f>
         <v/>
       </c>
       <c r="AC22" s="7" t="str">
-        <f>IF(OR(AC$19=0,O6=""),"",O6*AC$19)</f>
+        <f t="shared" ref="AC22:AC30" si="13">IF(OR(AC$19=0,O6=""),"",O6*AC$19)</f>
         <v/>
       </c>
     </row>
@@ -7363,86 +7383,86 @@
         <v>10</v>
       </c>
       <c r="F23" s="7">
-        <f>IF(OR($B5=0,F$17=0),"",F5/F$17*$B5)</f>
+        <f t="shared" ref="F23:O23" si="14">IF(OR($B5=0,F$17=0),"",F5/F$17*$B5)</f>
         <v>0.5452770637425568</v>
       </c>
       <c r="G23" s="7">
-        <f>IF(OR($B5=0,G$17=0),"",G5/G$17*$B5)</f>
+        <f t="shared" si="14"/>
         <v>0.39113386341357148</v>
       </c>
       <c r="H23" s="7" t="str">
-        <f>IF(OR($B5=0,H$17=0),"",H5/H$17*$B5)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="I23" s="7" t="str">
-        <f>IF(OR($B5=0,I$17=0),"",I5/I$17*$B5)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J23" s="7" t="str">
-        <f>IF(OR($B5=0,J$17=0),"",J5/J$17*$B5)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K23" s="7" t="str">
-        <f>IF(OR($B5=0,K$17=0),"",K5/K$17*$B5)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L23" s="7" t="str">
-        <f>IF(OR($B5=0,L$17=0),"",L5/L$17*$B5)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M23" s="7" t="str">
-        <f>IF(OR($B5=0,M$17=0),"",M5/M$17*$B5)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N23" s="7" t="str">
-        <f>IF(OR($B5=0,N$17=0),"",N5/N$17*$B5)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="O23" s="7" t="str">
-        <f>IF(OR($B5=0,O$17=0),"",O5/O$17*$B5)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="S23" s="5" t="s">
         <v>2</v>
       </c>
       <c r="T23" s="7" t="str">
-        <f>IF(OR(T$19=0,F7=""),"",F7*T$19)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U23" s="7" t="str">
-        <f>IF(OR(U$19=0,G7=""),"",G7*U$19)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V23" s="7" t="str">
-        <f>IF(OR(V$19=0,H7=""),"",H7*V$19)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W23" s="7" t="str">
-        <f>IF(OR(W$19=0,I7=""),"",I7*W$19)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X23" s="7" t="str">
-        <f>IF(OR(X$19=0,J7=""),"",J7*X$19)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y23" s="7" t="str">
-        <f>IF(OR(Y$19=0,K7=""),"",K7*Y$19)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z23" s="7" t="str">
-        <f>IF(OR(Z$19=0,L7=""),"",L7*Z$19)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AA23" s="7" t="str">
-        <f>IF(OR(AA$19=0,M7=""),"",M7*AA$19)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB23" s="7" t="str">
-        <f>IF(OR(AB$19=0,N7=""),"",N7*AB$19)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC23" s="7" t="str">
-        <f>IF(OR(AC$19=0,O7=""),"",O7*AC$19)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7451,86 +7471,86 @@
         <v>11</v>
       </c>
       <c r="F24" s="7">
-        <f>IF(OR($B6=0,F$17=0),"",F6/F$17*$B6)</f>
+        <f t="shared" ref="F24:O24" si="15">IF(OR($B6=0,F$17=0),"",F6/F$17*$B6)</f>
         <v>0.45472293625744314</v>
       </c>
       <c r="G24" s="7">
-        <f>IF(OR($B6=0,G$17=0),"",G6/G$17*$B6)</f>
+        <f t="shared" si="15"/>
         <v>0.60886613658642852</v>
       </c>
       <c r="H24" s="7" t="str">
-        <f>IF(OR($B6=0,H$17=0),"",H6/H$17*$B6)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I24" s="7" t="str">
-        <f>IF(OR($B6=0,I$17=0),"",I6/I$17*$B6)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="J24" s="7" t="str">
-        <f>IF(OR($B6=0,J$17=0),"",J6/J$17*$B6)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K24" s="7" t="str">
-        <f>IF(OR($B6=0,K$17=0),"",K6/K$17*$B6)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L24" s="7" t="str">
-        <f>IF(OR($B6=0,L$17=0),"",L6/L$17*$B6)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M24" s="7" t="str">
-        <f>IF(OR($B6=0,M$17=0),"",M6/M$17*$B6)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N24" s="7" t="str">
-        <f>IF(OR($B6=0,N$17=0),"",N6/N$17*$B6)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O24" s="7" t="str">
-        <f>IF(OR($B6=0,O$17=0),"",O6/O$17*$B6)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="S24" s="6" t="s">
         <v>3</v>
       </c>
       <c r="T24" s="7" t="str">
-        <f>IF(OR(T$19=0,F8=""),"",F8*T$19)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U24" s="7" t="str">
-        <f>IF(OR(U$19=0,G8=""),"",G8*U$19)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V24" s="7" t="str">
-        <f>IF(OR(V$19=0,H8=""),"",H8*V$19)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W24" s="7" t="str">
-        <f>IF(OR(W$19=0,I8=""),"",I8*W$19)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X24" s="7" t="str">
-        <f>IF(OR(X$19=0,J8=""),"",J8*X$19)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y24" s="7" t="str">
-        <f>IF(OR(Y$19=0,K8=""),"",K8*Y$19)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z24" s="7" t="str">
-        <f>IF(OR(Z$19=0,L8=""),"",L8*Z$19)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AA24" s="7" t="str">
-        <f>IF(OR(AA$19=0,M8=""),"",M8*AA$19)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB24" s="7" t="str">
-        <f>IF(OR(AB$19=0,N8=""),"",N8*AB$19)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC24" s="7" t="str">
-        <f>IF(OR(AC$19=0,O8=""),"",O8*AC$19)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7539,86 +7559,86 @@
         <v>12</v>
       </c>
       <c r="F25" s="7" t="str">
-        <f>IF(OR($B7=0,F$17=0),"",F7/F$17*$B7)</f>
+        <f t="shared" ref="F25:O25" si="16">IF(OR($B7=0,F$17=0),"",F7/F$17*$B7)</f>
         <v/>
       </c>
       <c r="G25" s="7" t="str">
-        <f>IF(OR($B7=0,G$17=0),"",G7/G$17*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="H25" s="7" t="str">
-        <f>IF(OR($B7=0,H$17=0),"",H7/H$17*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="I25" s="7" t="str">
-        <f>IF(OR($B7=0,I$17=0),"",I7/I$17*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J25" s="7" t="str">
-        <f>IF(OR($B7=0,J$17=0),"",J7/J$17*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K25" s="7" t="str">
-        <f>IF(OR($B7=0,K$17=0),"",K7/K$17*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L25" s="7" t="str">
-        <f>IF(OR($B7=0,L$17=0),"",L7/L$17*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M25" s="7" t="str">
-        <f>IF(OR($B7=0,M$17=0),"",M7/M$17*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N25" s="7" t="str">
-        <f>IF(OR($B7=0,N$17=0),"",N7/N$17*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O25" s="7" t="str">
-        <f>IF(OR($B7=0,O$17=0),"",O7/O$17*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="S25" s="5" t="s">
         <v>4</v>
       </c>
       <c r="T25" s="7" t="str">
-        <f>IF(OR(T$19=0,F9=""),"",F9*T$19)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U25" s="7" t="str">
-        <f>IF(OR(U$19=0,G9=""),"",G9*U$19)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V25" s="7" t="str">
-        <f>IF(OR(V$19=0,H9=""),"",H9*V$19)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W25" s="7" t="str">
-        <f>IF(OR(W$19=0,I9=""),"",I9*W$19)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X25" s="7" t="str">
-        <f>IF(OR(X$19=0,J9=""),"",J9*X$19)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y25" s="7" t="str">
-        <f>IF(OR(Y$19=0,K9=""),"",K9*Y$19)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z25" s="7" t="str">
-        <f>IF(OR(Z$19=0,L9=""),"",L9*Z$19)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AA25" s="7" t="str">
-        <f>IF(OR(AA$19=0,M9=""),"",M9*AA$19)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB25" s="7" t="str">
-        <f>IF(OR(AB$19=0,N9=""),"",N9*AB$19)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC25" s="7" t="str">
-        <f>IF(OR(AC$19=0,O9=""),"",O9*AC$19)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7627,86 +7647,86 @@
         <v>13</v>
       </c>
       <c r="F26" s="7" t="str">
-        <f>IF(OR($B8=0,F$17=0),"",F8/F$17*$B8)</f>
+        <f t="shared" ref="F26:O26" si="17">IF(OR($B8=0,F$17=0),"",F8/F$17*$B8)</f>
         <v/>
       </c>
       <c r="G26" s="7" t="str">
-        <f>IF(OR($B8=0,G$17=0),"",G8/G$17*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H26" s="7" t="str">
-        <f>IF(OR($B8=0,H$17=0),"",H8/H$17*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I26" s="7" t="str">
-        <f>IF(OR($B8=0,I$17=0),"",I8/I$17*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J26" s="7" t="str">
-        <f>IF(OR($B8=0,J$17=0),"",J8/J$17*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="K26" s="7" t="str">
-        <f>IF(OR($B8=0,K$17=0),"",K8/K$17*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L26" s="7" t="str">
-        <f>IF(OR($B8=0,L$17=0),"",L8/L$17*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="M26" s="7" t="str">
-        <f>IF(OR($B8=0,M$17=0),"",M8/M$17*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N26" s="7" t="str">
-        <f>IF(OR($B8=0,N$17=0),"",N8/N$17*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="O26" s="7" t="str">
-        <f>IF(OR($B8=0,O$17=0),"",O8/O$17*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="S26" s="5" t="s">
         <v>5</v>
       </c>
       <c r="T26" s="7" t="str">
-        <f>IF(OR(T$19=0,F10=""),"",F10*T$19)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U26" s="7" t="str">
-        <f>IF(OR(U$19=0,G10=""),"",G10*U$19)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V26" s="7" t="str">
-        <f>IF(OR(V$19=0,H10=""),"",H10*V$19)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W26" s="7" t="str">
-        <f>IF(OR(W$19=0,I10=""),"",I10*W$19)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X26" s="7" t="str">
-        <f>IF(OR(X$19=0,J10=""),"",J10*X$19)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y26" s="7" t="str">
-        <f>IF(OR(Y$19=0,K10=""),"",K10*Y$19)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z26" s="7" t="str">
-        <f>IF(OR(Z$19=0,L10=""),"",L10*Z$19)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AA26" s="7" t="str">
-        <f>IF(OR(AA$19=0,M10=""),"",M10*AA$19)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB26" s="7" t="str">
-        <f>IF(OR(AB$19=0,N10=""),"",N10*AB$19)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC26" s="7" t="str">
-        <f>IF(OR(AC$19=0,O10=""),"",O10*AC$19)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7715,86 +7735,86 @@
         <v>14</v>
       </c>
       <c r="F27" s="7" t="str">
-        <f>IF(OR($B9=0,F$17=0),"",F9/F$17*$B9)</f>
+        <f t="shared" ref="F27:O27" si="18">IF(OR($B9=0,F$17=0),"",F9/F$17*$B9)</f>
         <v/>
       </c>
       <c r="G27" s="7" t="str">
-        <f>IF(OR($B9=0,G$17=0),"",G9/G$17*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H27" s="7" t="str">
-        <f>IF(OR($B9=0,H$17=0),"",H9/H$17*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I27" s="7" t="str">
-        <f>IF(OR($B9=0,I$17=0),"",I9/I$17*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J27" s="7" t="str">
-        <f>IF(OR($B9=0,J$17=0),"",J9/J$17*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K27" s="7" t="str">
-        <f>IF(OR($B9=0,K$17=0),"",K9/K$17*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L27" s="7" t="str">
-        <f>IF(OR($B9=0,L$17=0),"",L9/L$17*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M27" s="7" t="str">
-        <f>IF(OR($B9=0,M$17=0),"",M9/M$17*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N27" s="7" t="str">
-        <f>IF(OR($B9=0,N$17=0),"",N9/N$17*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O27" s="7" t="str">
-        <f>IF(OR($B9=0,O$17=0),"",O9/O$17*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S27" s="5" t="s">
         <v>6</v>
       </c>
       <c r="T27" s="7" t="str">
-        <f>IF(OR(T$19=0,F11=""),"",F11*T$19)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U27" s="7" t="str">
-        <f>IF(OR(U$19=0,G11=""),"",G11*U$19)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V27" s="7" t="str">
-        <f>IF(OR(V$19=0,H11=""),"",H11*V$19)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W27" s="7" t="str">
-        <f>IF(OR(W$19=0,I11=""),"",I11*W$19)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X27" s="7" t="str">
-        <f>IF(OR(X$19=0,J11=""),"",J11*X$19)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y27" s="7" t="str">
-        <f>IF(OR(Y$19=0,K11=""),"",K11*Y$19)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z27" s="7" t="str">
-        <f>IF(OR(Z$19=0,L11=""),"",L11*Z$19)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AA27" s="7" t="str">
-        <f>IF(OR(AA$19=0,M11=""),"",M11*AA$19)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB27" s="7" t="str">
-        <f>IF(OR(AB$19=0,N11=""),"",N11*AB$19)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC27" s="7" t="str">
-        <f>IF(OR(AC$19=0,O11=""),"",O11*AC$19)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7803,86 +7823,86 @@
         <v>15</v>
       </c>
       <c r="F28" s="7" t="str">
-        <f>IF(OR($B10=0,F$17=0),"",F10/F$17*$B10)</f>
+        <f t="shared" ref="F28:O28" si="19">IF(OR($B10=0,F$17=0),"",F10/F$17*$B10)</f>
         <v/>
       </c>
       <c r="G28" s="7" t="str">
-        <f>IF(OR($B10=0,G$17=0),"",G10/G$17*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H28" s="7" t="str">
-        <f>IF(OR($B10=0,H$17=0),"",H10/H$17*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I28" s="7" t="str">
-        <f>IF(OR($B10=0,I$17=0),"",I10/I$17*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="J28" s="7" t="str">
-        <f>IF(OR($B10=0,J$17=0),"",J10/J$17*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K28" s="7" t="str">
-        <f>IF(OR($B10=0,K$17=0),"",K10/K$17*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L28" s="7" t="str">
-        <f>IF(OR($B10=0,L$17=0),"",L10/L$17*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M28" s="7" t="str">
-        <f>IF(OR($B10=0,M$17=0),"",M10/M$17*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="N28" s="7" t="str">
-        <f>IF(OR($B10=0,N$17=0),"",N10/N$17*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O28" s="7" t="str">
-        <f>IF(OR($B10=0,O$17=0),"",O10/O$17*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="S28" s="5" t="s">
         <v>7</v>
       </c>
       <c r="T28" s="7" t="str">
-        <f>IF(OR(T$19=0,F12=""),"",F12*T$19)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U28" s="7" t="str">
-        <f>IF(OR(U$19=0,G12=""),"",G12*U$19)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V28" s="7" t="str">
-        <f>IF(OR(V$19=0,H12=""),"",H12*V$19)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W28" s="7" t="str">
-        <f>IF(OR(W$19=0,I12=""),"",I12*W$19)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X28" s="7" t="str">
-        <f>IF(OR(X$19=0,J12=""),"",J12*X$19)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y28" s="7" t="str">
-        <f>IF(OR(Y$19=0,K12=""),"",K12*Y$19)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z28" s="7" t="str">
-        <f>IF(OR(Z$19=0,L12=""),"",L12*Z$19)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AA28" s="7" t="str">
-        <f>IF(OR(AA$19=0,M12=""),"",M12*AA$19)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB28" s="7" t="str">
-        <f>IF(OR(AB$19=0,N12=""),"",N12*AB$19)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC28" s="7" t="str">
-        <f>IF(OR(AC$19=0,O12=""),"",O12*AC$19)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7891,86 +7911,86 @@
         <v>16</v>
       </c>
       <c r="F29" s="7" t="str">
-        <f>IF(OR($B11=0,F$17=0),"",F11/F$17*$B11)</f>
+        <f t="shared" ref="F29:O29" si="20">IF(OR($B11=0,F$17=0),"",F11/F$17*$B11)</f>
         <v/>
       </c>
       <c r="G29" s="7" t="str">
-        <f>IF(OR($B11=0,G$17=0),"",G11/G$17*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="H29" s="7" t="str">
-        <f>IF(OR($B11=0,H$17=0),"",H11/H$17*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I29" s="7" t="str">
-        <f>IF(OR($B11=0,I$17=0),"",I11/I$17*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J29" s="7" t="str">
-        <f>IF(OR($B11=0,J$17=0),"",J11/J$17*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K29" s="7" t="str">
-        <f>IF(OR($B11=0,K$17=0),"",K11/K$17*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L29" s="7" t="str">
-        <f>IF(OR($B11=0,L$17=0),"",L11/L$17*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M29" s="7" t="str">
-        <f>IF(OR($B11=0,M$17=0),"",M11/M$17*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="N29" s="7" t="str">
-        <f>IF(OR($B11=0,N$17=0),"",N11/N$17*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O29" s="7" t="str">
-        <f>IF(OR($B11=0,O$17=0),"",O11/O$17*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="S29" s="5" t="s">
         <v>8</v>
       </c>
       <c r="T29" s="7" t="str">
-        <f>IF(OR(T$19=0,F13=""),"",F13*T$19)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U29" s="7" t="str">
-        <f>IF(OR(U$19=0,G13=""),"",G13*U$19)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V29" s="7" t="str">
-        <f>IF(OR(V$19=0,H13=""),"",H13*V$19)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W29" s="7" t="str">
-        <f>IF(OR(W$19=0,I13=""),"",I13*W$19)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X29" s="7" t="str">
-        <f>IF(OR(X$19=0,J13=""),"",J13*X$19)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y29" s="7" t="str">
-        <f>IF(OR(Y$19=0,K13=""),"",K13*Y$19)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z29" s="7" t="str">
-        <f>IF(OR(Z$19=0,L13=""),"",L13*Z$19)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AA29" s="7" t="str">
-        <f>IF(OR(AA$19=0,M13=""),"",M13*AA$19)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB29" s="7" t="str">
-        <f>IF(OR(AB$19=0,N13=""),"",N13*AB$19)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC29" s="7" t="str">
-        <f>IF(OR(AC$19=0,O13=""),"",O13*AC$19)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7979,86 +7999,86 @@
         <v>17</v>
       </c>
       <c r="F30" s="7" t="str">
-        <f>IF(OR($B12=0,F$17=0),"",F12/F$17*$B12)</f>
+        <f t="shared" ref="F30:O30" si="21">IF(OR($B12=0,F$17=0),"",F12/F$17*$B12)</f>
         <v/>
       </c>
       <c r="G30" s="7" t="str">
-        <f>IF(OR($B12=0,G$17=0),"",G12/G$17*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="H30" s="7" t="str">
-        <f>IF(OR($B12=0,H$17=0),"",H12/H$17*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="I30" s="7" t="str">
-        <f>IF(OR($B12=0,I$17=0),"",I12/I$17*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J30" s="7" t="str">
-        <f>IF(OR($B12=0,J$17=0),"",J12/J$17*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K30" s="7" t="str">
-        <f>IF(OR($B12=0,K$17=0),"",K12/K$17*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="L30" s="7" t="str">
-        <f>IF(OR($B12=0,L$17=0),"",L12/L$17*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M30" s="7" t="str">
-        <f>IF(OR($B12=0,M$17=0),"",M12/M$17*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N30" s="7" t="str">
-        <f>IF(OR($B12=0,N$17=0),"",N12/N$17*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O30" s="7" t="str">
-        <f>IF(OR($B12=0,O$17=0),"",O12/O$17*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="S30" s="5" t="s">
         <v>9</v>
       </c>
       <c r="T30" s="7" t="str">
-        <f>IF(OR(T$19=0,F14=""),"",F14*T$19)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="U30" s="7" t="str">
-        <f>IF(OR(U$19=0,G14=""),"",G14*U$19)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="V30" s="7" t="str">
-        <f>IF(OR(V$19=0,H14=""),"",H14*V$19)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="W30" s="7" t="str">
-        <f>IF(OR(W$19=0,I14=""),"",I14*W$19)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="X30" s="7" t="str">
-        <f>IF(OR(X$19=0,J14=""),"",J14*X$19)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Y30" s="7" t="str">
-        <f>IF(OR(Y$19=0,K14=""),"",K14*Y$19)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Z30" s="7" t="str">
-        <f>IF(OR(Z$19=0,L14=""),"",L14*Z$19)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="AA30" s="7" t="str">
-        <f>IF(OR(AA$19=0,M14=""),"",M14*AA$19)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AB30" s="7" t="str">
-        <f>IF(OR(AB$19=0,N14=""),"",N14*AB$19)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AC30" s="7" t="str">
-        <f>IF(OR(AC$19=0,O14=""),"",O14*AC$19)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -8067,43 +8087,43 @@
         <v>18</v>
       </c>
       <c r="F31" s="7" t="str">
-        <f>IF(OR($B13=0,F$17=0),"",F13/F$17*$B13)</f>
+        <f t="shared" ref="F31:O31" si="22">IF(OR($B13=0,F$17=0),"",F13/F$17*$B13)</f>
         <v/>
       </c>
       <c r="G31" s="7" t="str">
-        <f>IF(OR($B13=0,G$17=0),"",G13/G$17*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H31" s="7" t="str">
-        <f>IF(OR($B13=0,H$17=0),"",H13/H$17*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I31" s="7" t="str">
-        <f>IF(OR($B13=0,I$17=0),"",I13/I$17*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="J31" s="7" t="str">
-        <f>IF(OR($B13=0,J$17=0),"",J13/J$17*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="K31" s="7" t="str">
-        <f>IF(OR($B13=0,K$17=0),"",K13/K$17*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="L31" s="7" t="str">
-        <f>IF(OR($B13=0,L$17=0),"",L13/L$17*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="M31" s="7" t="str">
-        <f>IF(OR($B13=0,M$17=0),"",M13/M$17*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="N31" s="7" t="str">
-        <f>IF(OR($B13=0,N$17=0),"",N13/N$17*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O31" s="7" t="str">
-        <f>IF(OR($B13=0,O$17=0),"",O13/O$17*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -8112,43 +8132,43 @@
         <v>19</v>
       </c>
       <c r="F32" s="7" t="str">
-        <f>IF(OR($B14=0,F$17=0),"",F14/F$17*$B14)</f>
+        <f t="shared" ref="F32:O32" si="23">IF(OR($B14=0,F$17=0),"",F14/F$17*$B14)</f>
         <v/>
       </c>
       <c r="G32" s="7" t="str">
-        <f>IF(OR($B14=0,G$17=0),"",G14/G$17*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H32" s="7" t="str">
-        <f>IF(OR($B14=0,H$17=0),"",H14/H$17*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I32" s="7" t="str">
-        <f>IF(OR($B14=0,I$17=0),"",I14/I$17*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="J32" s="7" t="str">
-        <f>IF(OR($B14=0,J$17=0),"",J14/J$17*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="K32" s="7" t="str">
-        <f>IF(OR($B14=0,K$17=0),"",K14/K$17*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="L32" s="7" t="str">
-        <f>IF(OR($B14=0,L$17=0),"",L14/L$17*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="M32" s="7" t="str">
-        <f>IF(OR($B14=0,M$17=0),"",M14/M$17*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="N32" s="7" t="str">
-        <f>IF(OR($B14=0,N$17=0),"",N14/N$17*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O32" s="7" t="str">
-        <f>IF(OR($B14=0,O$17=0),"",O14/O$17*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -8161,39 +8181,39 @@
         <v>1</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" ref="G33:O33" si="3">IF(SUM(G23:G32)=0,1,SUM(G23:G32))</f>
+        <f t="shared" ref="G33:O33" si="24">IF(SUM(G23:G32)=0,1,SUM(G23:G32))</f>
         <v>1</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="O33" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
@@ -8262,25 +8282,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="E3" s="27" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="E3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -8624,7 +8644,7 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="14" t="s">
         <v>66</v>
       </c>
       <c r="B15" s="3">
@@ -8633,79 +8653,79 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
     </row>
     <row r="17" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E17" s="5" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="7">
-        <f>SUMPRODUCT(F5:F14,$B$5:$B$14)</f>
+        <f t="shared" ref="F17:O17" si="2">SUMPRODUCT(F5:F14,$B$5:$B$14)</f>
         <v>0.32999999999999996</v>
       </c>
       <c r="G17" s="7">
-        <f>SUMPRODUCT(G5:G14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0.34</v>
       </c>
       <c r="H17" s="7">
-        <f>SUMPRODUCT(H5:H14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0.32999999999999996</v>
       </c>
       <c r="I17" s="7">
-        <f>SUMPRODUCT(I5:I14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J17" s="7">
-        <f>SUMPRODUCT(J5:J14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K17" s="7">
-        <f>SUMPRODUCT(K5:K14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L17" s="7">
-        <f>SUMPRODUCT(L5:L14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M17" s="7">
-        <f>SUMPRODUCT(M5:M14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N17" s="7">
-        <f>SUMPRODUCT(N5:N14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O17" s="7">
-        <f>SUMPRODUCT(O5:O14,$B$5:$B$14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="5:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E21" s="25" t="s">
+      <c r="E21" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
     </row>
     <row r="22" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E22" s="9" t="s">
@@ -8747,43 +8767,43 @@
         <v>20</v>
       </c>
       <c r="F23" s="7">
-        <f>IF(OR($B5=0,F$17=0),"",F5/F$17*$B5)</f>
+        <f t="shared" ref="F23:O23" si="3">IF(OR($B5=0,F$17=0),"",F5/F$17*$B5)</f>
         <v>0.3636363636363637</v>
       </c>
       <c r="G23" s="7">
-        <f>IF(OR($B5=0,G$17=0),"",G5/G$17*$B5)</f>
+        <f t="shared" si="3"/>
         <v>0.35294117647058826</v>
       </c>
       <c r="H23" s="7">
-        <f>IF(OR($B5=0,H$17=0),"",H5/H$17*$B5)</f>
+        <f t="shared" si="3"/>
         <v>0.18181818181818185</v>
       </c>
       <c r="I23" s="7" t="str">
-        <f>IF(OR($B5=0,I$17=0),"",I5/I$17*$B5)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J23" s="7" t="str">
-        <f>IF(OR($B5=0,J$17=0),"",J5/J$17*$B5)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K23" s="7" t="str">
-        <f>IF(OR($B5=0,K$17=0),"",K5/K$17*$B5)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L23" s="7" t="str">
-        <f>IF(OR($B5=0,L$17=0),"",L5/L$17*$B5)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M23" s="7" t="str">
-        <f>IF(OR($B5=0,M$17=0),"",M5/M$17*$B5)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N23" s="7" t="str">
-        <f>IF(OR($B5=0,N$17=0),"",N5/N$17*$B5)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O23" s="7" t="str">
-        <f>IF(OR($B5=0,O$17=0),"",O5/O$17*$B5)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8792,43 +8812,43 @@
         <v>25</v>
       </c>
       <c r="F24" s="7">
-        <f>IF(OR($B6=0,F$17=0),"",F6/F$17*$B6)</f>
+        <f t="shared" ref="F24:O24" si="4">IF(OR($B6=0,F$17=0),"",F6/F$17*$B6)</f>
         <v>0.27272727272727276</v>
       </c>
       <c r="G24" s="7">
-        <f>IF(OR($B6=0,G$17=0),"",G6/G$17*$B6)</f>
+        <f t="shared" si="4"/>
         <v>0.17647058823529413</v>
       </c>
       <c r="H24" s="7">
-        <f>IF(OR($B6=0,H$17=0),"",H6/H$17*$B6)</f>
+        <f t="shared" si="4"/>
         <v>0.45454545454545459</v>
       </c>
       <c r="I24" s="7" t="str">
-        <f>IF(OR($B6=0,I$17=0),"",I6/I$17*$B6)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J24" s="7" t="str">
-        <f>IF(OR($B6=0,J$17=0),"",J6/J$17*$B6)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K24" s="7" t="str">
-        <f>IF(OR($B6=0,K$17=0),"",K6/K$17*$B6)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L24" s="7" t="str">
-        <f>IF(OR($B6=0,L$17=0),"",L6/L$17*$B6)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M24" s="7" t="str">
-        <f>IF(OR($B6=0,M$17=0),"",M6/M$17*$B6)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N24" s="7" t="str">
-        <f>IF(OR($B6=0,N$17=0),"",N6/N$17*$B6)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O24" s="7" t="str">
-        <f>IF(OR($B6=0,O$17=0),"",O6/O$17*$B6)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -8837,43 +8857,43 @@
         <v>26</v>
       </c>
       <c r="F25" s="7">
-        <f>IF(OR($B7=0,F$17=0),"",F7/F$17*$B7)</f>
+        <f t="shared" ref="F25:O25" si="5">IF(OR($B7=0,F$17=0),"",F7/F$17*$B7)</f>
         <v>0.3636363636363637</v>
       </c>
       <c r="G25" s="7">
-        <f>IF(OR($B7=0,G$17=0),"",G7/G$17*$B7)</f>
+        <f t="shared" si="5"/>
         <v>0.4705882352941177</v>
       </c>
       <c r="H25" s="7">
-        <f>IF(OR($B7=0,H$17=0),"",H7/H$17*$B7)</f>
+        <f t="shared" si="5"/>
         <v>0.3636363636363637</v>
       </c>
       <c r="I25" s="7" t="str">
-        <f>IF(OR($B7=0,I$17=0),"",I7/I$17*$B7)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J25" s="7" t="str">
-        <f>IF(OR($B7=0,J$17=0),"",J7/J$17*$B7)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K25" s="7" t="str">
-        <f>IF(OR($B7=0,K$17=0),"",K7/K$17*$B7)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L25" s="7" t="str">
-        <f>IF(OR($B7=0,L$17=0),"",L7/L$17*$B7)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M25" s="7" t="str">
-        <f>IF(OR($B7=0,M$17=0),"",M7/M$17*$B7)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N25" s="7" t="str">
-        <f>IF(OR($B7=0,N$17=0),"",N7/N$17*$B7)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O25" s="7" t="str">
-        <f>IF(OR($B7=0,O$17=0),"",O7/O$17*$B7)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -8882,43 +8902,43 @@
         <v>13</v>
       </c>
       <c r="F26" s="7" t="str">
-        <f>IF(OR($B8=0,F$17=0),"",F8/F$17*$B8)</f>
+        <f t="shared" ref="F26:O26" si="6">IF(OR($B8=0,F$17=0),"",F8/F$17*$B8)</f>
         <v/>
       </c>
       <c r="G26" s="7" t="str">
-        <f>IF(OR($B8=0,G$17=0),"",G8/G$17*$B8)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="H26" s="7" t="str">
-        <f>IF(OR($B8=0,H$17=0),"",H8/H$17*$B8)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I26" s="7" t="str">
-        <f>IF(OR($B8=0,I$17=0),"",I8/I$17*$B8)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J26" s="7" t="str">
-        <f>IF(OR($B8=0,J$17=0),"",J8/J$17*$B8)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K26" s="7" t="str">
-        <f>IF(OR($B8=0,K$17=0),"",K8/K$17*$B8)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L26" s="7" t="str">
-        <f>IF(OR($B8=0,L$17=0),"",L8/L$17*$B8)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M26" s="7" t="str">
-        <f>IF(OR($B8=0,M$17=0),"",M8/M$17*$B8)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N26" s="7" t="str">
-        <f>IF(OR($B8=0,N$17=0),"",N8/N$17*$B8)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O26" s="7" t="str">
-        <f>IF(OR($B8=0,O$17=0),"",O8/O$17*$B8)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -8927,43 +8947,43 @@
         <v>14</v>
       </c>
       <c r="F27" s="7" t="str">
-        <f>IF(OR($B9=0,F$17=0),"",F9/F$17*$B9)</f>
+        <f t="shared" ref="F27:O27" si="7">IF(OR($B9=0,F$17=0),"",F9/F$17*$B9)</f>
         <v/>
       </c>
       <c r="G27" s="7" t="str">
-        <f>IF(OR($B9=0,G$17=0),"",G9/G$17*$B9)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="H27" s="7" t="str">
-        <f>IF(OR($B9=0,H$17=0),"",H9/H$17*$B9)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="I27" s="7" t="str">
-        <f>IF(OR($B9=0,I$17=0),"",I9/I$17*$B9)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J27" s="7" t="str">
-        <f>IF(OR($B9=0,J$17=0),"",J9/J$17*$B9)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K27" s="7" t="str">
-        <f>IF(OR($B9=0,K$17=0),"",K9/K$17*$B9)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L27" s="7" t="str">
-        <f>IF(OR($B9=0,L$17=0),"",L9/L$17*$B9)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M27" s="7" t="str">
-        <f>IF(OR($B9=0,M$17=0),"",M9/M$17*$B9)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N27" s="7" t="str">
-        <f>IF(OR($B9=0,N$17=0),"",N9/N$17*$B9)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O27" s="7" t="str">
-        <f>IF(OR($B9=0,O$17=0),"",O9/O$17*$B9)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -8972,43 +8992,43 @@
         <v>15</v>
       </c>
       <c r="F28" s="7" t="str">
-        <f>IF(OR($B10=0,F$17=0),"",F10/F$17*$B10)</f>
+        <f t="shared" ref="F28:O28" si="8">IF(OR($B10=0,F$17=0),"",F10/F$17*$B10)</f>
         <v/>
       </c>
       <c r="G28" s="7" t="str">
-        <f>IF(OR($B10=0,G$17=0),"",G10/G$17*$B10)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="H28" s="7" t="str">
-        <f>IF(OR($B10=0,H$17=0),"",H10/H$17*$B10)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="I28" s="7" t="str">
-        <f>IF(OR($B10=0,I$17=0),"",I10/I$17*$B10)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J28" s="7" t="str">
-        <f>IF(OR($B10=0,J$17=0),"",J10/J$17*$B10)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K28" s="7" t="str">
-        <f>IF(OR($B10=0,K$17=0),"",K10/K$17*$B10)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="L28" s="7" t="str">
-        <f>IF(OR($B10=0,L$17=0),"",L10/L$17*$B10)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M28" s="7" t="str">
-        <f>IF(OR($B10=0,M$17=0),"",M10/M$17*$B10)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N28" s="7" t="str">
-        <f>IF(OR($B10=0,N$17=0),"",N10/N$17*$B10)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O28" s="7" t="str">
-        <f>IF(OR($B10=0,O$17=0),"",O10/O$17*$B10)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -9017,43 +9037,43 @@
         <v>16</v>
       </c>
       <c r="F29" s="7" t="str">
-        <f>IF(OR($B11=0,F$17=0),"",F11/F$17*$B11)</f>
+        <f t="shared" ref="F29:O29" si="9">IF(OR($B11=0,F$17=0),"",F11/F$17*$B11)</f>
         <v/>
       </c>
       <c r="G29" s="7" t="str">
-        <f>IF(OR($B11=0,G$17=0),"",G11/G$17*$B11)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="H29" s="7" t="str">
-        <f>IF(OR($B11=0,H$17=0),"",H11/H$17*$B11)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I29" s="7" t="str">
-        <f>IF(OR($B11=0,I$17=0),"",I11/I$17*$B11)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J29" s="7" t="str">
-        <f>IF(OR($B11=0,J$17=0),"",J11/J$17*$B11)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K29" s="7" t="str">
-        <f>IF(OR($B11=0,K$17=0),"",K11/K$17*$B11)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L29" s="7" t="str">
-        <f>IF(OR($B11=0,L$17=0),"",L11/L$17*$B11)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M29" s="7" t="str">
-        <f>IF(OR($B11=0,M$17=0),"",M11/M$17*$B11)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N29" s="7" t="str">
-        <f>IF(OR($B11=0,N$17=0),"",N11/N$17*$B11)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O29" s="7" t="str">
-        <f>IF(OR($B11=0,O$17=0),"",O11/O$17*$B11)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -9062,43 +9082,43 @@
         <v>17</v>
       </c>
       <c r="F30" s="7" t="str">
-        <f>IF(OR($B12=0,F$17=0),"",F12/F$17*$B12)</f>
+        <f t="shared" ref="F30:O30" si="10">IF(OR($B12=0,F$17=0),"",F12/F$17*$B12)</f>
         <v/>
       </c>
       <c r="G30" s="7" t="str">
-        <f>IF(OR($B12=0,G$17=0),"",G12/G$17*$B12)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H30" s="7" t="str">
-        <f>IF(OR($B12=0,H$17=0),"",H12/H$17*$B12)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I30" s="7" t="str">
-        <f>IF(OR($B12=0,I$17=0),"",I12/I$17*$B12)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J30" s="7" t="str">
-        <f>IF(OR($B12=0,J$17=0),"",J12/J$17*$B12)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K30" s="7" t="str">
-        <f>IF(OR($B12=0,K$17=0),"",K12/K$17*$B12)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L30" s="7" t="str">
-        <f>IF(OR($B12=0,L$17=0),"",L12/L$17*$B12)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M30" s="7" t="str">
-        <f>IF(OR($B12=0,M$17=0),"",M12/M$17*$B12)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N30" s="7" t="str">
-        <f>IF(OR($B12=0,N$17=0),"",N12/N$17*$B12)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O30" s="7" t="str">
-        <f>IF(OR($B12=0,O$17=0),"",O12/O$17*$B12)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -9107,43 +9127,43 @@
         <v>18</v>
       </c>
       <c r="F31" s="7" t="str">
-        <f>IF(OR($B13=0,F$17=0),"",F13/F$17*$B13)</f>
+        <f t="shared" ref="F31:O31" si="11">IF(OR($B13=0,F$17=0),"",F13/F$17*$B13)</f>
         <v/>
       </c>
       <c r="G31" s="7" t="str">
-        <f>IF(OR($B13=0,G$17=0),"",G13/G$17*$B13)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="H31" s="7" t="str">
-        <f>IF(OR($B13=0,H$17=0),"",H13/H$17*$B13)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="I31" s="7" t="str">
-        <f>IF(OR($B13=0,I$17=0),"",I13/I$17*$B13)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J31" s="7" t="str">
-        <f>IF(OR($B13=0,J$17=0),"",J13/J$17*$B13)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K31" s="7" t="str">
-        <f>IF(OR($B13=0,K$17=0),"",K13/K$17*$B13)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L31" s="7" t="str">
-        <f>IF(OR($B13=0,L$17=0),"",L13/L$17*$B13)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M31" s="7" t="str">
-        <f>IF(OR($B13=0,M$17=0),"",M13/M$17*$B13)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N31" s="7" t="str">
-        <f>IF(OR($B13=0,N$17=0),"",N13/N$17*$B13)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O31" s="7" t="str">
-        <f>IF(OR($B13=0,O$17=0),"",O13/O$17*$B13)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -9152,43 +9172,43 @@
         <v>19</v>
       </c>
       <c r="F32" s="7" t="str">
-        <f>IF(OR($B14=0,F$17=0),"",F14/F$17*$B14)</f>
+        <f t="shared" ref="F32:O32" si="12">IF(OR($B14=0,F$17=0),"",F14/F$17*$B14)</f>
         <v/>
       </c>
       <c r="G32" s="7" t="str">
-        <f>IF(OR($B14=0,G$17=0),"",G14/G$17*$B14)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="H32" s="7" t="str">
-        <f>IF(OR($B14=0,H$17=0),"",H14/H$17*$B14)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I32" s="7" t="str">
-        <f>IF(OR($B14=0,I$17=0),"",I14/I$17*$B14)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J32" s="7" t="str">
-        <f>IF(OR($B14=0,J$17=0),"",J14/J$17*$B14)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K32" s="7" t="str">
-        <f>IF(OR($B14=0,K$17=0),"",K14/K$17*$B14)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L32" s="7" t="str">
-        <f>IF(OR($B14=0,L$17=0),"",L14/L$17*$B14)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M32" s="7" t="str">
-        <f>IF(OR($B14=0,M$17=0),"",M14/M$17*$B14)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N32" s="7" t="str">
-        <f>IF(OR($B14=0,N$17=0),"",N14/N$17*$B14)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O32" s="7" t="str">
-        <f>IF(OR($B14=0,O$17=0),"",O14/O$17*$B14)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -9201,56 +9221,56 @@
         <v>1.0000000000000002</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" ref="G33:O33" si="2">IF(SUM(G23:G32)=0,1,SUM(G23:G32))</f>
+        <f t="shared" ref="G33:O33" si="13">IF(SUM(G23:G32)=0,1,SUM(G23:G32))</f>
         <v>1</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1.0000000000000002</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="N33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O33" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
     </row>
     <row r="36" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E36" s="9" t="s">
@@ -9292,43 +9312,43 @@
         <v>20</v>
       </c>
       <c r="F37" s="7">
-        <f>IF(OR($B5="",F5=""),"",F5*$B5)</f>
+        <f t="shared" ref="F37:O37" si="14">IF(OR($B5="",F5=""),"",F5*$B5)</f>
         <v>0.12</v>
       </c>
       <c r="G37" s="7">
-        <f>IF(OR($B5="",G5=""),"",G5*$B5)</f>
+        <f t="shared" si="14"/>
         <v>0.12</v>
       </c>
       <c r="H37" s="7">
-        <f>IF(OR($B5="",H5=""),"",H5*$B5)</f>
+        <f t="shared" si="14"/>
         <v>0.06</v>
       </c>
       <c r="I37" s="7" t="str">
-        <f>IF(OR($B5="",I5=""),"",I5*$B5)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J37" s="7" t="str">
-        <f>IF(OR($B5="",J5=""),"",J5*$B5)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K37" s="7" t="str">
-        <f>IF(OR($B5="",K5=""),"",K5*$B5)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L37" s="7" t="str">
-        <f>IF(OR($B5="",L5=""),"",L5*$B5)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M37" s="7" t="str">
-        <f>IF(OR($B5="",M5=""),"",M5*$B5)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N37" s="7" t="str">
-        <f>IF(OR($B5="",N5=""),"",N5*$B5)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="O37" s="7" t="str">
-        <f>IF(OR($B5="",O5=""),"",O5*$B5)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -9337,43 +9357,43 @@
         <v>25</v>
       </c>
       <c r="F38" s="7">
-        <f>IF(OR($B6="",F6=""),"",F6*$B6)</f>
+        <f t="shared" ref="F38:O38" si="15">IF(OR($B6="",F6=""),"",F6*$B6)</f>
         <v>0.09</v>
       </c>
       <c r="G38" s="7">
-        <f>IF(OR($B6="",G6=""),"",G6*$B6)</f>
+        <f t="shared" si="15"/>
         <v>0.06</v>
       </c>
       <c r="H38" s="7">
-        <f>IF(OR($B6="",H6=""),"",H6*$B6)</f>
+        <f t="shared" si="15"/>
         <v>0.15</v>
       </c>
       <c r="I38" s="7" t="str">
-        <f>IF(OR($B6="",I6=""),"",I6*$B6)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="J38" s="7" t="str">
-        <f>IF(OR($B6="",J6=""),"",J6*$B6)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K38" s="7" t="str">
-        <f>IF(OR($B6="",K6=""),"",K6*$B6)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L38" s="7" t="str">
-        <f>IF(OR($B6="",L6=""),"",L6*$B6)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M38" s="7" t="str">
-        <f>IF(OR($B6="",M6=""),"",M6*$B6)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N38" s="7" t="str">
-        <f>IF(OR($B6="",N6=""),"",N6*$B6)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O38" s="7" t="str">
-        <f>IF(OR($B6="",O6=""),"",O6*$B6)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -9382,43 +9402,43 @@
         <v>26</v>
       </c>
       <c r="F39" s="7">
-        <f>IF(OR($B7="",F7=""),"",F7*$B7)</f>
+        <f t="shared" ref="F39:O39" si="16">IF(OR($B7="",F7=""),"",F7*$B7)</f>
         <v>0.12</v>
       </c>
       <c r="G39" s="7">
-        <f>IF(OR($B7="",G7=""),"",G7*$B7)</f>
+        <f t="shared" si="16"/>
         <v>0.16000000000000003</v>
       </c>
       <c r="H39" s="7">
-        <f>IF(OR($B7="",H7=""),"",H7*$B7)</f>
+        <f t="shared" si="16"/>
         <v>0.12</v>
       </c>
       <c r="I39" s="7" t="str">
-        <f>IF(OR($B7="",I7=""),"",I7*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J39" s="7" t="str">
-        <f>IF(OR($B7="",J7=""),"",J7*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K39" s="7" t="str">
-        <f>IF(OR($B7="",K7=""),"",K7*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L39" s="7" t="str">
-        <f>IF(OR($B7="",L7=""),"",L7*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M39" s="7" t="str">
-        <f>IF(OR($B7="",M7=""),"",M7*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N39" s="7" t="str">
-        <f>IF(OR($B7="",N7=""),"",N7*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O39" s="7" t="str">
-        <f>IF(OR($B7="",O7=""),"",O7*$B7)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -9427,43 +9447,43 @@
         <v>13</v>
       </c>
       <c r="F40" s="7" t="str">
-        <f>IF(OR($B8="",F8=""),"",F8*$B8)</f>
+        <f t="shared" ref="F40:O40" si="17">IF(OR($B8="",F8=""),"",F8*$B8)</f>
         <v/>
       </c>
       <c r="G40" s="7" t="str">
-        <f>IF(OR($B8="",G8=""),"",G8*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="H40" s="7" t="str">
-        <f>IF(OR($B8="",H8=""),"",H8*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I40" s="7" t="str">
-        <f>IF(OR($B8="",I8=""),"",I8*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J40" s="7" t="str">
-        <f>IF(OR($B8="",J8=""),"",J8*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="K40" s="7" t="str">
-        <f>IF(OR($B8="",K8=""),"",K8*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L40" s="7" t="str">
-        <f>IF(OR($B8="",L8=""),"",L8*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="M40" s="7" t="str">
-        <f>IF(OR($B8="",M8=""),"",M8*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N40" s="7" t="str">
-        <f>IF(OR($B8="",N8=""),"",N8*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="O40" s="7" t="str">
-        <f>IF(OR($B8="",O8=""),"",O8*$B8)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -9472,43 +9492,43 @@
         <v>14</v>
       </c>
       <c r="F41" s="7" t="str">
-        <f>IF(OR($B9="",F9=""),"",F9*$B9)</f>
+        <f t="shared" ref="F41:O41" si="18">IF(OR($B9="",F9=""),"",F9*$B9)</f>
         <v/>
       </c>
       <c r="G41" s="7" t="str">
-        <f>IF(OR($B9="",G9=""),"",G9*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="H41" s="7" t="str">
-        <f>IF(OR($B9="",H9=""),"",H9*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I41" s="7" t="str">
-        <f>IF(OR($B9="",I9=""),"",I9*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J41" s="7" t="str">
-        <f>IF(OR($B9="",J9=""),"",J9*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K41" s="7" t="str">
-        <f>IF(OR($B9="",K9=""),"",K9*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L41" s="7" t="str">
-        <f>IF(OR($B9="",L9=""),"",L9*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M41" s="7" t="str">
-        <f>IF(OR($B9="",M9=""),"",M9*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N41" s="7" t="str">
-        <f>IF(OR($B9="",N9=""),"",N9*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O41" s="7" t="str">
-        <f>IF(OR($B9="",O9=""),"",O9*$B9)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -9517,43 +9537,43 @@
         <v>15</v>
       </c>
       <c r="F42" s="7" t="str">
-        <f>IF(OR($B10="",F10=""),"",F10*$B10)</f>
+        <f t="shared" ref="F42:O42" si="19">IF(OR($B10="",F10=""),"",F10*$B10)</f>
         <v/>
       </c>
       <c r="G42" s="7" t="str">
-        <f>IF(OR($B10="",G10=""),"",G10*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="H42" s="7" t="str">
-        <f>IF(OR($B10="",H10=""),"",H10*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="I42" s="7" t="str">
-        <f>IF(OR($B10="",I10=""),"",I10*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="J42" s="7" t="str">
-        <f>IF(OR($B10="",J10=""),"",J10*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K42" s="7" t="str">
-        <f>IF(OR($B10="",K10=""),"",K10*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L42" s="7" t="str">
-        <f>IF(OR($B10="",L10=""),"",L10*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M42" s="7" t="str">
-        <f>IF(OR($B10="",M10=""),"",M10*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="N42" s="7" t="str">
-        <f>IF(OR($B10="",N10=""),"",N10*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O42" s="7" t="str">
-        <f>IF(OR($B10="",O10=""),"",O10*$B10)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -9562,43 +9582,43 @@
         <v>16</v>
       </c>
       <c r="F43" s="7" t="str">
-        <f>IF(OR($B11="",F11=""),"",F11*$B11)</f>
+        <f t="shared" ref="F43:O43" si="20">IF(OR($B11="",F11=""),"",F11*$B11)</f>
         <v/>
       </c>
       <c r="G43" s="7" t="str">
-        <f>IF(OR($B11="",G11=""),"",G11*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="H43" s="7" t="str">
-        <f>IF(OR($B11="",H11=""),"",H11*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="I43" s="7" t="str">
-        <f>IF(OR($B11="",I11=""),"",I11*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J43" s="7" t="str">
-        <f>IF(OR($B11="",J11=""),"",J11*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K43" s="7" t="str">
-        <f>IF(OR($B11="",K11=""),"",K11*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L43" s="7" t="str">
-        <f>IF(OR($B11="",L11=""),"",L11*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M43" s="7" t="str">
-        <f>IF(OR($B11="",M11=""),"",M11*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="N43" s="7" t="str">
-        <f>IF(OR($B11="",N11=""),"",N11*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O43" s="7" t="str">
-        <f>IF(OR($B11="",O11=""),"",O11*$B11)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -9607,43 +9627,43 @@
         <v>17</v>
       </c>
       <c r="F44" s="7" t="str">
-        <f>IF(OR($B12="",F12=""),"",F12*$B12)</f>
+        <f t="shared" ref="F44:O44" si="21">IF(OR($B12="",F12=""),"",F12*$B12)</f>
         <v/>
       </c>
       <c r="G44" s="7" t="str">
-        <f>IF(OR($B12="",G12=""),"",G12*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="H44" s="7" t="str">
-        <f>IF(OR($B12="",H12=""),"",H12*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="I44" s="7" t="str">
-        <f>IF(OR($B12="",I12=""),"",I12*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J44" s="7" t="str">
-        <f>IF(OR($B12="",J12=""),"",J12*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K44" s="7" t="str">
-        <f>IF(OR($B12="",K12=""),"",K12*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="L44" s="7" t="str">
-        <f>IF(OR($B12="",L12=""),"",L12*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M44" s="7" t="str">
-        <f>IF(OR($B12="",M12=""),"",M12*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N44" s="7" t="str">
-        <f>IF(OR($B12="",N12=""),"",N12*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O44" s="7" t="str">
-        <f>IF(OR($B12="",O12=""),"",O12*$B12)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -9652,43 +9672,43 @@
         <v>18</v>
       </c>
       <c r="F45" s="7" t="str">
-        <f>IF(OR($B13="",F13=""),"",F13*$B13)</f>
+        <f t="shared" ref="F45:O45" si="22">IF(OR($B13="",F13=""),"",F13*$B13)</f>
         <v/>
       </c>
       <c r="G45" s="7" t="str">
-        <f>IF(OR($B13="",G13=""),"",G13*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="H45" s="7" t="str">
-        <f>IF(OR($B13="",H13=""),"",H13*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="I45" s="7" t="str">
-        <f>IF(OR($B13="",I13=""),"",I13*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="J45" s="7" t="str">
-        <f>IF(OR($B13="",J13=""),"",J13*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="K45" s="7" t="str">
-        <f>IF(OR($B13="",K13=""),"",K13*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="L45" s="7" t="str">
-        <f>IF(OR($B13="",L13=""),"",L13*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="M45" s="7" t="str">
-        <f>IF(OR($B13="",M13=""),"",M13*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="N45" s="7" t="str">
-        <f>IF(OR($B13="",N13=""),"",N13*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O45" s="7" t="str">
-        <f>IF(OR($B13="",O13=""),"",O13*$B13)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -9697,43 +9717,43 @@
         <v>19</v>
       </c>
       <c r="F46" s="7" t="str">
-        <f>IF(OR($B14="",F14=""),"",F14*$B14)</f>
+        <f t="shared" ref="F46:O46" si="23">IF(OR($B14="",F14=""),"",F14*$B14)</f>
         <v/>
       </c>
       <c r="G46" s="7" t="str">
-        <f>IF(OR($B14="",G14=""),"",G14*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="H46" s="7" t="str">
-        <f>IF(OR($B14="",H14=""),"",H14*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="I46" s="7" t="str">
-        <f>IF(OR($B14="",I14=""),"",I14*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="J46" s="7" t="str">
-        <f>IF(OR($B14="",J14=""),"",J14*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="K46" s="7" t="str">
-        <f>IF(OR($B14="",K14=""),"",K14*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="L46" s="7" t="str">
-        <f>IF(OR($B14="",L14=""),"",L14*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="M46" s="7" t="str">
-        <f>IF(OR($B14="",M14=""),"",M14*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="N46" s="7" t="str">
-        <f>IF(OR($B14="",N14=""),"",N14*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O46" s="7" t="str">
-        <f>IF(OR($B14="",O14=""),"",O14*$B14)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
@@ -9804,29 +9824,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="E3" s="30"/>
-      <c r="G3" s="27" t="s">
+      <c r="E3" s="15"/>
+      <c r="G3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
     </row>
     <row r="4" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="15"/>
       <c r="G4" s="1" t="s">
         <v>68</v>
       </c>
@@ -10204,7 +10224,7 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="14" t="s">
         <v>66</v>
       </c>
       <c r="C16" s="3">
@@ -10213,19 +10233,19 @@
       </c>
     </row>
     <row r="17" spans="3:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
@@ -10235,43 +10255,43 @@
         <v>31</v>
       </c>
       <c r="H18" s="7">
-        <f>SUMPRODUCT(H6:H15,$C$6:$C$15)</f>
+        <f t="shared" ref="H18:Q18" si="2">SUMPRODUCT(H6:H15,$C$6:$C$15)</f>
         <v>0.30555555555555558</v>
       </c>
       <c r="I18" s="7">
-        <f>SUMPRODUCT(I6:I15,$C$6:$C$15)</f>
+        <f t="shared" si="2"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="J18" s="7">
-        <f>SUMPRODUCT(J6:J15,$C$6:$C$15)</f>
+        <f t="shared" si="2"/>
         <v>0.27777777777777779</v>
       </c>
       <c r="K18" s="7">
-        <f>SUMPRODUCT(K6:K15,$C$6:$C$15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L18" s="7">
-        <f>SUMPRODUCT(L6:L15,$C$6:$C$15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M18" s="7">
-        <f>SUMPRODUCT(M6:M15,$C$6:$C$15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N18" s="7">
-        <f>SUMPRODUCT(N6:N15,$C$6:$C$15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O18" s="7">
-        <f>SUMPRODUCT(O6:O15,$C$6:$C$15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P18" s="7">
-        <f>SUMPRODUCT(P6:P15,$C$6:$C$15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q18" s="7">
-        <f>SUMPRODUCT(Q6:Q15,$C$6:$C$15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -10304,19 +10324,19 @@
         <f>D19-D20</f>
         <v>0.26831122747837444</v>
       </c>
-      <c r="G22" s="34" t="s">
+      <c r="G22" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.25">
       <c r="G23" s="1" t="s">
@@ -10374,43 +10394,43 @@
         <v>10</v>
       </c>
       <c r="H25" s="7">
-        <f>IF(OR($C6=0,H$18=0),"",H6/H$18*$C6)</f>
+        <f t="shared" ref="H25:Q25" si="3">IF(OR($C6=0,H$18=0),"",H6/H$18*$C6)</f>
         <v>0.54545454545454541</v>
       </c>
       <c r="I25" s="7">
-        <f>IF(OR($C6=0,I$18=0),"",I6/I$18*$C6)</f>
+        <f t="shared" si="3"/>
         <v>6.6666666666666652E-2</v>
       </c>
       <c r="J25" s="7">
-        <f>IF(OR($C6=0,J$18=0),"",J6/J$18*$C6)</f>
+        <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
       <c r="K25" s="7" t="str">
-        <f>IF(OR($C6=0,K$18=0),"",K6/K$18*$C6)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L25" s="7" t="str">
-        <f>IF(OR($C6=0,L$18=0),"",L6/L$18*$C6)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M25" s="7" t="str">
-        <f>IF(OR($C6=0,M$18=0),"",M6/M$18*$C6)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N25" s="7" t="str">
-        <f>IF(OR($C6=0,N$18=0),"",N6/N$18*$C6)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="O25" s="7" t="str">
-        <f>IF(OR($C6=0,O$18=0),"",O6/O$18*$C6)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="P25" s="7" t="str">
-        <f>IF(OR($C6=0,P$18=0),"",P6/P$18*$C6)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="Q25" s="7" t="str">
-        <f>IF(OR($C6=0,Q$18=0),"",Q6/Q$18*$C6)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -10420,43 +10440,43 @@
         <v>11</v>
       </c>
       <c r="H26" s="7">
-        <f>IF(OR($C7=0,H$18=0),"",H7/H$18*$C7)</f>
+        <f t="shared" ref="H26:Q26" si="4">IF(OR($C7=0,H$18=0),"",H7/H$18*$C7)</f>
         <v>0.45454545454545459</v>
       </c>
       <c r="I26" s="7">
-        <f>IF(OR($C7=0,I$18=0),"",I7/I$18*$C7)</f>
+        <f t="shared" si="4"/>
         <v>0.93333333333333335</v>
       </c>
       <c r="J26" s="7">
-        <f>IF(OR($C7=0,J$18=0),"",J7/J$18*$C7)</f>
+        <f t="shared" si="4"/>
         <v>0.3</v>
       </c>
       <c r="K26" s="7" t="str">
-        <f>IF(OR($C7=0,K$18=0),"",K7/K$18*$C7)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L26" s="7" t="str">
-        <f>IF(OR($C7=0,L$18=0),"",L7/L$18*$C7)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M26" s="7" t="str">
-        <f>IF(OR($C7=0,M$18=0),"",M7/M$18*$C7)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="N26" s="7" t="str">
-        <f>IF(OR($C7=0,N$18=0),"",N7/N$18*$C7)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="O26" s="7" t="str">
-        <f>IF(OR($C7=0,O$18=0),"",O7/O$18*$C7)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P26" s="7" t="str">
-        <f>IF(OR($C7=0,P$18=0),"",P7/P$18*$C7)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="Q26" s="7" t="str">
-        <f>IF(OR($C7=0,Q$18=0),"",Q7/Q$18*$C7)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -10466,43 +10486,43 @@
         <v>12</v>
       </c>
       <c r="H27" s="7" t="str">
-        <f>IF(OR($C8=0,H$18=0),"",H8/H$18*$C8)</f>
+        <f t="shared" ref="H27:Q27" si="5">IF(OR($C8=0,H$18=0),"",H8/H$18*$C8)</f>
         <v/>
       </c>
       <c r="I27" s="7" t="str">
-        <f>IF(OR($C8=0,I$18=0),"",I8/I$18*$C8)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="J27" s="7" t="str">
-        <f>IF(OR($C8=0,J$18=0),"",J8/J$18*$C8)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="K27" s="7" t="str">
-        <f>IF(OR($C8=0,K$18=0),"",K8/K$18*$C8)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L27" s="7" t="str">
-        <f>IF(OR($C8=0,L$18=0),"",L8/L$18*$C8)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M27" s="7" t="str">
-        <f>IF(OR($C8=0,M$18=0),"",M8/M$18*$C8)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="N27" s="7" t="str">
-        <f>IF(OR($C8=0,N$18=0),"",N8/N$18*$C8)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="O27" s="7" t="str">
-        <f>IF(OR($C8=0,O$18=0),"",O8/O$18*$C8)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="P27" s="7" t="str">
-        <f>IF(OR($C8=0,P$18=0),"",P8/P$18*$C8)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="Q27" s="7" t="str">
-        <f>IF(OR($C8=0,Q$18=0),"",Q8/Q$18*$C8)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -10512,43 +10532,43 @@
         <v>13</v>
       </c>
       <c r="H28" s="7" t="str">
-        <f>IF(OR($C9=0,H$18=0),"",H9/H$18*$C9)</f>
+        <f t="shared" ref="H28:Q28" si="6">IF(OR($C9=0,H$18=0),"",H9/H$18*$C9)</f>
         <v/>
       </c>
       <c r="I28" s="7" t="str">
-        <f>IF(OR($C9=0,I$18=0),"",I9/I$18*$C9)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="J28" s="7" t="str">
-        <f>IF(OR($C9=0,J$18=0),"",J9/J$18*$C9)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="K28" s="7" t="str">
-        <f>IF(OR($C9=0,K$18=0),"",K9/K$18*$C9)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L28" s="7" t="str">
-        <f>IF(OR($C9=0,L$18=0),"",L9/L$18*$C9)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M28" s="7" t="str">
-        <f>IF(OR($C9=0,M$18=0),"",M9/M$18*$C9)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N28" s="7" t="str">
-        <f>IF(OR($C9=0,N$18=0),"",N9/N$18*$C9)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O28" s="7" t="str">
-        <f>IF(OR($C9=0,O$18=0),"",O9/O$18*$C9)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P28" s="7" t="str">
-        <f>IF(OR($C9=0,P$18=0),"",P9/P$18*$C9)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q28" s="7" t="str">
-        <f>IF(OR($C9=0,Q$18=0),"",Q9/Q$18*$C9)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -10558,43 +10578,43 @@
         <v>14</v>
       </c>
       <c r="H29" s="7" t="str">
-        <f>IF(OR($C10=0,H$18=0),"",H10/H$18*$C10)</f>
+        <f t="shared" ref="H29:Q29" si="7">IF(OR($C10=0,H$18=0),"",H10/H$18*$C10)</f>
         <v/>
       </c>
       <c r="I29" s="7" t="str">
-        <f>IF(OR($C10=0,I$18=0),"",I10/I$18*$C10)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="J29" s="7" t="str">
-        <f>IF(OR($C10=0,J$18=0),"",J10/J$18*$C10)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="K29" s="7" t="str">
-        <f>IF(OR($C10=0,K$18=0),"",K10/K$18*$C10)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="L29" s="7" t="str">
-        <f>IF(OR($C10=0,L$18=0),"",L10/L$18*$C10)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="M29" s="7" t="str">
-        <f>IF(OR($C10=0,M$18=0),"",M10/M$18*$C10)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="N29" s="7" t="str">
-        <f>IF(OR($C10=0,N$18=0),"",N10/N$18*$C10)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O29" s="7" t="str">
-        <f>IF(OR($C10=0,O$18=0),"",O10/O$18*$C10)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="P29" s="7" t="str">
-        <f>IF(OR($C10=0,P$18=0),"",P10/P$18*$C10)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="Q29" s="7" t="str">
-        <f>IF(OR($C10=0,Q$18=0),"",Q10/Q$18*$C10)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -10604,43 +10624,43 @@
         <v>15</v>
       </c>
       <c r="H30" s="7" t="str">
-        <f>IF(OR($C11=0,H$18=0),"",H11/H$18*$C11)</f>
+        <f t="shared" ref="H30:Q30" si="8">IF(OR($C11=0,H$18=0),"",H11/H$18*$C11)</f>
         <v/>
       </c>
       <c r="I30" s="7" t="str">
-        <f>IF(OR($C11=0,I$18=0),"",I11/I$18*$C11)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="J30" s="7" t="str">
-        <f>IF(OR($C11=0,J$18=0),"",J11/J$18*$C11)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="K30" s="7" t="str">
-        <f>IF(OR($C11=0,K$18=0),"",K11/K$18*$C11)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="L30" s="7" t="str">
-        <f>IF(OR($C11=0,L$18=0),"",L11/L$18*$C11)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="M30" s="7" t="str">
-        <f>IF(OR($C11=0,M$18=0),"",M11/M$18*$C11)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="N30" s="7" t="str">
-        <f>IF(OR($C11=0,N$18=0),"",N11/N$18*$C11)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="O30" s="7" t="str">
-        <f>IF(OR($C11=0,O$18=0),"",O11/O$18*$C11)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="P30" s="7" t="str">
-        <f>IF(OR($C11=0,P$18=0),"",P11/P$18*$C11)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="Q30" s="7" t="str">
-        <f>IF(OR($C11=0,Q$18=0),"",Q11/Q$18*$C11)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -10650,43 +10670,43 @@
         <v>16</v>
       </c>
       <c r="H31" s="7" t="str">
-        <f>IF(OR($C12=0,H$18=0),"",H12/H$18*$C12)</f>
+        <f t="shared" ref="H31:Q31" si="9">IF(OR($C12=0,H$18=0),"",H12/H$18*$C12)</f>
         <v/>
       </c>
       <c r="I31" s="7" t="str">
-        <f>IF(OR($C12=0,I$18=0),"",I12/I$18*$C12)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="J31" s="7" t="str">
-        <f>IF(OR($C12=0,J$18=0),"",J12/J$18*$C12)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="K31" s="7" t="str">
-        <f>IF(OR($C12=0,K$18=0),"",K12/K$18*$C12)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L31" s="7" t="str">
-        <f>IF(OR($C12=0,L$18=0),"",L12/L$18*$C12)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M31" s="7" t="str">
-        <f>IF(OR($C12=0,M$18=0),"",M12/M$18*$C12)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N31" s="7" t="str">
-        <f>IF(OR($C12=0,N$18=0),"",N12/N$18*$C12)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O31" s="7" t="str">
-        <f>IF(OR($C12=0,O$18=0),"",O12/O$18*$C12)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P31" s="7" t="str">
-        <f>IF(OR($C12=0,P$18=0),"",P12/P$18*$C12)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q31" s="7" t="str">
-        <f>IF(OR($C12=0,Q$18=0),"",Q12/Q$18*$C12)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -10696,43 +10716,43 @@
         <v>17</v>
       </c>
       <c r="H32" s="7" t="str">
-        <f>IF(OR($C13=0,H$18=0),"",H13/H$18*$C13)</f>
+        <f t="shared" ref="H32:Q32" si="10">IF(OR($C13=0,H$18=0),"",H13/H$18*$C13)</f>
         <v/>
       </c>
       <c r="I32" s="7" t="str">
-        <f>IF(OR($C13=0,I$18=0),"",I13/I$18*$C13)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J32" s="7" t="str">
-        <f>IF(OR($C13=0,J$18=0),"",J13/J$18*$C13)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="K32" s="7" t="str">
-        <f>IF(OR($C13=0,K$18=0),"",K13/K$18*$C13)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L32" s="7" t="str">
-        <f>IF(OR($C13=0,L$18=0),"",L13/L$18*$C13)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M32" s="7" t="str">
-        <f>IF(OR($C13=0,M$18=0),"",M13/M$18*$C13)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="N32" s="7" t="str">
-        <f>IF(OR($C13=0,N$18=0),"",N13/N$18*$C13)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="O32" s="7" t="str">
-        <f>IF(OR($C13=0,O$18=0),"",O13/O$18*$C13)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="P32" s="7" t="str">
-        <f>IF(OR($C13=0,P$18=0),"",P13/P$18*$C13)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="Q32" s="7" t="str">
-        <f>IF(OR($C13=0,Q$18=0),"",Q13/Q$18*$C13)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -10742,43 +10762,43 @@
         <v>18</v>
       </c>
       <c r="H33" s="7" t="str">
-        <f>IF(OR($C14=0,H$18=0),"",H14/H$18*$C14)</f>
+        <f t="shared" ref="H33:Q33" si="11">IF(OR($C14=0,H$18=0),"",H14/H$18*$C14)</f>
         <v/>
       </c>
       <c r="I33" s="7" t="str">
-        <f>IF(OR($C14=0,I$18=0),"",I14/I$18*$C14)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J33" s="7" t="str">
-        <f>IF(OR($C14=0,J$18=0),"",J14/J$18*$C14)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K33" s="7" t="str">
-        <f>IF(OR($C14=0,K$18=0),"",K14/K$18*$C14)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="L33" s="7" t="str">
-        <f>IF(OR($C14=0,L$18=0),"",L14/L$18*$C14)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="M33" s="7" t="str">
-        <f>IF(OR($C14=0,M$18=0),"",M14/M$18*$C14)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N33" s="7" t="str">
-        <f>IF(OR($C14=0,N$18=0),"",N14/N$18*$C14)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O33" s="7" t="str">
-        <f>IF(OR($C14=0,O$18=0),"",O14/O$18*$C14)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="P33" s="7" t="str">
-        <f>IF(OR($C14=0,P$18=0),"",P14/P$18*$C14)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q33" s="7" t="str">
-        <f>IF(OR($C14=0,Q$18=0),"",Q14/Q$18*$C14)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -10788,43 +10808,43 @@
         <v>19</v>
       </c>
       <c r="H34" s="7" t="str">
-        <f>IF(OR($C15=0,H$18=0),"",H15/H$18*$C15)</f>
+        <f t="shared" ref="H34:Q34" si="12">IF(OR($C15=0,H$18=0),"",H15/H$18*$C15)</f>
         <v/>
       </c>
       <c r="I34" s="7" t="str">
-        <f>IF(OR($C15=0,I$18=0),"",I15/I$18*$C15)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J34" s="7" t="str">
-        <f>IF(OR($C15=0,J$18=0),"",J15/J$18*$C15)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K34" s="7" t="str">
-        <f>IF(OR($C15=0,K$18=0),"",K15/K$18*$C15)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L34" s="7" t="str">
-        <f>IF(OR($C15=0,L$18=0),"",L15/L$18*$C15)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M34" s="7" t="str">
-        <f>IF(OR($C15=0,M$18=0),"",M15/M$18*$C15)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N34" s="7" t="str">
-        <f>IF(OR($C15=0,N$18=0),"",N15/N$18*$C15)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O34" s="7" t="str">
-        <f>IF(OR($C15=0,O$18=0),"",O15/O$18*$C15)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="P34" s="7" t="str">
-        <f>IF(OR($C15=0,P$18=0),"",P15/P$18*$C15)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q34" s="7" t="str">
-        <f>IF(OR($C15=0,Q$18=0),"",Q15/Q$18*$C15)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -10837,56 +10857,56 @@
         <v>1</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" ref="I35:Q35" si="2">IF(SUM(I25:I34)=0,1,SUM(I25:I34))</f>
+        <f t="shared" ref="I35:Q35" si="13">IF(SUM(I25:I34)=0,1,SUM(I25:I34))</f>
         <v>1</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="O35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="P35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="Q37" s="33"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
     </row>
     <row r="38" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G38" s="1" t="s">
@@ -10944,43 +10964,43 @@
         <v>10</v>
       </c>
       <c r="H40" s="7">
-        <f>IF(OR($C6="",H6=""),"",H6*$C6)</f>
+        <f t="shared" ref="H40:Q40" si="14">IF(OR($C6="",H6=""),"",H6*$C6)</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="I40" s="7">
-        <f>IF(OR($C6="",I6=""),"",I6*$C6)</f>
+        <f t="shared" si="14"/>
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="J40" s="7">
-        <f>IF(OR($C6="",J6=""),"",J6*$C6)</f>
+        <f t="shared" si="14"/>
         <v>0.19444444444444445</v>
       </c>
       <c r="K40" s="7" t="str">
-        <f>IF(OR($C6="",K6=""),"",K6*$C6)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L40" s="7" t="str">
-        <f>IF(OR($C6="",L6=""),"",L6*$C6)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M40" s="7" t="str">
-        <f>IF(OR($C6="",M6=""),"",M6*$C6)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N40" s="7" t="str">
-        <f>IF(OR($C6="",N6=""),"",N6*$C6)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="O40" s="7" t="str">
-        <f>IF(OR($C6="",O6=""),"",O6*$C6)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P40" s="7" t="str">
-        <f>IF(OR($C6="",P6=""),"",P6*$C6)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="Q40" s="7" t="str">
-        <f>IF(OR($C6="",Q6=""),"",Q6*$C6)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -10990,43 +11010,43 @@
         <v>11</v>
       </c>
       <c r="H41" s="7">
-        <f>IF(OR($C7="",H7=""),"",H7*$C7)</f>
+        <f t="shared" ref="H41:Q41" si="15">IF(OR($C7="",H7=""),"",H7*$C7)</f>
         <v>0.1388888888888889</v>
       </c>
       <c r="I41" s="7">
-        <f>IF(OR($C7="",I7=""),"",I7*$C7)</f>
+        <f t="shared" si="15"/>
         <v>0.3888888888888889</v>
       </c>
       <c r="J41" s="7">
-        <f>IF(OR($C7="",J7=""),"",J7*$C7)</f>
+        <f t="shared" si="15"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="K41" s="7" t="str">
-        <f>IF(OR($C7="",K7=""),"",K7*$C7)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L41" s="7" t="str">
-        <f>IF(OR($C7="",L7=""),"",L7*$C7)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M41" s="7" t="str">
-        <f>IF(OR($C7="",M7=""),"",M7*$C7)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N41" s="7" t="str">
-        <f>IF(OR($C7="",N7=""),"",N7*$C7)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O41" s="7" t="str">
-        <f>IF(OR($C7="",O7=""),"",O7*$C7)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P41" s="7" t="str">
-        <f>IF(OR($C7="",P7=""),"",P7*$C7)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q41" s="7" t="str">
-        <f>IF(OR($C7="",Q7=""),"",Q7*$C7)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -11036,43 +11056,43 @@
         <v>12</v>
       </c>
       <c r="H42" s="7" t="str">
-        <f>IF(OR($C8="",H8=""),"",H8*$C8)</f>
+        <f t="shared" ref="H42:Q42" si="16">IF(OR($C8="",H8=""),"",H8*$C8)</f>
         <v/>
       </c>
       <c r="I42" s="7" t="str">
-        <f>IF(OR($C8="",I8=""),"",I8*$C8)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J42" s="7" t="str">
-        <f>IF(OR($C8="",J8=""),"",J8*$C8)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K42" s="7" t="str">
-        <f>IF(OR($C8="",K8=""),"",K8*$C8)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L42" s="7" t="str">
-        <f>IF(OR($C8="",L8=""),"",L8*$C8)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M42" s="7" t="str">
-        <f>IF(OR($C8="",M8=""),"",M8*$C8)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N42" s="7" t="str">
-        <f>IF(OR($C8="",N8=""),"",N8*$C8)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O42" s="7" t="str">
-        <f>IF(OR($C8="",O8=""),"",O8*$C8)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P42" s="7" t="str">
-        <f>IF(OR($C8="",P8=""),"",P8*$C8)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q42" s="7" t="str">
-        <f>IF(OR($C8="",Q8=""),"",Q8*$C8)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -11082,43 +11102,43 @@
         <v>13</v>
       </c>
       <c r="H43" s="7" t="str">
-        <f>IF(OR($C9="",H9=""),"",H9*$C9)</f>
+        <f t="shared" ref="H43:Q43" si="17">IF(OR($C9="",H9=""),"",H9*$C9)</f>
         <v/>
       </c>
       <c r="I43" s="7" t="str">
-        <f>IF(OR($C9="",I9=""),"",I9*$C9)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J43" s="7" t="str">
-        <f>IF(OR($C9="",J9=""),"",J9*$C9)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="K43" s="7" t="str">
-        <f>IF(OR($C9="",K9=""),"",K9*$C9)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L43" s="7" t="str">
-        <f>IF(OR($C9="",L9=""),"",L9*$C9)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="M43" s="7" t="str">
-        <f>IF(OR($C9="",M9=""),"",M9*$C9)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N43" s="7" t="str">
-        <f>IF(OR($C9="",N9=""),"",N9*$C9)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="O43" s="7" t="str">
-        <f>IF(OR($C9="",O9=""),"",O9*$C9)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P43" s="7" t="str">
-        <f>IF(OR($C9="",P9=""),"",P9*$C9)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Q43" s="7" t="str">
-        <f>IF(OR($C9="",Q9=""),"",Q9*$C9)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -11128,43 +11148,43 @@
         <v>14</v>
       </c>
       <c r="H44" s="7" t="str">
-        <f>IF(OR($C10="",H10=""),"",H10*$C10)</f>
+        <f t="shared" ref="H44:Q44" si="18">IF(OR($C10="",H10=""),"",H10*$C10)</f>
         <v/>
       </c>
       <c r="I44" s="7" t="str">
-        <f>IF(OR($C10="",I10=""),"",I10*$C10)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J44" s="7" t="str">
-        <f>IF(OR($C10="",J10=""),"",J10*$C10)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K44" s="7" t="str">
-        <f>IF(OR($C10="",K10=""),"",K10*$C10)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L44" s="7" t="str">
-        <f>IF(OR($C10="",L10=""),"",L10*$C10)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M44" s="7" t="str">
-        <f>IF(OR($C10="",M10=""),"",M10*$C10)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N44" s="7" t="str">
-        <f>IF(OR($C10="",N10=""),"",N10*$C10)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O44" s="7" t="str">
-        <f>IF(OR($C10="",O10=""),"",O10*$C10)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="P44" s="7" t="str">
-        <f>IF(OR($C10="",P10=""),"",P10*$C10)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q44" s="7" t="str">
-        <f>IF(OR($C10="",Q10=""),"",Q10*$C10)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -11174,43 +11194,43 @@
         <v>15</v>
       </c>
       <c r="H45" s="7" t="str">
-        <f>IF(OR($C11="",H11=""),"",H11*$C11)</f>
+        <f t="shared" ref="H45:Q45" si="19">IF(OR($C11="",H11=""),"",H11*$C11)</f>
         <v/>
       </c>
       <c r="I45" s="7" t="str">
-        <f>IF(OR($C11="",I11=""),"",I11*$C11)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="J45" s="7" t="str">
-        <f>IF(OR($C11="",J11=""),"",J11*$C11)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K45" s="7" t="str">
-        <f>IF(OR($C11="",K11=""),"",K11*$C11)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L45" s="7" t="str">
-        <f>IF(OR($C11="",L11=""),"",L11*$C11)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M45" s="7" t="str">
-        <f>IF(OR($C11="",M11=""),"",M11*$C11)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="N45" s="7" t="str">
-        <f>IF(OR($C11="",N11=""),"",N11*$C11)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O45" s="7" t="str">
-        <f>IF(OR($C11="",O11=""),"",O11*$C11)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P45" s="7" t="str">
-        <f>IF(OR($C11="",P11=""),"",P11*$C11)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="Q45" s="7" t="str">
-        <f>IF(OR($C11="",Q11=""),"",Q11*$C11)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -11220,43 +11240,43 @@
         <v>16</v>
       </c>
       <c r="H46" s="7" t="str">
-        <f>IF(OR($C12="",H12=""),"",H12*$C12)</f>
+        <f t="shared" ref="H46:Q46" si="20">IF(OR($C12="",H12=""),"",H12*$C12)</f>
         <v/>
       </c>
       <c r="I46" s="7" t="str">
-        <f>IF(OR($C12="",I12=""),"",I12*$C12)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J46" s="7" t="str">
-        <f>IF(OR($C12="",J12=""),"",J12*$C12)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K46" s="7" t="str">
-        <f>IF(OR($C12="",K12=""),"",K12*$C12)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L46" s="7" t="str">
-        <f>IF(OR($C12="",L12=""),"",L12*$C12)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M46" s="7" t="str">
-        <f>IF(OR($C12="",M12=""),"",M12*$C12)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="N46" s="7" t="str">
-        <f>IF(OR($C12="",N12=""),"",N12*$C12)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O46" s="7" t="str">
-        <f>IF(OR($C12="",O12=""),"",O12*$C12)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P46" s="7" t="str">
-        <f>IF(OR($C12="",P12=""),"",P12*$C12)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q46" s="7" t="str">
-        <f>IF(OR($C12="",Q12=""),"",Q12*$C12)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -11266,43 +11286,43 @@
         <v>17</v>
       </c>
       <c r="H47" s="7" t="str">
-        <f>IF(OR($C13="",H13=""),"",H13*$C13)</f>
+        <f t="shared" ref="H47:Q47" si="21">IF(OR($C13="",H13=""),"",H13*$C13)</f>
         <v/>
       </c>
       <c r="I47" s="7" t="str">
-        <f>IF(OR($C13="",I13=""),"",I13*$C13)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J47" s="7" t="str">
-        <f>IF(OR($C13="",J13=""),"",J13*$C13)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K47" s="7" t="str">
-        <f>IF(OR($C13="",K13=""),"",K13*$C13)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="L47" s="7" t="str">
-        <f>IF(OR($C13="",L13=""),"",L13*$C13)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M47" s="7" t="str">
-        <f>IF(OR($C13="",M13=""),"",M13*$C13)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N47" s="7" t="str">
-        <f>IF(OR($C13="",N13=""),"",N13*$C13)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O47" s="7" t="str">
-        <f>IF(OR($C13="",O13=""),"",O13*$C13)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="P47" s="7" t="str">
-        <f>IF(OR($C13="",P13=""),"",P13*$C13)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Q47" s="7" t="str">
-        <f>IF(OR($C13="",Q13=""),"",Q13*$C13)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -11312,43 +11332,43 @@
         <v>18</v>
       </c>
       <c r="H48" s="7" t="str">
-        <f>IF(OR($C14="",H14=""),"",H14*$C14)</f>
+        <f t="shared" ref="H48:Q48" si="22">IF(OR($C14="",H14=""),"",H14*$C14)</f>
         <v/>
       </c>
       <c r="I48" s="7" t="str">
-        <f>IF(OR($C14="",I14=""),"",I14*$C14)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="J48" s="7" t="str">
-        <f>IF(OR($C14="",J14=""),"",J14*$C14)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="K48" s="7" t="str">
-        <f>IF(OR($C14="",K14=""),"",K14*$C14)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="L48" s="7" t="str">
-        <f>IF(OR($C14="",L14=""),"",L14*$C14)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="M48" s="7" t="str">
-        <f>IF(OR($C14="",M14=""),"",M14*$C14)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="N48" s="7" t="str">
-        <f>IF(OR($C14="",N14=""),"",N14*$C14)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O48" s="7" t="str">
-        <f>IF(OR($C14="",O14=""),"",O14*$C14)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="P48" s="7" t="str">
-        <f>IF(OR($C14="",P14=""),"",P14*$C14)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="Q48" s="7" t="str">
-        <f>IF(OR($C14="",Q14=""),"",Q14*$C14)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -11358,60 +11378,60 @@
         <v>19</v>
       </c>
       <c r="H49" s="7" t="str">
-        <f>IF(OR($C15="",H15=""),"",H15*$C15)</f>
+        <f t="shared" ref="H49:Q49" si="23">IF(OR($C15="",H15=""),"",H15*$C15)</f>
         <v/>
       </c>
       <c r="I49" s="7" t="str">
-        <f>IF(OR($C15="",I15=""),"",I15*$C15)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="J49" s="7" t="str">
-        <f>IF(OR($C15="",J15=""),"",J15*$C15)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="K49" s="7" t="str">
-        <f>IF(OR($C15="",K15=""),"",K15*$C15)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="L49" s="7" t="str">
-        <f>IF(OR($C15="",L15=""),"",L15*$C15)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="M49" s="7" t="str">
-        <f>IF(OR($C15="",M15=""),"",M15*$C15)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="N49" s="7" t="str">
-        <f>IF(OR($C15="",N15=""),"",N15*$C15)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O49" s="7" t="str">
-        <f>IF(OR($C15="",O15=""),"",O15*$C15)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P49" s="7" t="str">
-        <f>IF(OR($C15="",P15=""),"",P15*$C15)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Q49" s="7" t="str">
-        <f>IF(OR($C15="",Q15=""),"",Q15*$C15)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G52" s="32" t="s">
+      <c r="G52" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="32"/>
-      <c r="Q52" s="32"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
     </row>
     <row r="53" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G53" s="1" t="s">
@@ -11471,39 +11491,39 @@
         <v>0.87446911791614124</v>
       </c>
       <c r="I55" s="7">
-        <f t="shared" ref="I55:Q55" si="3">IF(I25&lt;&gt;"",IF(I25=0,0,LOG(1/I25,2)),"")</f>
+        <f t="shared" ref="I55:Q55" si="24">IF(I25&lt;&gt;"",IF(I25=0,0,LOG(1/I25,2)),"")</f>
         <v>3.9068905956085191</v>
       </c>
       <c r="J55" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v>0.51457317282975823</v>
       </c>
       <c r="K55" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="L55" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="M55" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="N55" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="O55" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="P55" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="Q55" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -11513,43 +11533,43 @@
         <v>11</v>
       </c>
       <c r="H56" s="7">
-        <f t="shared" ref="H56:Q64" si="4">IF(H26&lt;&gt;"",IF(H26=0,0,LOG(1/H26,2)),"")</f>
+        <f t="shared" ref="H56:Q64" si="25">IF(H26&lt;&gt;"",IF(H26=0,0,LOG(1/H26,2)),"")</f>
         <v>1.1375035237499347</v>
       </c>
       <c r="I56" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>9.9535673550914375E-2</v>
       </c>
       <c r="J56" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v>1.7369655941662063</v>
       </c>
       <c r="K56" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="L56" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="M56" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="N56" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O56" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="P56" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Q56" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -11559,43 +11579,43 @@
         <v>12</v>
       </c>
       <c r="H57" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="I57" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="J57" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K57" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="L57" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="M57" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="N57" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O57" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="P57" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Q57" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -11605,43 +11625,43 @@
         <v>13</v>
       </c>
       <c r="H58" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="I58" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="J58" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K58" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="L58" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="M58" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="N58" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O58" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="P58" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Q58" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -11651,43 +11671,43 @@
         <v>14</v>
       </c>
       <c r="H59" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="I59" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="J59" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K59" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="L59" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="M59" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="N59" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O59" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="P59" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Q59" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -11697,43 +11717,43 @@
         <v>15</v>
       </c>
       <c r="H60" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="I60" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="J60" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K60" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="L60" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="M60" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="N60" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O60" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="P60" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Q60" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -11743,43 +11763,43 @@
         <v>16</v>
       </c>
       <c r="H61" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="I61" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="J61" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K61" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="L61" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="M61" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="N61" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O61" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="P61" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Q61" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -11789,43 +11809,43 @@
         <v>17</v>
       </c>
       <c r="H62" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="I62" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="J62" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K62" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="L62" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="M62" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="N62" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O62" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="P62" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Q62" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -11835,43 +11855,43 @@
         <v>18</v>
       </c>
       <c r="H63" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="I63" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="J63" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K63" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="L63" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="M63" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="N63" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O63" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="P63" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Q63" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -11881,60 +11901,60 @@
         <v>19</v>
       </c>
       <c r="H64" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="I64" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="J64" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="K64" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="L64" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="M64" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="N64" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O64" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="P64" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Q64" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="67" spans="7:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G67" s="31" t="s">
+      <c r="G67" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
-      <c r="K67" s="31"/>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="31"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="31"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="16"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="16"/>
+      <c r="O67" s="16"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="16"/>
     </row>
     <row r="68" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G68" s="9"/>
@@ -11978,39 +11998,39 @@
         <v>0.99403021147695647</v>
       </c>
       <c r="I69" s="7">
-        <f t="shared" ref="I69:Q69" si="5">SUMPRODUCT(I25:I34,I55:I64)</f>
+        <f t="shared" ref="I69:Q69" si="26">SUMPRODUCT(I25:I34,I55:I64)</f>
         <v>0.35335933502142131</v>
       </c>
       <c r="J69" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="26"/>
         <v>0.88129089923069259</v>
       </c>
       <c r="K69" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="L69" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="M69" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N69" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O69" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="P69" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q69" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>

--- a/Planilla Segundo Parcial.xlsx
+++ b/Planilla Segundo Parcial.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="90">
   <si>
     <t>b1</t>
   </si>
@@ -245,9 +245,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>(ruido)</t>
-  </si>
-  <si>
     <t>Informacion a posteriori I(ai/bj)</t>
   </si>
   <si>
@@ -260,10 +257,40 @@
     <t>Entropias a posteriori H(A/bj)</t>
   </si>
   <si>
-    <t>Media a posteriori</t>
+    <t>H(A)=</t>
   </si>
   <si>
-    <t>H(A)</t>
+    <t>(a priori)</t>
+  </si>
+  <si>
+    <t>H(A/B)=</t>
+  </si>
+  <si>
+    <t>H(A,B)=</t>
+  </si>
+  <si>
+    <t>H(B)=</t>
+  </si>
+  <si>
+    <t>I(bj)=</t>
+  </si>
+  <si>
+    <t>Entropías y sus nombres</t>
+  </si>
+  <si>
+    <t>Entropía</t>
+  </si>
+  <si>
+    <t>Valor (bits/simbolo)</t>
+  </si>
+  <si>
+    <t>Otros apodos</t>
+  </si>
+  <si>
+    <t>Equivocación, ruido, Entropia media a Posteriori</t>
+  </si>
+  <si>
+    <t>entropía del canal, entropia afín</t>
   </si>
 </sst>
 </file>
@@ -326,7 +353,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,8 +420,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -437,11 +476,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -523,7 +588,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -978,17 +1052,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R69"/>
+  <dimension ref="A3:R70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
-    <col min="4" max="5" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
     <col min="6" max="6" width="5.85546875" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
@@ -1022,17 +1097,17 @@
       <c r="G4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -1082,26 +1157,29 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="37">
+        <f>F6</f>
+        <v>0</v>
+      </c>
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D6" s="7">
         <f>IF(C6&lt;&gt;"",LOG(1/C6,2),"")</f>
-        <v>1</v>
+        <v>0.73696559416620622</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="1">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="I6" s="1">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -1117,26 +1195,29 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="37">
+        <f t="shared" ref="A7:A15" si="0">F7</f>
+        <v>0</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D7" s="7">
         <f>IF(C7&lt;&gt;"",LOG(1/C7,2),"")</f>
-        <v>1</v>
+        <v>1.3219280948873624</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="1">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1152,7 +1233,10 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1181,7 +1265,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
@@ -1210,13 +1297,16 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="7" t="str">
-        <f t="shared" ref="D9:D15" si="0">IF(C10&lt;&gt;"",LOG(1/C10,2),"")</f>
+        <f t="shared" ref="D10:D15" si="1">IF(C10&lt;&gt;"",LOG(1/C10,2),"")</f>
         <v/>
       </c>
       <c r="F10" s="1"/>
@@ -1234,18 +1324,21 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="3">
-        <f t="shared" ref="R10:R14" si="1">IF(SUM(H10:Q10)=0,1,SUM(H10:Q10))</f>
+        <f t="shared" ref="R10:R14" si="2">IF(SUM(H10:Q10)=0,1,SUM(H10:Q10))</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F11" s="1"/>
@@ -1263,18 +1356,21 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F12" s="1"/>
@@ -1292,18 +1388,21 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F13" s="1"/>
@@ -1321,18 +1420,21 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F14" s="1"/>
@@ -1350,18 +1452,21 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="F15" s="1"/>
@@ -1408,1821 +1513,2076 @@
       <c r="Q17" s="18"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
+      <c r="C18" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
       <c r="G18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="7">
-        <f>SUMPRODUCT(H6:H15,$C$6:$C$15)</f>
-        <v>0.25</v>
+        <f t="shared" ref="H18:Q18" si="3">SUMPRODUCT(H6:H15,$C$6:$C$15)</f>
+        <v>0.49999999999999994</v>
       </c>
       <c r="I18" s="7">
-        <f>SUMPRODUCT(I6:I15,$C$6:$C$15)</f>
-        <v>0.75</v>
+        <f t="shared" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="J18" s="7">
-        <f>SUMPRODUCT(J6:J15,$C$6:$C$15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K18" s="7">
-        <f>SUMPRODUCT(K6:K15,$C$6:$C$15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L18" s="7">
-        <f>SUMPRODUCT(L6:L15,$C$6:$C$15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M18" s="7">
-        <f>SUMPRODUCT(M6:M15,$C$6:$C$15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N18" s="7">
-        <f>SUMPRODUCT(N6:N15,$C$6:$C$15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O18" s="7">
-        <f>SUMPRODUCT(O6:O15,$C$6:$C$15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P18" s="7">
-        <f>SUMPRODUCT(P6:P15,$C$6:$C$15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q18" s="7">
-        <f>SUMPRODUCT(Q6:Q15,$C$6:$C$15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C19" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="7">
-        <f>SUMPRODUCT(C6:C15,D6:D15)</f>
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>80</v>
+      <c r="C19" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="7">
+        <f>IF(H18&lt;&gt;0,LOG(1/H18,2),"")</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" ref="I19:Q19" si="4">IF(I18&lt;&gt;0,LOG(1/I18,2),"")</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="K19" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L19" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="M19" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="N19" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O19" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="P19" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="Q19" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v/>
       </c>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="7">
+        <f>SUMPRODUCT(C6:C15,D6:D15)</f>
+        <v>0.97095059445466869</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D20" s="7">
-        <f>SUMPRODUCT(H18:Q18,H69:Q69)</f>
-        <v>0.68872187554086717</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" ht="23.25" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="3:17" ht="60" x14ac:dyDescent="0.25">
+      <c r="C21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="7">
+        <f>SUMPRODUCT(H18:Q18,H70:Q70)</f>
+        <v>0.6751432464099868</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="7">
-        <f>D19-D20</f>
-        <v>0.31127812445913283</v>
-      </c>
-      <c r="G22" s="20" t="s">
+      <c r="D22" s="39">
+        <f>D20-D21</f>
+        <v>0.29580734804468189</v>
+      </c>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="3:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C23" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="7">
+        <f>SUMPRODUCT(H18:Q18,H19:Q19)</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="G23" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+    </row>
+    <row r="24" spans="3:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="7">
+        <f>D23+D21</f>
+        <v>1.6751432464099869</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="G24" s="9" t="s">
+      <c r="H24" s="1">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" ref="I24:Q24" si="5">I4</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="G25" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J24" s="5" t="s">
+      <c r="H25" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="N25" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O24" s="5" t="s">
+      <c r="O25" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P24" s="5" t="s">
+      <c r="P25" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q24" s="5" t="s">
+      <c r="Q25" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
+    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="6" t="s">
+      <c r="F26" s="37">
+        <f>F6</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="7">
-        <f>IF(OR($C6=0,H$18=0),"",H6/H$18*$C6)</f>
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <f>IF(OR($C6=0,I$18=0),"",I6/I$18*$C6)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J25" s="7" t="str">
-        <f>IF(OR($C6=0,J$18=0),"",J6/J$18*$C6)</f>
-        <v/>
-      </c>
-      <c r="K25" s="7" t="str">
-        <f>IF(OR($C6=0,K$18=0),"",K6/K$18*$C6)</f>
-        <v/>
-      </c>
-      <c r="L25" s="7" t="str">
-        <f>IF(OR($C6=0,L$18=0),"",L6/L$18*$C6)</f>
-        <v/>
-      </c>
-      <c r="M25" s="7" t="str">
-        <f>IF(OR($C6=0,M$18=0),"",M6/M$18*$C6)</f>
-        <v/>
-      </c>
-      <c r="N25" s="7" t="str">
-        <f>IF(OR($C6=0,N$18=0),"",N6/N$18*$C6)</f>
-        <v/>
-      </c>
-      <c r="O25" s="7" t="str">
-        <f>IF(OR($C6=0,O$18=0),"",O6/O$18*$C6)</f>
-        <v/>
-      </c>
-      <c r="P25" s="7" t="str">
-        <f>IF(OR($C6=0,P$18=0),"",P6/P$18*$C6)</f>
-        <v/>
-      </c>
-      <c r="Q25" s="7" t="str">
-        <f>IF(OR($C6=0,Q$18=0),"",Q6/Q$18*$C6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="F26" s="1"/>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="7">
+        <f t="shared" ref="H26:Q26" si="6">IF(OR($C6=0,H$18=0),"",H6/H$18*$C6)</f>
+        <v>0.90000000000000013</v>
+      </c>
+      <c r="I26" s="7">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="J26" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K26" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="L26" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M26" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N26" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O26" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="P26" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q26" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F27" s="37">
+        <f t="shared" ref="F27:F35" si="7">F7</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="7">
-        <f t="shared" ref="H26:Q26" si="2">IF(OR($C7=0,H$18=0),"",H7/H$18*$C7)</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <f t="shared" si="2"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J26" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K26" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L26" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M26" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N26" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="O26" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="P26" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q26" s="7" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="F27" s="1"/>
-      <c r="G27" s="5" t="s">
+      <c r="H27" s="7">
+        <f t="shared" ref="H27:Q27" si="8">IF(OR($C7=0,H$18=0),"",H7/H$18*$C7)</f>
+        <v>0.1</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="8"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="J27" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="K27" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="L27" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M27" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="N27" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O27" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P27" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q27" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F28" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="7" t="str">
-        <f t="shared" ref="H27:Q27" si="3">IF(OR($C8=0,H$18=0),"",H8/H$18*$C8)</f>
-        <v/>
-      </c>
-      <c r="I27" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J27" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="K27" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="L27" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="M27" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N27" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O27" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="P27" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="Q27" s="7" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="F28" s="1"/>
-      <c r="G28" s="6" t="s">
+      <c r="H28" s="7" t="str">
+        <f t="shared" ref="H28:Q28" si="9">IF(OR($C8=0,H$18=0),"",H8/H$18*$C8)</f>
+        <v/>
+      </c>
+      <c r="I28" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="J28" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K28" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L28" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M28" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N28" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O28" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="P28" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Q28" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F29" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="7" t="str">
-        <f>IF(OR($C9=0,H$18=0),"",H9/H$18*$C9)</f>
-        <v/>
-      </c>
-      <c r="I28" s="7" t="str">
-        <f>IF(OR($C9=0,I$18=0),"",I9/I$18*$C9)</f>
-        <v/>
-      </c>
-      <c r="J28" s="7" t="str">
-        <f>IF(OR($C9=0,J$18=0),"",J9/J$18*$C9)</f>
-        <v/>
-      </c>
-      <c r="K28" s="7" t="str">
-        <f>IF(OR($C9=0,K$18=0),"",K9/K$18*$C9)</f>
-        <v/>
-      </c>
-      <c r="L28" s="7" t="str">
-        <f>IF(OR($C9=0,L$18=0),"",L9/L$18*$C9)</f>
-        <v/>
-      </c>
-      <c r="M28" s="7" t="str">
-        <f>IF(OR($C9=0,M$18=0),"",M9/M$18*$C9)</f>
-        <v/>
-      </c>
-      <c r="N28" s="7" t="str">
-        <f>IF(OR($C9=0,N$18=0),"",N9/N$18*$C9)</f>
-        <v/>
-      </c>
-      <c r="O28" s="7" t="str">
-        <f>IF(OR($C9=0,O$18=0),"",O9/O$18*$C9)</f>
-        <v/>
-      </c>
-      <c r="P28" s="7" t="str">
-        <f>IF(OR($C9=0,P$18=0),"",P9/P$18*$C9)</f>
-        <v/>
-      </c>
-      <c r="Q28" s="7" t="str">
-        <f>IF(OR($C9=0,Q$18=0),"",Q9/Q$18*$C9)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="F29" s="1"/>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="7" t="str">
+        <f t="shared" ref="H29:Q29" si="10">IF(OR($C9=0,H$18=0),"",H9/H$18*$C9)</f>
+        <v/>
+      </c>
+      <c r="I29" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J29" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="K29" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L29" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M29" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N29" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O29" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="P29" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Q29" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F30" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="7" t="str">
-        <f t="shared" ref="H29:Q29" si="4">IF(OR($C10=0,H$18=0),"",H10/H$18*$C10)</f>
-        <v/>
-      </c>
-      <c r="I29" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="J29" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K29" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L29" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M29" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="N29" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O29" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P29" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="Q29" s="7" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="F30" s="1"/>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="7" t="str">
+        <f t="shared" ref="H30:Q30" si="11">IF(OR($C10=0,H$18=0),"",H10/H$18*$C10)</f>
+        <v/>
+      </c>
+      <c r="I30" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="J30" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="K30" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L30" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="M30" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="N30" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O30" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="P30" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q30" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F31" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="7" t="str">
-        <f t="shared" ref="H30:Q30" si="5">IF(OR($C11=0,H$18=0),"",H11/H$18*$C11)</f>
-        <v/>
-      </c>
-      <c r="I30" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J30" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K30" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L30" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M30" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N30" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O30" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P30" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q30" s="7" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="F31" s="1"/>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="7" t="str">
+        <f t="shared" ref="H31:Q31" si="12">IF(OR($C11=0,H$18=0),"",H11/H$18*$C11)</f>
+        <v/>
+      </c>
+      <c r="I31" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="J31" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="K31" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L31" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M31" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N31" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="O31" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="P31" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Q31" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F32" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H31" s="7" t="str">
-        <f t="shared" ref="H31:Q31" si="6">IF(OR($C12=0,H$18=0),"",H12/H$18*$C12)</f>
-        <v/>
-      </c>
-      <c r="I31" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="J31" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K31" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L31" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M31" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="N31" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O31" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="P31" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q31" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="F32" s="1"/>
-      <c r="G32" s="5" t="s">
+      <c r="H32" s="7" t="str">
+        <f t="shared" ref="H32:Q32" si="13">IF(OR($C12=0,H$18=0),"",H12/H$18*$C12)</f>
+        <v/>
+      </c>
+      <c r="I32" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J32" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K32" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L32" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M32" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="N32" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="O32" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="P32" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Q32" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F33" s="37">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H32" s="7" t="str">
-        <f t="shared" ref="H32:Q32" si="7">IF(OR($C13=0,H$18=0),"",H13/H$18*$C13)</f>
-        <v/>
-      </c>
-      <c r="I32" s="7" t="str">
+      <c r="H33" s="7" t="str">
+        <f t="shared" ref="H33:Q33" si="14">IF(OR($C13=0,H$18=0),"",H13/H$18*$C13)</f>
+        <v/>
+      </c>
+      <c r="I33" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="J33" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="K33" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="L33" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M33" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="N33" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O33" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="P33" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="Q33" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F34" s="37">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J32" s="7" t="str">
+        <v>0</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="7" t="str">
+        <f t="shared" ref="H34:Q34" si="15">IF(OR($C14=0,H$18=0),"",H14/H$18*$C14)</f>
+        <v/>
+      </c>
+      <c r="I34" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J34" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="K34" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="L34" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M34" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N34" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="O34" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="P34" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="Q34" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F35" s="37">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K32" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L32" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M32" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N32" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="O32" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P32" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="Q32" s="7" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F33" s="1"/>
-      <c r="G33" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H35" s="7" t="str">
+        <f t="shared" ref="H35:Q35" si="16">IF(OR($C15=0,H$18=0),"",H15/H$18*$C15)</f>
+        <v/>
+      </c>
+      <c r="I35" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="J35" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="K35" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="L35" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="M35" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N35" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="O35" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="P35" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="Q35" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="G36" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" s="3">
+        <f>IF(SUM(H26:H35)=0,1,SUM(H26:H35))</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" ref="I36:Q36" si="17">IF(SUM(I26:I35)=0,1,SUM(I26:I35))</f>
+        <v>1</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="M36" s="3">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="N36" s="3">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="Q36" s="3">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="G38" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+    </row>
+    <row r="39" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="G39" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H39" s="1">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" ref="I39:Q39" si="18">I4</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="G40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F41" s="37">
+        <f>F6</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="7">
+        <f t="shared" ref="H41:Q41" si="19">IF(OR($C6="",H6=""),"",H6*$C6)</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="I41" s="7">
+        <f t="shared" si="19"/>
+        <v>0.15</v>
+      </c>
+      <c r="J41" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="K41" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="L41" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M41" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N41" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="O41" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="P41" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Q41" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F42" s="37">
+        <f t="shared" ref="F42:F50" si="20">F7</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" ref="H42:Q42" si="21">IF(OR($C7="",H7=""),"",H7*$C7)</f>
+        <v>0.05</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="shared" si="21"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="J42" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="K42" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="L42" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="M42" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="N42" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="O42" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="P42" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Q42" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F43" s="37">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="7" t="str">
+        <f t="shared" ref="H43:Q43" si="22">IF(OR($C8="",H8=""),"",H8*$C8)</f>
+        <v/>
+      </c>
+      <c r="I43" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="J43" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="K43" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="L43" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="M43" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N43" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="O43" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="P43" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Q43" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F44" s="37">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="7" t="str">
+        <f t="shared" ref="H44:Q44" si="23">IF(OR($C9="",H9=""),"",H9*$C9)</f>
+        <v/>
+      </c>
+      <c r="I44" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="J44" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="K44" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="L44" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="M44" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="N44" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O44" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="P44" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="Q44" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F45" s="37">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="7" t="str">
+        <f t="shared" ref="H45:Q45" si="24">IF(OR($C10="",H10=""),"",H10*$C10)</f>
+        <v/>
+      </c>
+      <c r="I45" s="7" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="J45" s="7" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="K45" s="7" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="L45" s="7" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="M45" s="7" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="N45" s="7" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="O45" s="7" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="P45" s="7" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q45" s="7" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F46" s="37">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46" s="7" t="str">
+        <f t="shared" ref="H46:Q46" si="25">IF(OR($C11="",H11=""),"",H11*$C11)</f>
+        <v/>
+      </c>
+      <c r="I46" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="J46" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="K46" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="L46" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="M46" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="N46" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="O46" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="P46" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Q46" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F47" s="37">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="7" t="str">
+        <f t="shared" ref="H47:Q47" si="26">IF(OR($C12="",H12=""),"",H12*$C12)</f>
+        <v/>
+      </c>
+      <c r="I47" s="7" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="J47" s="7" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="K47" s="7" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="L47" s="7" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="M47" s="7" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="N47" s="7" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="O47" s="7" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="P47" s="7" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="Q47" s="7" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F48" s="37">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="7" t="str">
+        <f t="shared" ref="H48:Q48" si="27">IF(OR($C13="",H13=""),"",H13*$C13)</f>
+        <v/>
+      </c>
+      <c r="I48" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="J48" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="K48" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L48" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="M48" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="N48" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="O48" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="P48" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="Q48" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F49" s="37">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H33" s="7" t="str">
-        <f t="shared" ref="H33:Q33" si="8">IF(OR($C14=0,H$18=0),"",H14/H$18*$C14)</f>
-        <v/>
-      </c>
-      <c r="I33" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J33" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K33" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L33" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M33" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N33" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="O33" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="P33" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Q33" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F34" s="1"/>
-      <c r="G34" s="5" t="s">
+      <c r="H49" s="7" t="str">
+        <f t="shared" ref="H49:Q49" si="28">IF(OR($C14="",H14=""),"",H14*$C14)</f>
+        <v/>
+      </c>
+      <c r="I49" s="7" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="J49" s="7" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K49" s="7" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="L49" s="7" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="M49" s="7" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="N49" s="7" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="O49" s="7" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="P49" s="7" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="Q49" s="7" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F50" s="37">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H34" s="7" t="str">
-        <f t="shared" ref="H34:Q34" si="9">IF(OR($C15=0,H$18=0),"",H15/H$18*$C15)</f>
-        <v/>
-      </c>
-      <c r="I34" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="J34" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="K34" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="L34" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="M34" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N34" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O34" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="P34" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Q34" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="G35" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H35" s="3">
-        <f>IF(SUM(H25:H34)=0,1,SUM(H25:H34))</f>
-        <v>1</v>
-      </c>
-      <c r="I35" s="3">
-        <f t="shared" ref="I35:Q35" si="10">IF(SUM(I25:I34)=0,1,SUM(I25:I34))</f>
-        <v>1</v>
-      </c>
-      <c r="J35" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="K35" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="L35" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="M35" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="N35" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O35" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="P35" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="Q35" s="3">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G37" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-    </row>
-    <row r="38" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="G38" s="1" t="s">
+      <c r="H50" s="7" t="str">
+        <f t="shared" ref="H50:Q50" si="29">IF(OR($C15="",H15=""),"",H15*$C15)</f>
+        <v/>
+      </c>
+      <c r="I50" s="7" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="J50" s="7" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="K50" s="7" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="L50" s="7" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="M50" s="7" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="N50" s="7" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="O50" s="7" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="P50" s="7" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="Q50" s="7" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="G53" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+    </row>
+    <row r="54" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="G54" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-    </row>
-    <row r="39" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="G39" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I39" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J39" s="5" t="s">
+      <c r="H54" s="38">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+      <c r="I54" s="38">
+        <f t="shared" ref="I54:Q54" si="30">I4</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="38">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="38">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="38">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="38">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="38">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="38">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="38">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="38">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="G55" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J55" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K39" s="5" t="s">
+      <c r="K55" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L39" s="5" t="s">
+      <c r="L55" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M39" s="5" t="s">
+      <c r="M55" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="N55" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O39" s="5" t="s">
+      <c r="O55" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P39" s="5" t="s">
+      <c r="P55" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q39" s="5" t="s">
+      <c r="Q55" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F40" s="1"/>
-      <c r="G40" s="6" t="s">
+    <row r="56" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F56" s="37">
+        <f>F6</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H40" s="7">
-        <f>IF(OR($C6="",H6=""),"",H6*$C6)</f>
-        <v>0.25</v>
-      </c>
-      <c r="I40" s="7">
-        <f>IF(OR($C6="",I6=""),"",I6*$C6)</f>
-        <v>0.25</v>
-      </c>
-      <c r="J40" s="7" t="str">
-        <f>IF(OR($C6="",J6=""),"",J6*$C6)</f>
-        <v/>
-      </c>
-      <c r="K40" s="7" t="str">
-        <f>IF(OR($C6="",K6=""),"",K6*$C6)</f>
-        <v/>
-      </c>
-      <c r="L40" s="7" t="str">
-        <f>IF(OR($C6="",L6=""),"",L6*$C6)</f>
-        <v/>
-      </c>
-      <c r="M40" s="7" t="str">
-        <f>IF(OR($C6="",M6=""),"",M6*$C6)</f>
-        <v/>
-      </c>
-      <c r="N40" s="7" t="str">
-        <f>IF(OR($C6="",N6=""),"",N6*$C6)</f>
-        <v/>
-      </c>
-      <c r="O40" s="7" t="str">
-        <f>IF(OR($C6="",O6=""),"",O6*$C6)</f>
-        <v/>
-      </c>
-      <c r="P40" s="7" t="str">
-        <f>IF(OR($C6="",P6=""),"",P6*$C6)</f>
-        <v/>
-      </c>
-      <c r="Q40" s="7" t="str">
-        <f>IF(OR($C6="",Q6=""),"",Q6*$C6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F41" s="1"/>
-      <c r="G41" s="5" t="s">
+      <c r="H56" s="7">
+        <f>IF(H26&lt;&gt;"",IF(H26=0,0,LOG(1/H26,2)),"")</f>
+        <v>0.15200309344504975</v>
+      </c>
+      <c r="I56" s="7">
+        <f t="shared" ref="I56:Q56" si="31">IF(I26&lt;&gt;"",IF(I26=0,0,LOG(1/I26,2)),"")</f>
+        <v>1.7369655941662063</v>
+      </c>
+      <c r="J56" s="7" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="K56" s="7" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="L56" s="7" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="M56" s="7" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="N56" s="7" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="O56" s="7" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="P56" s="7" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="Q56" s="7" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F57" s="37">
+        <f t="shared" ref="F57:F65" si="32">F7</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H41" s="7">
-        <f t="shared" ref="H41:Q41" si="11">IF(OR($C7="",H7=""),"",H7*$C7)</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="7">
-        <f t="shared" si="11"/>
-        <v>0.5</v>
-      </c>
-      <c r="J41" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K41" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="L41" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="M41" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="N41" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O41" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="P41" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q41" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F42" s="1"/>
-      <c r="G42" s="5" t="s">
+      <c r="H57" s="7">
+        <f t="shared" ref="H57:Q65" si="33">IF(H27&lt;&gt;"",IF(H27=0,0,LOG(1/H27,2)),"")</f>
+        <v>3.3219280948873626</v>
+      </c>
+      <c r="I57" s="7">
+        <f t="shared" si="33"/>
+        <v>0.51457317282975801</v>
+      </c>
+      <c r="J57" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K57" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L57" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M57" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="N57" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="O57" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="P57" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="Q57" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F58" s="37">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H42" s="7" t="str">
-        <f t="shared" ref="H42:Q42" si="12">IF(OR($C8="",H8=""),"",H8*$C8)</f>
-        <v/>
-      </c>
-      <c r="I42" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J42" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K42" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L42" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="M42" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="N42" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O42" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="P42" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="Q42" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F43" s="1"/>
-      <c r="G43" s="6" t="s">
+      <c r="H58" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I58" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J58" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K58" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L58" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M58" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="N58" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="O58" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="P58" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="Q58" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F59" s="37">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H43" s="7" t="str">
-        <f>IF(OR($C9="",H9=""),"",H9*$C9)</f>
-        <v/>
-      </c>
-      <c r="I43" s="7" t="str">
-        <f>IF(OR($C9="",I9=""),"",I9*$C9)</f>
-        <v/>
-      </c>
-      <c r="J43" s="7" t="str">
-        <f>IF(OR($C9="",J9=""),"",J9*$C9)</f>
-        <v/>
-      </c>
-      <c r="K43" s="7" t="str">
-        <f>IF(OR($C9="",K9=""),"",K9*$C9)</f>
-        <v/>
-      </c>
-      <c r="L43" s="7" t="str">
-        <f>IF(OR($C9="",L9=""),"",L9*$C9)</f>
-        <v/>
-      </c>
-      <c r="M43" s="7" t="str">
-        <f>IF(OR($C9="",M9=""),"",M9*$C9)</f>
-        <v/>
-      </c>
-      <c r="N43" s="7" t="str">
-        <f>IF(OR($C9="",N9=""),"",N9*$C9)</f>
-        <v/>
-      </c>
-      <c r="O43" s="7" t="str">
-        <f>IF(OR($C9="",O9=""),"",O9*$C9)</f>
-        <v/>
-      </c>
-      <c r="P43" s="7" t="str">
-        <f>IF(OR($C9="",P9=""),"",P9*$C9)</f>
-        <v/>
-      </c>
-      <c r="Q43" s="7" t="str">
-        <f>IF(OR($C9="",Q9=""),"",Q9*$C9)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F44" s="1"/>
-      <c r="G44" s="5" t="s">
+      <c r="H59" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I59" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J59" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K59" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L59" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M59" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="N59" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="O59" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="P59" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="Q59" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F60" s="37">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H44" s="7" t="str">
-        <f t="shared" ref="H44:Q44" si="13">IF(OR($C10="",H10=""),"",H10*$C10)</f>
-        <v/>
-      </c>
-      <c r="I44" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J44" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="K44" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L44" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="M44" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="N44" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="O44" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="P44" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q44" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F45" s="1"/>
-      <c r="G45" s="5" t="s">
+      <c r="H60" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I60" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J60" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K60" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L60" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M60" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="N60" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="O60" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="P60" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="Q60" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F61" s="37">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="7" t="str">
-        <f t="shared" ref="H45:Q45" si="14">IF(OR($C11="",H11=""),"",H11*$C11)</f>
-        <v/>
-      </c>
-      <c r="I45" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="J45" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K45" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L45" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M45" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="N45" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="O45" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="P45" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="Q45" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F46" s="1"/>
-      <c r="G46" s="5" t="s">
+      <c r="H61" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I61" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J61" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K61" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L61" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M61" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="N61" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="O61" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="P61" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="Q61" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F62" s="37">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H46" s="7" t="str">
-        <f t="shared" ref="H46:Q46" si="15">IF(OR($C12="",H12=""),"",H12*$C12)</f>
-        <v/>
-      </c>
-      <c r="I46" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="J46" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="K46" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="L46" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M46" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N46" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O46" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="P46" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="Q46" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F47" s="1"/>
-      <c r="G47" s="5" t="s">
+      <c r="H62" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I62" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J62" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K62" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L62" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M62" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="N62" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="O62" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="P62" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="Q62" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F63" s="37">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="7" t="str">
-        <f t="shared" ref="H47:Q47" si="16">IF(OR($C13="",H13=""),"",H13*$C13)</f>
-        <v/>
-      </c>
-      <c r="I47" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="J47" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="K47" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="L47" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="M47" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="N47" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="O47" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P47" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q47" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F48" s="1"/>
-      <c r="G48" s="5" t="s">
+      <c r="H63" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I63" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J63" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K63" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L63" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M63" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="N63" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="O63" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="P63" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="Q63" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F64" s="37">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H48" s="7" t="str">
-        <f t="shared" ref="H48:Q48" si="17">IF(OR($C14="",H14=""),"",H14*$C14)</f>
-        <v/>
-      </c>
-      <c r="I48" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="J48" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="K48" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="L48" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="M48" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="N48" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="O48" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="P48" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-      <c r="Q48" s="7" t="str">
-        <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F49" s="1"/>
-      <c r="G49" s="5" t="s">
+      <c r="H64" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I64" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J64" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K64" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L64" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M64" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="N64" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="O64" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="P64" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="Q64" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F65" s="37">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H49" s="7" t="str">
-        <f t="shared" ref="H49:Q49" si="18">IF(OR($C15="",H15=""),"",H15*$C15)</f>
-        <v/>
-      </c>
-      <c r="I49" s="7" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="J49" s="7" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="K49" s="7" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="L49" s="7" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="M49" s="7" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="N49" s="7" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="O49" s="7" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="P49" s="7" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="Q49" s="7" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G52" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-    </row>
-    <row r="53" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="G53" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-    </row>
-    <row r="54" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="G54" s="9" t="s">
+      <c r="H65" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I65" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J65" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K65" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L65" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M65" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="N65" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="O65" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="P65" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="Q65" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="G68" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="16"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16"/>
+      <c r="N68" s="16"/>
+      <c r="O68" s="16"/>
+      <c r="P68" s="16"/>
+      <c r="Q68" s="16"/>
+    </row>
+    <row r="69" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="G69" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="H54" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J54" s="5" t="s">
+      <c r="H69" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J69" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K54" s="5" t="s">
+      <c r="K69" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="5" t="s">
+      <c r="L69" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M54" s="5" t="s">
+      <c r="M69" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N54" s="5" t="s">
+      <c r="N69" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O54" s="5" t="s">
+      <c r="O69" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P54" s="5" t="s">
+      <c r="P69" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q54" s="5" t="s">
+      <c r="Q69" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F55" s="1"/>
-      <c r="G55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H55" s="7">
-        <f>IF(H25&lt;&gt;"",IF(H25=0,0,LOG(1/H25,2)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="I55" s="7">
-        <f t="shared" ref="I55:Q55" si="19">IF(I25&lt;&gt;"",IF(I25=0,0,LOG(1/I25,2)),"")</f>
-        <v>1.5849625007211563</v>
-      </c>
-      <c r="J55" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="K55" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L55" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="M55" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="N55" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="O55" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="P55" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Q55" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F56" s="1"/>
-      <c r="G56" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" s="7">
-        <f t="shared" ref="H56:Q64" si="20">IF(H26&lt;&gt;"",IF(H26=0,0,LOG(1/H26,2)),"")</f>
-        <v>0</v>
-      </c>
-      <c r="I56" s="7">
-        <f t="shared" si="20"/>
-        <v>0.58496250072115619</v>
-      </c>
-      <c r="J56" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K56" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L56" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M56" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="N56" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O56" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="P56" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Q56" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F57" s="1"/>
-      <c r="G57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="I57" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="J57" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K57" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L57" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M57" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="N57" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O57" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="P57" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Q57" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F58" s="1"/>
-      <c r="G58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H58" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="I58" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="J58" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K58" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L58" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M58" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="N58" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O58" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="P58" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Q58" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F59" s="1"/>
-      <c r="G59" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H59" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="I59" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="J59" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K59" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L59" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M59" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="N59" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O59" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="P59" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Q59" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F60" s="1"/>
-      <c r="G60" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="I60" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="J60" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K60" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L60" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M60" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="N60" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O60" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="P60" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Q60" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F61" s="1"/>
-      <c r="G61" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H61" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="I61" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="J61" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K61" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L61" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M61" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="N61" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O61" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="P61" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Q61" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F62" s="1"/>
-      <c r="G62" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H62" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="I62" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="J62" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K62" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L62" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M62" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="N62" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O62" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="P62" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Q62" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F63" s="1"/>
-      <c r="G63" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="I63" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="J63" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K63" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L63" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M63" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="N63" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O63" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="P63" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Q63" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F64" s="1"/>
-      <c r="G64" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="I64" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="J64" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="K64" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="L64" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M64" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="N64" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="O64" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="P64" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="Q64" s="7" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="7:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G67" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
-    </row>
-    <row r="68" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G68" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I68" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J68" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K68" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L68" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M68" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N68" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O68" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P68" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q68" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="7:17" x14ac:dyDescent="0.25">
-      <c r="G69" s="5" t="s">
+    <row r="70" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="G70" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="H69" s="7">
-        <f>SUMPRODUCT(H25:H34,H55:H64)</f>
-        <v>0</v>
-      </c>
-      <c r="I69" s="7">
-        <f t="shared" ref="I69:Q69" si="21">SUMPRODUCT(I25:I34,I55:I64)</f>
-        <v>0.91829583405448956</v>
-      </c>
-      <c r="J69" s="7">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="K69" s="7">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="L69" s="7">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="M69" s="7">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="N69" s="7">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="O69" s="7">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="P69" s="7">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Q69" s="7">
-        <f t="shared" si="21"/>
+      <c r="H70" s="7">
+        <f>SUMPRODUCT(H26:H35,H56:H65)</f>
+        <v>0.46899559358928111</v>
+      </c>
+      <c r="I70" s="7">
+        <f t="shared" ref="I70:Q70" si="34">SUMPRODUCT(I26:I35,I56:I65)</f>
+        <v>0.88129089923069248</v>
+      </c>
+      <c r="J70" s="7">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="K70" s="7">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="L70" s="7">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="7">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="7">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="7">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="7">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="7">
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="G67:Q67"/>
+  <mergeCells count="8">
+    <mergeCell ref="G68:Q68"/>
     <mergeCell ref="G3:R3"/>
     <mergeCell ref="G17:Q17"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G22:Q22"/>
-    <mergeCell ref="G37:Q37"/>
-    <mergeCell ref="G52:Q52"/>
+    <mergeCell ref="G23:Q23"/>
+    <mergeCell ref="G38:Q38"/>
+    <mergeCell ref="G53:Q53"/>
+    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <conditionalFormatting sqref="R6:R15">
     <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H35:Q35">
+  <conditionalFormatting sqref="H36:Q36">
     <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>

--- a/Planilla Segundo Parcial.xlsx
+++ b/Planilla Segundo Parcial.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="100">
   <si>
     <t>b1</t>
   </si>
@@ -242,9 +242,6 @@
     <t>Info. Mutua:</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Informacion a posteriori I(ai/bj)</t>
   </si>
   <si>
@@ -291,6 +288,39 @@
   </si>
   <si>
     <t>entropía del canal, entropia afín</t>
+  </si>
+  <si>
+    <t>algo</t>
+  </si>
+  <si>
+    <t>ALGO: log2(P(A,B)/(P(A)P(B)))</t>
+  </si>
+  <si>
+    <t>calc con resta</t>
+  </si>
+  <si>
+    <t>calc con todo</t>
+  </si>
+  <si>
+    <t>names</t>
+  </si>
+  <si>
+    <t>H(B/A)=</t>
+  </si>
+  <si>
+    <t>perdida con resta</t>
+  </si>
+  <si>
+    <t>perdida con formula</t>
+  </si>
+  <si>
+    <t>Otro algo: P(bj/ai)*log2(1/p(bj/ai))</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>H(B/ai) (no?)</t>
   </si>
 </sst>
 </file>
@@ -353,7 +383,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -432,6 +462,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="6">
     <border>
@@ -506,7 +542,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -524,6 +560,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -544,6 +587,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -588,15 +634,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,7 +805,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1052,13 +1091,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R70"/>
+  <dimension ref="A3:R101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
@@ -1072,42 +1111,42 @@
   <sheetData>
     <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E3" s="15"/>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
     </row>
     <row r="4" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="15"/>
       <c r="G4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -1119,6 +1158,9 @@
       <c r="D5" s="5" t="s">
         <v>35</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="G5" s="9" t="s">
         <v>21</v>
       </c>
@@ -1157,7 +1199,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
+      <c r="A6" s="16">
         <f>F6</f>
         <v>0</v>
       </c>
@@ -1165,26 +1207,38 @@
         <v>10</v>
       </c>
       <c r="C6" s="1">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D6" s="7">
         <f>IF(C6&lt;&gt;"",LOG(1/C6,2),"")</f>
-        <v>0.73696559416620622</v>
+        <v>1.5849625007211563</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="1">
-        <v>0.75</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I6" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J6" s="1">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1195,7 +1249,7 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="37">
+      <c r="A7" s="16">
         <f t="shared" ref="A7:A15" si="0">F7</f>
         <v>0</v>
       </c>
@@ -1203,26 +1257,35 @@
         <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>0.4</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D7" s="7">
         <f>IF(C7&lt;&gt;"",LOG(1/C7,2),"")</f>
-        <v>1.3219280948873624</v>
+        <v>1.5849625007211563</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="1">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
@@ -1233,28 +1296,43 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
+      <c r="A8" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="7" t="str">
+      <c r="C8" s="1">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D8" s="7">
         <f>IF(C8&lt;&gt;"",LOG(1/C8,2),"")</f>
-        <v/>
+        <v>1.5849625007211563</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
@@ -1265,7 +1343,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
+      <c r="A9" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1297,7 +1375,7 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="37">
+      <c r="A10" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1329,7 +1407,7 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="37">
+      <c r="A11" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1361,7 +1439,7 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="37">
+      <c r="A12" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1393,7 +1471,7 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="37">
+      <c r="A13" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1425,7 +1503,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="37">
+      <c r="A14" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1457,7 +1535,7 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="37">
+      <c r="A15" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1498,52 +1576,52 @@
       </c>
     </row>
     <row r="17" spans="3:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C18" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
+      <c r="C18" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
       <c r="G18" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" ref="H18:Q18" si="3">SUMPRODUCT(H6:H15,$C$6:$C$15)</f>
-        <v>0.49999999999999994</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="3"/>
-        <v>0.5</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L18" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M18" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="N18" s="7">
         <f t="shared" si="3"/>
@@ -1563,41 +1641,41 @@
       </c>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="E19" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="G19" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H19" s="7">
         <f>IF(H18&lt;&gt;0,LOG(1/H18,2),"")</f>
-        <v>1</v>
+        <v>3.1699250014423126</v>
       </c>
       <c r="I19" s="7">
         <f t="shared" ref="I19:Q19" si="4">IF(I18&lt;&gt;0,LOG(1/I18,2),"")</f>
-        <v>1</v>
-      </c>
-      <c r="J19" s="7" t="str">
+        <v>3.1699250014423126</v>
+      </c>
+      <c r="J19" s="7">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K19" s="7" t="str">
+        <v>3.1699250014423126</v>
+      </c>
+      <c r="K19" s="7">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="L19" s="7" t="str">
+        <v>2.5849625007211561</v>
+      </c>
+      <c r="L19" s="7">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="M19" s="7" t="str">
+        <v>2.5849625007211561</v>
+      </c>
+      <c r="M19" s="7">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1.5849625007211563</v>
       </c>
       <c r="N19" s="7" t="str">
         <f t="shared" si="4"/>
@@ -1618,1963 +1696,3247 @@
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C20" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D20" s="7">
         <f>SUMPRODUCT(C6:C15,D6:D15)</f>
-        <v>0.97095059445466869</v>
+        <v>1.5849625007211561</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="3:17" ht="60" x14ac:dyDescent="0.25">
       <c r="C21" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="7">
-        <f>SUMPRODUCT(H18:Q18,H70:Q70)</f>
-        <v>0.6751432464099868</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>88</v>
+        <f>SUMPRODUCT(H18:Q18,H71:Q71)</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="18">
         <f>D20-D21</f>
-        <v>0.29580734804468189</v>
-      </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="3:17" ht="23.25" x14ac:dyDescent="0.35">
+        <v>1.5849625007211561</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C23" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="7">
-        <f>SUMPRODUCT(H18:Q18,H19:Q19)</f>
-        <v>1</v>
-      </c>
-      <c r="E23" s="5"/>
-      <c r="G23" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-    </row>
-    <row r="24" spans="3:17" ht="45" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D23" s="18">
+        <f>SUMPRODUCT(H77:Q86,H42:Q51)</f>
+        <v>1.5849625007211561</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C24" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D24" s="7">
-        <f>D23+D21</f>
-        <v>1.6751432464099869</v>
-      </c>
-      <c r="E24" s="42" t="s">
+        <f>SUMPRODUCT(H18:Q18,H19:Q19)</f>
+        <v>2.446616667628208</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="G24" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+    </row>
+    <row r="25" spans="3:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="7">
+        <f>D24+D21</f>
+        <v>2.446616667628208</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" s="1">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" ref="I25:Q25" si="5">I4</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C26" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="7">
+        <f>D25-D20</f>
+        <v>0.86165416690705188</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C27" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="7">
+        <f>SUMPRODUCT(C6:C15,D92:D101)</f>
+        <v>0.86165416690705188</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="16">
+        <f>F6</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="7">
+        <f t="shared" ref="H27:Q27" si="6">IF(OR($C6=0,H$18=0),"",H6/H$18*$C6)</f>
+        <v>1</v>
+      </c>
+      <c r="I27" s="7">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J27" s="7">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="7">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N27" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="O27" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="P27" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Q27" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F28" s="16">
+        <f>F7</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="7">
+        <f t="shared" ref="H28:Q28" si="7">IF(OR($C7=0,H$18=0),"",H7/H$18*$C7)</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L28" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="M28" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O28" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="P28" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="Q28" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F29" s="16">
+        <f>F8</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="7">
+        <f t="shared" ref="H29:Q29" si="8">IF(OR($C8=0,H$18=0),"",H8/H$18*$C8)</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="N29" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="O29" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P29" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="Q29" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F30" s="16">
+        <f>F9</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="7" t="str">
+        <f t="shared" ref="H30:Q30" si="9">IF(OR($C9=0,H$18=0),"",H9/H$18*$C9)</f>
+        <v/>
+      </c>
+      <c r="I30" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="J30" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="K30" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="L30" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="M30" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="N30" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="O30" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="P30" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+      <c r="Q30" s="7" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F31" s="16">
+        <f>F10</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="7" t="str">
+        <f t="shared" ref="H31:Q31" si="10">IF(OR($C10=0,H$18=0),"",H10/H$18*$C10)</f>
+        <v/>
+      </c>
+      <c r="I31" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J31" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="K31" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="L31" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="M31" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="N31" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="O31" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="P31" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="Q31" s="7" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F32" s="16">
+        <f>F11</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="7" t="str">
+        <f t="shared" ref="H32:Q32" si="11">IF(OR($C11=0,H$18=0),"",H11/H$18*$C11)</f>
+        <v/>
+      </c>
+      <c r="I32" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="J32" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="K32" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="L32" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="M32" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="N32" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="O32" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="P32" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="Q32" s="7" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F33" s="16">
+        <f>F12</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="7" t="str">
+        <f t="shared" ref="H33:Q33" si="12">IF(OR($C12=0,H$18=0),"",H12/H$18*$C12)</f>
+        <v/>
+      </c>
+      <c r="I33" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="J33" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="K33" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L33" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M33" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="N33" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="O33" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="P33" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="Q33" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F34" s="16">
+        <f>F13</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="7" t="str">
+        <f t="shared" ref="H34:Q34" si="13">IF(OR($C13=0,H$18=0),"",H13/H$18*$C13)</f>
+        <v/>
+      </c>
+      <c r="I34" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J34" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K34" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L34" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M34" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="N34" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="O34" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="P34" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="Q34" s="7" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F35" s="16">
+        <f>F14</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="7" t="str">
+        <f t="shared" ref="H35:Q35" si="14">IF(OR($C14=0,H$18=0),"",H14/H$18*$C14)</f>
+        <v/>
+      </c>
+      <c r="I35" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="J35" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="K35" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="L35" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M35" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="N35" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="O35" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="P35" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="Q35" s="7" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F36" s="16">
+        <f>F15</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="7" t="str">
+        <f t="shared" ref="H36:Q36" si="15">IF(OR($C15=0,H$18=0),"",H15/H$18*$C15)</f>
+        <v/>
+      </c>
+      <c r="I36" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J36" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="K36" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="L36" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M36" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="N36" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="O36" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="P36" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="Q36" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="G37" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="3">
+        <f>IF(SUM(H27:H36)=0,1,SUM(H27:H36))</f>
+        <v>1</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" ref="I37:Q37" si="16">IF(SUM(I27:I36)=0,1,SUM(I27:I36))</f>
+        <v>1</v>
+      </c>
+      <c r="J37" s="3">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="K37" s="3">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="M37" s="3">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="N37" s="3">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="P37" s="3">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="Q37" s="3">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="G39" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+    </row>
+    <row r="40" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="G40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40" s="1">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" ref="I40:Q40" si="17">I4</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="G41" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F42" s="16">
+        <f>F6</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="7">
+        <f t="shared" ref="H42:Q42" si="18">IF(OR($C6="",H6=""),"",H6*$C6)</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I42" s="7">
+        <f t="shared" si="18"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J42" s="7">
+        <f t="shared" si="18"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K42" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L42" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="O42" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="P42" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="Q42" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F43" s="16">
+        <f>F7</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="7">
+        <f t="shared" ref="H43:Q43" si="19">IF(OR($C7="",H7=""),"",H7*$C7)</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="7">
+        <f t="shared" si="19"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L43" s="7">
+        <f t="shared" si="19"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="M43" s="7">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="O43" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="P43" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Q43" s="7" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F44" s="16">
+        <f>F8</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="7">
+        <f t="shared" ref="H44:Q44" si="20">IF(OR($C8="",H8=""),"",H8*$C8)</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="7">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="7">
+        <f t="shared" si="20"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N44" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="O44" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="P44" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="Q44" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F45" s="16">
+        <f>F9</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="7" t="str">
+        <f t="shared" ref="H45:Q45" si="21">IF(OR($C9="",H9=""),"",H9*$C9)</f>
+        <v/>
+      </c>
+      <c r="I45" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="J45" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="K45" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="L45" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="M45" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="N45" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="O45" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="P45" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Q45" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F46" s="16">
+        <f>F10</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="7" t="str">
+        <f t="shared" ref="H46:Q46" si="22">IF(OR($C10="",H10=""),"",H10*$C10)</f>
+        <v/>
+      </c>
+      <c r="I46" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="J46" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="K46" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="L46" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="M46" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="N46" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="O46" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="P46" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="Q46" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F47" s="16">
+        <f>F11</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="7" t="str">
+        <f t="shared" ref="H47:Q47" si="23">IF(OR($C11="",H11=""),"",H11*$C11)</f>
+        <v/>
+      </c>
+      <c r="I47" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="J47" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="K47" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="L47" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="M47" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="N47" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="O47" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="P47" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="Q47" s="7" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F48" s="16">
+        <f>F12</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H48" s="7" t="str">
+        <f t="shared" ref="H48:Q48" si="24">IF(OR($C12="",H12=""),"",H12*$C12)</f>
+        <v/>
+      </c>
+      <c r="I48" s="7" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="J48" s="7" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="K48" s="7" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="L48" s="7" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="M48" s="7" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="N48" s="7" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="O48" s="7" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="P48" s="7" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q48" s="7" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F49" s="16">
+        <f>F13</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="7" t="str">
+        <f t="shared" ref="H49:Q49" si="25">IF(OR($C13="",H13=""),"",H13*$C13)</f>
+        <v/>
+      </c>
+      <c r="I49" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="J49" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="K49" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="L49" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="M49" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="N49" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="O49" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="P49" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="Q49" s="7" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F50" s="16">
+        <f>F14</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" s="7" t="str">
+        <f t="shared" ref="H50:Q50" si="26">IF(OR($C14="",H14=""),"",H14*$C14)</f>
+        <v/>
+      </c>
+      <c r="I50" s="7" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="J50" s="7" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="K50" s="7" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="L50" s="7" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="M50" s="7" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="N50" s="7" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="O50" s="7" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="P50" s="7" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="Q50" s="7" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F51" s="16">
+        <f>F15</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="7" t="str">
+        <f t="shared" ref="H51:Q51" si="27">IF(OR($C15="",H15=""),"",H15*$C15)</f>
+        <v/>
+      </c>
+      <c r="I51" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="J51" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="K51" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L51" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="M51" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="N51" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="O51" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="P51" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="Q51" s="7" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="G54" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="27"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="27"/>
+    </row>
+    <row r="55" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="G55" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" s="17">
+        <f>H4</f>
+        <v>0</v>
+      </c>
+      <c r="I55" s="17">
+        <f t="shared" ref="I55:Q55" si="28">I4</f>
+        <v>0</v>
+      </c>
+      <c r="J55" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P55" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="17">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="G56" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F57" s="16">
+        <f>F6</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="7">
+        <f>IF(H27&lt;&gt;"",IF(H27=0,0,LOG(1/H27,2)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="7">
+        <f t="shared" ref="I57:Q57" si="29">IF(I27&lt;&gt;"",IF(I27=0,0,LOG(1/I27,2)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="7">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="7">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="7">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="7">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="7" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="O57" s="7" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="P57" s="7" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="Q57" s="7" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F58" s="16">
+        <f>F7</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="7">
+        <f t="shared" ref="H58:Q66" si="30">IF(H28&lt;&gt;"",IF(H28=0,0,LOG(1/H28,2)),"")</f>
+        <v>0</v>
+      </c>
+      <c r="I58" s="7">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="7">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="7">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="7">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="7">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O58" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="P58" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="Q58" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F59" s="16">
+        <f>F8</f>
+        <v>0</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="7">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="7">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="7">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="7">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L59" s="7">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="7">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O59" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="P59" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="Q59" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F60" s="16">
+        <f>F9</f>
+        <v>0</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="I60" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="J60" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="K60" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="L60" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="M60" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="N60" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O60" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="P60" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="Q60" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F61" s="16">
+        <f>F10</f>
+        <v>0</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="I61" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="J61" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="K61" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="L61" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="M61" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="N61" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O61" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="P61" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="Q61" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F62" s="16">
+        <f>F11</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="I62" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="J62" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="K62" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="L62" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="M62" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="N62" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O62" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="P62" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="Q62" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F63" s="16">
+        <f>F12</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="I63" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="J63" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="K63" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="L63" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="M63" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="N63" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O63" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="P63" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="Q63" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F64" s="16">
+        <f>F13</f>
+        <v>0</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="I64" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="J64" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="K64" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="L64" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="M64" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="N64" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O64" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="P64" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="Q64" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F65" s="16">
+        <f>F14</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H65" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="I65" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="J65" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="K65" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="L65" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="M65" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="N65" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O65" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="P65" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="Q65" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F66" s="16">
+        <f>F15</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H66" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="I66" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="J66" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="K66" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="L66" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="M66" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="N66" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="O66" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="P66" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="Q66" s="7" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="G69" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H69" s="21"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+      <c r="O69" s="21"/>
+      <c r="P69" s="21"/>
+      <c r="Q69" s="21"/>
+    </row>
+    <row r="70" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="G70" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M70" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="G71" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="7">
+        <f>SUMPRODUCT(H27:H36,H57:H66)</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="7">
+        <f t="shared" ref="I71:Q71" si="31">SUMPRODUCT(I27:I36,I57:I66)</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="K71" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="N71" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="O71" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="7">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="G74" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="27"/>
+      <c r="M74" s="27"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="27"/>
+    </row>
+    <row r="75" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="G75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H75" s="17">
+        <f>H25</f>
+        <v>0</v>
+      </c>
+      <c r="I75" s="17">
+        <f t="shared" ref="I75:Q75" si="32">I25</f>
+        <v>0</v>
+      </c>
+      <c r="J75" s="17">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="K75" s="17">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="L75" s="17">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="17">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="17">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="O75" s="17">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="P75" s="17">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q75" s="17">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="G76" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H76" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="P76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q76" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F77" s="16">
+        <f>F27</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H77" s="7">
+        <f>IF(H42="","",IFERROR(LOG(H42/(H$18*$C6),2),0))</f>
+        <v>1.5849625007211563</v>
+      </c>
+      <c r="I77" s="7">
+        <f t="shared" ref="I77:Q77" si="33">IF(I42="","",IFERROR(LOG(I42/(I$18*$C6),2),0))</f>
+        <v>1.5849625007211563</v>
+      </c>
+      <c r="J77" s="7">
+        <f t="shared" si="33"/>
+        <v>1.5849625007211563</v>
+      </c>
+      <c r="K77" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="7">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="O77" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="P77" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="Q77" s="7" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F78" s="16">
+        <f t="shared" ref="F78:F86" si="34">F28</f>
+        <v>0</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="7">
+        <f t="shared" ref="H78:Q86" si="35">IF(H43="","",IFERROR(LOG(H43/(H$18*$C7),2),0))</f>
+        <v>0</v>
+      </c>
+      <c r="I78" s="7">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="7">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="7">
+        <f t="shared" si="35"/>
+        <v>1.5849625007211563</v>
+      </c>
+      <c r="L78" s="7">
+        <f t="shared" si="35"/>
+        <v>1.5849625007211563</v>
+      </c>
+      <c r="M78" s="7">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="N78" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="O78" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="P78" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="Q78" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F79" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="7">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="7">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="7">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="7">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="L79" s="7">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="7">
+        <f t="shared" si="35"/>
+        <v>1.5849625007211563</v>
+      </c>
+      <c r="N79" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="O79" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="P79" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="Q79" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="F80" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I80" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J80" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K80" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L80" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M80" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="N80" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="O80" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="P80" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="Q80" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F81" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H81" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I81" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J81" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K81" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L81" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M81" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="N81" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="O81" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="P81" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="Q81" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F82" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I82" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J82" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K82" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L82" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M82" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="N82" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="O82" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="P82" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="Q82" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F83" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H83" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I83" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J83" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K83" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L83" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M83" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="N83" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="O83" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="P83" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="Q83" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F84" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I84" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J84" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K84" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L84" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M84" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="N84" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="O84" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="P84" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="Q84" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F85" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H85" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I85" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J85" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K85" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L85" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M85" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="N85" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="O85" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="P85" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="Q85" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="F86" s="16">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H86" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I86" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J86" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K86" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L86" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M86" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="N86" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="O86" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="P86" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="Q86" s="7" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="3:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C89" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D89" s="43"/>
+      <c r="G89" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="27"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="27"/>
+      <c r="M89" s="27"/>
+      <c r="N89" s="27"/>
+      <c r="O89" s="27"/>
+      <c r="P89" s="27"/>
+      <c r="Q89" s="27"/>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="G90" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="1">
-        <f>H4</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" ref="I24:Q24" si="5">I4</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="G25" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J25" s="5" t="s">
+      <c r="H90" s="17">
+        <f>H40</f>
+        <v>0</v>
+      </c>
+      <c r="I90" s="17">
+        <f t="shared" ref="I90:Q90" si="36">I40</f>
+        <v>0</v>
+      </c>
+      <c r="J90" s="17">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K90" s="17">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="L90" s="17">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="17">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="N90" s="17">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="O90" s="17">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="P90" s="17">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Q90" s="17">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C91" s="5"/>
+      <c r="D91" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G91" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J91" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K91" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L91" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="M91" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="N91" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="O25" s="5" t="s">
+      <c r="O91" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="P25" s="5" t="s">
+      <c r="P91" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Q25" s="5" t="s">
+      <c r="Q91" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="37">
-        <f>F6</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="6" t="s">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C92" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="7">
-        <f t="shared" ref="H26:Q26" si="6">IF(OR($C6=0,H$18=0),"",H6/H$18*$C6)</f>
-        <v>0.90000000000000013</v>
-      </c>
-      <c r="I26" s="7">
-        <f t="shared" si="6"/>
-        <v>0.3</v>
-      </c>
-      <c r="J26" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="K26" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L26" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="M26" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="N26" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="O26" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="P26" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q26" s="7" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="F27" s="37">
-        <f t="shared" ref="F27:F35" si="7">F7</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="D92" s="7">
+        <f>SUM(H92:Q92)</f>
+        <v>1.5849625007211561</v>
+      </c>
+      <c r="F92" s="16">
+        <f>F42</f>
+        <v>0</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="7">
+        <f>IF(H6="","",IFERROR(H6*LOG(1/H6,2),0))</f>
+        <v>0.52832083357371873</v>
+      </c>
+      <c r="I92" s="7">
+        <f t="shared" ref="I92:Q92" si="37">IF(I6="","",IFERROR(I6*LOG(1/I6,2),0))</f>
+        <v>0.52832083357371873</v>
+      </c>
+      <c r="J92" s="7">
+        <f t="shared" si="37"/>
+        <v>0.52832083357371873</v>
+      </c>
+      <c r="K92" s="7">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L92" s="7">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="M92" s="7">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N92" s="7" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="O92" s="7" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="P92" s="7" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+      <c r="Q92" s="7" t="str">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C93" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="7">
-        <f t="shared" ref="H27:Q27" si="8">IF(OR($C7=0,H$18=0),"",H7/H$18*$C7)</f>
-        <v>0.1</v>
-      </c>
-      <c r="I27" s="7">
-        <f t="shared" si="8"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="J27" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="K27" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="L27" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="M27" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N27" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="O27" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="P27" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="Q27" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="F28" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="5" t="s">
+      <c r="D93" s="7">
+        <f>SUM(H93:Q93)</f>
+        <v>1</v>
+      </c>
+      <c r="F93" s="16">
+        <f t="shared" ref="F93:F101" si="38">F43</f>
+        <v>0</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="7">
+        <f t="shared" ref="H93:Q101" si="39">IF(H7="","",IFERROR(H7*LOG(1/H7,2),0))</f>
+        <v>0</v>
+      </c>
+      <c r="I93" s="7">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="7">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K93" s="7">
+        <f t="shared" si="39"/>
+        <v>0.5</v>
+      </c>
+      <c r="L93" s="7">
+        <f t="shared" si="39"/>
+        <v>0.5</v>
+      </c>
+      <c r="M93" s="7">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N93" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O93" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="P93" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="Q93" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C94" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="7" t="str">
-        <f t="shared" ref="H28:Q28" si="9">IF(OR($C8=0,H$18=0),"",H8/H$18*$C8)</f>
-        <v/>
-      </c>
-      <c r="I28" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="J28" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="K28" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="L28" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="M28" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="N28" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O28" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="P28" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="Q28" s="7" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="F29" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="D94" s="7">
+        <f>SUM(H94:Q94)</f>
+        <v>0</v>
+      </c>
+      <c r="F94" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="7">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="7">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="7">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K94" s="7">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L94" s="7">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="7">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O94" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="P94" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="Q94" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C95" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H29" s="7" t="str">
-        <f t="shared" ref="H29:Q29" si="10">IF(OR($C9=0,H$18=0),"",H9/H$18*$C9)</f>
-        <v/>
-      </c>
-      <c r="I29" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="J29" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="K29" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="L29" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="M29" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="N29" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="O29" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="P29" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="Q29" s="7" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="F30" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="5" t="s">
+      <c r="D95" s="7">
+        <f>SUM(H95:Q95)</f>
+        <v>0</v>
+      </c>
+      <c r="F95" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="I95" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="J95" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="K95" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="L95" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="M95" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="N95" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O95" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="P95" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="Q95" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C96" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="7" t="str">
-        <f t="shared" ref="H30:Q30" si="11">IF(OR($C10=0,H$18=0),"",H10/H$18*$C10)</f>
-        <v/>
-      </c>
-      <c r="I30" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="J30" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="K30" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="L30" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="M30" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="N30" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="O30" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="P30" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="Q30" s="7" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="F31" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="5" t="s">
+      <c r="D96" s="7">
+        <f>SUM(H96:Q96)</f>
+        <v>0</v>
+      </c>
+      <c r="F96" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H96" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="I96" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="J96" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="K96" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="L96" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="M96" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="N96" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O96" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="P96" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="Q96" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C97" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="7" t="str">
-        <f t="shared" ref="H31:Q31" si="12">IF(OR($C11=0,H$18=0),"",H11/H$18*$C11)</f>
-        <v/>
-      </c>
-      <c r="I31" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J31" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K31" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L31" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="M31" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="N31" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="O31" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="P31" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="Q31" s="7" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="F32" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="5" t="s">
+      <c r="D97" s="7">
+        <f>SUM(H97:Q97)</f>
+        <v>0</v>
+      </c>
+      <c r="F97" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="I97" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="J97" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="K97" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="L97" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="M97" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="N97" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O97" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="P97" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="Q97" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C98" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H32" s="7" t="str">
-        <f t="shared" ref="H32:Q32" si="13">IF(OR($C12=0,H$18=0),"",H12/H$18*$C12)</f>
-        <v/>
-      </c>
-      <c r="I32" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="J32" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="K32" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="L32" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="M32" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="N32" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="O32" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="P32" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="Q32" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F33" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="5" t="s">
+      <c r="D98" s="7">
+        <f>SUM(H98:Q98)</f>
+        <v>0</v>
+      </c>
+      <c r="F98" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="I98" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="J98" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="K98" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="L98" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="M98" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="N98" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O98" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="P98" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="Q98" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C99" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="7" t="str">
-        <f t="shared" ref="H33:Q33" si="14">IF(OR($C13=0,H$18=0),"",H13/H$18*$C13)</f>
-        <v/>
-      </c>
-      <c r="I33" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="J33" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="K33" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="L33" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M33" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="N33" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="O33" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="P33" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="Q33" s="7" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F34" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="5" t="s">
+      <c r="D99" s="7">
+        <f>SUM(H99:Q99)</f>
+        <v>0</v>
+      </c>
+      <c r="F99" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="I99" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="J99" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="K99" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="L99" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="M99" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="N99" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O99" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="P99" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="Q99" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C100" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="7" t="str">
-        <f t="shared" ref="H34:Q34" si="15">IF(OR($C14=0,H$18=0),"",H14/H$18*$C14)</f>
-        <v/>
-      </c>
-      <c r="I34" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="J34" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="K34" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="L34" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="M34" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="N34" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O34" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="P34" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="Q34" s="7" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F35" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="5" t="s">
+      <c r="D100" s="7">
+        <f>SUM(H100:Q100)</f>
+        <v>0</v>
+      </c>
+      <c r="F100" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="I100" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="J100" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="K100" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="L100" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="M100" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="N100" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O100" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="P100" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="Q100" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C101" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H35" s="7" t="str">
-        <f t="shared" ref="H35:Q35" si="16">IF(OR($C15=0,H$18=0),"",H15/H$18*$C15)</f>
-        <v/>
-      </c>
-      <c r="I35" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="J35" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="K35" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="L35" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="M35" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="N35" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="O35" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="P35" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="Q35" s="7" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="G36" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" s="3">
-        <f>IF(SUM(H26:H35)=0,1,SUM(H26:H35))</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="I36" s="3">
-        <f t="shared" ref="I36:Q36" si="17">IF(SUM(I26:I35)=0,1,SUM(I26:I35))</f>
-        <v>1</v>
-      </c>
-      <c r="J36" s="3">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="K36" s="3">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="L36" s="3">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="M36" s="3">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="N36" s="3">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="O36" s="3">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="P36" s="3">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="Q36" s="3">
-        <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G38" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-    </row>
-    <row r="39" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="G39" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H39" s="1">
-        <f>H4</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="1">
-        <f t="shared" ref="I39:Q39" si="18">I4</f>
-        <v>0</v>
-      </c>
-      <c r="J39" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L39" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="M39" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="1">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="G40" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I40" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M40" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O40" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q40" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F41" s="37">
-        <f>F6</f>
-        <v>0</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="7">
-        <f t="shared" ref="H41:Q41" si="19">IF(OR($C6="",H6=""),"",H6*$C6)</f>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="I41" s="7">
-        <f t="shared" si="19"/>
-        <v>0.15</v>
-      </c>
-      <c r="J41" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="K41" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="L41" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="M41" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="N41" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="O41" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="P41" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Q41" s="7" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F42" s="37">
-        <f t="shared" ref="F42:F50" si="20">F7</f>
-        <v>0</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="7">
-        <f t="shared" ref="H42:Q42" si="21">IF(OR($C7="",H7=""),"",H7*$C7)</f>
-        <v>0.05</v>
-      </c>
-      <c r="I42" s="7">
-        <f t="shared" si="21"/>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="J42" s="7" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="K42" s="7" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="L42" s="7" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="M42" s="7" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="N42" s="7" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="O42" s="7" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="P42" s="7" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Q42" s="7" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F43" s="37">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="7" t="str">
-        <f t="shared" ref="H43:Q43" si="22">IF(OR($C8="",H8=""),"",H8*$C8)</f>
-        <v/>
-      </c>
-      <c r="I43" s="7" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="J43" s="7" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="K43" s="7" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="L43" s="7" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="M43" s="7" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="N43" s="7" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="O43" s="7" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="P43" s="7" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="Q43" s="7" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F44" s="37">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="7" t="str">
-        <f t="shared" ref="H44:Q44" si="23">IF(OR($C9="",H9=""),"",H9*$C9)</f>
-        <v/>
-      </c>
-      <c r="I44" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="J44" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="K44" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="L44" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="M44" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="N44" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="O44" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="P44" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="Q44" s="7" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F45" s="37">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="7" t="str">
-        <f t="shared" ref="H45:Q45" si="24">IF(OR($C10="",H10=""),"",H10*$C10)</f>
-        <v/>
-      </c>
-      <c r="I45" s="7" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="J45" s="7" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="K45" s="7" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="L45" s="7" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="M45" s="7" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="N45" s="7" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="O45" s="7" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="P45" s="7" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="Q45" s="7" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F46" s="37">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" s="7" t="str">
-        <f t="shared" ref="H46:Q46" si="25">IF(OR($C11="",H11=""),"",H11*$C11)</f>
-        <v/>
-      </c>
-      <c r="I46" s="7" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="J46" s="7" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="K46" s="7" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="L46" s="7" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="M46" s="7" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="N46" s="7" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="O46" s="7" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="P46" s="7" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="Q46" s="7" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F47" s="37">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="7" t="str">
-        <f t="shared" ref="H47:Q47" si="26">IF(OR($C12="",H12=""),"",H12*$C12)</f>
-        <v/>
-      </c>
-      <c r="I47" s="7" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="J47" s="7" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="K47" s="7" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="L47" s="7" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="M47" s="7" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="N47" s="7" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="O47" s="7" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="P47" s="7" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Q47" s="7" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F48" s="37">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="7" t="str">
-        <f t="shared" ref="H48:Q48" si="27">IF(OR($C13="",H13=""),"",H13*$C13)</f>
-        <v/>
-      </c>
-      <c r="I48" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="J48" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="K48" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="L48" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="M48" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="N48" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="O48" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="P48" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="Q48" s="7" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F49" s="37">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="7" t="str">
-        <f t="shared" ref="H49:Q49" si="28">IF(OR($C14="",H14=""),"",H14*$C14)</f>
-        <v/>
-      </c>
-      <c r="I49" s="7" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="J49" s="7" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="K49" s="7" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="L49" s="7" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="M49" s="7" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="N49" s="7" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="O49" s="7" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="P49" s="7" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-      <c r="Q49" s="7" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F50" s="37">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="5" t="s">
+      <c r="D101" s="7">
+        <f>SUM(H101:Q101)</f>
+        <v>0</v>
+      </c>
+      <c r="F101" s="16">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H50" s="7" t="str">
-        <f t="shared" ref="H50:Q50" si="29">IF(OR($C15="",H15=""),"",H15*$C15)</f>
-        <v/>
-      </c>
-      <c r="I50" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="J50" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="K50" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="L50" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="M50" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="N50" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="O50" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="P50" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-      <c r="Q50" s="7" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G53" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-    </row>
-    <row r="54" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="G54" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H54" s="38">
-        <f>H4</f>
-        <v>0</v>
-      </c>
-      <c r="I54" s="38">
-        <f t="shared" ref="I54:Q54" si="30">I4</f>
-        <v>0</v>
-      </c>
-      <c r="J54" s="38">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="K54" s="38">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="L54" s="38">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="M54" s="38">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="38">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="O54" s="38">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="P54" s="38">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="Q54" s="38">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="G55" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I55" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J55" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L55" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M55" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N55" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P55" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q55" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F56" s="37">
-        <f>F6</f>
-        <v>0</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="7">
-        <f>IF(H26&lt;&gt;"",IF(H26=0,0,LOG(1/H26,2)),"")</f>
-        <v>0.15200309344504975</v>
-      </c>
-      <c r="I56" s="7">
-        <f t="shared" ref="I56:Q56" si="31">IF(I26&lt;&gt;"",IF(I26=0,0,LOG(1/I26,2)),"")</f>
-        <v>1.7369655941662063</v>
-      </c>
-      <c r="J56" s="7" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="K56" s="7" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="L56" s="7" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="M56" s="7" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="N56" s="7" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="O56" s="7" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="P56" s="7" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-      <c r="Q56" s="7" t="str">
-        <f t="shared" si="31"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F57" s="37">
-        <f t="shared" ref="F57:F65" si="32">F7</f>
-        <v>0</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H57" s="7">
-        <f t="shared" ref="H57:Q65" si="33">IF(H27&lt;&gt;"",IF(H27=0,0,LOG(1/H27,2)),"")</f>
-        <v>3.3219280948873626</v>
-      </c>
-      <c r="I57" s="7">
-        <f t="shared" si="33"/>
-        <v>0.51457317282975801</v>
-      </c>
-      <c r="J57" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K57" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L57" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M57" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="N57" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="O57" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="P57" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Q57" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F58" s="37">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I58" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J58" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K58" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L58" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M58" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="N58" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="O58" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="P58" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Q58" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F59" s="37">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H59" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I59" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J59" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K59" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L59" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M59" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="N59" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="O59" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="P59" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Q59" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F60" s="37">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H60" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I60" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J60" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K60" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L60" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M60" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="N60" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="O60" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="P60" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Q60" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F61" s="37">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H61" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I61" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J61" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K61" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L61" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M61" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="N61" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="O61" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="P61" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Q61" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F62" s="37">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H62" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I62" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J62" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K62" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L62" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M62" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="N62" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="O62" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="P62" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Q62" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F63" s="37">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H63" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I63" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J63" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K63" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L63" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M63" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="N63" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="O63" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="P63" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Q63" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F64" s="37">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I64" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J64" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K64" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L64" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M64" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="N64" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="O64" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="P64" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Q64" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F65" s="37">
-        <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H65" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I65" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J65" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K65" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L65" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M65" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="N65" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="O65" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="P65" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="Q65" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-    </row>
-    <row r="68" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G68" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
-      <c r="N68" s="16"/>
-      <c r="O68" s="16"/>
-      <c r="P68" s="16"/>
-      <c r="Q68" s="16"/>
-    </row>
-    <row r="69" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="G69" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I69" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J69" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K69" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="L69" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M69" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N69" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O69" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P69" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q69" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="G70" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="7">
-        <f>SUMPRODUCT(H26:H35,H56:H65)</f>
-        <v>0.46899559358928111</v>
-      </c>
-      <c r="I70" s="7">
-        <f t="shared" ref="I70:Q70" si="34">SUMPRODUCT(I26:I35,I56:I65)</f>
-        <v>0.88129089923069248</v>
-      </c>
-      <c r="J70" s="7">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="K70" s="7">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="L70" s="7">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="M70" s="7">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="N70" s="7">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="O70" s="7">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="P70" s="7">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="Q70" s="7">
-        <f t="shared" si="34"/>
-        <v>0</v>
+      <c r="H101" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="I101" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="J101" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="K101" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="L101" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="M101" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="N101" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="O101" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="P101" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
+      </c>
+      <c r="Q101" s="7" t="str">
+        <f t="shared" si="39"/>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G68:Q68"/>
+  <mergeCells count="11">
+    <mergeCell ref="G74:Q74"/>
+    <mergeCell ref="G89:Q89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="G69:Q69"/>
     <mergeCell ref="G3:R3"/>
     <mergeCell ref="G17:Q17"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="G23:Q23"/>
-    <mergeCell ref="G38:Q38"/>
-    <mergeCell ref="G53:Q53"/>
+    <mergeCell ref="G24:Q24"/>
+    <mergeCell ref="G39:Q39"/>
+    <mergeCell ref="G54:Q54"/>
     <mergeCell ref="C18:E18"/>
   </mergeCells>
   <conditionalFormatting sqref="R6:R15">
@@ -3582,7 +4944,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H36:Q36">
+  <conditionalFormatting sqref="H37:Q37">
     <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -3605,7 +4967,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" customWidth="1"/>
@@ -3646,13 +5008,13 @@
       </c>
     </row>
     <row r="17" spans="2:36" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
@@ -4192,7 +5554,7 @@
       <selection activeCell="C38" sqref="C38:D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" customWidth="1"/>
@@ -4235,13 +5597,13 @@
       </c>
     </row>
     <row r="17" spans="2:44" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
     </row>
     <row r="18" spans="2:44" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
@@ -4842,7 +6204,7 @@
       <selection activeCell="C39" sqref="C39:E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" customWidth="1"/>
@@ -4908,13 +6270,13 @@
       </c>
     </row>
     <row r="17" spans="2:46" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
     </row>
     <row r="18" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
@@ -5569,7 +6931,7 @@
       <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
@@ -5580,25 +6942,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="E3" s="28" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="E3" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -5943,19 +7305,19 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
     </row>
     <row r="17" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E17" s="5" t="s">
@@ -6074,19 +7436,19 @@
       </c>
     </row>
     <row r="21" spans="5:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
       <c r="S21" s="6" t="s">
         <v>0</v>
       </c>
@@ -7102,7 +8464,7 @@
       <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
@@ -7113,25 +8475,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="E3" s="28" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="E3" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -7472,19 +8834,19 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E16" s="29" t="s">
+      <c r="E16" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="29"/>
-      <c r="N16" s="29"/>
-      <c r="O16" s="29"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
     </row>
     <row r="17" spans="5:29" x14ac:dyDescent="0.25">
       <c r="E17" s="5" t="s">
@@ -7603,19 +8965,19 @@
       </c>
     </row>
     <row r="21" spans="5:29" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
       <c r="S21" s="6" t="s">
         <v>0</v>
       </c>
@@ -8631,7 +9993,7 @@
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
@@ -8642,25 +10004,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="E3" s="17" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="E3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -9013,19 +10375,19 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
     </row>
     <row r="17" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E17" s="5" t="s">
@@ -9073,19 +10435,19 @@
       </c>
     </row>
     <row r="21" spans="5:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E21" s="34" t="s">
+      <c r="E21" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
     </row>
     <row r="22" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E22" s="9" t="s">
@@ -9618,19 +10980,19 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
     </row>
     <row r="36" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E36" s="9" t="s">
@@ -10172,7 +11534,7 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
@@ -10185,27 +11547,27 @@
   <sheetData>
     <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E3" s="15"/>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
     </row>
     <row r="4" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="15"/>
       <c r="G4" s="1" t="s">
         <v>68</v>
@@ -10593,19 +11955,19 @@
       </c>
     </row>
     <row r="17" spans="3:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G17" s="18" t="s">
+      <c r="G17" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
@@ -10684,19 +12046,19 @@
         <f>D19-D20</f>
         <v>0.26831122747837444</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.25">
       <c r="G23" s="1" t="s">
@@ -11254,19 +12616,19 @@
       </c>
     </row>
     <row r="37" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G37" s="21" t="s">
+      <c r="G37" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
     </row>
     <row r="38" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G38" s="1" t="s">
@@ -11779,19 +13141,19 @@
       </c>
     </row>
     <row r="52" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G52" s="22" t="s">
+      <c r="G52" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="27"/>
+      <c r="M52" s="27"/>
+      <c r="N52" s="27"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="27"/>
+      <c r="Q52" s="27"/>
     </row>
     <row r="53" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G53" s="1" t="s">
@@ -12302,19 +13664,19 @@
       </c>
     </row>
     <row r="67" spans="7:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G67" s="16" t="s">
+      <c r="G67" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16"/>
-      <c r="K67" s="16"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
-      <c r="N67" s="16"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="16"/>
+      <c r="H67" s="21"/>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+      <c r="O67" s="21"/>
+      <c r="P67" s="21"/>
+      <c r="Q67" s="21"/>
     </row>
     <row r="68" spans="7:17" x14ac:dyDescent="0.25">
       <c r="G68" s="9"/>

--- a/Planilla Segundo Parcial.xlsx
+++ b/Planilla Segundo Parcial.xlsx
@@ -9,13 +9,15 @@
   <sheets>
     <sheet name="matri ceras" sheetId="1" r:id="rId1"/>
     <sheet name="sector caract punto 2b" sheetId="5" r:id="rId2"/>
+    <sheet name="Definitions REMOVE B4 FLIGHT" sheetId="6" r:id="rId3"/>
+    <sheet name="nice to haves" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="118">
   <si>
     <t>b1</t>
   </si>
@@ -282,6 +284,94 @@
   </si>
   <si>
     <t>Sin Ruido</t>
+  </si>
+  <si>
+    <t>Concepto</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Nombre/s</t>
+  </si>
+  <si>
+    <t>perdida</t>
+  </si>
+  <si>
+    <t>Equivocación</t>
+  </si>
+  <si>
+    <t>Ruido</t>
+  </si>
+  <si>
+    <t>Entropia Media a Posteriori</t>
+  </si>
+  <si>
+    <t>Informacion media de un simbolo de la fuente antes de pasar por el canal</t>
+  </si>
+  <si>
+    <t>Perdida de Información de A al haber pasado por B</t>
+  </si>
+  <si>
+    <t>si para cada simbolo de la salida solo hay un simbolo de entrada posible, el canal es sin ruido!</t>
+  </si>
+  <si>
+    <t>Informacion media de un simbolo de la salida</t>
+  </si>
+  <si>
+    <t>Mide la incertidumbre del proceso simultaneo</t>
+  </si>
+  <si>
+    <t>H(A)-H(A/B), es la cantidad de informacion por simbolo de salida. En un canal sin ruido sera igual a H(A) por que no se pierde info. | Es la cantidad de info de A que pasó el canal || permite obtener un índice que indica
+lo bien o mal que se está usando un canal, o para una fuente fija elegir el mejor canal</t>
+  </si>
+  <si>
+    <t>H(A/B) = 0! Toda la H(A) llega a destino, la info. Mutua es H(A). No mas de un valor no nulo por columna, si se B, se cual A lo mando</t>
+  </si>
+  <si>
+    <t>1 solo valor no nulo por fila. Si mando algo, se que es lo que va a llegar.</t>
+  </si>
+  <si>
+    <t>Simetrico.</t>
+  </si>
+  <si>
+    <t>Napolitano</t>
+  </si>
+  <si>
+    <t>this makes no sense………………………………………</t>
+  </si>
+  <si>
+    <t>Se renombran los simbolos al hacer una reduccion?</t>
+  </si>
+  <si>
+    <t>si junto s1 y s2, el nuevo se llama s12, s2, o s1?</t>
+  </si>
+  <si>
+    <t>Reducción suficiente = una que no genera una perdida de informacion mutua</t>
+  </si>
+  <si>
+    <t>cuando una columna es multiplo de otra</t>
+  </si>
+  <si>
+    <t>en el 12 no se pueden hacer 2 redux suficientes?</t>
+  </si>
+  <si>
+    <t>Para canal binario</t>
+  </si>
+  <si>
+    <t>H(P)=</t>
+  </si>
+  <si>
+    <t>1-P=</t>
+  </si>
+  <si>
+    <t>Capacidad:</t>
+  </si>
+  <si>
+    <t>P(error)=</t>
+  </si>
+  <si>
+    <t>Capacidad en casos especiales:</t>
   </si>
 </sst>
 </file>
@@ -325,7 +415,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -416,8 +506,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -486,11 +582,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -512,7 +617,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -542,18 +654,60 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -611,8 +765,89 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>5563376</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38569</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7648575" y="4486275"/>
+          <a:ext cx="5563376" cy="3362794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8230935</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>162824</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6315075" y="9915525"/>
+          <a:ext cx="9564435" cy="6439799"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -900,11 +1135,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:R101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T4:T15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
@@ -918,27 +1153,27 @@
   <sheetData>
     <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E3" s="11"/>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
     </row>
     <row r="4" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="11"/>
       <c r="G4" s="1" t="s">
         <v>58</v>
@@ -1013,25 +1248,22 @@
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="30">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+      <c r="C6" s="19">
+        <v>0.5</v>
       </c>
       <c r="D6" s="6">
         <f>IF(C6&lt;&gt;"",LOG(1/C6,2),"")</f>
-        <v>1.5849625007211563</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="1">
-        <f>2/8</f>
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="I6" s="1">
-        <f>6/8</f>
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="1"/>
@@ -1054,23 +1286,22 @@
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+      <c r="C7" s="19">
+        <v>0.5</v>
       </c>
       <c r="D7" s="6">
         <f>IF(C7&lt;&gt;"",LOG(1/C7,2),"")</f>
-        <v>1.5849625007211563</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="2">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1093,25 +1324,18 @@
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="19"/>
+      <c r="D8" s="6" t="str">
         <f>IF(C8&lt;&gt;"",LOG(1/C8,2),"")</f>
-        <v>1.5849625007211563</v>
+        <v/>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="30"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1125,7 +1349,7 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+      <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1358,36 +1582,36 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
       <c r="G18" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ref="H18:Q18" si="3">SUMPRODUCT(H6:H15,$C$6:$C$15)</f>
-        <v>0.41666666666666663</v>
+        <v>0.4</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="3"/>
-        <v>0.58333333333333326</v>
+        <f>SUMPRODUCT(I6:I15,$C$6:$C$15)</f>
+        <v>0.60000000000000009</v>
       </c>
       <c r="J18" s="6">
         <f t="shared" si="3"/>
@@ -1437,11 +1661,11 @@
       </c>
       <c r="H19" s="6">
         <f>IF(H18&lt;&gt;0,LOG(1/H18,2),"")</f>
-        <v>1.2630344058337941</v>
+        <v>1.3219280948873624</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" ref="I19:Q19" si="4">IF(I18&lt;&gt;0,LOG(1/I18,2),"")</f>
-        <v>0.77760757866355223</v>
+        <v>0.73696559416620611</v>
       </c>
       <c r="J19" s="6" t="str">
         <f t="shared" si="4"/>
@@ -1482,23 +1706,26 @@
       </c>
       <c r="D20" s="6">
         <f>SUMPRODUCT(C6:C15,D6:D15)</f>
-        <v>1.5849625007211561</v>
+        <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D21" s="6">
         <f>SUMPRODUCT(H18:Q18,H71:Q71)</f>
-        <v>0.87551978555638099</v>
-      </c>
-      <c r="E21" s="16" t="s">
+        <v>0.87548875021634698</v>
+      </c>
+      <c r="E21" s="34" t="s">
         <v>74</v>
       </c>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
@@ -1506,7 +1733,7 @@
       </c>
       <c r="D22" s="14">
         <f>D20-D21</f>
-        <v>0.70944271516477508</v>
+        <v>0.12451124978365302</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>78</v>
@@ -1518,7 +1745,7 @@
       </c>
       <c r="D23" s="14">
         <f>SUMPRODUCT(H77:Q86,H42:Q51)</f>
-        <v>0.70944271516477531</v>
+        <v>0.12451124978365299</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>79</v>
@@ -1530,22 +1757,22 @@
       </c>
       <c r="D24" s="6">
         <f>SUMPRODUCT(H18:Q18,H19:Q19)</f>
-        <v>0.97986875665115292</v>
+        <v>0.97095059445466869</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
     </row>
     <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
@@ -1553,7 +1780,7 @@
       </c>
       <c r="D25" s="6">
         <f>D24+D21</f>
-        <v>1.855388542207534</v>
+        <v>1.8464393446710157</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>75</v>
@@ -1608,7 +1835,7 @@
       </c>
       <c r="D26" s="6">
         <f>D25-D20</f>
-        <v>0.27042604148637794</v>
+        <v>0.84643934467101567</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>82</v>
@@ -1653,7 +1880,7 @@
       </c>
       <c r="D27" s="6">
         <f>SUMPRODUCT(C6:C15,D92:D101)</f>
-        <v>0.27042604148637756</v>
+        <v>0.84643934467101545</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>83</v>
@@ -1667,22 +1894,22 @@
       </c>
       <c r="H27" s="6">
         <f t="shared" ref="H27:Q27" si="7">IF(OR($C6=0,H$18=0),"",H6/H$18*$C6)</f>
-        <v>0.2</v>
+        <v>0.74999999999999989</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" si="7"/>
-        <v>0.4285714285714286</v>
+        <f>IF(OR($C6=0,I$18=0),"",I6/I$18*$C6)</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J27" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(OR($C6=0,J$18=0),"",J6/J$18*$C6)</f>
         <v/>
       </c>
       <c r="K27" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(OR($C6=0,K$18=0),"",K6/K$18*$C6)</f>
         <v/>
       </c>
       <c r="L27" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f>IF(OR($C6=0,L$18=0),"",L6/L$18*$C6)</f>
         <v/>
       </c>
       <c r="M27" s="6" t="str">
@@ -1716,22 +1943,22 @@
       </c>
       <c r="H28" s="6">
         <f t="shared" ref="H28:Q28" si="8">IF(OR($C7=0,H$18=0),"",H7/H$18*$C7)</f>
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>IF(OR($C7=0,I$18=0),"",I7/I$18*$C7)</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J28" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR($C7=0,J$18=0),"",J7/J$18*$C7)</f>
         <v/>
       </c>
       <c r="K28" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR($C7=0,K$18=0),"",K7/K$18*$C7)</f>
         <v/>
       </c>
       <c r="L28" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR($C7=0,L$18=0),"",L7/L$18*$C7)</f>
         <v/>
       </c>
       <c r="M28" s="6" t="str">
@@ -1756,11 +1983,11 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
+      <c r="A29" s="20"/>
       <c r="C29" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="28" t="b">
+      <c r="D29" s="17" t="b">
         <f>D26=0</f>
         <v>0</v>
       </c>
@@ -1771,24 +1998,24 @@
       <c r="G29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="6" t="str">
         <f t="shared" ref="H29:Q29" si="9">IF(OR($C8=0,H$18=0),"",H8/H$18*$C8)</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="6">
-        <f t="shared" si="9"/>
-        <v>0.5714285714285714</v>
+        <v/>
+      </c>
+      <c r="I29" s="6" t="str">
+        <f>IF(OR($C8=0,I$18=0),"",I8/I$18*$C8)</f>
+        <v/>
       </c>
       <c r="J29" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(OR($C8=0,J$18=0),"",J8/J$18*$C8)</f>
         <v/>
       </c>
       <c r="K29" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(OR($C8=0,K$18=0),"",K8/K$18*$C8)</f>
         <v/>
       </c>
       <c r="L29" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(OR($C8=0,L$18=0),"",L8/L$18*$C8)</f>
         <v/>
       </c>
       <c r="M29" s="6" t="str">
@@ -1816,7 +2043,7 @@
       <c r="C30" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="28" t="b">
+      <c r="D30" s="17" t="b">
         <f>D21=0</f>
         <v>0</v>
       </c>
@@ -1918,6 +2145,10 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="C32" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="33"/>
       <c r="F32" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -1966,7 +2197,14 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="17" t="str">
+        <f>IF(D29,LOG(10-COUNTBLANK(H19:Q19),2),"N/A")</f>
+        <v>N/A</v>
+      </c>
       <c r="F33" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2015,7 +2253,14 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C34" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D34" s="17" t="str">
+        <f>IF(D30,LOG(10-COUNTBLANK(C6:C15),2),"N/A")</f>
+        <v>N/A</v>
+      </c>
       <c r="F34" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2064,7 +2309,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F35" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2113,7 +2358,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F36" s="12">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -2162,13 +2407,13 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:17" x14ac:dyDescent="0.25">
       <c r="G37" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H37" s="3">
         <f>IF(SUM(H27:H36)=0,1,SUM(H27:H36))</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" ref="I37:Q37" si="17">IF(SUM(I27:I36)=0,1,SUM(I27:I36))</f>
@@ -2207,22 +2452,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G39" s="23" t="s">
+    <row r="39" spans="3:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="G39" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="23"/>
-    </row>
-    <row r="40" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="28"/>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="28"/>
+      <c r="Q39" s="28"/>
+    </row>
+    <row r="40" spans="3:17" x14ac:dyDescent="0.25">
       <c r="G40" s="1" t="s">
         <v>58</v>
       </c>
@@ -2267,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:17" x14ac:dyDescent="0.25">
       <c r="G41" s="7" t="s">
         <v>31</v>
       </c>
@@ -2302,7 +2547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F42" s="12">
         <f t="shared" ref="F42:F51" si="19">F6</f>
         <v>0</v>
@@ -2312,22 +2557,22 @@
       </c>
       <c r="H42" s="6">
         <f t="shared" ref="H42:Q42" si="20">IF(OR($C6="",H6=""),"",H6*$C6)</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.3</v>
       </c>
       <c r="I42" s="6">
-        <f t="shared" si="20"/>
-        <v>0.25</v>
+        <f>IF(OR($C6="",I6=""),"",I6*$C6)</f>
+        <v>0.2</v>
       </c>
       <c r="J42" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(OR($C6="",J6=""),"",J6*$C6)</f>
         <v/>
       </c>
       <c r="K42" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(OR($C6="",K6=""),"",K6*$C6)</f>
         <v/>
       </c>
       <c r="L42" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f>IF(OR($C6="",L6=""),"",L6*$C6)</f>
         <v/>
       </c>
       <c r="M42" s="6" t="str">
@@ -2351,7 +2596,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F43" s="12">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -2361,22 +2606,22 @@
       </c>
       <c r="H43" s="6">
         <f t="shared" ref="H43:Q43" si="21">IF(OR($C7="",H7=""),"",H7*$C7)</f>
-        <v>0.33333333333333331</v>
+        <v>0.1</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>IF(OR($C7="",I7=""),"",I7*$C7)</f>
+        <v>0.4</v>
       </c>
       <c r="J43" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(OR($C7="",J7=""),"",J7*$C7)</f>
         <v/>
       </c>
       <c r="K43" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(OR($C7="",K7=""),"",K7*$C7)</f>
         <v/>
       </c>
       <c r="L43" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f>IF(OR($C7="",L7=""),"",L7*$C7)</f>
         <v/>
       </c>
       <c r="M43" s="6" t="str">
@@ -2400,7 +2645,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F44" s="12">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -2408,24 +2653,24 @@
       <c r="G44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="6" t="str">
         <f t="shared" ref="H44:Q44" si="22">IF(OR($C8="",H8=""),"",H8*$C8)</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="6">
-        <f t="shared" si="22"/>
-        <v>0.33333333333333331</v>
+        <v/>
+      </c>
+      <c r="I44" s="6" t="str">
+        <f>IF(OR($C8="",I8=""),"",I8*$C8)</f>
+        <v/>
       </c>
       <c r="J44" s="6" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR($C8="",J8=""),"",J8*$C8)</f>
         <v/>
       </c>
       <c r="K44" s="6" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR($C8="",K8=""),"",K8*$C8)</f>
         <v/>
       </c>
       <c r="L44" s="6" t="str">
-        <f t="shared" si="22"/>
+        <f>IF(OR($C8="",L8=""),"",L8*$C8)</f>
         <v/>
       </c>
       <c r="M44" s="6" t="str">
@@ -2449,7 +2694,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F45" s="12">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -2498,7 +2743,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F46" s="12">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -2547,7 +2792,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F47" s="12">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -2596,7 +2841,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F48" s="12">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -2793,19 +3038,19 @@
       </c>
     </row>
     <row r="54" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G54" s="17" t="s">
+      <c r="G54" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="17"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
     </row>
     <row r="55" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G55" s="1" t="s">
@@ -2897,11 +3142,11 @@
       </c>
       <c r="H57" s="6">
         <f>IF(H27&lt;&gt;"",IF(H27=0,0,LOG(1/H27,2)),"")</f>
-        <v>2.3219280948873622</v>
+        <v>0.41503749927884398</v>
       </c>
       <c r="I57" s="6">
         <f t="shared" ref="I57:Q57" si="32">IF(I27&lt;&gt;"",IF(I27=0,0,LOG(1/I27,2)),"")</f>
-        <v>1.2223924213364477</v>
+        <v>1.5849625007211563</v>
       </c>
       <c r="J57" s="6" t="str">
         <f t="shared" si="32"/>
@@ -2946,11 +3191,11 @@
       </c>
       <c r="H58" s="6">
         <f t="shared" ref="H58:Q66" si="33">IF(H28&lt;&gt;"",IF(H28=0,0,LOG(1/H28,2)),"")</f>
-        <v>0.32192809488736235</v>
+        <v>2</v>
       </c>
       <c r="I58" s="6">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.58496250072115619</v>
       </c>
       <c r="J58" s="6" t="str">
         <f t="shared" si="33"/>
@@ -2993,13 +3238,13 @@
       <c r="G59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H59" s="6">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="6">
-        <f t="shared" si="33"/>
-        <v>0.80735492205760406</v>
+      <c r="H59" s="6" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I59" s="6" t="str">
+        <f t="shared" si="33"/>
+        <v/>
       </c>
       <c r="J59" s="6" t="str">
         <f t="shared" si="33"/>
@@ -3378,19 +3623,19 @@
       </c>
     </row>
     <row r="69" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G69" s="18" t="s">
+      <c r="G69" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="18"/>
-      <c r="P69" s="18"/>
-      <c r="Q69" s="18"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="23"/>
+      <c r="P69" s="23"/>
+      <c r="Q69" s="23"/>
     </row>
     <row r="70" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G70" s="7" t="s">
@@ -3433,11 +3678,11 @@
       </c>
       <c r="H71" s="6">
         <f>SUMPRODUCT(H27:H36,H57:H66)</f>
-        <v>0.72192809488736231</v>
+        <v>0.81127812445913294</v>
       </c>
       <c r="I71" s="6">
         <f t="shared" ref="I71:Q71" si="34">SUMPRODUCT(I27:I36,I57:I66)</f>
-        <v>0.98522813603425141</v>
+        <v>0.91829583405448956</v>
       </c>
       <c r="J71" s="6">
         <f t="shared" si="34"/>
@@ -3473,19 +3718,19 @@
       </c>
     </row>
     <row r="74" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G74" s="17" t="s">
+      <c r="G74" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
-      <c r="K74" s="17"/>
-      <c r="L74" s="17"/>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
+      <c r="H74" s="21"/>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+      <c r="O74" s="21"/>
+      <c r="P74" s="21"/>
+      <c r="Q74" s="21"/>
     </row>
     <row r="75" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G75" s="1" t="s">
@@ -3577,11 +3822,11 @@
       </c>
       <c r="H77" s="6">
         <f>IF(H42="","",IFERROR(LOG(H42/(H$18*$C6),2),0))</f>
-        <v>-0.73696559416620588</v>
+        <v>0.58496250072115596</v>
       </c>
       <c r="I77" s="6">
         <f t="shared" ref="I77:Q77" si="36">IF(I42="","",IFERROR(LOG(I42/(I$18*$C6),2),0))</f>
-        <v>0.36257007938470842</v>
+        <v>-0.5849625007211563</v>
       </c>
       <c r="J77" s="6" t="str">
         <f t="shared" si="36"/>
@@ -3626,11 +3871,11 @@
       </c>
       <c r="H78" s="6">
         <f t="shared" ref="H78:Q86" si="38">IF(H43="","",IFERROR(LOG(H43/(H$18*$C7),2),0))</f>
-        <v>1.2630344058337941</v>
+        <v>-1</v>
       </c>
       <c r="I78" s="6">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>0.4150374992788437</v>
       </c>
       <c r="J78" s="6" t="str">
         <f t="shared" si="38"/>
@@ -3673,13 +3918,13 @@
       <c r="G79" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H79" s="6">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="I79" s="6">
-        <f t="shared" si="38"/>
-        <v>0.77760757866355223</v>
+      <c r="H79" s="6" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="I79" s="6" t="str">
+        <f t="shared" si="38"/>
+        <v/>
       </c>
       <c r="J79" s="6" t="str">
         <f t="shared" si="38"/>
@@ -4058,23 +4303,23 @@
       </c>
     </row>
     <row r="89" spans="3:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="D89" s="27"/>
-      <c r="G89" s="17" t="s">
+      <c r="D89" s="22"/>
+      <c r="G89" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="H89" s="21"/>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+      <c r="O89" s="21"/>
+      <c r="P89" s="21"/>
+      <c r="Q89" s="21"/>
     </row>
     <row r="90" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C90" s="4"/>
@@ -4168,7 +4413,7 @@
       </c>
       <c r="D92" s="6">
         <f t="shared" ref="D92:D101" si="40">SUM(H92:Q92)</f>
-        <v>0.81127812445913272</v>
+        <v>0.97095059445466869</v>
       </c>
       <c r="F92" s="12">
         <f>F42</f>
@@ -4179,26 +4424,26 @@
       </c>
       <c r="H92" s="6">
         <f>IF(H6="","",IFERROR(H6*LOG(1/H6,2),0))</f>
-        <v>0.5</v>
+        <v>0.44217935649972373</v>
       </c>
       <c r="I92" s="6">
-        <f t="shared" ref="I92:Q92" si="41">IF(I6="","",IFERROR(I6*LOG(1/I6,2),0))</f>
-        <v>0.31127812445913278</v>
+        <f>IF(I6="","",IFERROR(I6*LOG(1/I6,2),0))</f>
+        <v>0.52877123795494496</v>
       </c>
       <c r="J92" s="6" t="str">
-        <f t="shared" si="41"/>
+        <f>IF(J6="","",IFERROR(J6*LOG(1/J6,2),0))</f>
         <v/>
       </c>
       <c r="K92" s="6" t="str">
-        <f t="shared" si="41"/>
+        <f>IF(K6="","",IFERROR(K6*LOG(1/K6,2),0))</f>
         <v/>
       </c>
       <c r="L92" s="6" t="str">
-        <f t="shared" si="41"/>
+        <f>IF(L6="","",IFERROR(L6*LOG(1/L6,2),0))</f>
         <v/>
       </c>
       <c r="M92" s="6" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="M92:Q92" si="41">IF(M6="","",IFERROR(M6*LOG(1/M6,2),0))</f>
         <v/>
       </c>
       <c r="N92" s="6" t="str">
@@ -4224,7 +4469,7 @@
       </c>
       <c r="D93" s="6">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>0.72192809488736231</v>
       </c>
       <c r="F93" s="12">
         <f t="shared" ref="F93:F101" si="42">F43</f>
@@ -4235,22 +4480,22 @@
       </c>
       <c r="H93" s="6">
         <f t="shared" ref="H93:Q101" si="43">IF(H7="","",IFERROR(H7*LOG(1/H7,2),0))</f>
-        <v>0</v>
+        <v>0.46438561897747244</v>
       </c>
       <c r="I93" s="6">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f>IF(I7="","",IFERROR(I7*LOG(1/I7,2),0))</f>
+        <v>0.25754247590988988</v>
       </c>
       <c r="J93" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f>IF(J7="","",IFERROR(J7*LOG(1/J7,2),0))</f>
         <v/>
       </c>
       <c r="K93" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f>IF(K7="","",IFERROR(K7*LOG(1/K7,2),0))</f>
         <v/>
       </c>
       <c r="L93" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f>IF(L7="","",IFERROR(L7*LOG(1/L7,2),0))</f>
         <v/>
       </c>
       <c r="M93" s="6" t="str">
@@ -4289,24 +4534,24 @@
       <c r="G94" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H94" s="6">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="I94" s="6">
-        <f t="shared" si="43"/>
-        <v>0</v>
+      <c r="H94" s="6" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I94" s="6" t="str">
+        <f>IF(I8="","",IFERROR(I8*LOG(1/I8,2),0))</f>
+        <v/>
       </c>
       <c r="J94" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f>IF(J8="","",IFERROR(J8*LOG(1/J8,2),0))</f>
         <v/>
       </c>
       <c r="K94" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f>IF(K8="","",IFERROR(K8*LOG(1/K8,2),0))</f>
         <v/>
       </c>
       <c r="L94" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f>IF(L8="","",IFERROR(L8*LOG(1/L8,2),0))</f>
         <v/>
       </c>
       <c r="M94" s="6" t="str">
@@ -4723,7 +4968,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="G74:Q74"/>
     <mergeCell ref="G89:Q89"/>
     <mergeCell ref="C89:D89"/>
@@ -4735,25 +4980,32 @@
     <mergeCell ref="G39:Q39"/>
     <mergeCell ref="G54:Q54"/>
     <mergeCell ref="C18:E18"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <conditionalFormatting sqref="R6:R15">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:Q37">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:D30">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:D34">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",D33)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4769,7 +5021,7 @@
       <selection activeCell="C39" sqref="C39:E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" customWidth="1"/>
@@ -4835,13 +5087,13 @@
       </c>
     </row>
     <row r="17" spans="2:46" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
     </row>
     <row r="18" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
@@ -5474,16 +5726,243 @@
     <mergeCell ref="B17:F17"/>
   </mergeCells>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>$F$19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="E11:K49"/>
+  <sheetViews>
+    <sheetView topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="144.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I11" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="9:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="I16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="I21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F46" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="32" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="6">
+        <f>1-B4</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="6">
+        <f>IFERROR(B5*LOG(1/B5,2)+B4*LOG(1/B4,2),1)</f>
+        <v>0.72192809488736231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="6">
+        <f>1-B6</f>
+        <v>0.27807190511263769</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Planilla Segundo Parcial.xlsx
+++ b/Planilla Segundo Parcial.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="133">
   <si>
     <t>b1</t>
   </si>
@@ -372,6 +372,51 @@
   </si>
   <si>
     <t>Capacidad en casos especiales:</t>
+  </si>
+  <si>
+    <t>Sumatoria P(a)*p(b/a) por columnas</t>
+  </si>
+  <si>
+    <t>p(a*)*p(b/a*) para  cada columna (el mas grande)</t>
+  </si>
+  <si>
+    <t>Sumatoria ya sin a*</t>
+  </si>
+  <si>
+    <t>p(a*)=</t>
+  </si>
+  <si>
+    <t>Fila a no inc:</t>
+  </si>
+  <si>
+    <t>Probabilidad de error</t>
+  </si>
+  <si>
+    <t>P( E) =</t>
+  </si>
+  <si>
+    <t>Simetrico</t>
+  </si>
+  <si>
+    <t>BSC</t>
+  </si>
+  <si>
+    <t>Uniforme</t>
+  </si>
+  <si>
+    <t>s//toDO EXCEL DE PARIDADS</t>
+  </si>
+  <si>
+    <t>Simb. Input</t>
+  </si>
+  <si>
+    <t>Simb. Out</t>
+  </si>
+  <si>
+    <t>these need test</t>
+  </si>
+  <si>
+    <t>MANUAlES</t>
   </si>
 </sst>
 </file>
@@ -415,7 +460,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,8 +557,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -591,11 +642,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -621,6 +718,11 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -648,31 +750,62 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -705,48 +838,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -847,7 +938,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1133,13 +1224,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:R101"/>
+  <dimension ref="A3:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
@@ -1151,29 +1242,43 @@
     <col min="19" max="19" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E3" s="11"/>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-    </row>
-    <row r="4" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B4" s="26" t="s">
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="V3" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="W3" s="6">
+        <f>MAX($C$6:$C$15)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z3" s="6">
+        <f>MATCH(W3,$C$6:$C$15,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B4" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="11"/>
       <c r="G4" s="1" t="s">
         <v>58</v>
@@ -1189,8 +1294,20 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U4" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38"/>
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
@@ -1239,8 +1356,38 @@
       <c r="R5" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <f>F6</f>
         <v>0</v>
@@ -1249,23 +1396,29 @@
         <v>10</v>
       </c>
       <c r="C6" s="19">
-        <v>0.5</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D6" s="6">
         <f>IF(C6&lt;&gt;"",LOG(1/C6,2),"")</f>
-        <v>1</v>
+        <v>1.5849625007211563</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="1">
-        <v>0.6</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="I6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="J6" s="2"/>
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J6" s="2">
+        <f>1/2</f>
+        <v>0.5</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1277,33 +1430,78 @@
         <f>IF(SUM(H6:Q6)=0,1,SUM(H6:Q6))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U6" s="1">
+        <f>SUMPRODUCT(H6:H15,$C$6:$C$15)</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="V6" s="1">
+        <f t="shared" ref="V6:AD6" si="0">SUMPRODUCT(I6:I15,$C$6:$C$15)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="X6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
-        <f t="shared" ref="A7:A15" si="0">F7</f>
+        <f t="shared" ref="A7:A15" si="1">F7</f>
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="19">
-        <v>0.5</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D7" s="6">
         <f>IF(C7&lt;&gt;"",LOG(1/C7,2),"")</f>
-        <v>1</v>
+        <v>1.5849625007211563</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I7" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="J7" s="1"/>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J7" s="1">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1313,29 +1511,52 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="3">
         <f>IF(SUM(H7:Q7)=0,1,SUM(H7:Q7))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="U7" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="6" t="str">
+      <c r="C8" s="19">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D8" s="6">
         <f>IF(C8&lt;&gt;"",LOG(1/C8,2),"")</f>
-        <v/>
+        <v>1.5849625007211563</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="19"/>
+      <c r="H8" s="1">
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="19">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1347,10 +1568,50 @@
         <f>IF(SUM(H8:Q8)=0,1,SUM(H8:Q8))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U8" s="1">
+        <f ca="1">$W$3*INDIRECT("H"&amp;(6+$Z$3-1))</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="V8" s="1">
+        <f ca="1">$W$3*INDIRECT("I"&amp;(6+$Z$3-1))</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="W8" s="1">
+        <f ca="1">$W$3*INDIRECT("J"&amp;(6+$Z$3-1))</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="X8" s="1">
+        <f ca="1">$W$3*INDIRECT("K"&amp;(6+$Z$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <f ca="1">$W$3*INDIRECT("L"&amp;(6+$Z$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="1">
+        <f ca="1">$W$3*INDIRECT("M"&amp;(6+$Z$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="1">
+        <f ca="1">$W$3*INDIRECT("N"&amp;(6+$Z$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="1">
+        <f ca="1">$W$3*INDIRECT("O"&amp;(6+$Z$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="1">
+        <f ca="1">$W$3*INDIRECT("P"&amp;(6+$Z$3-1))</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="1">
+        <f ca="1">$W$3*INDIRECT("Q"&amp;(6+$Z$3-1))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1379,10 +1640,22 @@
         <f>IF(SUM(H9:Q9)=0,1,SUM(H9:Q9))</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U9" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="41"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1390,7 +1663,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="6" t="str">
-        <f t="shared" ref="D10:D15" si="1">IF(C10&lt;&gt;"",LOG(1/C10,2),"")</f>
+        <f t="shared" ref="D10:D15" si="2">IF(C10&lt;&gt;"",LOG(1/C10,2),"")</f>
         <v/>
       </c>
       <c r="F10" s="1"/>
@@ -1408,13 +1681,53 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="3">
-        <f t="shared" ref="R10:R14" si="2">IF(SUM(H10:Q10)=0,1,SUM(H10:Q10))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" ref="R10:R14" si="3">IF(SUM(H10:Q10)=0,1,SUM(H10:Q10))</f>
+        <v>1</v>
+      </c>
+      <c r="U10" s="1">
+        <f ca="1">U6-U8</f>
+        <v>0.22222222222222227</v>
+      </c>
+      <c r="V10" s="1">
+        <f t="shared" ref="V10:AD10" ca="1" si="4">V6-V8</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1422,7 +1735,7 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F11" s="1"/>
@@ -1440,13 +1753,13 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1454,7 +1767,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F12" s="1"/>
@@ -1472,13 +1785,17 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="W12" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="X12" s="42"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1486,7 +1803,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F13" s="1"/>
@@ -1504,13 +1821,20 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="X13" s="6">
+        <f ca="1">SUM(U10:AD10)</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1518,7 +1842,7 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F14" s="1"/>
@@ -1536,13 +1860,13 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1550,7 +1874,7 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="F15" s="1"/>
@@ -1572,7 +1896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>56</v>
       </c>
@@ -1582,67 +1906,67 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
       <c r="G18" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" ref="H18:Q18" si="3">SUMPRODUCT(H6:H15,$C$6:$C$15)</f>
-        <v>0.4</v>
+        <f t="shared" ref="H18:Q18" si="5">SUMPRODUCT(H6:H15,$C$6:$C$15)</f>
+        <v>0.33333333333333337</v>
       </c>
       <c r="I18" s="6">
         <f>SUMPRODUCT(I6:I15,$C$6:$C$15)</f>
-        <v>0.60000000000000009</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -1661,42 +1985,42 @@
       </c>
       <c r="H19" s="6">
         <f>IF(H18&lt;&gt;0,LOG(1/H18,2),"")</f>
-        <v>1.3219280948873624</v>
+        <v>1.5849625007211561</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" ref="I19:Q19" si="4">IF(I18&lt;&gt;0,LOG(1/I18,2),"")</f>
-        <v>0.73696559416620611</v>
-      </c>
-      <c r="J19" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <f t="shared" ref="I19:Q19" si="6">IF(I18&lt;&gt;0,LOG(1/I18,2),"")</f>
+        <v>1.5849625007211563</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="6"/>
+        <v>1.5849625007211563</v>
       </c>
       <c r="K19" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="L19" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="M19" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N19" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="O19" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="P19" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q19" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
@@ -1706,7 +2030,7 @@
       </c>
       <c r="D20" s="6">
         <f>SUMPRODUCT(C6:C15,D6:D15)</f>
-        <v>1</v>
+        <v>1.5849625007211561</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>65</v>
@@ -1718,14 +2042,14 @@
       </c>
       <c r="D21" s="6">
         <f>SUMPRODUCT(H18:Q18,H71:Q71)</f>
-        <v>0.87548875021634698</v>
-      </c>
-      <c r="E21" s="34" t="s">
+        <v>1.4591479170272448</v>
+      </c>
+      <c r="E21" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
@@ -1733,7 +2057,7 @@
       </c>
       <c r="D22" s="14">
         <f>D20-D21</f>
-        <v>0.12451124978365302</v>
+        <v>0.1258145836939113</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>78</v>
@@ -1745,7 +2069,7 @@
       </c>
       <c r="D23" s="14">
         <f>SUMPRODUCT(H77:Q86,H42:Q51)</f>
-        <v>0.12451124978365299</v>
+        <v>0.12581458369391135</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>79</v>
@@ -1757,22 +2081,22 @@
       </c>
       <c r="D24" s="6">
         <f>SUMPRODUCT(H18:Q18,H19:Q19)</f>
-        <v>0.97095059445466869</v>
+        <v>1.5849625007211561</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="G24" s="27" t="s">
+      <c r="G24" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="27"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
     </row>
     <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
@@ -1780,7 +2104,7 @@
       </c>
       <c r="D25" s="6">
         <f>D24+D21</f>
-        <v>1.8464393446710157</v>
+        <v>3.0441104177484011</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>75</v>
@@ -1793,39 +2117,39 @@
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" ref="I25:Q25" si="5">I4</f>
+        <f t="shared" ref="I25:Q25" si="7">I4</f>
         <v>0</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1835,7 +2159,7 @@
       </c>
       <c r="D26" s="6">
         <f>D25-D20</f>
-        <v>0.84643934467101567</v>
+        <v>1.459147917027245</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>82</v>
@@ -1880,594 +2204,609 @@
       </c>
       <c r="D27" s="6">
         <f>SUMPRODUCT(C6:C15,D92:D101)</f>
-        <v>0.84643934467101545</v>
+        <v>1.4591479170272446</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>83</v>
       </c>
       <c r="F27" s="12">
-        <f t="shared" ref="F27:F36" si="6">F6</f>
+        <f t="shared" ref="F27:F36" si="8">F6</f>
         <v>0</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" ref="H27:Q27" si="7">IF(OR($C6=0,H$18=0),"",H6/H$18*$C6)</f>
-        <v>0.74999999999999989</v>
+        <f t="shared" ref="H27:Q27" si="9">IF(OR($C6=0,H$18=0),"",H6/H$18*$C6)</f>
+        <v>0.33333333333333326</v>
       </c>
       <c r="I27" s="6">
-        <f>IF(OR($C6=0,I$18=0),"",I6/I$18*$C6)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J27" s="6" t="str">
-        <f>IF(OR($C6=0,J$18=0),"",J6/J$18*$C6)</f>
-        <v/>
+        <f t="shared" ref="I27:L29" si="10">IF(OR($C6=0,I$18=0),"",I6/I$18*$C6)</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
       </c>
       <c r="K27" s="6" t="str">
-        <f>IF(OR($C6=0,K$18=0),"",K6/K$18*$C6)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L27" s="6" t="str">
-        <f>IF(OR($C6=0,L$18=0),"",L6/L$18*$C6)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M27" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N27" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O27" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P27" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q27" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F28" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" ref="H28:Q28" si="8">IF(OR($C7=0,H$18=0),"",H7/H$18*$C7)</f>
-        <v>0.25</v>
+        <f t="shared" ref="H28:Q28" si="11">IF(OR($C7=0,H$18=0),"",H7/H$18*$C7)</f>
+        <v>0.49999999999999989</v>
       </c>
       <c r="I28" s="6">
-        <f>IF(OR($C7=0,I$18=0),"",I7/I$18*$C7)</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J28" s="6" t="str">
-        <f>IF(OR($C7=0,J$18=0),"",J7/J$18*$C7)</f>
-        <v/>
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="K28" s="6" t="str">
-        <f>IF(OR($C7=0,K$18=0),"",K7/K$18*$C7)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L28" s="6" t="str">
-        <f>IF(OR($C7=0,L$18=0),"",L7/L$18*$C7)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M28" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="N28" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="O28" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="P28" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="Q28" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="C29" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" s="17" t="b">
-        <f>D26=0</f>
-        <v>0</v>
+        <v>129</v>
+      </c>
+      <c r="D29" s="6">
+        <f>10-COUNTBLANK($C$6:$C$15)</f>
+        <v>3</v>
       </c>
       <c r="F29" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="6" t="str">
-        <f t="shared" ref="H29:Q29" si="9">IF(OR($C8=0,H$18=0),"",H8/H$18*$C8)</f>
-        <v/>
-      </c>
-      <c r="I29" s="6" t="str">
-        <f>IF(OR($C8=0,I$18=0),"",I8/I$18*$C8)</f>
-        <v/>
-      </c>
-      <c r="J29" s="6" t="str">
-        <f>IF(OR($C8=0,J$18=0),"",J8/J$18*$C8)</f>
-        <v/>
+      <c r="H29" s="6">
+        <f t="shared" ref="H29:Q29" si="12">IF(OR($C8=0,H$18=0),"",H8/H$18*$C8)</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" si="10"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K29" s="6" t="str">
-        <f>IF(OR($C8=0,K$18=0),"",K8/K$18*$C8)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="L29" s="6" t="str">
-        <f>IF(OR($C8=0,L$18=0),"",L8/L$18*$C8)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="M29" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="N29" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O29" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="P29" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q29" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C30" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="17" t="b">
-        <f>D21=0</f>
-        <v>0</v>
+        <v>130</v>
+      </c>
+      <c r="D30" s="6">
+        <f>10-COUNTBLANK(H19:$Q$19)</f>
+        <v>3</v>
       </c>
       <c r="F30" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f t="shared" ref="H30:Q30" si="10">IF(OR($C9=0,H$18=0),"",H9/H$18*$C9)</f>
+        <f t="shared" ref="H30:Q30" si="13">IF(OR($C9=0,H$18=0),"",H9/H$18*$C9)</f>
         <v/>
       </c>
       <c r="I30" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="J30" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="K30" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L30" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M30" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="N30" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O30" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="P30" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Q30" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F31" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f t="shared" ref="H31:Q31" si="11">IF(OR($C10=0,H$18=0),"",H10/H$18*$C10)</f>
+        <f t="shared" ref="H31:Q31" si="14">IF(OR($C10=0,H$18=0),"",H10/H$18*$C10)</f>
         <v/>
       </c>
       <c r="I31" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="J31" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="K31" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="L31" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M31" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N31" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="O31" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P31" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="Q31" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C32" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="D32" s="33"/>
       <c r="F32" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H32" s="6" t="str">
-        <f t="shared" ref="H32:Q32" si="12">IF(OR($C11=0,H$18=0),"",H11/H$18*$C11)</f>
+        <f t="shared" ref="H32:Q32" si="15">IF(OR($C11=0,H$18=0),"",H11/H$18*$C11)</f>
         <v/>
       </c>
       <c r="I32" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="J32" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="K32" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L32" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="M32" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="N32" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O32" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P32" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q32" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C33" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33" s="17" t="str">
-        <f>IF(D29,LOG(10-COUNTBLANK(H19:Q19),2),"N/A")</f>
-        <v>N/A</v>
-      </c>
       <c r="F33" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f t="shared" ref="H33:Q33" si="13">IF(OR($C12=0,H$18=0),"",H12/H$18*$C12)</f>
+        <f t="shared" ref="H33:Q33" si="16">IF(OR($C12=0,H$18=0),"",H12/H$18*$C12)</f>
         <v/>
       </c>
       <c r="I33" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J33" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="K33" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="L33" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M33" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="N33" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O33" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P33" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q33" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C34" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D34" s="17" t="str">
-        <f>IF(D30,LOG(10-COUNTBLANK(C6:C15),2),"N/A")</f>
-        <v>N/A</v>
-      </c>
       <c r="F34" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H34" s="6" t="str">
-        <f t="shared" ref="H34:Q34" si="14">IF(OR($C13=0,H$18=0),"",H13/H$18*$C13)</f>
+        <f t="shared" ref="H34:Q34" si="17">IF(OR($C13=0,H$18=0),"",H13/H$18*$C13)</f>
         <v/>
       </c>
       <c r="I34" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J34" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="K34" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L34" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="M34" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N34" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="O34" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P34" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Q34" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C35" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="17" t="b">
+        <f>D26=0</f>
+        <v>0</v>
+      </c>
       <c r="F35" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H35" s="6" t="str">
-        <f t="shared" ref="H35:Q35" si="15">IF(OR($C14=0,H$18=0),"",H14/H$18*$C14)</f>
+        <f t="shared" ref="H35:Q35" si="18">IF(OR($C14=0,H$18=0),"",H14/H$18*$C14)</f>
         <v/>
       </c>
       <c r="I35" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J35" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K35" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L35" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M35" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N35" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O35" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="P35" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q35" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="17" t="b">
+        <f>D21=0</f>
+        <v>0</v>
+      </c>
       <c r="F36" s="12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H36" s="6" t="str">
-        <f t="shared" ref="H36:Q36" si="16">IF(OR($C15=0,H$18=0),"",H15/H$18*$C15)</f>
+        <f t="shared" ref="H36:Q36" si="19">IF(OR($C15=0,H$18=0),"",H15/H$18*$C15)</f>
         <v/>
       </c>
       <c r="I36" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="J36" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K36" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L36" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M36" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="N36" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O36" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P36" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="Q36" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C37" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="45"/>
       <c r="G37" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H37" s="3">
         <f>IF(SUM(H27:H36)=0,1,SUM(H27:H36))</f>
-        <v>0.99999999999999989</v>
+        <v>0.99999999999999978</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" ref="I37:Q37" si="17">IF(SUM(I27:I36)=0,1,SUM(I27:I36))</f>
+        <f t="shared" ref="I37:Q37" si="20">IF(SUM(I27:I36)=0,1,SUM(I27:I36))</f>
         <v>1</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="P37" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>1</v>
       </c>
       <c r="Q37" s="3">
-        <f t="shared" si="17"/>
-        <v>1</v>
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C38" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" t="b">
+        <f>FALSE</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G39" s="28" t="s">
+      <c r="C39" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="G39" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="28"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="Q39" s="31"/>
     </row>
     <row r="40" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C40" s="37" t="s">
+        <v>127</v>
+      </c>
       <c r="G40" s="1" t="s">
         <v>58</v>
       </c>
@@ -2476,39 +2815,39 @@
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" ref="I40:Q40" si="18">I4</f>
+        <f t="shared" ref="I40:Q40" si="21">I4</f>
         <v>0</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Q40" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -2548,511 +2887,548 @@
       </c>
     </row>
     <row r="42" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C42" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="44"/>
       <c r="F42" s="12">
-        <f t="shared" ref="F42:F51" si="19">F6</f>
+        <f t="shared" ref="F42:F51" si="22">F6</f>
         <v>0</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" ref="H42:Q42" si="20">IF(OR($C6="",H6=""),"",H6*$C6)</f>
-        <v>0.3</v>
+        <f t="shared" ref="H42:Q42" si="23">IF(OR($C6="",H6=""),"",H6*$C6)</f>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I42" s="6">
-        <f>IF(OR($C6="",I6=""),"",I6*$C6)</f>
-        <v>0.2</v>
-      </c>
-      <c r="J42" s="6" t="str">
-        <f>IF(OR($C6="",J6=""),"",J6*$C6)</f>
-        <v/>
+        <f t="shared" ref="I42:L44" si="24">IF(OR($C6="",I6=""),"",I6*$C6)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="J42" s="6">
+        <f t="shared" si="24"/>
+        <v>0.16666666666666666</v>
       </c>
       <c r="K42" s="6" t="str">
-        <f>IF(OR($C6="",K6=""),"",K6*$C6)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="L42" s="6" t="str">
-        <f>IF(OR($C6="",L6=""),"",L6*$C6)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="M42" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="N42" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O42" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="P42" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="Q42" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="17" t="str">
+        <f>IF(D36,LOG($D$30,2),"N/A")</f>
+        <v>N/A</v>
+      </c>
       <c r="F43" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" ref="H43:Q43" si="21">IF(OR($C7="",H7=""),"",H7*$C7)</f>
-        <v>0.1</v>
+        <f t="shared" ref="H43:Q43" si="25">IF(OR($C7="",H7=""),"",H7*$C7)</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I43" s="6">
-        <f>IF(OR($C7="",I7=""),"",I7*$C7)</f>
-        <v>0.4</v>
-      </c>
-      <c r="J43" s="6" t="str">
-        <f>IF(OR($C7="",J7=""),"",J7*$C7)</f>
-        <v/>
+        <f t="shared" si="24"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J43" s="6">
+        <f t="shared" si="24"/>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="K43" s="6" t="str">
-        <f>IF(OR($C7="",K7=""),"",K7*$C7)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="L43" s="6" t="str">
-        <f>IF(OR($C7="",L7=""),"",L7*$C7)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="M43" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="N43" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O43" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="P43" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Q43" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C44" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="17" t="str">
+        <f>IF(D36,LOG($D$29,2),"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="E44" t="s">
+        <v>131</v>
+      </c>
       <c r="F44" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="6" t="str">
-        <f t="shared" ref="H44:Q44" si="22">IF(OR($C8="",H8=""),"",H8*$C8)</f>
-        <v/>
-      </c>
-      <c r="I44" s="6" t="str">
-        <f>IF(OR($C8="",I8=""),"",I8*$C8)</f>
-        <v/>
-      </c>
-      <c r="J44" s="6" t="str">
-        <f>IF(OR($C8="",J8=""),"",J8*$C8)</f>
-        <v/>
+      <c r="H44" s="6">
+        <f t="shared" ref="H44:Q44" si="26">IF(OR($C8="",H8=""),"",H8*$C8)</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="I44" s="6">
+        <f t="shared" si="24"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J44" s="6">
+        <f t="shared" si="24"/>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K44" s="6" t="str">
-        <f>IF(OR($C8="",K8=""),"",K8*$C8)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="L44" s="6" t="str">
-        <f>IF(OR($C8="",L8=""),"",L8*$C8)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="M44" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="N44" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="O44" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="P44" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="Q44" s="6" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C45" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" t="str">
+        <f>IF(D38,LOG(D29,2)-SUM(H92:H101),"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="F45" s="12">
         <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="N44" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="O44" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="P44" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="Q44" s="6" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="F45" s="12">
-        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H45" s="6" t="str">
-        <f t="shared" ref="H45:Q45" si="23">IF(OR($C9="",H9=""),"",H9*$C9)</f>
+        <f t="shared" ref="H45:Q45" si="27">IF(OR($C9="",H9=""),"",H9*$C9)</f>
         <v/>
       </c>
       <c r="I45" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="J45" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="K45" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="L45" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="M45" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="N45" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="O45" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="P45" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q45" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C46" s="37" t="s">
+        <v>126</v>
+      </c>
       <c r="F46" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H46" s="6" t="str">
-        <f t="shared" ref="H46:Q46" si="24">IF(OR($C10="",H10=""),"",H10*$C10)</f>
+        <f t="shared" ref="H46:Q46" si="28">IF(OR($C10="",H10=""),"",H10*$C10)</f>
         <v/>
       </c>
       <c r="I46" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="J46" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="K46" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="L46" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="M46" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="N46" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="O46" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="P46" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="Q46" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C47" s="37" t="s">
+        <v>127</v>
+      </c>
       <c r="F47" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H47" s="6" t="str">
-        <f t="shared" ref="H47:Q47" si="25">IF(OR($C11="",H11=""),"",H11*$C11)</f>
+        <f t="shared" ref="H47:Q47" si="29">IF(OR($C11="",H11=""),"",H11*$C11)</f>
         <v/>
       </c>
       <c r="I47" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="J47" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="K47" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="L47" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="M47" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="N47" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O47" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="P47" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="Q47" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F48" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H48" s="6" t="str">
-        <f t="shared" ref="H48:Q48" si="26">IF(OR($C12="",H12=""),"",H12*$C12)</f>
+        <f t="shared" ref="H48:Q48" si="30">IF(OR($C12="",H12=""),"",H12*$C12)</f>
         <v/>
       </c>
       <c r="I48" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J48" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="K48" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="L48" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="M48" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="N48" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="O48" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="P48" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="Q48" s="6" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="6:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C49" s="37" t="s">
+        <v>128</v>
+      </c>
       <c r="F49" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H49" s="6" t="str">
-        <f t="shared" ref="H49:Q49" si="27">IF(OR($C13="",H13=""),"",H13*$C13)</f>
+        <f t="shared" ref="H49:Q49" si="31">IF(OR($C13="",H13=""),"",H13*$C13)</f>
         <v/>
       </c>
       <c r="I49" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="J49" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K49" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="L49" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="M49" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="N49" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="O49" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="P49" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="Q49" s="6" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="6:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F50" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H50" s="6" t="str">
-        <f t="shared" ref="H50:Q50" si="28">IF(OR($C14="",H14=""),"",H14*$C14)</f>
+        <f t="shared" ref="H50:Q50" si="32">IF(OR($C14="",H14=""),"",H14*$C14)</f>
         <v/>
       </c>
       <c r="I50" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J50" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K50" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="L50" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="M50" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N50" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="O50" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="P50" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Q50" s="6" t="str">
-        <f t="shared" si="28"/>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="6:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F51" s="12">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H51" s="6" t="str">
-        <f t="shared" ref="H51:Q51" si="29">IF(OR($C15="",H15=""),"",H15*$C15)</f>
+        <f t="shared" ref="H51:Q51" si="33">IF(OR($C15="",H15=""),"",H15*$C15)</f>
         <v/>
       </c>
       <c r="I51" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="J51" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="K51" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="L51" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M51" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N51" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O51" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="P51" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="Q51" s="6" t="str">
-        <f t="shared" si="29"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G54" s="21" t="s">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="3:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="G54" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="21"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="21"/>
-    </row>
-    <row r="55" spans="6:17" x14ac:dyDescent="0.25">
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="24"/>
+      <c r="Q54" s="24"/>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.25">
       <c r="G55" s="1" t="s">
         <v>58</v>
       </c>
@@ -3061,43 +3437,43 @@
         <v>0</v>
       </c>
       <c r="I55" s="13">
-        <f t="shared" ref="I55:Q55" si="30">I4</f>
+        <f t="shared" ref="I55:Q55" si="34">I4</f>
         <v>0</v>
       </c>
       <c r="J55" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="K55" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="L55" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="M55" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="N55" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O55" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="P55" s="13">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Q55" s="13">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="6:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.25">
       <c r="G56" s="7" t="s">
         <v>61</v>
       </c>
@@ -3132,9 +3508,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="6:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F57" s="12">
-        <f t="shared" ref="F57:F66" si="31">F6</f>
+        <f t="shared" ref="F57:F66" si="35">F6</f>
         <v>0</v>
       </c>
       <c r="G57" s="5" t="s">
@@ -3142,500 +3518,500 @@
       </c>
       <c r="H57" s="6">
         <f>IF(H27&lt;&gt;"",IF(H27=0,0,LOG(1/H27,2)),"")</f>
-        <v>0.41503749927884398</v>
+        <v>1.5849625007211567</v>
       </c>
       <c r="I57" s="6">
-        <f t="shared" ref="I57:Q57" si="32">IF(I27&lt;&gt;"",IF(I27=0,0,LOG(1/I27,2)),"")</f>
-        <v>1.5849625007211563</v>
-      </c>
-      <c r="J57" s="6" t="str">
-        <f t="shared" si="32"/>
-        <v/>
+        <f t="shared" ref="I57:Q57" si="36">IF(I27&lt;&gt;"",IF(I27=0,0,LOG(1/I27,2)),"")</f>
+        <v>2.5849625007211561</v>
+      </c>
+      <c r="J57" s="6">
+        <f t="shared" si="36"/>
+        <v>1</v>
       </c>
       <c r="K57" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="L57" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="M57" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N57" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="O57" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="P57" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="Q57" s="6" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="6:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F58" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H58" s="6">
-        <f t="shared" ref="H58:Q66" si="33">IF(H28&lt;&gt;"",IF(H28=0,0,LOG(1/H28,2)),"")</f>
-        <v>2</v>
+        <f t="shared" ref="H58:Q66" si="37">IF(H28&lt;&gt;"",IF(H28=0,0,LOG(1/H28,2)),"")</f>
+        <v>1.0000000000000002</v>
       </c>
       <c r="I58" s="6">
-        <f t="shared" si="33"/>
-        <v>0.58496250072115619</v>
-      </c>
-      <c r="J58" s="6" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+        <f t="shared" si="37"/>
+        <v>1.5849625007211563</v>
+      </c>
+      <c r="J58" s="6">
+        <f t="shared" si="37"/>
+        <v>2.5849625007211561</v>
       </c>
       <c r="K58" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L58" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M58" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N58" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O58" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="P58" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q58" s="6" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="6:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F59" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H59" s="6" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I59" s="6" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J59" s="6" t="str">
-        <f t="shared" si="33"/>
-        <v/>
+      <c r="H59" s="6">
+        <f t="shared" si="37"/>
+        <v>2.584962500721157</v>
+      </c>
+      <c r="I59" s="6">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="J59" s="6">
+        <f t="shared" si="37"/>
+        <v>1.5849625007211563</v>
       </c>
       <c r="K59" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L59" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M59" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N59" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O59" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="P59" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q59" s="6" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="6:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F60" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H60" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I60" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J60" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K60" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L60" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M60" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N60" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O60" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="P60" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q60" s="6" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="6:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F61" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H61" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I61" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J61" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K61" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L61" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M61" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N61" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O61" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="P61" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q61" s="6" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="6:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F62" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H62" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I62" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J62" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K62" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L62" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M62" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N62" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O62" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="P62" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q62" s="6" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="6:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F63" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H63" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I63" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J63" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K63" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L63" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M63" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N63" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O63" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="P63" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q63" s="6" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="6:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="37"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F64" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H64" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I64" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J64" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K64" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L64" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M64" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N64" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O64" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="P64" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q64" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F65" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H65" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I65" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J65" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K65" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L65" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M65" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N65" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O65" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="P65" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q65" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F66" s="12">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H66" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I66" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J66" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K66" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L66" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M66" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N66" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O66" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="P66" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q66" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G69" s="23" t="s">
+      <c r="G69" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="23"/>
-      <c r="N69" s="23"/>
-      <c r="O69" s="23"/>
-      <c r="P69" s="23"/>
-      <c r="Q69" s="23"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="26"/>
     </row>
     <row r="70" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G70" s="7" t="s">
@@ -3678,59 +4054,59 @@
       </c>
       <c r="H71" s="6">
         <f>SUMPRODUCT(H27:H36,H57:H66)</f>
-        <v>0.81127812445913294</v>
+        <v>1.459147917027245</v>
       </c>
       <c r="I71" s="6">
-        <f t="shared" ref="I71:Q71" si="34">SUMPRODUCT(I27:I36,I57:I66)</f>
-        <v>0.91829583405448956</v>
+        <f t="shared" ref="I71:Q71" si="38">SUMPRODUCT(I27:I36,I57:I66)</f>
+        <v>1.4591479170272448</v>
       </c>
       <c r="J71" s="6">
-        <f t="shared" si="34"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1.4591479170272446</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="L71" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="M71" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="N71" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="O71" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="P71" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="Q71" s="6">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G74" s="21" t="s">
+      <c r="G74" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="H74" s="21"/>
-      <c r="I74" s="21"/>
-      <c r="J74" s="21"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="21"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="21"/>
-      <c r="O74" s="21"/>
-      <c r="P74" s="21"/>
-      <c r="Q74" s="21"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="24"/>
+      <c r="Q74" s="24"/>
     </row>
     <row r="75" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G75" s="1" t="s">
@@ -3741,39 +4117,39 @@
         <v>0</v>
       </c>
       <c r="I75" s="13">
-        <f t="shared" ref="I75:Q75" si="35">I25</f>
+        <f t="shared" ref="I75:Q75" si="39">I25</f>
         <v>0</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="K75" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="L75" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M75" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N75" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O75" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="P75" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q75" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -3822,504 +4198,504 @@
       </c>
       <c r="H77" s="6">
         <f>IF(H42="","",IFERROR(LOG(H42/(H$18*$C6),2),0))</f>
-        <v>0.58496250072115596</v>
+        <v>-1.6017132519074588E-16</v>
       </c>
       <c r="I77" s="6">
-        <f t="shared" ref="I77:Q77" si="36">IF(I42="","",IFERROR(LOG(I42/(I$18*$C6),2),0))</f>
-        <v>-0.5849625007211563</v>
-      </c>
-      <c r="J77" s="6" t="str">
-        <f t="shared" si="36"/>
-        <v/>
+        <f t="shared" ref="I77:Q77" si="40">IF(I42="","",IFERROR(LOG(I42/(I$18*$C6),2),0))</f>
+        <v>-1</v>
+      </c>
+      <c r="J77" s="6">
+        <f t="shared" si="40"/>
+        <v>0.58496250072115619</v>
       </c>
       <c r="K77" s="6" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L77" s="6" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M77" s="6" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N77" s="6" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="O77" s="6" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="P77" s="6" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="Q77" s="6" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F78" s="12">
-        <f t="shared" ref="F78:F86" si="37">F28</f>
+        <f t="shared" ref="F78:F86" si="41">F28</f>
         <v>0</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H78" s="6">
-        <f t="shared" ref="H78:Q86" si="38">IF(H43="","",IFERROR(LOG(H43/(H$18*$C7),2),0))</f>
+        <f t="shared" ref="H78:Q86" si="42">IF(H43="","",IFERROR(LOG(H43/(H$18*$C7),2),0))</f>
+        <v>0.58496250072115596</v>
+      </c>
+      <c r="I78" s="6">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="6">
+        <f t="shared" si="42"/>
         <v>-1</v>
       </c>
-      <c r="I78" s="6">
-        <f t="shared" si="38"/>
-        <v>0.4150374992788437</v>
-      </c>
-      <c r="J78" s="6" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
       <c r="K78" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="L78" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="M78" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="N78" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="O78" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="P78" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="Q78" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F79" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H79" s="6" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="I79" s="6" t="str">
-        <f t="shared" si="38"/>
-        <v/>
-      </c>
-      <c r="J79" s="6" t="str">
-        <f t="shared" si="38"/>
-        <v/>
+      <c r="H79" s="6">
+        <f t="shared" si="42"/>
+        <v>-1.0000000000000002</v>
+      </c>
+      <c r="I79" s="6">
+        <f t="shared" si="42"/>
+        <v>0.58496250072115619</v>
+      </c>
+      <c r="J79" s="6">
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="K79" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="L79" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="M79" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="N79" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="O79" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="P79" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="Q79" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F80" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H80" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I80" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="J80" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="K80" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="L80" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="M80" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="N80" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="O80" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="P80" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="Q80" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F81" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H81" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I81" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="J81" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="K81" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="L81" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="M81" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="N81" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="O81" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="P81" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="Q81" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F82" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H82" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I82" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="J82" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="K82" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="L82" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="M82" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="N82" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="O82" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="P82" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="Q82" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F83" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H83" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I83" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="J83" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="K83" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="L83" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="M83" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="N83" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="O83" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="P83" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="Q83" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F84" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H84" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I84" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="J84" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="K84" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="L84" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="M84" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="N84" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="O84" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="P84" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="Q84" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F85" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H85" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I85" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="J85" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="K85" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="L85" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="M85" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="N85" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="O85" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="P85" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="Q85" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F86" s="12">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H86" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="I86" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="J86" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="K86" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="L86" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="M86" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="N86" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="O86" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="P86" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="Q86" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="3:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C89" s="22" t="s">
+      <c r="C89" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="D89" s="22"/>
-      <c r="G89" s="21" t="s">
+      <c r="D89" s="25"/>
+      <c r="G89" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="H89" s="21"/>
-      <c r="I89" s="21"/>
-      <c r="J89" s="21"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="21"/>
-      <c r="M89" s="21"/>
-      <c r="N89" s="21"/>
-      <c r="O89" s="21"/>
-      <c r="P89" s="21"/>
-      <c r="Q89" s="21"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+      <c r="N89" s="24"/>
+      <c r="O89" s="24"/>
+      <c r="P89" s="24"/>
+      <c r="Q89" s="24"/>
     </row>
     <row r="90" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C90" s="4"/>
@@ -4332,39 +4708,39 @@
         <v>0</v>
       </c>
       <c r="I90" s="13">
-        <f t="shared" ref="I90:Q90" si="39">I40</f>
+        <f t="shared" ref="I90:Q90" si="43">I40</f>
         <v>0</v>
       </c>
       <c r="J90" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="K90" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="L90" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="M90" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="N90" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="O90" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="P90" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="Q90" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -4412,8 +4788,8 @@
         <v>10</v>
       </c>
       <c r="D92" s="6">
-        <f t="shared" ref="D92:D101" si="40">SUM(H92:Q92)</f>
-        <v>0.97095059445466869</v>
+        <f t="shared" ref="D92:D101" si="44">SUM(H92:Q92)</f>
+        <v>1.4591479170272448</v>
       </c>
       <c r="F92" s="12">
         <f>F42</f>
@@ -4424,15 +4800,15 @@
       </c>
       <c r="H92" s="6">
         <f>IF(H6="","",IFERROR(H6*LOG(1/H6,2),0))</f>
-        <v>0.44217935649972373</v>
+        <v>0.52832083357371873</v>
       </c>
       <c r="I92" s="6">
         <f>IF(I6="","",IFERROR(I6*LOG(1/I6,2),0))</f>
-        <v>0.52877123795494496</v>
-      </c>
-      <c r="J92" s="6" t="str">
+        <v>0.43082708345352599</v>
+      </c>
+      <c r="J92" s="6">
         <f>IF(J6="","",IFERROR(J6*LOG(1/J6,2),0))</f>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="K92" s="6" t="str">
         <f>IF(K6="","",IFERROR(K6*LOG(1/K6,2),0))</f>
@@ -4443,23 +4819,23 @@
         <v/>
       </c>
       <c r="M92" s="6" t="str">
-        <f t="shared" ref="M92:Q92" si="41">IF(M6="","",IFERROR(M6*LOG(1/M6,2),0))</f>
+        <f t="shared" ref="M92:Q92" si="45">IF(M6="","",IFERROR(M6*LOG(1/M6,2),0))</f>
         <v/>
       </c>
       <c r="N92" s="6" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="O92" s="6" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P92" s="6" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="Q92" s="6" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
@@ -4468,54 +4844,54 @@
         <v>11</v>
       </c>
       <c r="D93" s="6">
-        <f t="shared" si="40"/>
-        <v>0.72192809488736231</v>
+        <f t="shared" si="44"/>
+        <v>1.4591479170272448</v>
       </c>
       <c r="F93" s="12">
-        <f t="shared" ref="F93:F101" si="42">F43</f>
+        <f t="shared" ref="F93:F101" si="46">F43</f>
         <v>0</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H93" s="6">
-        <f t="shared" ref="H93:Q101" si="43">IF(H7="","",IFERROR(H7*LOG(1/H7,2),0))</f>
-        <v>0.46438561897747244</v>
+        <f t="shared" ref="H93:Q101" si="47">IF(H7="","",IFERROR(H7*LOG(1/H7,2),0))</f>
+        <v>0.5</v>
       </c>
       <c r="I93" s="6">
-        <f>IF(I7="","",IFERROR(I7*LOG(1/I7,2),0))</f>
-        <v>0.25754247590988988</v>
-      </c>
-      <c r="J93" s="6" t="str">
-        <f>IF(J7="","",IFERROR(J7*LOG(1/J7,2),0))</f>
-        <v/>
+        <f t="shared" ref="I93:L94" si="48">IF(I7="","",IFERROR(I7*LOG(1/I7,2),0))</f>
+        <v>0.52832083357371873</v>
+      </c>
+      <c r="J93" s="6">
+        <f t="shared" si="48"/>
+        <v>0.43082708345352599</v>
       </c>
       <c r="K93" s="6" t="str">
-        <f>IF(K7="","",IFERROR(K7*LOG(1/K7,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="L93" s="6" t="str">
-        <f>IF(L7="","",IFERROR(L7*LOG(1/L7,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="M93" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="N93" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O93" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="P93" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="Q93" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
@@ -4524,54 +4900,54 @@
         <v>12</v>
       </c>
       <c r="D94" s="6">
-        <f t="shared" si="40"/>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>1.4591479170272446</v>
       </c>
       <c r="F94" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H94" s="6" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I94" s="6" t="str">
-        <f>IF(I8="","",IFERROR(I8*LOG(1/I8,2),0))</f>
-        <v/>
-      </c>
-      <c r="J94" s="6" t="str">
-        <f>IF(J8="","",IFERROR(J8*LOG(1/J8,2),0))</f>
-        <v/>
+      <c r="H94" s="6">
+        <f t="shared" si="47"/>
+        <v>0.43082708345352599</v>
+      </c>
+      <c r="I94" s="6">
+        <f t="shared" si="48"/>
+        <v>0.5</v>
+      </c>
+      <c r="J94" s="6">
+        <f t="shared" si="48"/>
+        <v>0.52832083357371873</v>
       </c>
       <c r="K94" s="6" t="str">
-        <f>IF(K8="","",IFERROR(K8*LOG(1/K8,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="L94" s="6" t="str">
-        <f>IF(L8="","",IFERROR(L8*LOG(1/L8,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="M94" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="N94" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O94" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="P94" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="Q94" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
@@ -4580,54 +4956,54 @@
         <v>13</v>
       </c>
       <c r="D95" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F95" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H95" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I95" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="J95" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K95" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="L95" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="M95" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="N95" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O95" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="P95" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="Q95" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
@@ -4636,54 +5012,54 @@
         <v>14</v>
       </c>
       <c r="D96" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F96" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H96" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I96" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="J96" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K96" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="L96" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="M96" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="N96" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O96" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="P96" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="Q96" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
@@ -4692,54 +5068,54 @@
         <v>15</v>
       </c>
       <c r="D97" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F97" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H97" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I97" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="J97" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K97" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="L97" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="M97" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="N97" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O97" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="P97" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="Q97" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
@@ -4748,54 +5124,54 @@
         <v>16</v>
       </c>
       <c r="D98" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F98" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H98" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I98" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="J98" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K98" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="L98" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="M98" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="N98" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O98" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="P98" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="Q98" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
@@ -4804,54 +5180,54 @@
         <v>17</v>
       </c>
       <c r="D99" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F99" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H99" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I99" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="J99" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K99" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="L99" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="M99" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="N99" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O99" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="P99" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="Q99" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
@@ -4860,54 +5236,54 @@
         <v>18</v>
       </c>
       <c r="D100" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F100" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H100" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I100" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="J100" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K100" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="L100" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="M100" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="N100" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O100" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="P100" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="Q100" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
@@ -4916,59 +5292,65 @@
         <v>19</v>
       </c>
       <c r="D101" s="6">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="F101" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H101" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="I101" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="J101" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="K101" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="L101" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="M101" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="N101" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="O101" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="P101" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="Q101" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="18">
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="U4:AD4"/>
+    <mergeCell ref="U7:AD7"/>
     <mergeCell ref="G74:Q74"/>
     <mergeCell ref="G89:Q89"/>
     <mergeCell ref="C89:D89"/>
@@ -4981,31 +5363,30 @@
     <mergeCell ref="G54:Q54"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="E21:H21"/>
-    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <conditionalFormatting sqref="R6:R15">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:Q37">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D30">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+  <conditionalFormatting sqref="D35:D36">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33:D34">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",D33)))</formula>
+  <conditionalFormatting sqref="D43:D44">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",D43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5021,7 +5402,7 @@
       <selection activeCell="C39" sqref="C39:E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" customWidth="1"/>
@@ -5087,13 +5468,13 @@
       </c>
     </row>
     <row r="17" spans="2:46" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
     </row>
     <row r="18" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
@@ -5726,12 +6107,12 @@
     <mergeCell ref="B17:F17"/>
   </mergeCells>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$F$19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5751,7 +6132,7 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1"/>
@@ -5759,13 +6140,13 @@
   </cols>
   <sheetData>
     <row r="11" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="36" t="s">
+      <c r="I11" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="36" t="s">
+      <c r="J11" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="22" t="s">
         <v>90</v>
       </c>
     </row>
@@ -5812,7 +6193,7 @@
         <v>59</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="37" t="s">
+      <c r="K16" s="23" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5894,7 +6275,7 @@
       </c>
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F47" s="32" t="s">
+      <c r="F47" s="21" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5914,10 +6295,10 @@
   <dimension ref="A3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>

--- a/Planilla Segundo Parcial.xlsx
+++ b/Planilla Segundo Parcial.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="132">
   <si>
     <t>b1</t>
   </si>
@@ -238,9 +238,6 @@
     <t>Valor (bits/simbolo)</t>
   </si>
   <si>
-    <t>Otros apodos</t>
-  </si>
-  <si>
     <t>Equivocación, ruido, Entropia media a Posteriori</t>
   </si>
   <si>
@@ -250,9 +247,6 @@
     <t>algo</t>
   </si>
   <si>
-    <t>ALGO: log2(P(A,B)/(P(A)P(B)))</t>
-  </si>
-  <si>
     <t>calc con resta</t>
   </si>
   <si>
@@ -269,9 +263,6 @@
   </si>
   <si>
     <t>perdida con formula</t>
-  </si>
-  <si>
-    <t>Otro algo: P(bj/ai)*log2(1/p(bj/ai))</t>
   </si>
   <si>
     <t>B</t>
@@ -383,12 +374,6 @@
     <t>Sumatoria ya sin a*</t>
   </si>
   <si>
-    <t>p(a*)=</t>
-  </si>
-  <si>
-    <t>Fila a no inc:</t>
-  </si>
-  <si>
     <t>Probabilidad de error</t>
   </si>
   <si>
@@ -413,10 +398,22 @@
     <t>Simb. Out</t>
   </si>
   <si>
-    <t>these need test</t>
-  </si>
-  <si>
     <t>MANUAlES</t>
+  </si>
+  <si>
+    <t>Binario Sim</t>
+  </si>
+  <si>
+    <t>Fila a no inc</t>
+  </si>
+  <si>
+    <t>p(b/a*)=</t>
+  </si>
+  <si>
+    <t>P(bj/ai)*log2(1/p(bj/ai))</t>
+  </si>
+  <si>
+    <t>log2(P(A,B)/(P(A)P(B)))</t>
   </si>
 </sst>
 </file>
@@ -460,7 +457,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -560,6 +557,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -722,6 +725,31 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -762,36 +790,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -803,6 +814,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -845,6 +863,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF00FF"/>
       <color rgb="FF00FF00"/>
     </mruColors>
   </colors>
@@ -938,7 +957,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1224,13 +1243,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AD101"/>
+  <dimension ref="A2:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
@@ -1242,43 +1261,117 @@
     <col min="19" max="19" width="6" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="T2" t="s">
+        <v>129</v>
+      </c>
+      <c r="U2">
+        <f>MAX(H6:H15)</f>
+        <v>0.9</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ref="V2:AD2" si="0">MAX(I6:I15)</f>
+        <v>0.9</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="3" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E3" s="11"/>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="V3" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="W3" s="6">
-        <f>MAX($C$6:$C$15)</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Z3" s="6">
-        <f>MATCH(W3,$C$6:$C$15,0)</f>
-        <v>1</v>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="T3" t="s">
+        <v>128</v>
+      </c>
+      <c r="U3">
+        <f>IFERROR(MATCH(U2,H6:H15,0),"")</f>
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:AD3" si="1">IFERROR(MATCH(V2,I6:I15,0),"")</f>
+        <v>1</v>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="X3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Y3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="Z3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AA3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AB3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AC3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="AD3" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
     </row>
     <row r="4" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="11"/>
       <c r="G4" s="1" t="s">
         <v>58</v>
@@ -1294,18 +1387,18 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
-      <c r="U4" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
+      <c r="U4" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -1318,7 +1411,7 @@
         <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -1396,29 +1489,23 @@
         <v>10</v>
       </c>
       <c r="C6" s="19">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="6">
         <f>IF(C6&lt;&gt;"",LOG(1/C6,2),"")</f>
-        <v>1.5849625007211563</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.1</v>
       </c>
       <c r="I6" s="1">
-        <f>1/6</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J6" s="2">
-        <f>1/2</f>
-        <v>0.5</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1427,81 +1514,76 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="3">
-        <f>IF(SUM(H6:Q6)=0,1,SUM(H6:Q6))</f>
+        <f>IF(C6="",1,SUM(H6:Q6))</f>
         <v>1</v>
       </c>
       <c r="U6" s="1">
         <f>SUMPRODUCT(H6:H15,$C$6:$C$15)</f>
-        <v>0.33333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="V6" s="1">
-        <f t="shared" ref="V6:AD6" si="0">SUMPRODUCT(I6:I15,$C$6:$C$15)</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" ref="V6:AD6" si="2">SUMPRODUCT(I6:I15,$C$6:$C$15)</f>
+        <v>0.5</v>
       </c>
       <c r="W6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="X6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AA6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AB6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AC6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="AD6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
-        <f t="shared" ref="A7:A15" si="1">F7</f>
+        <f t="shared" ref="A7:A15" si="3">F7</f>
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="19">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="D7" s="6">
         <f>IF(C7&lt;&gt;"",LOG(1/C7,2),"")</f>
-        <v>1.5849625007211563</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="2">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="I7" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J7" s="1">
-        <f>1/6</f>
-        <v>0.16666666666666666</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1510,53 +1592,42 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="3">
-        <f>IF(SUM(H7:Q7)=0,1,SUM(H7:Q7))</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="U7" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="V7" s="38"/>
-      <c r="W7" s="38"/>
-      <c r="X7" s="38"/>
-      <c r="Y7" s="38"/>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
+        <f t="shared" ref="R7:R15" si="4">IF(C7="",1,SUM(H7:Q7))</f>
+        <v>1</v>
+      </c>
+      <c r="U7" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="32"/>
+      <c r="Z7" s="32"/>
+      <c r="AA7" s="32"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="32"/>
+      <c r="AD7" s="32"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="19">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D8" s="6">
+      <c r="C8" s="19"/>
+      <c r="D8" s="6" t="str">
         <f>IF(C8&lt;&gt;"",LOG(1/C8,2),"")</f>
-        <v>1.5849625007211563</v>
+        <v/>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1">
-        <f>1/6</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="J8" s="19">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
-      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1565,53 +1636,53 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="3">
-        <f>IF(SUM(H8:Q8)=0,1,SUM(H8:Q8))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U8" s="1">
-        <f ca="1">$W$3*INDIRECT("H"&amp;(6+$Z$3-1))</f>
-        <v>0.1111111111111111</v>
+        <f ca="1">IFERROR(INDIRECT("C"&amp;(6+U3-1))*U2,"")</f>
+        <v>0.45</v>
       </c>
       <c r="V8" s="1">
-        <f ca="1">$W$3*INDIRECT("I"&amp;(6+$Z$3-1))</f>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="W8" s="1">
-        <f ca="1">$W$3*INDIRECT("J"&amp;(6+$Z$3-1))</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="X8" s="1">
-        <f ca="1">$W$3*INDIRECT("K"&amp;(6+$Z$3-1))</f>
-        <v>0</v>
-      </c>
-      <c r="Y8" s="1">
-        <f ca="1">$W$3*INDIRECT("L"&amp;(6+$Z$3-1))</f>
-        <v>0</v>
-      </c>
-      <c r="Z8" s="1">
-        <f ca="1">$W$3*INDIRECT("M"&amp;(6+$Z$3-1))</f>
-        <v>0</v>
-      </c>
-      <c r="AA8" s="1">
-        <f ca="1">$W$3*INDIRECT("N"&amp;(6+$Z$3-1))</f>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="1">
-        <f ca="1">$W$3*INDIRECT("O"&amp;(6+$Z$3-1))</f>
-        <v>0</v>
-      </c>
-      <c r="AC8" s="1">
-        <f ca="1">$W$3*INDIRECT("P"&amp;(6+$Z$3-1))</f>
-        <v>0</v>
-      </c>
-      <c r="AD8" s="1">
-        <f ca="1">$W$3*INDIRECT("Q"&amp;(6+$Z$3-1))</f>
-        <v>0</v>
+        <f t="shared" ref="V8:AD8" ca="1" si="5">IFERROR(INDIRECT("C"&amp;(6+V3-1))*V2,"")</f>
+        <v>0.45</v>
+      </c>
+      <c r="W8" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="X8" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="Y8" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="Z8" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AA8" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AB8" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AC8" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
+      </c>
+      <c r="AD8" s="1" t="str">
+        <f t="shared" ca="1" si="5"/>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1637,25 +1708,25 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="3">
-        <f>IF(SUM(H9:Q9)=0,1,SUM(H9:Q9))</f>
-        <v>1</v>
-      </c>
-      <c r="U9" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
-      <c r="AA9" s="40"/>
-      <c r="AB9" s="40"/>
-      <c r="AC9" s="40"/>
-      <c r="AD9" s="41"/>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="U9" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="27"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -1663,7 +1734,7 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="6" t="str">
-        <f t="shared" ref="D10:D15" si="2">IF(C10&lt;&gt;"",LOG(1/C10,2),"")</f>
+        <f t="shared" ref="D10:D15" si="6">IF(C10&lt;&gt;"",LOG(1/C10,2),"")</f>
         <v/>
       </c>
       <c r="F10" s="1"/>
@@ -1681,53 +1752,53 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="3">
-        <f t="shared" ref="R10:R14" si="3">IF(SUM(H10:Q10)=0,1,SUM(H10:Q10))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="U10" s="1">
-        <f ca="1">U6-U8</f>
-        <v>0.22222222222222227</v>
+        <f ca="1">IFERROR(U6-U8,"")</f>
+        <v>4.9999999999999989E-2</v>
       </c>
       <c r="V10" s="1">
-        <f t="shared" ref="V10:AD10" ca="1" si="4">V6-V8</f>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="W10" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="X10" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AA10" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AD10" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="V10:AC10" ca="1" si="7">IFERROR(V6-V8,"")</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="W10" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="X10" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="Y10" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="Z10" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AA10" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AB10" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AC10" s="1" t="str">
+        <f t="shared" ca="1" si="7"/>
+        <v/>
+      </c>
+      <c r="AD10" s="1" t="str">
+        <f ca="1">IFERROR(AD6-AD8,"")</f>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1735,7 +1806,7 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F11" s="1"/>
@@ -1753,13 +1824,13 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -1767,7 +1838,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F12" s="1"/>
@@ -1785,17 +1856,17 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="3">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="W12" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="X12" s="42"/>
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W12" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="X12" s="28"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1803,7 +1874,7 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F13" s="1"/>
@@ -1821,20 +1892,20 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="W13" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="X13" s="6">
         <f ca="1">SUM(U10:AD10)</f>
-        <v>0.66666666666666663</v>
+        <v>9.9999999999999978E-2</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1842,7 +1913,7 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F14" s="1"/>
@@ -1860,13 +1931,13 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1874,7 +1945,7 @@
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="F15" s="1"/>
@@ -1892,7 +1963,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="3">
-        <f>IF(SUM(H15:Q15)=0,1,SUM(H15:Q15))</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1906,67 +1977,67 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G17" s="28" t="s">
+      <c r="G17" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
       <c r="G18" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" ref="H18:Q18" si="5">SUMPRODUCT(H6:H15,$C$6:$C$15)</f>
-        <v>0.33333333333333337</v>
+        <f t="shared" ref="H18:Q18" si="8">SUMPRODUCT(H6:H15,$C$6:$C$15)</f>
+        <v>0.5</v>
       </c>
       <c r="I18" s="6">
         <f>SUMPRODUCT(I6:I15,$C$6:$C$15)</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="5"/>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -1978,49 +2049,49 @@
         <v>72</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>69</v>
       </c>
       <c r="H19" s="6">
         <f>IF(H18&lt;&gt;0,LOG(1/H18,2),"")</f>
-        <v>1.5849625007211561</v>
+        <v>1</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" ref="I19:Q19" si="6">IF(I18&lt;&gt;0,LOG(1/I18,2),"")</f>
-        <v>1.5849625007211563</v>
-      </c>
-      <c r="J19" s="6">
-        <f t="shared" si="6"/>
-        <v>1.5849625007211563</v>
+        <f t="shared" ref="I19:Q19" si="9">IF(I18&lt;&gt;0,LOG(1/I18,2),"")</f>
+        <v>1</v>
+      </c>
+      <c r="J19" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="K19" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="L19" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="M19" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="N19" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="O19" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="P19" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="Q19" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -2030,7 +2101,7 @@
       </c>
       <c r="D20" s="6">
         <f>SUMPRODUCT(C6:C15,D6:D15)</f>
-        <v>1.5849625007211561</v>
+        <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>65</v>
@@ -2042,14 +2113,14 @@
       </c>
       <c r="D21" s="6">
         <f>SUMPRODUCT(H18:Q18,H71:Q71)</f>
-        <v>1.4591479170272448</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
+        <v>0.46899559358928133</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
@@ -2057,10 +2128,10 @@
       </c>
       <c r="D22" s="14">
         <f>D20-D21</f>
-        <v>0.1258145836939113</v>
+        <v>0.53100440641071867</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
@@ -2069,10 +2140,10 @@
       </c>
       <c r="D23" s="14">
         <f>SUMPRODUCT(H77:Q86,H42:Q51)</f>
-        <v>0.12581458369391135</v>
+        <v>0.53100440641071889</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
@@ -2081,22 +2152,22 @@
       </c>
       <c r="D24" s="6">
         <f>SUMPRODUCT(H18:Q18,H19:Q19)</f>
-        <v>1.5849625007211561</v>
+        <v>1</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="G24" s="30" t="s">
+      <c r="G24" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="30"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
     </row>
     <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
@@ -2104,10 +2175,10 @@
       </c>
       <c r="D25" s="6">
         <f>D24+D21</f>
-        <v>3.0441104177484011</v>
+        <v>1.4689955935892813</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>58</v>
@@ -2117,52 +2188,52 @@
         <v>0</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" ref="I25:Q25" si="7">I4</f>
+        <f t="shared" ref="I25:Q25" si="10">I4</f>
         <v>0</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C26" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D26" s="6">
         <f>D25-D20</f>
-        <v>1.459147917027245</v>
+        <v>0.46899559358928133</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>28</v>
@@ -2200,612 +2271,617 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C27" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D27" s="6">
         <f>SUMPRODUCT(C6:C15,D92:D101)</f>
-        <v>1.4591479170272446</v>
+        <v>0.46899559358928133</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F27" s="12">
-        <f t="shared" ref="F27:F36" si="8">F6</f>
+        <f t="shared" ref="F27:F36" si="11">F6</f>
         <v>0</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" ref="H27:Q27" si="9">IF(OR($C6=0,H$18=0),"",H6/H$18*$C6)</f>
-        <v>0.33333333333333326</v>
+        <f>IF(OR($C6=0,H$18=0),"",H6/H$18*$C6)</f>
+        <v>0.1</v>
       </c>
       <c r="I27" s="6">
-        <f t="shared" ref="I27:L29" si="10">IF(OR($C6=0,I$18=0),"",I6/I$18*$C6)</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J27" s="6">
-        <f t="shared" si="10"/>
-        <v>0.5</v>
+        <f>IF(OR($C6=0,I$18=0),"",I6/I$18*$C6)</f>
+        <v>0.9</v>
+      </c>
+      <c r="J27" s="6" t="str">
+        <f>IF(OR($C6=0,J$18=0),"",J6/J$18*$C6)</f>
+        <v/>
       </c>
       <c r="K27" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR($C6=0,K$18=0),"",K6/K$18*$C6)</f>
         <v/>
       </c>
       <c r="L27" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR($C6=0,L$18=0),"",L6/L$18*$C6)</f>
         <v/>
       </c>
       <c r="M27" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="M27:Q27" si="12">IF(OR($C6=0,M$18=0),"",M6/M$18*$C6)</f>
         <v/>
       </c>
       <c r="N27" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="O27" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="P27" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="Q27" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F28" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" ref="H28:Q28" si="11">IF(OR($C7=0,H$18=0),"",H7/H$18*$C7)</f>
-        <v>0.49999999999999989</v>
+        <f>IF(OR($C7=0,H$18=0),"",H7/H$18*$C7)</f>
+        <v>0.9</v>
       </c>
       <c r="I28" s="6">
-        <f t="shared" si="10"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J28" s="6">
-        <f t="shared" si="10"/>
-        <v>0.16666666666666666</v>
+        <f>IF(OR($C7=0,I$18=0),"",I7/I$18*$C7)</f>
+        <v>0.1</v>
+      </c>
+      <c r="J28" s="6" t="str">
+        <f>IF(OR($C7=0,J$18=0),"",J7/J$18*$C7)</f>
+        <v/>
       </c>
       <c r="K28" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR($C7=0,K$18=0),"",K7/K$18*$C7)</f>
         <v/>
       </c>
       <c r="L28" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR($C7=0,L$18=0),"",L7/L$18*$C7)</f>
         <v/>
       </c>
       <c r="M28" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="M28:Q28" si="13">IF(OR($C7=0,M$18=0),"",M7/M$18*$C7)</f>
         <v/>
       </c>
       <c r="N28" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O28" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="P28" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Q28" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="C29" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D29" s="6">
         <f>10-COUNTBLANK($C$6:$C$15)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="6">
-        <f t="shared" ref="H29:Q29" si="12">IF(OR($C8=0,H$18=0),"",H8/H$18*$C8)</f>
-        <v>0.16666666666666663</v>
-      </c>
-      <c r="I29" s="6">
-        <f t="shared" si="10"/>
-        <v>0.5</v>
-      </c>
-      <c r="J29" s="6">
-        <f t="shared" si="10"/>
-        <v>0.33333333333333331</v>
+      <c r="H29" s="6" t="str">
+        <f>IF(OR($C8=0,H$18=0),"",H8/H$18*$C8)</f>
+        <v/>
+      </c>
+      <c r="I29" s="6" t="str">
+        <f>IF(OR($C8=0,I$18=0),"",I8/I$18*$C8)</f>
+        <v/>
+      </c>
+      <c r="J29" s="6" t="str">
+        <f>IF(OR($C8=0,J$18=0),"",J8/J$18*$C8)</f>
+        <v/>
       </c>
       <c r="K29" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR($C8=0,K$18=0),"",K8/K$18*$C8)</f>
         <v/>
       </c>
       <c r="L29" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR($C8=0,L$18=0),"",L8/L$18*$C8)</f>
         <v/>
       </c>
       <c r="M29" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="M29:Q29" si="14">IF(OR($C8=0,M$18=0),"",M8/M$18*$C8)</f>
         <v/>
       </c>
       <c r="N29" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="O29" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P29" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="Q29" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C30" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D30" s="6">
         <f>10-COUNTBLANK(H19:$Q$19)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f t="shared" ref="H30:Q30" si="13">IF(OR($C9=0,H$18=0),"",H9/H$18*$C9)</f>
+        <f>IF(OR($C9=0,H$18=0),"",H9/H$18*$C9)</f>
         <v/>
       </c>
       <c r="I30" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(OR($C9=0,I$18=0),"",I9/I$18*$C9)</f>
         <v/>
       </c>
       <c r="J30" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(OR($C9=0,J$18=0),"",J9/J$18*$C9)</f>
         <v/>
       </c>
       <c r="K30" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(OR($C9=0,K$18=0),"",K9/K$18*$C9)</f>
         <v/>
       </c>
       <c r="L30" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(OR($C9=0,L$18=0),"",L9/L$18*$C9)</f>
         <v/>
       </c>
       <c r="M30" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="M30:Q30" si="15">IF(OR($C9=0,M$18=0),"",M9/M$18*$C9)</f>
         <v/>
       </c>
       <c r="N30" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O30" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P30" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q30" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F31" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f t="shared" ref="H31:Q31" si="14">IF(OR($C10=0,H$18=0),"",H10/H$18*$C10)</f>
+        <f>IF(OR($C10=0,H$18=0),"",H10/H$18*$C10)</f>
         <v/>
       </c>
       <c r="I31" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(OR($C10=0,I$18=0),"",I10/I$18*$C10)</f>
         <v/>
       </c>
       <c r="J31" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(OR($C10=0,J$18=0),"",J10/J$18*$C10)</f>
         <v/>
       </c>
       <c r="K31" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(OR($C10=0,K$18=0),"",K10/K$18*$C10)</f>
         <v/>
       </c>
       <c r="L31" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f>IF(OR($C10=0,L$18=0),"",L10/L$18*$C10)</f>
         <v/>
       </c>
       <c r="M31" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="M31:Q31" si="16">IF(OR($C10=0,M$18=0),"",M10/M$18*$C10)</f>
         <v/>
       </c>
       <c r="N31" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O31" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P31" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q31" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F32" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H32" s="6" t="str">
-        <f t="shared" ref="H32:Q32" si="15">IF(OR($C11=0,H$18=0),"",H11/H$18*$C11)</f>
+        <f t="shared" ref="H32:Q32" si="17">IF(OR($C11=0,H$18=0),"",H11/H$18*$C11)</f>
         <v/>
       </c>
       <c r="I32" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J32" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="K32" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="L32" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="M32" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N32" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="O32" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P32" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Q32" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F33" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f t="shared" ref="H33:Q33" si="16">IF(OR($C12=0,H$18=0),"",H12/H$18*$C12)</f>
+        <f t="shared" ref="H33:Q33" si="18">IF(OR($C12=0,H$18=0),"",H12/H$18*$C12)</f>
         <v/>
       </c>
       <c r="I33" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J33" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K33" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L33" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M33" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N33" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O33" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="P33" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q33" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F34" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H34" s="6" t="str">
-        <f t="shared" ref="H34:Q34" si="17">IF(OR($C13=0,H$18=0),"",H13/H$18*$C13)</f>
+        <f t="shared" ref="H34:Q34" si="19">IF(OR($C13=0,H$18=0),"",H13/H$18*$C13)</f>
         <v/>
       </c>
       <c r="I34" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="J34" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K34" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L34" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M34" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="N34" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O34" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P34" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="Q34" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C35" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D35" s="17" t="b">
         <f>D26=0</f>
         <v>0</v>
       </c>
       <c r="F35" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H35" s="6" t="str">
-        <f t="shared" ref="H35:Q35" si="18">IF(OR($C14=0,H$18=0),"",H14/H$18*$C14)</f>
+        <f t="shared" ref="H35:Q35" si="20">IF(OR($C14=0,H$18=0),"",H14/H$18*$C14)</f>
         <v/>
       </c>
       <c r="I35" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J35" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K35" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L35" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M35" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="N35" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O35" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P35" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q35" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C36" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D36" s="17" t="b">
         <f>D21=0</f>
         <v>0</v>
       </c>
       <c r="F36" s="12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H36" s="6" t="str">
-        <f t="shared" ref="H36:Q36" si="19">IF(OR($C15=0,H$18=0),"",H15/H$18*$C15)</f>
+        <f t="shared" ref="H36:Q36" si="21">IF(OR($C15=0,H$18=0),"",H15/H$18*$C15)</f>
         <v/>
       </c>
       <c r="I36" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J36" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K36" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="L36" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M36" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N36" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O36" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="P36" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Q36" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C37" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="45"/>
+      <c r="C37" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D37" s="31"/>
       <c r="G37" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H37" s="3">
         <f>IF(SUM(H27:H36)=0,1,SUM(H27:H36))</f>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" ref="I37:Q37" si="20">IF(SUM(I27:I36)=0,1,SUM(I27:I36))</f>
+        <f t="shared" ref="I37:Q37" si="22">IF(SUM(I27:I36)=0,1,SUM(I27:I36))</f>
         <v>1</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="P37" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="Q37" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C38" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="D38" t="b">
-        <f>FALSE</f>
+      <c r="C38" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="46" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="3:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C39" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="G39" s="31" t="s">
+      <c r="C39" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D39" s="46" t="b">
+        <v>1</v>
+      </c>
+      <c r="G39" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
+      <c r="H39" s="40"/>
+      <c r="I39" s="40"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="40"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
     </row>
     <row r="40" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C40" s="37" t="s">
-        <v>127</v>
+      <c r="C40" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>58</v>
@@ -2815,39 +2891,39 @@
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" ref="I40:Q40" si="21">I4</f>
+        <f t="shared" ref="I40:Q40" si="23">I4</f>
         <v>0</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Q40" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -2887,546 +2963,551 @@
       </c>
     </row>
     <row r="42" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C42" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="44"/>
+      <c r="C42" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="30"/>
       <c r="F42" s="12">
-        <f t="shared" ref="F42:F51" si="22">F6</f>
+        <f t="shared" ref="F42:F51" si="24">F6</f>
         <v>0</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" ref="H42:Q42" si="23">IF(OR($C6="",H6=""),"",H6*$C6)</f>
-        <v>0.1111111111111111</v>
+        <f>IF(OR($C6="",H6=""),"",H6*$C6)</f>
+        <v>0.05</v>
       </c>
       <c r="I42" s="6">
-        <f t="shared" ref="I42:L44" si="24">IF(OR($C6="",I6=""),"",I6*$C6)</f>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="J42" s="6">
-        <f t="shared" si="24"/>
-        <v>0.16666666666666666</v>
+        <f>IF(OR($C6="",I6=""),"",I6*$C6)</f>
+        <v>0.45</v>
+      </c>
+      <c r="J42" s="6" t="str">
+        <f>IF(OR($C6="",J6=""),"",J6*$C6)</f>
+        <v/>
       </c>
       <c r="K42" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR($C6="",K6=""),"",K6*$C6)</f>
         <v/>
       </c>
       <c r="L42" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR($C6="",L6=""),"",L6*$C6)</f>
         <v/>
       </c>
       <c r="M42" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="M42:Q42" si="25">IF(OR($C6="",M6=""),"",M6*$C6)</f>
         <v/>
       </c>
       <c r="N42" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="O42" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="P42" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="Q42" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C43" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D43" s="17" t="str">
         <f>IF(D36,LOG($D$30,2),"N/A")</f>
         <v>N/A</v>
       </c>
       <c r="F43" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" ref="H43:Q43" si="25">IF(OR($C7="",H7=""),"",H7*$C7)</f>
-        <v>0.16666666666666666</v>
+        <f>IF(OR($C7="",H7=""),"",H7*$C7)</f>
+        <v>0.45</v>
       </c>
       <c r="I43" s="6">
-        <f t="shared" si="24"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="J43" s="6">
-        <f t="shared" si="24"/>
-        <v>5.5555555555555552E-2</v>
+        <f>IF(OR($C7="",I7=""),"",I7*$C7)</f>
+        <v>0.05</v>
+      </c>
+      <c r="J43" s="6" t="str">
+        <f>IF(OR($C7="",J7=""),"",J7*$C7)</f>
+        <v/>
       </c>
       <c r="K43" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR($C7="",K7=""),"",K7*$C7)</f>
         <v/>
       </c>
       <c r="L43" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f>IF(OR($C7="",L7=""),"",L7*$C7)</f>
         <v/>
       </c>
       <c r="M43" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="M43:Q43" si="26">IF(OR($C7="",M7=""),"",M7*$C7)</f>
         <v/>
       </c>
       <c r="N43" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="O43" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="P43" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="Q43" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C44" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D44" s="17" t="str">
         <f>IF(D36,LOG($D$29,2),"N/A")</f>
         <v>N/A</v>
       </c>
-      <c r="E44" t="s">
-        <v>131</v>
-      </c>
       <c r="F44" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="6">
-        <f t="shared" ref="H44:Q44" si="26">IF(OR($C8="",H8=""),"",H8*$C8)</f>
-        <v>5.5555555555555552E-2</v>
-      </c>
-      <c r="I44" s="6">
+      <c r="H44" s="6" t="str">
+        <f>IF(OR($C8="",H8=""),"",H8*$C8)</f>
+        <v/>
+      </c>
+      <c r="I44" s="6" t="str">
+        <f>IF(OR($C8="",I8=""),"",I8*$C8)</f>
+        <v/>
+      </c>
+      <c r="J44" s="6" t="str">
+        <f>IF(OR($C8="",J8=""),"",J8*$C8)</f>
+        <v/>
+      </c>
+      <c r="K44" s="6" t="str">
+        <f>IF(OR($C8="",K8=""),"",K8*$C8)</f>
+        <v/>
+      </c>
+      <c r="L44" s="6" t="str">
+        <f>IF(OR($C8="",L8=""),"",L8*$C8)</f>
+        <v/>
+      </c>
+      <c r="M44" s="6" t="str">
+        <f t="shared" ref="M44:Q44" si="27">IF(OR($C8="",M8=""),"",M8*$C8)</f>
+        <v/>
+      </c>
+      <c r="N44" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="O44" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="P44" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="Q44" s="6" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C45" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="6" t="str">
+        <f>IF(D38,LOG(D29,2)-SUM(H92:Q92),"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="F45" s="12">
         <f t="shared" si="24"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J44" s="6">
-        <f t="shared" si="24"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="K44" s="6" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="L44" s="6" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="M44" s="6" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="N44" s="6" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="O44" s="6" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="P44" s="6" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="Q44" s="6" t="str">
-        <f t="shared" si="26"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C45" s="37" t="s">
-        <v>125</v>
-      </c>
-      <c r="D45" t="str">
-        <f>IF(D38,LOG(D29,2)-SUM(H92:H101),"N/A")</f>
-        <v>N/A</v>
-      </c>
-      <c r="F45" s="12">
-        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H45" s="6" t="str">
-        <f t="shared" ref="H45:Q45" si="27">IF(OR($C9="",H9=""),"",H9*$C9)</f>
+        <f>IF(OR($C9="",H9=""),"",H9*$C9)</f>
         <v/>
       </c>
       <c r="I45" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR($C9="",I9=""),"",I9*$C9)</f>
         <v/>
       </c>
       <c r="J45" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR($C9="",J9=""),"",J9*$C9)</f>
         <v/>
       </c>
       <c r="K45" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR($C9="",K9=""),"",K9*$C9)</f>
         <v/>
       </c>
       <c r="L45" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f>IF(OR($C9="",L9=""),"",L9*$C9)</f>
         <v/>
       </c>
       <c r="M45" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="M45:Q45" si="28">IF(OR($C9="",M9=""),"",M9*$C9)</f>
         <v/>
       </c>
       <c r="N45" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="O45" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="P45" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="Q45" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C46" s="37" t="s">
-        <v>126</v>
+      <c r="C46" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D46" s="6">
+        <f>IF(D39,1-D26,"N/A")</f>
+        <v>0.53100440641071867</v>
       </c>
       <c r="F46" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H46" s="6" t="str">
-        <f t="shared" ref="H46:Q46" si="28">IF(OR($C10="",H10=""),"",H10*$C10)</f>
+        <f>IF(OR($C10="",H10=""),"",H10*$C10)</f>
         <v/>
       </c>
       <c r="I46" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR($C10="",I10=""),"",I10*$C10)</f>
         <v/>
       </c>
       <c r="J46" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR($C10="",J10=""),"",J10*$C10)</f>
         <v/>
       </c>
       <c r="K46" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR($C10="",K10=""),"",K10*$C10)</f>
         <v/>
       </c>
       <c r="L46" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f>IF(OR($C10="",L10=""),"",L10*$C10)</f>
         <v/>
       </c>
       <c r="M46" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="M46:Q46" si="29">IF(OR($C10="",M10=""),"",M10*$C10)</f>
         <v/>
       </c>
       <c r="N46" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O46" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="P46" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="Q46" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C47" s="37" t="s">
-        <v>127</v>
+      <c r="C47" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D47" s="6" t="str">
+        <f>IF(D40,LOG(D30,2)-SUM(H92:Q92),"N/A")</f>
+        <v>N/A</v>
       </c>
       <c r="F47" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H47" s="6" t="str">
-        <f t="shared" ref="H47:Q47" si="29">IF(OR($C11="",H11=""),"",H11*$C11)</f>
+        <f t="shared" ref="H47:Q47" si="30">IF(OR($C11="",H11=""),"",H11*$C11)</f>
         <v/>
       </c>
       <c r="I47" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="J47" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="K47" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="L47" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="M47" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="N47" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="O47" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="P47" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="Q47" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F48" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H48" s="6" t="str">
-        <f t="shared" ref="H48:Q48" si="30">IF(OR($C12="",H12=""),"",H12*$C12)</f>
+        <f t="shared" ref="H48:Q48" si="31">IF(OR($C12="",H12=""),"",H12*$C12)</f>
         <v/>
       </c>
       <c r="I48" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="J48" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="K48" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="L48" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="M48" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="N48" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="O48" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="P48" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="Q48" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
     <row r="49" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C49" s="37" t="s">
-        <v>128</v>
+      <c r="C49" s="24" t="s">
+        <v>123</v>
       </c>
       <c r="F49" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H49" s="6" t="str">
-        <f t="shared" ref="H49:Q49" si="31">IF(OR($C13="",H13=""),"",H13*$C13)</f>
+        <f t="shared" ref="H49:Q49" si="32">IF(OR($C13="",H13=""),"",H13*$C13)</f>
         <v/>
       </c>
       <c r="I49" s="6" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J49" s="6" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K49" s="6" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="L49" s="6" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="M49" s="6" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N49" s="6" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="O49" s="6" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="P49" s="6" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Q49" s="6" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F50" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H50" s="6" t="str">
-        <f t="shared" ref="H50:Q50" si="32">IF(OR($C14="",H14=""),"",H14*$C14)</f>
+        <f t="shared" ref="H50:Q50" si="33">IF(OR($C14="",H14=""),"",H14*$C14)</f>
         <v/>
       </c>
       <c r="I50" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="J50" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="K50" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="L50" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M50" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N50" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O50" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="P50" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="Q50" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F51" s="12">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H51" s="6" t="str">
-        <f t="shared" ref="H51:Q51" si="33">IF(OR($C15="",H15=""),"",H15*$C15)</f>
+        <f t="shared" ref="H51:Q51" si="34">IF(OR($C15="",H15=""),"",H15*$C15)</f>
         <v/>
       </c>
       <c r="I51" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="J51" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="K51" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="L51" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="M51" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N51" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="O51" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="P51" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Q51" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="3:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G54" s="24" t="s">
+      <c r="G54" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
     </row>
     <row r="55" spans="3:17" x14ac:dyDescent="0.25">
       <c r="G55" s="1" t="s">
@@ -3437,39 +3518,39 @@
         <v>0</v>
       </c>
       <c r="I55" s="13">
-        <f t="shared" ref="I55:Q55" si="34">I4</f>
+        <f t="shared" ref="I55:Q55" si="35">I4</f>
         <v>0</v>
       </c>
       <c r="J55" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="K55" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="L55" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="M55" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N55" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O55" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P55" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Q55" s="13">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -3510,7 +3591,7 @@
     </row>
     <row r="57" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F57" s="12">
-        <f t="shared" ref="F57:F66" si="35">F6</f>
+        <f t="shared" ref="F57:F66" si="36">F6</f>
         <v>0</v>
       </c>
       <c r="G57" s="5" t="s">
@@ -3518,500 +3599,500 @@
       </c>
       <c r="H57" s="6">
         <f>IF(H27&lt;&gt;"",IF(H27=0,0,LOG(1/H27,2)),"")</f>
-        <v>1.5849625007211567</v>
+        <v>3.3219280948873626</v>
       </c>
       <c r="I57" s="6">
-        <f t="shared" ref="I57:Q57" si="36">IF(I27&lt;&gt;"",IF(I27=0,0,LOG(1/I27,2)),"")</f>
-        <v>2.5849625007211561</v>
-      </c>
-      <c r="J57" s="6">
-        <f t="shared" si="36"/>
-        <v>1</v>
+        <f t="shared" ref="I57:Q57" si="37">IF(I27&lt;&gt;"",IF(I27=0,0,LOG(1/I27,2)),"")</f>
+        <v>0.15200309344505006</v>
+      </c>
+      <c r="J57" s="6" t="str">
+        <f t="shared" si="37"/>
+        <v/>
       </c>
       <c r="K57" s="6" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L57" s="6" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M57" s="6" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N57" s="6" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="O57" s="6" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="P57" s="6" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="Q57" s="6" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F58" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H58" s="6">
-        <f t="shared" ref="H58:Q66" si="37">IF(H28&lt;&gt;"",IF(H28=0,0,LOG(1/H28,2)),"")</f>
-        <v>1.0000000000000002</v>
+        <f t="shared" ref="H58:Q66" si="38">IF(H28&lt;&gt;"",IF(H28=0,0,LOG(1/H28,2)),"")</f>
+        <v>0.15200309344505006</v>
       </c>
       <c r="I58" s="6">
-        <f t="shared" si="37"/>
-        <v>1.5849625007211563</v>
-      </c>
-      <c r="J58" s="6">
-        <f t="shared" si="37"/>
-        <v>2.5849625007211561</v>
+        <f t="shared" si="38"/>
+        <v>3.3219280948873626</v>
+      </c>
+      <c r="J58" s="6" t="str">
+        <f t="shared" si="38"/>
+        <v/>
       </c>
       <c r="K58" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L58" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M58" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N58" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="O58" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="P58" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q58" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F59" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H59" s="6">
-        <f t="shared" si="37"/>
-        <v>2.584962500721157</v>
-      </c>
-      <c r="I59" s="6">
-        <f t="shared" si="37"/>
-        <v>1</v>
-      </c>
-      <c r="J59" s="6">
-        <f t="shared" si="37"/>
-        <v>1.5849625007211563</v>
+      <c r="H59" s="6" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="I59" s="6" t="str">
+        <f t="shared" si="38"/>
+        <v/>
+      </c>
+      <c r="J59" s="6" t="str">
+        <f t="shared" si="38"/>
+        <v/>
       </c>
       <c r="K59" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L59" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M59" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N59" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="O59" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="P59" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q59" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F60" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H60" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I60" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J60" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K60" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L60" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M60" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N60" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="O60" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="P60" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q60" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F61" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H61" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I61" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J61" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K61" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L61" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M61" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N61" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="O61" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="P61" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q61" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F62" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H62" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I62" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J62" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K62" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L62" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M62" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N62" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="O62" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="P62" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q62" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F63" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H63" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I63" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J63" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K63" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L63" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M63" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N63" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="O63" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="P63" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q63" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F64" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H64" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I64" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J64" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K64" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L64" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M64" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N64" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="O64" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="P64" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q64" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F65" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H65" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I65" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J65" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K65" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L65" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M65" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N65" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="O65" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="P65" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q65" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F66" s="12">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H66" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I66" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J66" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K66" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L66" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M66" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N66" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="O66" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="P66" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="Q66" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G69" s="26" t="s">
+      <c r="G69" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="26"/>
-      <c r="P69" s="26"/>
-      <c r="Q69" s="26"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
+      <c r="Q69" s="35"/>
     </row>
     <row r="70" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G70" s="7" t="s">
@@ -4054,59 +4135,59 @@
       </c>
       <c r="H71" s="6">
         <f>SUMPRODUCT(H27:H36,H57:H66)</f>
-        <v>1.459147917027245</v>
+        <v>0.46899559358928133</v>
       </c>
       <c r="I71" s="6">
-        <f t="shared" ref="I71:Q71" si="38">SUMPRODUCT(I27:I36,I57:I66)</f>
-        <v>1.4591479170272448</v>
+        <f t="shared" ref="I71:Q71" si="39">SUMPRODUCT(I27:I36,I57:I66)</f>
+        <v>0.46899559358928133</v>
       </c>
       <c r="J71" s="6">
-        <f t="shared" si="38"/>
-        <v>1.4591479170272446</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="L71" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="M71" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N71" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O71" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="P71" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q71" s="6">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G74" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="24"/>
-      <c r="M74" s="24"/>
-      <c r="N74" s="24"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="24"/>
+      <c r="G74" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="H74" s="33"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="33"/>
+      <c r="N74" s="33"/>
+      <c r="O74" s="33"/>
+      <c r="P74" s="33"/>
+      <c r="Q74" s="33"/>
     </row>
     <row r="75" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G75" s="1" t="s">
@@ -4117,45 +4198,45 @@
         <v>0</v>
       </c>
       <c r="I75" s="13">
-        <f t="shared" ref="I75:Q75" si="39">I25</f>
+        <f t="shared" ref="I75:Q75" si="40">I25</f>
         <v>0</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="K75" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="L75" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="M75" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="N75" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="O75" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="P75" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Q75" s="13">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G76" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>0</v>
@@ -4198,504 +4279,504 @@
       </c>
       <c r="H77" s="6">
         <f>IF(H42="","",IFERROR(LOG(H42/(H$18*$C6),2),0))</f>
-        <v>-1.6017132519074588E-16</v>
+        <v>-2.3219280948873622</v>
       </c>
       <c r="I77" s="6">
-        <f t="shared" ref="I77:Q77" si="40">IF(I42="","",IFERROR(LOG(I42/(I$18*$C6),2),0))</f>
-        <v>-1</v>
-      </c>
-      <c r="J77" s="6">
-        <f t="shared" si="40"/>
-        <v>0.58496250072115619</v>
+        <f t="shared" ref="I77:Q77" si="41">IF(I42="","",IFERROR(LOG(I42/(I$18*$C6),2),0))</f>
+        <v>0.84799690655495008</v>
+      </c>
+      <c r="J77" s="6" t="str">
+        <f t="shared" si="41"/>
+        <v/>
       </c>
       <c r="K77" s="6" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="L77" s="6" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="M77" s="6" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N77" s="6" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="O77" s="6" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="P77" s="6" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="Q77" s="6" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F78" s="12">
-        <f t="shared" ref="F78:F86" si="41">F28</f>
+        <f t="shared" ref="F78:F86" si="42">F28</f>
         <v>0</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H78" s="6">
-        <f t="shared" ref="H78:Q86" si="42">IF(H43="","",IFERROR(LOG(H43/(H$18*$C7),2),0))</f>
-        <v>0.58496250072115596</v>
+        <f t="shared" ref="H78:Q86" si="43">IF(H43="","",IFERROR(LOG(H43/(H$18*$C7),2),0))</f>
+        <v>0.84799690655495008</v>
       </c>
       <c r="I78" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="6">
-        <f t="shared" si="42"/>
-        <v>-1</v>
+        <f t="shared" si="43"/>
+        <v>-2.3219280948873622</v>
+      </c>
+      <c r="J78" s="6" t="str">
+        <f t="shared" si="43"/>
+        <v/>
       </c>
       <c r="K78" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="L78" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="M78" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N78" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="O78" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="P78" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="Q78" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F79" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H79" s="6">
-        <f t="shared" si="42"/>
-        <v>-1.0000000000000002</v>
-      </c>
-      <c r="I79" s="6">
-        <f t="shared" si="42"/>
-        <v>0.58496250072115619</v>
-      </c>
-      <c r="J79" s="6">
-        <f t="shared" si="42"/>
-        <v>0</v>
+      <c r="H79" s="6" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I79" s="6" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J79" s="6" t="str">
+        <f t="shared" si="43"/>
+        <v/>
       </c>
       <c r="K79" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="L79" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="M79" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N79" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="O79" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="P79" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="Q79" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F80" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H80" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I80" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="J80" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="K80" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="L80" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="M80" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N80" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="O80" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="P80" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="Q80" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F81" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H81" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I81" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="J81" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="K81" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="L81" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="M81" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N81" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="O81" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="P81" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="Q81" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F82" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H82" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I82" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="J82" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="K82" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="L82" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="M82" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N82" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="O82" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="P82" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="Q82" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F83" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H83" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I83" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="J83" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="K83" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="L83" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="M83" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N83" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="O83" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="P83" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="Q83" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F84" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H84" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I84" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="J84" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="K84" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="L84" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="M84" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N84" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="O84" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="P84" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="Q84" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F85" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H85" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I85" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="J85" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="K85" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="L85" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="M85" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N85" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="O85" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="P85" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="Q85" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F86" s="12">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H86" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="I86" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="J86" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="K86" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="L86" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="M86" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N86" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="O86" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="P86" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="Q86" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="3:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C89" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="D89" s="25"/>
-      <c r="G89" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="24"/>
-      <c r="M89" s="24"/>
-      <c r="N89" s="24"/>
-      <c r="O89" s="24"/>
-      <c r="P89" s="24"/>
-      <c r="Q89" s="24"/>
+      <c r="C89" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D89" s="34"/>
+      <c r="G89" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="H89" s="33"/>
+      <c r="I89" s="33"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="33"/>
+      <c r="L89" s="33"/>
+      <c r="M89" s="33"/>
+      <c r="N89" s="33"/>
+      <c r="O89" s="33"/>
+      <c r="P89" s="33"/>
+      <c r="Q89" s="33"/>
     </row>
     <row r="90" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C90" s="4"/>
@@ -4708,49 +4789,49 @@
         <v>0</v>
       </c>
       <c r="I90" s="13">
-        <f t="shared" ref="I90:Q90" si="43">I40</f>
+        <f t="shared" ref="I90:Q90" si="44">I40</f>
         <v>0</v>
       </c>
       <c r="J90" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="K90" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="L90" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="M90" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="N90" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="O90" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="P90" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="Q90" s="13">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>0</v>
@@ -4788,8 +4869,8 @@
         <v>10</v>
       </c>
       <c r="D92" s="6">
-        <f t="shared" ref="D92:D101" si="44">SUM(H92:Q92)</f>
-        <v>1.4591479170272448</v>
+        <f t="shared" ref="D92:D101" si="45">SUM(H92:Q92)</f>
+        <v>0.46899559358928133</v>
       </c>
       <c r="F92" s="12">
         <f>F42</f>
@@ -4800,15 +4881,15 @@
       </c>
       <c r="H92" s="6">
         <f>IF(H6="","",IFERROR(H6*LOG(1/H6,2),0))</f>
-        <v>0.52832083357371873</v>
+        <v>0.33219280948873631</v>
       </c>
       <c r="I92" s="6">
         <f>IF(I6="","",IFERROR(I6*LOG(1/I6,2),0))</f>
-        <v>0.43082708345352599</v>
-      </c>
-      <c r="J92" s="6">
+        <v>0.13680278410054506</v>
+      </c>
+      <c r="J92" s="6" t="str">
         <f>IF(J6="","",IFERROR(J6*LOG(1/J6,2),0))</f>
-        <v>0.5</v>
+        <v/>
       </c>
       <c r="K92" s="6" t="str">
         <f>IF(K6="","",IFERROR(K6*LOG(1/K6,2),0))</f>
@@ -4819,23 +4900,23 @@
         <v/>
       </c>
       <c r="M92" s="6" t="str">
-        <f t="shared" ref="M92:Q92" si="45">IF(M6="","",IFERROR(M6*LOG(1/M6,2),0))</f>
+        <f t="shared" ref="M92:Q92" si="46">IF(M6="","",IFERROR(M6*LOG(1/M6,2),0))</f>
         <v/>
       </c>
       <c r="N92" s="6" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="O92" s="6" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="P92" s="6" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="Q92" s="6" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
@@ -4844,54 +4925,54 @@
         <v>11</v>
       </c>
       <c r="D93" s="6">
-        <f t="shared" si="44"/>
-        <v>1.4591479170272448</v>
+        <f t="shared" si="45"/>
+        <v>0.46899559358928133</v>
       </c>
       <c r="F93" s="12">
-        <f t="shared" ref="F93:F101" si="46">F43</f>
+        <f t="shared" ref="F93:F101" si="47">F43</f>
         <v>0</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H93" s="6">
-        <f t="shared" ref="H93:Q101" si="47">IF(H7="","",IFERROR(H7*LOG(1/H7,2),0))</f>
-        <v>0.5</v>
+        <f>IF(H7="","",IFERROR(H7*LOG(1/H7,2),0))</f>
+        <v>0.13680278410054506</v>
       </c>
       <c r="I93" s="6">
-        <f t="shared" ref="I93:L94" si="48">IF(I7="","",IFERROR(I7*LOG(1/I7,2),0))</f>
-        <v>0.52832083357371873</v>
-      </c>
-      <c r="J93" s="6">
-        <f t="shared" si="48"/>
-        <v>0.43082708345352599</v>
+        <f>IF(I7="","",IFERROR(I7*LOG(1/I7,2),0))</f>
+        <v>0.33219280948873631</v>
+      </c>
+      <c r="J93" s="6" t="str">
+        <f>IF(J7="","",IFERROR(J7*LOG(1/J7,2),0))</f>
+        <v/>
       </c>
       <c r="K93" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f>IF(K7="","",IFERROR(K7*LOG(1/K7,2),0))</f>
         <v/>
       </c>
       <c r="L93" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f>IF(L7="","",IFERROR(L7*LOG(1/L7,2),0))</f>
         <v/>
       </c>
       <c r="M93" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="H93:Q101" si="48">IF(M7="","",IFERROR(M7*LOG(1/M7,2),0))</f>
         <v/>
       </c>
       <c r="N93" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O93" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="P93" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="Q93" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
@@ -4900,54 +4981,54 @@
         <v>12</v>
       </c>
       <c r="D94" s="6">
-        <f t="shared" si="44"/>
-        <v>1.4591479170272446</v>
+        <f t="shared" si="45"/>
+        <v>0</v>
       </c>
       <c r="F94" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H94" s="6">
-        <f t="shared" si="47"/>
-        <v>0.43082708345352599</v>
-      </c>
-      <c r="I94" s="6">
-        <f t="shared" si="48"/>
-        <v>0.5</v>
-      </c>
-      <c r="J94" s="6">
-        <f t="shared" si="48"/>
-        <v>0.52832083357371873</v>
+      <c r="H94" s="6" t="str">
+        <f>IF(H8="","",IFERROR(H8*LOG(1/H8,2),0))</f>
+        <v/>
+      </c>
+      <c r="I94" s="6" t="str">
+        <f>IF(I8="","",IFERROR(I8*LOG(1/I8,2),0))</f>
+        <v/>
+      </c>
+      <c r="J94" s="6" t="str">
+        <f>IF(J8="","",IFERROR(J8*LOG(1/J8,2),0))</f>
+        <v/>
       </c>
       <c r="K94" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f>IF(K8="","",IFERROR(K8*LOG(1/K8,2),0))</f>
         <v/>
       </c>
       <c r="L94" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f>IF(L8="","",IFERROR(L8*LOG(1/L8,2),0))</f>
         <v/>
       </c>
       <c r="M94" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N94" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O94" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="P94" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="Q94" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
@@ -4956,54 +5037,54 @@
         <v>13</v>
       </c>
       <c r="D95" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F95" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H95" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f>IF(H9="","",IFERROR(H9*LOG(1/H9,2),0))</f>
         <v/>
       </c>
       <c r="I95" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f>IF(I9="","",IFERROR(I9*LOG(1/I9,2),0))</f>
         <v/>
       </c>
       <c r="J95" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f>IF(J9="","",IFERROR(J9*LOG(1/J9,2),0))</f>
         <v/>
       </c>
       <c r="K95" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f>IF(K9="","",IFERROR(K9*LOG(1/K9,2),0))</f>
         <v/>
       </c>
       <c r="L95" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f>IF(L9="","",IFERROR(L9*LOG(1/L9,2),0))</f>
         <v/>
       </c>
       <c r="M95" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N95" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O95" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="P95" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="Q95" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
@@ -5012,54 +5093,54 @@
         <v>14</v>
       </c>
       <c r="D96" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F96" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H96" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f>IF(H10="","",IFERROR(H10*LOG(1/H10,2),0))</f>
         <v/>
       </c>
       <c r="I96" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f>IF(I10="","",IFERROR(I10*LOG(1/I10,2),0))</f>
         <v/>
       </c>
       <c r="J96" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f>IF(J10="","",IFERROR(J10*LOG(1/J10,2),0))</f>
         <v/>
       </c>
       <c r="K96" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f>IF(K10="","",IFERROR(K10*LOG(1/K10,2),0))</f>
         <v/>
       </c>
       <c r="L96" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f>IF(L10="","",IFERROR(L10*LOG(1/L10,2),0))</f>
         <v/>
       </c>
       <c r="M96" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N96" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O96" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="P96" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="Q96" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
@@ -5068,54 +5149,54 @@
         <v>15</v>
       </c>
       <c r="D97" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F97" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H97" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="I97" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="J97" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="K97" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="L97" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="M97" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N97" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O97" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="P97" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="Q97" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
@@ -5124,54 +5205,54 @@
         <v>16</v>
       </c>
       <c r="D98" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F98" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H98" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="I98" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="J98" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="K98" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="L98" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="M98" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N98" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O98" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="P98" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="Q98" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
@@ -5180,54 +5261,54 @@
         <v>17</v>
       </c>
       <c r="D99" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F99" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H99" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="I99" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="J99" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="K99" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="L99" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="M99" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N99" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O99" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="P99" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="Q99" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
@@ -5236,54 +5317,54 @@
         <v>18</v>
       </c>
       <c r="D100" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F100" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H100" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="I100" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="J100" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="K100" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="L100" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="M100" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N100" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O100" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="P100" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="Q100" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
@@ -5292,65 +5373,59 @@
         <v>19</v>
       </c>
       <c r="D101" s="6">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="F101" s="12">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H101" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="I101" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="J101" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="K101" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="L101" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="M101" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="N101" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="O101" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="P101" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="Q101" s="6" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="U4:AD4"/>
-    <mergeCell ref="U7:AD7"/>
     <mergeCell ref="G74:Q74"/>
     <mergeCell ref="G89:Q89"/>
     <mergeCell ref="C89:D89"/>
@@ -5363,30 +5438,41 @@
     <mergeCell ref="G54:Q54"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="E21:H21"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="U4:AD4"/>
+    <mergeCell ref="U7:AD7"/>
   </mergeCells>
   <conditionalFormatting sqref="R6:R15">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:Q37">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D36">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D44">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",D43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38:D40">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5402,7 +5488,7 @@
       <selection activeCell="C39" sqref="C39:E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" customWidth="1"/>
@@ -5468,13 +5554,13 @@
       </c>
     </row>
     <row r="17" spans="2:46" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
     </row>
     <row r="18" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
@@ -6107,12 +6193,12 @@
     <mergeCell ref="B17:F17"/>
   </mergeCells>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>$F$19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6132,7 +6218,7 @@
       <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1"/>
@@ -6141,13 +6227,13 @@
   <sheetData>
     <row r="11" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I11" s="22" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="9:11" x14ac:dyDescent="0.25">
@@ -6158,7 +6244,7 @@
         <v>65</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="9:11" x14ac:dyDescent="0.25">
@@ -6166,25 +6252,25 @@
         <v>66</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I14" s="1"/>
       <c r="J14" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I15" s="1"/>
       <c r="J15" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K15" s="1"/>
     </row>
@@ -6194,7 +6280,7 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="8:11" x14ac:dyDescent="0.25">
@@ -6203,7 +6289,7 @@
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="8:11" x14ac:dyDescent="0.25">
@@ -6211,77 +6297,77 @@
         <v>67</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I19" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I20" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="8:11" x14ac:dyDescent="0.25">
       <c r="I21" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F46" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F47" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="49" spans="11:11" x14ac:dyDescent="0.25">
       <c r="K49" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -6295,52 +6381,52 @@
   <dimension ref="A3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B4" s="1">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B5" s="6">
         <f>1-B4</f>
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B6" s="6">
         <f>IFERROR(B5*LOG(1/B5,2)+B4*LOG(1/B4,2),1)</f>
-        <v>0.72192809488736231</v>
+        <v>0.81127812445913272</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B7" s="6">
         <f>1-B6</f>
-        <v>0.27807190511263769</v>
+        <v>0.18872187554086728</v>
       </c>
     </row>
   </sheetData>

--- a/Planilla Segundo Parcial.xlsx
+++ b/Planilla Segundo Parcial.xlsx
@@ -457,7 +457,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,6 +563,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,7 +701,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -727,30 +733,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -784,18 +767,77 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00FF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1245,8 +1287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AD101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,11 +1309,11 @@
       </c>
       <c r="U2">
         <f>MAX(H6:H15)</f>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="V2">
         <f t="shared" ref="V2:AD2" si="0">MAX(I6:I15)</f>
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="W2">
         <f t="shared" si="0"/>
@@ -1308,20 +1350,20 @@
     </row>
     <row r="3" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E3" s="11"/>
-      <c r="G3" s="36" t="s">
+      <c r="G3" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
       <c r="T3" t="s">
         <v>128</v>
       </c>
@@ -1367,11 +1409,11 @@
       </c>
     </row>
     <row r="4" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="11"/>
       <c r="G4" s="1" t="s">
         <v>58</v>
@@ -1387,18 +1429,18 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
-      <c r="U4" s="32" t="s">
+      <c r="U4" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -1489,21 +1531,21 @@
         <v>10</v>
       </c>
       <c r="C6" s="19">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D6" s="6">
         <f>IF(C6&lt;&gt;"",LOG(1/C6,2),"")</f>
-        <v>1</v>
+        <v>0.32192809488736235</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="1">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="I6" s="1">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="1"/>
@@ -1519,11 +1561,11 @@
       </c>
       <c r="U6" s="1">
         <f>SUMPRODUCT(H6:H15,$C$6:$C$15)</f>
-        <v>0.5</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="V6" s="1">
         <f t="shared" ref="V6:AD6" si="2">SUMPRODUCT(I6:I15,$C$6:$C$15)</f>
-        <v>0.5</v>
+        <v>0.65000000000000013</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" si="2"/>
@@ -1567,21 +1609,21 @@
         <v>11</v>
       </c>
       <c r="C7" s="19">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D7" s="6">
         <f>IF(C7&lt;&gt;"",LOG(1/C7,2),"")</f>
-        <v>1</v>
+        <v>2.3219280948873622</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H7" s="2">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="I7" s="1">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -1595,18 +1637,18 @@
         <f t="shared" ref="R7:R15" si="4">IF(C7="",1,SUM(H7:Q7))</f>
         <v>1</v>
       </c>
-      <c r="U7" s="32" t="s">
+      <c r="U7" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="32"/>
-      <c r="AD7" s="32"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
@@ -1641,11 +1683,11 @@
       </c>
       <c r="U8" s="1">
         <f ca="1">IFERROR(INDIRECT("C"&amp;(6+U3-1))*U2,"")</f>
-        <v>0.45</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="V8" s="1">
         <f t="shared" ref="V8:AD8" ca="1" si="5">IFERROR(INDIRECT("C"&amp;(6+V3-1))*V2,"")</f>
-        <v>0.45</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="W8" s="1" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -1711,18 +1753,18 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U9" s="25" t="s">
+      <c r="U9" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="27"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="39"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
@@ -1757,11 +1799,11 @@
       </c>
       <c r="U10" s="1">
         <f ca="1">IFERROR(U6-U8,"")</f>
-        <v>4.9999999999999989E-2</v>
+        <v>0.2</v>
       </c>
       <c r="V10" s="1">
         <f t="shared" ref="V10:AC10" ca="1" si="7">IFERROR(V6-V8,"")</f>
-        <v>4.9999999999999989E-2</v>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="W10" s="1" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -1859,10 +1901,10 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W12" s="28" t="s">
+      <c r="W12" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="X12" s="28"/>
+      <c r="X12" s="40"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
@@ -1900,7 +1942,7 @@
       </c>
       <c r="X13" s="6">
         <f ca="1">SUM(U10:AD10)</f>
-        <v>9.9999999999999978E-2</v>
+        <v>0.25000000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -1977,36 +2019,36 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="30"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
       <c r="G18" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ref="H18:Q18" si="8">SUMPRODUCT(H6:H15,$C$6:$C$15)</f>
-        <v>0.5</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="I18" s="6">
         <f>SUMPRODUCT(I6:I15,$C$6:$C$15)</f>
-        <v>0.5</v>
+        <v>0.65000000000000013</v>
       </c>
       <c r="J18" s="6">
         <f t="shared" si="8"/>
@@ -2056,11 +2098,11 @@
       </c>
       <c r="H19" s="6">
         <f>IF(H18&lt;&gt;0,LOG(1/H18,2),"")</f>
-        <v>1</v>
+        <v>1.5145731728297582</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" ref="I19:Q19" si="9">IF(I18&lt;&gt;0,LOG(1/I18,2),"")</f>
-        <v>1</v>
+        <v>0.62148837674626989</v>
       </c>
       <c r="J19" s="6" t="str">
         <f t="shared" si="9"/>
@@ -2101,7 +2143,7 @@
       </c>
       <c r="D20" s="6">
         <f>SUMPRODUCT(C6:C15,D6:D15)</f>
-        <v>1</v>
+        <v>0.72192809488736231</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>65</v>
@@ -2113,14 +2155,14 @@
       </c>
       <c r="D21" s="6">
         <f>SUMPRODUCT(H18:Q18,H71:Q71)</f>
-        <v>0.46899559358928133</v>
-      </c>
-      <c r="E21" s="42" t="s">
+        <v>0.59913816397100439</v>
+      </c>
+      <c r="E21" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
@@ -2128,7 +2170,7 @@
       </c>
       <c r="D22" s="14">
         <f>D20-D21</f>
-        <v>0.53100440641071867</v>
+        <v>0.12278993091635793</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>76</v>
@@ -2140,7 +2182,7 @@
       </c>
       <c r="D23" s="14">
         <f>SUMPRODUCT(H77:Q86,H42:Q51)</f>
-        <v>0.53100440641071889</v>
+        <v>0.12278993091635806</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>77</v>
@@ -2152,22 +2194,22 @@
       </c>
       <c r="D24" s="6">
         <f>SUMPRODUCT(H18:Q18,H19:Q19)</f>
-        <v>1</v>
+        <v>0.93406805537549098</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="32"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
     </row>
     <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
@@ -2175,7 +2217,7 @@
       </c>
       <c r="D25" s="6">
         <f>D24+D21</f>
-        <v>1.4689955935892813</v>
+        <v>1.5332062193464955</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>74</v>
@@ -2230,7 +2272,7 @@
       </c>
       <c r="D26" s="6">
         <f>D25-D20</f>
-        <v>0.46899559358928133</v>
+        <v>0.81127812445913317</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>80</v>
@@ -2275,7 +2317,7 @@
       </c>
       <c r="D27" s="6">
         <f>SUMPRODUCT(C6:C15,D92:D101)</f>
-        <v>0.46899559358928133</v>
+        <v>0.81127812445913272</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>81</v>
@@ -2288,43 +2330,43 @@
         <v>10</v>
       </c>
       <c r="H27" s="6">
-        <f>IF(OR($C6=0,H$18=0),"",H6/H$18*$C6)</f>
-        <v>0.1</v>
+        <f t="shared" ref="H27:L31" si="12">IF(OR($C6=0,H$18=0),"",H6/H$18*$C6)</f>
+        <v>0.5714285714285714</v>
       </c>
       <c r="I27" s="6">
-        <f>IF(OR($C6=0,I$18=0),"",I6/I$18*$C6)</f>
-        <v>0.9</v>
+        <f t="shared" si="12"/>
+        <v>0.92307692307692291</v>
       </c>
       <c r="J27" s="6" t="str">
-        <f>IF(OR($C6=0,J$18=0),"",J6/J$18*$C6)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K27" s="6" t="str">
-        <f>IF(OR($C6=0,K$18=0),"",K6/K$18*$C6)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L27" s="6" t="str">
-        <f>IF(OR($C6=0,L$18=0),"",L6/L$18*$C6)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M27" s="6" t="str">
-        <f t="shared" ref="M27:Q27" si="12">IF(OR($C6=0,M$18=0),"",M6/M$18*$C6)</f>
+        <f t="shared" ref="M27:Q27" si="13">IF(OR($C6=0,M$18=0),"",M6/M$18*$C6)</f>
         <v/>
       </c>
       <c r="N27" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="O27" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="P27" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="Q27" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -2337,43 +2379,43 @@
         <v>11</v>
       </c>
       <c r="H28" s="6">
-        <f>IF(OR($C7=0,H$18=0),"",H7/H$18*$C7)</f>
-        <v>0.9</v>
+        <f t="shared" si="12"/>
+        <v>0.4285714285714286</v>
       </c>
       <c r="I28" s="6">
-        <f>IF(OR($C7=0,I$18=0),"",I7/I$18*$C7)</f>
-        <v>0.1</v>
+        <f t="shared" si="12"/>
+        <v>7.6923076923076913E-2</v>
       </c>
       <c r="J28" s="6" t="str">
-        <f>IF(OR($C7=0,J$18=0),"",J7/J$18*$C7)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K28" s="6" t="str">
-        <f>IF(OR($C7=0,K$18=0),"",K7/K$18*$C7)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L28" s="6" t="str">
-        <f>IF(OR($C7=0,L$18=0),"",L7/L$18*$C7)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M28" s="6" t="str">
-        <f t="shared" ref="M28:Q28" si="13">IF(OR($C7=0,M$18=0),"",M7/M$18*$C7)</f>
+        <f t="shared" ref="M28:Q28" si="14">IF(OR($C7=0,M$18=0),"",M7/M$18*$C7)</f>
         <v/>
       </c>
       <c r="N28" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="O28" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="P28" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="Q28" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
@@ -2394,43 +2436,43 @@
         <v>12</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f>IF(OR($C8=0,H$18=0),"",H8/H$18*$C8)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I29" s="6" t="str">
-        <f>IF(OR($C8=0,I$18=0),"",I8/I$18*$C8)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J29" s="6" t="str">
-        <f>IF(OR($C8=0,J$18=0),"",J8/J$18*$C8)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K29" s="6" t="str">
-        <f>IF(OR($C8=0,K$18=0),"",K8/K$18*$C8)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L29" s="6" t="str">
-        <f>IF(OR($C8=0,L$18=0),"",L8/L$18*$C8)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M29" s="6" t="str">
-        <f t="shared" ref="M29:Q29" si="14">IF(OR($C8=0,M$18=0),"",M8/M$18*$C8)</f>
+        <f t="shared" ref="M29:Q29" si="15">IF(OR($C8=0,M$18=0),"",M8/M$18*$C8)</f>
         <v/>
       </c>
       <c r="N29" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O29" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P29" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="Q29" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
@@ -2450,43 +2492,43 @@
         <v>13</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f>IF(OR($C9=0,H$18=0),"",H9/H$18*$C9)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I30" s="6" t="str">
-        <f>IF(OR($C9=0,I$18=0),"",I9/I$18*$C9)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J30" s="6" t="str">
-        <f>IF(OR($C9=0,J$18=0),"",J9/J$18*$C9)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K30" s="6" t="str">
-        <f>IF(OR($C9=0,K$18=0),"",K9/K$18*$C9)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L30" s="6" t="str">
-        <f>IF(OR($C9=0,L$18=0),"",L9/L$18*$C9)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M30" s="6" t="str">
-        <f t="shared" ref="M30:Q30" si="15">IF(OR($C9=0,M$18=0),"",M9/M$18*$C9)</f>
+        <f t="shared" ref="M30:Q30" si="16">IF(OR($C9=0,M$18=0),"",M9/M$18*$C9)</f>
         <v/>
       </c>
       <c r="N30" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="O30" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="P30" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="Q30" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -2499,43 +2541,43 @@
         <v>14</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f>IF(OR($C10=0,H$18=0),"",H10/H$18*$C10)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="I31" s="6" t="str">
-        <f>IF(OR($C10=0,I$18=0),"",I10/I$18*$C10)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="J31" s="6" t="str">
-        <f>IF(OR($C10=0,J$18=0),"",J10/J$18*$C10)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="K31" s="6" t="str">
-        <f>IF(OR($C10=0,K$18=0),"",K10/K$18*$C10)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L31" s="6" t="str">
-        <f>IF(OR($C10=0,L$18=0),"",L10/L$18*$C10)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="M31" s="6" t="str">
-        <f t="shared" ref="M31:Q31" si="16">IF(OR($C10=0,M$18=0),"",M10/M$18*$C10)</f>
+        <f t="shared" ref="M31:Q31" si="17">IF(OR($C10=0,M$18=0),"",M10/M$18*$C10)</f>
         <v/>
       </c>
       <c r="N31" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="O31" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="P31" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="Q31" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -2548,43 +2590,43 @@
         <v>15</v>
       </c>
       <c r="H32" s="6" t="str">
-        <f t="shared" ref="H32:Q32" si="17">IF(OR($C11=0,H$18=0),"",H11/H$18*$C11)</f>
+        <f t="shared" ref="H32:Q32" si="18">IF(OR($C11=0,H$18=0),"",H11/H$18*$C11)</f>
         <v/>
       </c>
       <c r="I32" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J32" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="K32" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="L32" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="M32" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="N32" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O32" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="P32" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="Q32" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
     </row>
@@ -2597,43 +2639,43 @@
         <v>16</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f t="shared" ref="H33:Q33" si="18">IF(OR($C12=0,H$18=0),"",H12/H$18*$C12)</f>
+        <f t="shared" ref="H33:Q33" si="19">IF(OR($C12=0,H$18=0),"",H12/H$18*$C12)</f>
         <v/>
       </c>
       <c r="I33" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="J33" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K33" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="L33" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M33" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="N33" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="O33" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="P33" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="Q33" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -2646,43 +2688,43 @@
         <v>17</v>
       </c>
       <c r="H34" s="6" t="str">
-        <f t="shared" ref="H34:Q34" si="19">IF(OR($C13=0,H$18=0),"",H13/H$18*$C13)</f>
+        <f t="shared" ref="H34:Q34" si="20">IF(OR($C13=0,H$18=0),"",H13/H$18*$C13)</f>
         <v/>
       </c>
       <c r="I34" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="J34" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="K34" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L34" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="M34" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="N34" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="O34" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="P34" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="Q34" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
@@ -2702,43 +2744,43 @@
         <v>18</v>
       </c>
       <c r="H35" s="6" t="str">
-        <f t="shared" ref="H35:Q35" si="20">IF(OR($C14=0,H$18=0),"",H14/H$18*$C14)</f>
+        <f t="shared" ref="H35:Q35" si="21">IF(OR($C14=0,H$18=0),"",H14/H$18*$C14)</f>
         <v/>
       </c>
       <c r="I35" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="J35" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="K35" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="L35" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M35" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="N35" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="O35" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="P35" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="Q35" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
     </row>
@@ -2758,51 +2800,51 @@
         <v>19</v>
       </c>
       <c r="H36" s="6" t="str">
-        <f t="shared" ref="H36:Q36" si="21">IF(OR($C15=0,H$18=0),"",H15/H$18*$C15)</f>
+        <f t="shared" ref="H36:Q36" si="22">IF(OR($C15=0,H$18=0),"",H15/H$18*$C15)</f>
         <v/>
       </c>
       <c r="I36" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="J36" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="K36" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="L36" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="M36" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="N36" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="O36" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="P36" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="Q36" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="31"/>
+      <c r="D37" s="43"/>
       <c r="G37" s="4" t="s">
         <v>22</v>
       </c>
@@ -2811,39 +2853,39 @@
         <v>1</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" ref="I37:Q37" si="22">IF(SUM(I27:I36)=0,1,SUM(I27:I36))</f>
-        <v>1</v>
+        <f t="shared" ref="I37:Q37" si="23">IF(SUM(I27:I36)=0,1,SUM(I27:I36))</f>
+        <v>0.99999999999999978</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="P37" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="Q37" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
     </row>
@@ -2851,7 +2893,7 @@
       <c r="C38" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="D38" s="46" t="b">
+      <c r="D38" s="25" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2859,28 +2901,29 @@
       <c r="C39" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="46" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39" s="40" t="s">
+      <c r="D39" s="47" t="b">
+        <f>AND(D29=2,D30=2,I6=H7,H6=I7)</f>
+        <v>1</v>
+      </c>
+      <c r="G39" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="40"/>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
     </row>
     <row r="40" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C40" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="46" t="b">
+      <c r="D40" s="25" t="b">
         <v>0</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -2891,39 +2934,39 @@
         <v>0</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" ref="I40:Q40" si="23">I4</f>
+        <f t="shared" ref="I40:Q40" si="24">I4</f>
         <v>0</v>
       </c>
       <c r="J40" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="L40" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="M40" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O40" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q40" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -2963,55 +3006,55 @@
       </c>
     </row>
     <row r="42" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="30"/>
+      <c r="D42" s="42"/>
       <c r="F42" s="12">
-        <f t="shared" ref="F42:F51" si="24">F6</f>
+        <f t="shared" ref="F42:F51" si="25">F6</f>
         <v>0</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H42" s="6">
-        <f>IF(OR($C6="",H6=""),"",H6*$C6)</f>
-        <v>0.05</v>
+        <f t="shared" ref="H42:L46" si="26">IF(OR($C6="",H6=""),"",H6*$C6)</f>
+        <v>0.2</v>
       </c>
       <c r="I42" s="6">
-        <f>IF(OR($C6="",I6=""),"",I6*$C6)</f>
-        <v>0.45</v>
+        <f t="shared" si="26"/>
+        <v>0.60000000000000009</v>
       </c>
       <c r="J42" s="6" t="str">
-        <f>IF(OR($C6="",J6=""),"",J6*$C6)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="K42" s="6" t="str">
-        <f>IF(OR($C6="",K6=""),"",K6*$C6)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="L42" s="6" t="str">
-        <f>IF(OR($C6="",L6=""),"",L6*$C6)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="M42" s="6" t="str">
-        <f t="shared" ref="M42:Q42" si="25">IF(OR($C6="",M6=""),"",M6*$C6)</f>
+        <f t="shared" ref="M42:Q42" si="27">IF(OR($C6="",M6=""),"",M6*$C6)</f>
         <v/>
       </c>
       <c r="N42" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="O42" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="P42" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="Q42" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
     </row>
@@ -3024,50 +3067,50 @@
         <v>N/A</v>
       </c>
       <c r="F43" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H43" s="6">
-        <f>IF(OR($C7="",H7=""),"",H7*$C7)</f>
-        <v>0.45</v>
+        <f t="shared" si="26"/>
+        <v>0.15000000000000002</v>
       </c>
       <c r="I43" s="6">
-        <f>IF(OR($C7="",I7=""),"",I7*$C7)</f>
+        <f t="shared" si="26"/>
         <v>0.05</v>
       </c>
       <c r="J43" s="6" t="str">
-        <f>IF(OR($C7="",J7=""),"",J7*$C7)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="K43" s="6" t="str">
-        <f>IF(OR($C7="",K7=""),"",K7*$C7)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="L43" s="6" t="str">
-        <f>IF(OR($C7="",L7=""),"",L7*$C7)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="M43" s="6" t="str">
-        <f t="shared" ref="M43:Q43" si="26">IF(OR($C7="",M7=""),"",M7*$C7)</f>
+        <f t="shared" ref="M43:Q43" si="28">IF(OR($C7="",M7=""),"",M7*$C7)</f>
         <v/>
       </c>
       <c r="N43" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="O43" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="P43" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="Q43" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -3080,50 +3123,50 @@
         <v>N/A</v>
       </c>
       <c r="F44" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H44" s="6" t="str">
-        <f>IF(OR($C8="",H8=""),"",H8*$C8)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I44" s="6" t="str">
-        <f>IF(OR($C8="",I8=""),"",I8*$C8)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="J44" s="6" t="str">
-        <f>IF(OR($C8="",J8=""),"",J8*$C8)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="K44" s="6" t="str">
-        <f>IF(OR($C8="",K8=""),"",K8*$C8)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="L44" s="6" t="str">
-        <f>IF(OR($C8="",L8=""),"",L8*$C8)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="M44" s="6" t="str">
-        <f t="shared" ref="M44:Q44" si="27">IF(OR($C8="",M8=""),"",M8*$C8)</f>
+        <f t="shared" ref="M44:Q44" si="29">IF(OR($C8="",M8=""),"",M8*$C8)</f>
         <v/>
       </c>
       <c r="N44" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="O44" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="P44" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="Q44" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
@@ -3136,50 +3179,50 @@
         <v>N/A</v>
       </c>
       <c r="F45" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H45" s="6" t="str">
-        <f>IF(OR($C9="",H9=""),"",H9*$C9)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I45" s="6" t="str">
-        <f>IF(OR($C9="",I9=""),"",I9*$C9)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="J45" s="6" t="str">
-        <f>IF(OR($C9="",J9=""),"",J9*$C9)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="K45" s="6" t="str">
-        <f>IF(OR($C9="",K9=""),"",K9*$C9)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="L45" s="6" t="str">
-        <f>IF(OR($C9="",L9=""),"",L9*$C9)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="M45" s="6" t="str">
-        <f t="shared" ref="M45:Q45" si="28">IF(OR($C9="",M9=""),"",M9*$C9)</f>
+        <f t="shared" ref="M45:Q45" si="30">IF(OR($C9="",M9=""),"",M9*$C9)</f>
         <v/>
       </c>
       <c r="N45" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="O45" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="P45" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="Q45" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v/>
       </c>
     </row>
@@ -3189,53 +3232,53 @@
       </c>
       <c r="D46" s="6">
         <f>IF(D39,1-D26,"N/A")</f>
-        <v>0.53100440641071867</v>
+        <v>0.18872187554086683</v>
       </c>
       <c r="F46" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H46" s="6" t="str">
-        <f>IF(OR($C10="",H10=""),"",H10*$C10)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="I46" s="6" t="str">
-        <f>IF(OR($C10="",I10=""),"",I10*$C10)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="J46" s="6" t="str">
-        <f>IF(OR($C10="",J10=""),"",J10*$C10)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="K46" s="6" t="str">
-        <f>IF(OR($C10="",K10=""),"",K10*$C10)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="L46" s="6" t="str">
-        <f>IF(OR($C10="",L10=""),"",L10*$C10)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="M46" s="6" t="str">
-        <f t="shared" ref="M46:Q46" si="29">IF(OR($C10="",M10=""),"",M10*$C10)</f>
+        <f t="shared" ref="M46:Q46" si="31">IF(OR($C10="",M10=""),"",M10*$C10)</f>
         <v/>
       </c>
       <c r="N46" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="O46" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="P46" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="Q46" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
@@ -3248,99 +3291,99 @@
         <v>N/A</v>
       </c>
       <c r="F47" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H47" s="6" t="str">
-        <f t="shared" ref="H47:Q47" si="30">IF(OR($C11="",H11=""),"",H11*$C11)</f>
+        <f t="shared" ref="H47:Q47" si="32">IF(OR($C11="",H11=""),"",H11*$C11)</f>
         <v/>
       </c>
       <c r="I47" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="J47" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="K47" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="L47" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="M47" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N47" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="O47" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="P47" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="Q47" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F48" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H48" s="6" t="str">
-        <f t="shared" ref="H48:Q48" si="31">IF(OR($C12="",H12=""),"",H12*$C12)</f>
+        <f t="shared" ref="H48:Q48" si="33">IF(OR($C12="",H12=""),"",H12*$C12)</f>
         <v/>
       </c>
       <c r="I48" s="6" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="J48" s="6" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="K48" s="6" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="L48" s="6" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="M48" s="6" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N48" s="6" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="O48" s="6" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="P48" s="6" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="Q48" s="6" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v/>
       </c>
     </row>
@@ -3349,165 +3392,165 @@
         <v>123</v>
       </c>
       <c r="F49" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H49" s="6" t="str">
-        <f t="shared" ref="H49:Q49" si="32">IF(OR($C13="",H13=""),"",H13*$C13)</f>
+        <f t="shared" ref="H49:Q49" si="34">IF(OR($C13="",H13=""),"",H13*$C13)</f>
         <v/>
       </c>
       <c r="I49" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="J49" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="K49" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="L49" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="M49" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N49" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="O49" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="P49" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="Q49" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F50" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H50" s="6" t="str">
-        <f t="shared" ref="H50:Q50" si="33">IF(OR($C14="",H14=""),"",H14*$C14)</f>
+        <f t="shared" ref="H50:Q50" si="35">IF(OR($C14="",H14=""),"",H14*$C14)</f>
         <v/>
       </c>
       <c r="I50" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="J50" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="K50" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="L50" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="M50" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="N50" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="O50" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="P50" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="Q50" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F51" s="12">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H51" s="6" t="str">
-        <f t="shared" ref="H51:Q51" si="34">IF(OR($C15="",H15=""),"",H15*$C15)</f>
+        <f t="shared" ref="H51:Q51" si="36">IF(OR($C15="",H15=""),"",H15*$C15)</f>
         <v/>
       </c>
       <c r="I51" s="6" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="J51" s="6" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="K51" s="6" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="L51" s="6" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="M51" s="6" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N51" s="6" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="O51" s="6" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="P51" s="6" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="Q51" s="6" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="3:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G54" s="33" t="s">
+      <c r="G54" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="33"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
     </row>
     <row r="55" spans="3:17" x14ac:dyDescent="0.25">
       <c r="G55" s="1" t="s">
@@ -3518,39 +3561,39 @@
         <v>0</v>
       </c>
       <c r="I55" s="13">
-        <f t="shared" ref="I55:Q55" si="35">I4</f>
+        <f t="shared" ref="I55:Q55" si="37">I4</f>
         <v>0</v>
       </c>
       <c r="J55" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="K55" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="L55" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="M55" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N55" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O55" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="P55" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Q55" s="13">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -3591,7 +3634,7 @@
     </row>
     <row r="57" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F57" s="12">
-        <f t="shared" ref="F57:F66" si="36">F6</f>
+        <f t="shared" ref="F57:F66" si="38">F6</f>
         <v>0</v>
       </c>
       <c r="G57" s="5" t="s">
@@ -3599,500 +3642,500 @@
       </c>
       <c r="H57" s="6">
         <f>IF(H27&lt;&gt;"",IF(H27=0,0,LOG(1/H27,2)),"")</f>
-        <v>3.3219280948873626</v>
+        <v>0.80735492205760406</v>
       </c>
       <c r="I57" s="6">
-        <f t="shared" ref="I57:Q57" si="37">IF(I27&lt;&gt;"",IF(I27=0,0,LOG(1/I27,2)),"")</f>
-        <v>0.15200309344505006</v>
+        <f t="shared" ref="I57:Q57" si="39">IF(I27&lt;&gt;"",IF(I27=0,0,LOG(1/I27,2)),"")</f>
+        <v>0.11547721741993618</v>
       </c>
       <c r="J57" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K57" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L57" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M57" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N57" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="O57" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="P57" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="Q57" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F58" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H58" s="6">
-        <f t="shared" ref="H58:Q66" si="38">IF(H28&lt;&gt;"",IF(H28=0,0,LOG(1/H28,2)),"")</f>
-        <v>0.15200309344505006</v>
+        <f t="shared" ref="H58:Q66" si="40">IF(H28&lt;&gt;"",IF(H28=0,0,LOG(1/H28,2)),"")</f>
+        <v>1.2223924213364477</v>
       </c>
       <c r="I58" s="6">
-        <f t="shared" si="38"/>
-        <v>3.3219280948873626</v>
+        <f t="shared" si="40"/>
+        <v>3.7004397181410922</v>
       </c>
       <c r="J58" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K58" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L58" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M58" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N58" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="O58" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="P58" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="Q58" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F59" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H59" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I59" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J59" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K59" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L59" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M59" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N59" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="O59" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="P59" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="Q59" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F60" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H60" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I60" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J60" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K60" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L60" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M60" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N60" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="O60" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="P60" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="Q60" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F61" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H61" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I61" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J61" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K61" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L61" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M61" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N61" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="O61" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="P61" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="Q61" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F62" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H62" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I62" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J62" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K62" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L62" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M62" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N62" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="O62" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="P62" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="Q62" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F63" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H63" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I63" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J63" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K63" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L63" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M63" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N63" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="O63" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="P63" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="Q63" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F64" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H64" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I64" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J64" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K64" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L64" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M64" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N64" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="O64" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="P64" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="Q64" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="65" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F65" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H65" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I65" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J65" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K65" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L65" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M65" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N65" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="O65" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="P65" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="Q65" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="66" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F66" s="12">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H66" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I66" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J66" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K66" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L66" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M66" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N66" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="O66" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="P66" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="Q66" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G69" s="35" t="s">
+      <c r="G69" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="28"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="28"/>
+      <c r="P69" s="28"/>
+      <c r="Q69" s="28"/>
     </row>
     <row r="70" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G70" s="7" t="s">
@@ -4135,59 +4178,59 @@
       </c>
       <c r="H71" s="6">
         <f>SUMPRODUCT(H27:H36,H57:H66)</f>
-        <v>0.46899559358928133</v>
+        <v>0.98522813603425141</v>
       </c>
       <c r="I71" s="6">
-        <f t="shared" ref="I71:Q71" si="39">SUMPRODUCT(I27:I36,I57:I66)</f>
-        <v>0.46899559358928133</v>
+        <f t="shared" ref="I71:Q71" si="41">SUMPRODUCT(I27:I36,I57:I66)</f>
+        <v>0.39124356362925583</v>
       </c>
       <c r="J71" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="K71" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="L71" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="M71" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="N71" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="O71" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="P71" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Q71" s="6">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G74" s="33" t="s">
+      <c r="G74" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="H74" s="33"/>
-      <c r="I74" s="33"/>
-      <c r="J74" s="33"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33"/>
-      <c r="M74" s="33"/>
-      <c r="N74" s="33"/>
-      <c r="O74" s="33"/>
-      <c r="P74" s="33"/>
-      <c r="Q74" s="33"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="26"/>
+      <c r="Q74" s="26"/>
     </row>
     <row r="75" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G75" s="1" t="s">
@@ -4198,39 +4241,39 @@
         <v>0</v>
       </c>
       <c r="I75" s="13">
-        <f t="shared" ref="I75:Q75" si="40">I25</f>
+        <f t="shared" ref="I75:Q75" si="42">I25</f>
         <v>0</v>
       </c>
       <c r="J75" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="K75" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="L75" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="M75" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="N75" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O75" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="P75" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Q75" s="13">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
@@ -4279,504 +4322,504 @@
       </c>
       <c r="H77" s="6">
         <f>IF(H42="","",IFERROR(LOG(H42/(H$18*$C6),2),0))</f>
-        <v>-2.3219280948873622</v>
+        <v>-0.48542682717024171</v>
       </c>
       <c r="I77" s="6">
-        <f t="shared" ref="I77:Q77" si="41">IF(I42="","",IFERROR(LOG(I42/(I$18*$C6),2),0))</f>
-        <v>0.84799690655495008</v>
+        <f t="shared" ref="I77:Q77" si="43">IF(I42="","",IFERROR(LOG(I42/(I$18*$C6),2),0))</f>
+        <v>0.20645087746742624</v>
       </c>
       <c r="J77" s="6" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="K77" s="6" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="L77" s="6" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="M77" s="6" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N77" s="6" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="O77" s="6" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="P77" s="6" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="Q77" s="6" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F78" s="12">
-        <f t="shared" ref="F78:F86" si="42">F28</f>
+        <f t="shared" ref="F78:F86" si="44">F28</f>
         <v>0</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H78" s="6">
-        <f t="shared" ref="H78:Q86" si="43">IF(H43="","",IFERROR(LOG(H43/(H$18*$C7),2),0))</f>
-        <v>0.84799690655495008</v>
+        <f t="shared" ref="H78:Q86" si="45">IF(H43="","",IFERROR(LOG(H43/(H$18*$C7),2),0))</f>
+        <v>1.0995356735509143</v>
       </c>
       <c r="I78" s="6">
-        <f t="shared" si="43"/>
-        <v>-2.3219280948873622</v>
+        <f t="shared" si="45"/>
+        <v>-1.3785116232537302</v>
       </c>
       <c r="J78" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="K78" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="L78" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="M78" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="N78" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="O78" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P78" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="Q78" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F79" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H79" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I79" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="J79" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="K79" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="L79" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="M79" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="N79" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="O79" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P79" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="Q79" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="80" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F80" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H80" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I80" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="J80" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="K80" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="L80" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="M80" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="N80" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="O80" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P80" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="Q80" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="81" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F81" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H81" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I81" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="J81" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="K81" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="L81" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="M81" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="N81" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="O81" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P81" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="Q81" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="82" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F82" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H82" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I82" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="J82" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="K82" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="L82" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="M82" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="N82" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="O82" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P82" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="Q82" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F83" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H83" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I83" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="J83" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="K83" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="L83" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="M83" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="N83" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="O83" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P83" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="Q83" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F84" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H84" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I84" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="J84" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="K84" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="L84" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="M84" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="N84" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="O84" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P84" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="Q84" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F85" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H85" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I85" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="J85" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="K85" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="L85" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="M85" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="N85" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="O85" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P85" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="Q85" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="86" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F86" s="12">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H86" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="I86" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="J86" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="K86" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="L86" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="M86" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="N86" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="O86" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="P86" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="Q86" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="3:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C89" s="34" t="s">
+      <c r="C89" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D89" s="34"/>
-      <c r="G89" s="33" t="s">
+      <c r="D89" s="27"/>
+      <c r="G89" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="H89" s="33"/>
-      <c r="I89" s="33"/>
-      <c r="J89" s="33"/>
-      <c r="K89" s="33"/>
-      <c r="L89" s="33"/>
-      <c r="M89" s="33"/>
-      <c r="N89" s="33"/>
-      <c r="O89" s="33"/>
-      <c r="P89" s="33"/>
-      <c r="Q89" s="33"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="26"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="26"/>
+      <c r="N89" s="26"/>
+      <c r="O89" s="26"/>
+      <c r="P89" s="26"/>
+      <c r="Q89" s="26"/>
     </row>
     <row r="90" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C90" s="4"/>
@@ -4789,39 +4832,39 @@
         <v>0</v>
       </c>
       <c r="I90" s="13">
-        <f t="shared" ref="I90:Q90" si="44">I40</f>
+        <f t="shared" ref="I90:Q90" si="46">I40</f>
         <v>0</v>
       </c>
       <c r="J90" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="K90" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="L90" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="M90" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="N90" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="O90" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="P90" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Q90" s="13">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -4869,8 +4912,8 @@
         <v>10</v>
       </c>
       <c r="D92" s="6">
-        <f t="shared" ref="D92:D101" si="45">SUM(H92:Q92)</f>
-        <v>0.46899559358928133</v>
+        <f t="shared" ref="D92:D101" si="47">SUM(H92:Q92)</f>
+        <v>0.81127812445913272</v>
       </c>
       <c r="F92" s="12">
         <f>F42</f>
@@ -4880,43 +4923,43 @@
         <v>10</v>
       </c>
       <c r="H92" s="6">
-        <f>IF(H6="","",IFERROR(H6*LOG(1/H6,2),0))</f>
-        <v>0.33219280948873631</v>
+        <f t="shared" ref="H92:L96" si="48">IF(H6="","",IFERROR(H6*LOG(1/H6,2),0))</f>
+        <v>0.5</v>
       </c>
       <c r="I92" s="6">
-        <f>IF(I6="","",IFERROR(I6*LOG(1/I6,2),0))</f>
-        <v>0.13680278410054506</v>
+        <f t="shared" si="48"/>
+        <v>0.31127812445913278</v>
       </c>
       <c r="J92" s="6" t="str">
-        <f>IF(J6="","",IFERROR(J6*LOG(1/J6,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="K92" s="6" t="str">
-        <f>IF(K6="","",IFERROR(K6*LOG(1/K6,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="L92" s="6" t="str">
-        <f>IF(L6="","",IFERROR(L6*LOG(1/L6,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="M92" s="6" t="str">
-        <f t="shared" ref="M92:Q92" si="46">IF(M6="","",IFERROR(M6*LOG(1/M6,2),0))</f>
+        <f t="shared" ref="M92:Q92" si="49">IF(M6="","",IFERROR(M6*LOG(1/M6,2),0))</f>
         <v/>
       </c>
       <c r="N92" s="6" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="O92" s="6" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="P92" s="6" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="Q92" s="6" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
@@ -4925,54 +4968,54 @@
         <v>11</v>
       </c>
       <c r="D93" s="6">
-        <f t="shared" si="45"/>
-        <v>0.46899559358928133</v>
+        <f t="shared" si="47"/>
+        <v>0.81127812445913272</v>
       </c>
       <c r="F93" s="12">
-        <f t="shared" ref="F93:F101" si="47">F43</f>
+        <f t="shared" ref="F93:F101" si="50">F43</f>
         <v>0</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>11</v>
       </c>
       <c r="H93" s="6">
-        <f>IF(H7="","",IFERROR(H7*LOG(1/H7,2),0))</f>
-        <v>0.13680278410054506</v>
+        <f t="shared" si="48"/>
+        <v>0.31127812445913278</v>
       </c>
       <c r="I93" s="6">
-        <f>IF(I7="","",IFERROR(I7*LOG(1/I7,2),0))</f>
-        <v>0.33219280948873631</v>
+        <f t="shared" si="48"/>
+        <v>0.5</v>
       </c>
       <c r="J93" s="6" t="str">
-        <f>IF(J7="","",IFERROR(J7*LOG(1/J7,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="K93" s="6" t="str">
-        <f>IF(K7="","",IFERROR(K7*LOG(1/K7,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="L93" s="6" t="str">
-        <f>IF(L7="","",IFERROR(L7*LOG(1/L7,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="M93" s="6" t="str">
-        <f t="shared" ref="H93:Q101" si="48">IF(M7="","",IFERROR(M7*LOG(1/M7,2),0))</f>
+        <f t="shared" ref="H93:Q101" si="51">IF(M7="","",IFERROR(M7*LOG(1/M7,2),0))</f>
         <v/>
       </c>
       <c r="N93" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="O93" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="P93" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="Q93" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
     </row>
@@ -4981,54 +5024,54 @@
         <v>12</v>
       </c>
       <c r="D94" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F94" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H94" s="6" t="str">
-        <f>IF(H8="","",IFERROR(H8*LOG(1/H8,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="I94" s="6" t="str">
-        <f>IF(I8="","",IFERROR(I8*LOG(1/I8,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="J94" s="6" t="str">
-        <f>IF(J8="","",IFERROR(J8*LOG(1/J8,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="K94" s="6" t="str">
-        <f>IF(K8="","",IFERROR(K8*LOG(1/K8,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="L94" s="6" t="str">
-        <f>IF(L8="","",IFERROR(L8*LOG(1/L8,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="M94" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="N94" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="O94" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="P94" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="Q94" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
     </row>
@@ -5037,54 +5080,54 @@
         <v>13</v>
       </c>
       <c r="D95" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F95" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H95" s="6" t="str">
-        <f>IF(H9="","",IFERROR(H9*LOG(1/H9,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="I95" s="6" t="str">
-        <f>IF(I9="","",IFERROR(I9*LOG(1/I9,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="J95" s="6" t="str">
-        <f>IF(J9="","",IFERROR(J9*LOG(1/J9,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="K95" s="6" t="str">
-        <f>IF(K9="","",IFERROR(K9*LOG(1/K9,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="L95" s="6" t="str">
-        <f>IF(L9="","",IFERROR(L9*LOG(1/L9,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="M95" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="N95" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="O95" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="P95" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="Q95" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
     </row>
@@ -5093,54 +5136,54 @@
         <v>14</v>
       </c>
       <c r="D96" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F96" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>14</v>
       </c>
       <c r="H96" s="6" t="str">
-        <f>IF(H10="","",IFERROR(H10*LOG(1/H10,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="I96" s="6" t="str">
-        <f>IF(I10="","",IFERROR(I10*LOG(1/I10,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="J96" s="6" t="str">
-        <f>IF(J10="","",IFERROR(J10*LOG(1/J10,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="K96" s="6" t="str">
-        <f>IF(K10="","",IFERROR(K10*LOG(1/K10,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="L96" s="6" t="str">
-        <f>IF(L10="","",IFERROR(L10*LOG(1/L10,2),0))</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="M96" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="N96" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="O96" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="P96" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="Q96" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
     </row>
@@ -5149,54 +5192,54 @@
         <v>15</v>
       </c>
       <c r="D97" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F97" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H97" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="I97" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="J97" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="K97" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="L97" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="M97" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="N97" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="O97" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="P97" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="Q97" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
     </row>
@@ -5205,54 +5248,54 @@
         <v>16</v>
       </c>
       <c r="D98" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F98" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H98" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="I98" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="J98" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="K98" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="L98" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="M98" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="N98" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="O98" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="P98" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="Q98" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
     </row>
@@ -5261,54 +5304,54 @@
         <v>17</v>
       </c>
       <c r="D99" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F99" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>17</v>
       </c>
       <c r="H99" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="I99" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="J99" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="K99" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="L99" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="M99" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="N99" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="O99" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="P99" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="Q99" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
     </row>
@@ -5317,54 +5360,54 @@
         <v>18</v>
       </c>
       <c r="D100" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F100" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H100" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="I100" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="J100" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="K100" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="L100" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="M100" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="N100" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="O100" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="P100" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="Q100" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
     </row>
@@ -5373,59 +5416,65 @@
         <v>19</v>
       </c>
       <c r="D101" s="6">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="F101" s="12">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H101" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="I101" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="J101" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="K101" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="L101" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="M101" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="N101" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="O101" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="P101" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="Q101" s="6" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="U4:AD4"/>
+    <mergeCell ref="U7:AD7"/>
     <mergeCell ref="G74:Q74"/>
     <mergeCell ref="G89:Q89"/>
     <mergeCell ref="C89:D89"/>
@@ -5438,40 +5487,34 @@
     <mergeCell ref="G54:Q54"/>
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="E21:H21"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="U4:AD4"/>
-    <mergeCell ref="U7:AD7"/>
   </mergeCells>
   <conditionalFormatting sqref="R6:R15">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:Q37">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D36">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D44">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",D43)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D38:D40">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+  <conditionalFormatting sqref="D38 D40">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5554,13 +5597,13 @@
       </c>
     </row>
     <row r="17" spans="2:46" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
     </row>
     <row r="18" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
@@ -6193,12 +6236,12 @@
     <mergeCell ref="B17:F17"/>
   </mergeCells>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>$F$19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6381,7 +6424,7 @@
   <dimension ref="A3:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6399,7 +6442,7 @@
         <v>113</v>
       </c>
       <c r="B4" s="1">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -6408,7 +6451,7 @@
       </c>
       <c r="B5" s="6">
         <f>1-B4</f>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">

--- a/Planilla Segundo Parcial.xlsx
+++ b/Planilla Segundo Parcial.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="133">
   <si>
     <t>b1</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>log2(P(A,B)/(P(A)P(B)))</t>
+  </si>
+  <si>
+    <t>Reglas gen:</t>
   </si>
 </sst>
 </file>
@@ -701,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -734,6 +737,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -797,30 +802,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -835,27 +825,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1288,7 +1257,7 @@
   <dimension ref="A2:AD101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,116 +1273,116 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="T2" t="s">
+      <c r="T2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="27">
         <f>MAX(H6:H15)</f>
         <v>0.75</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="27">
         <f t="shared" ref="V2:AD2" si="0">MAX(I6:I15)</f>
         <v>0.75</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="27">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X2">
+        <v>0.06</v>
+      </c>
+      <c r="X2" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
       <c r="E3" s="11"/>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="T3" t="s">
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="T3" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="27">
         <f>IFERROR(MATCH(U2,H6:H15,0),"")</f>
         <v>2</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="27">
         <f t="shared" ref="V3:AD3" si="1">IFERROR(MATCH(V2,I6:I15,0),"")</f>
         <v>1</v>
       </c>
-      <c r="W3" t="str">
+      <c r="W3" s="27">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="X3" t="str">
+        <v>3</v>
+      </c>
+      <c r="X3" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Y3" t="str">
+      <c r="Y3" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z3" t="str">
+      <c r="Z3" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AA3" t="str">
+      <c r="AA3" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AB3" t="str">
+      <c r="AB3" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AC3" t="str">
+      <c r="AC3" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="AD3" t="str">
+      <c r="AD3" s="27" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:30" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="11"/>
       <c r="G4" s="1" t="s">
         <v>58</v>
@@ -1429,18 +1398,18 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
-      <c r="U4" s="44" t="s">
+      <c r="U4" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
@@ -1531,11 +1500,11 @@
         <v>10</v>
       </c>
       <c r="C6" s="19">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="6">
         <f>IF(C6&lt;&gt;"",LOG(1/C6,2),"")</f>
-        <v>0.32192809488736235</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="5" t="s">
@@ -1547,7 +1516,9 @@
       <c r="I6" s="1">
         <v>0.75</v>
       </c>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -1559,43 +1530,43 @@
         <f>IF(C6="",1,SUM(H6:Q6))</f>
         <v>1</v>
       </c>
-      <c r="U6" s="1">
+      <c r="U6" s="27">
         <f>SUMPRODUCT(H6:H15,$C$6:$C$15)</f>
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="V6" s="1">
+        <v>0.436</v>
+      </c>
+      <c r="V6" s="27">
         <f t="shared" ref="V6:AD6" si="2">SUMPRODUCT(I6:I15,$C$6:$C$15)</f>
-        <v>0.65000000000000013</v>
-      </c>
-      <c r="W6" s="1">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="W6" s="27">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="1">
+        <v>1.2E-2</v>
+      </c>
+      <c r="X6" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Y6" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="Z6" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AA6" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AB6" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AC6" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AD6" s="27">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1609,11 +1580,11 @@
         <v>11</v>
       </c>
       <c r="C7" s="19">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D7" s="6">
         <f>IF(C7&lt;&gt;"",LOG(1/C7,2),"")</f>
-        <v>2.3219280948873622</v>
+        <v>1.7369655941662063</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="4" t="s">
@@ -1625,7 +1596,9 @@
       <c r="I7" s="1">
         <v>0.25</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -1637,18 +1610,18 @@
         <f t="shared" ref="R7:R15" si="4">IF(C7="",1,SUM(H7:Q7))</f>
         <v>1</v>
       </c>
-      <c r="U7" s="44" t="s">
+      <c r="U7" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="V7" s="44"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="44"/>
-      <c r="AA7" s="44"/>
-      <c r="AB7" s="44"/>
-      <c r="AC7" s="44"/>
-      <c r="AD7" s="44"/>
+      <c r="V7" s="46"/>
+      <c r="W7" s="46"/>
+      <c r="X7" s="46"/>
+      <c r="Y7" s="46"/>
+      <c r="Z7" s="46"/>
+      <c r="AA7" s="46"/>
+      <c r="AB7" s="46"/>
+      <c r="AC7" s="46"/>
+      <c r="AD7" s="46"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
@@ -1658,18 +1631,26 @@
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="6" t="str">
+      <c r="C8" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="6">
         <f>IF(C8&lt;&gt;"",LOG(1/C8,2),"")</f>
-        <v/>
+        <v>2.3219280948873622</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="19"/>
+      <c r="H8" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0.06</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -1681,43 +1662,43 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U8" s="1">
+      <c r="U8" s="27">
         <f ca="1">IFERROR(INDIRECT("C"&amp;(6+U3-1))*U2,"")</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="V8" s="1">
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="V8" s="27">
         <f t="shared" ref="V8:AD8" ca="1" si="5">IFERROR(INDIRECT("C"&amp;(6+V3-1))*V2,"")</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="W8" s="1" t="str">
+        <v>0.375</v>
+      </c>
+      <c r="W8" s="27">
         <f t="shared" ca="1" si="5"/>
-        <v/>
-      </c>
-      <c r="X8" s="1" t="str">
+        <v>1.2E-2</v>
+      </c>
+      <c r="X8" s="27" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="Y8" s="1" t="str">
+      <c r="Y8" s="27" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="Z8" s="1" t="str">
+      <c r="Z8" s="27" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="AA8" s="1" t="str">
+      <c r="AA8" s="27" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="AB8" s="1" t="str">
+      <c r="AB8" s="27" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="AC8" s="1" t="str">
+      <c r="AC8" s="27" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
-      <c r="AD8" s="1" t="str">
+      <c r="AD8" s="27" t="str">
         <f t="shared" ca="1" si="5"/>
         <v/>
       </c>
@@ -1753,18 +1734,18 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U9" s="37" t="s">
+      <c r="U9" s="39" t="s">
         <v>117</v>
       </c>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="39"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="40"/>
+      <c r="Z9" s="40"/>
+      <c r="AA9" s="40"/>
+      <c r="AB9" s="40"/>
+      <c r="AC9" s="40"/>
+      <c r="AD9" s="41"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
@@ -1797,43 +1778,43 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="U10" s="1">
+      <c r="U10" s="27">
         <f ca="1">IFERROR(U6-U8,"")</f>
-        <v>0.2</v>
-      </c>
-      <c r="V10" s="1">
+        <v>0.21100000000000002</v>
+      </c>
+      <c r="V10" s="27">
         <f t="shared" ref="V10:AC10" ca="1" si="7">IFERROR(V6-V8,"")</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="W10" s="1" t="str">
+        <v>0.17700000000000005</v>
+      </c>
+      <c r="W10" s="27">
         <f t="shared" ca="1" si="7"/>
-        <v/>
-      </c>
-      <c r="X10" s="1" t="str">
+        <v>0</v>
+      </c>
+      <c r="X10" s="27" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Y10" s="1" t="str">
+      <c r="Y10" s="27" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="Z10" s="1" t="str">
+      <c r="Z10" s="27" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AA10" s="1" t="str">
+      <c r="AA10" s="27" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AB10" s="1" t="str">
+      <c r="AB10" s="27" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AC10" s="1" t="str">
+      <c r="AC10" s="27" t="str">
         <f t="shared" ca="1" si="7"/>
         <v/>
       </c>
-      <c r="AD10" s="1" t="str">
+      <c r="AD10" s="27" t="str">
         <f ca="1">IFERROR(AD6-AD8,"")</f>
         <v/>
       </c>
@@ -1901,10 +1882,10 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="W12" s="40" t="s">
+      <c r="W12" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="X12" s="40"/>
+      <c r="X12" s="42"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
@@ -1942,7 +1923,7 @@
       </c>
       <c r="X13" s="6">
         <f ca="1">SUM(U10:AD10)</f>
-        <v>0.25000000000000006</v>
+        <v>0.38800000000000007</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -2008,6 +1989,49 @@
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
+      <c r="T15" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="U15" s="27" t="str">
+        <f>IF(U3&lt;&gt;"","a"&amp;U3&amp;"-&gt;"&amp;"b"&amp;1,"")</f>
+        <v>a2-&gt;b1</v>
+      </c>
+      <c r="V15" s="27" t="str">
+        <f>IF(V3&lt;&gt;"","a"&amp;V3&amp;"-&gt;"&amp;"b"&amp;2,"")</f>
+        <v>a1-&gt;b2</v>
+      </c>
+      <c r="W15" s="27" t="str">
+        <f>IF(W3&lt;&gt;"","a"&amp;W3&amp;"-&gt;"&amp;"b"&amp;3,"")</f>
+        <v>a3-&gt;b3</v>
+      </c>
+      <c r="X15" s="27" t="str">
+        <f>IF(X3&lt;&gt;"","a"&amp;X3&amp;"-&gt;"&amp;"b"&amp;4,"")</f>
+        <v/>
+      </c>
+      <c r="Y15" s="27" t="str">
+        <f>IF(Y3&lt;&gt;"","a"&amp;Y3&amp;"-&gt;"&amp;"b"&amp;5,"")</f>
+        <v/>
+      </c>
+      <c r="Z15" s="27" t="str">
+        <f>IF(Z3&lt;&gt;"","a"&amp;Z3&amp;"-&gt;"&amp;"b"&amp;6,"")</f>
+        <v/>
+      </c>
+      <c r="AA15" s="27" t="str">
+        <f>IF(AA3&lt;&gt;"","a"&amp;AA3&amp;"-&gt;"&amp;"b"&amp;7,"")</f>
+        <v/>
+      </c>
+      <c r="AB15" s="27" t="str">
+        <f>IF(AB3&lt;&gt;"","a"&amp;AB3&amp;"-&gt;"&amp;"b"&amp;8,"")</f>
+        <v/>
+      </c>
+      <c r="AC15" s="27" t="str">
+        <f>IF(AC3&lt;&gt;"","a"&amp;AC3&amp;"-&gt;"&amp;"b"&amp;9,"")</f>
+        <v/>
+      </c>
+      <c r="AD15" s="27" t="str">
+        <f>IF(AD3&lt;&gt;"","a"&amp;AD3&amp;"-&gt;"&amp;"b"&amp;10,"")</f>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
@@ -2018,41 +2042,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G17" s="30" t="s">
+    <row r="17" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="G17" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C18" s="34" t="s">
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C18" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
       <c r="G18" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" ref="H18:Q18" si="8">SUMPRODUCT(H6:H15,$C$6:$C$15)</f>
-        <v>0.35000000000000003</v>
+        <v>0.436</v>
       </c>
       <c r="I18" s="6">
         <f>SUMPRODUCT(I6:I15,$C$6:$C$15)</f>
-        <v>0.65000000000000013</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="J18" s="6">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.2E-2</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" si="8"/>
@@ -2082,8 +2106,12 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="3">
+        <f>SUM(H18:Q18)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C19" s="15" t="s">
         <v>71</v>
       </c>
@@ -2098,15 +2126,15 @@
       </c>
       <c r="H19" s="6">
         <f>IF(H18&lt;&gt;0,LOG(1/H18,2),"")</f>
-        <v>1.5145731728297582</v>
+        <v>1.1975999598851608</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" ref="I19:Q19" si="9">IF(I18&lt;&gt;0,LOG(1/I18,2),"")</f>
-        <v>0.62148837674626989</v>
-      </c>
-      <c r="J19" s="6" t="str">
+        <v>0.85725982788391786</v>
+      </c>
+      <c r="J19" s="6">
         <f t="shared" si="9"/>
-        <v/>
+        <v>6.3808217839409309</v>
       </c>
       <c r="K19" s="6" t="str">
         <f t="shared" si="9"/>
@@ -2137,87 +2165,87 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C20" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D20" s="6">
         <f>SUMPRODUCT(C6:C15,D6:D15)</f>
-        <v>0.72192809488736231</v>
+        <v>1.4854752972273344</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
         <v>66</v>
       </c>
       <c r="D21" s="6">
         <f>SUMPRODUCT(H18:Q18,H71:Q71)</f>
-        <v>0.59913816397100439</v>
-      </c>
-      <c r="E21" s="35" t="s">
+        <v>1.3150724620463148</v>
+      </c>
+      <c r="E21" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="14">
         <f>D20-D21</f>
-        <v>0.12278993091635793</v>
+        <v>0.17040283518101962</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D23" s="14">
         <f>SUMPRODUCT(H77:Q86,H42:Q51)</f>
-        <v>0.12278993091635806</v>
+        <v>0.17040283518101948</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
       <c r="C24" s="4" t="s">
         <v>68</v>
       </c>
       <c r="D24" s="6">
         <f>SUMPRODUCT(H18:Q18,H19:Q19)</f>
-        <v>0.93406805537549098</v>
+        <v>1.071930868909144</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-    </row>
-    <row r="25" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+    </row>
+    <row r="25" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="6">
         <f>D24+D21</f>
-        <v>1.5332062193464955</v>
+        <v>2.3870033309554586</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>74</v>
@@ -2266,13 +2294,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C26" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D26" s="6">
         <f>D25-D20</f>
-        <v>0.81127812445913317</v>
+        <v>0.90152803372812418</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>80</v>
@@ -2311,13 +2339,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C27" s="4" t="s">
         <v>79</v>
       </c>
       <c r="D27" s="6">
         <f>SUMPRODUCT(C6:C15,D92:D101)</f>
-        <v>0.81127812445913272</v>
+        <v>0.90152803372812429</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>81</v>
@@ -2331,15 +2359,15 @@
       </c>
       <c r="H27" s="6">
         <f t="shared" ref="H27:L31" si="12">IF(OR($C6=0,H$18=0),"",H6/H$18*$C6)</f>
-        <v>0.5714285714285714</v>
+        <v>0.28669724770642202</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="12"/>
-        <v>0.92307692307692291</v>
-      </c>
-      <c r="J27" s="6" t="str">
+        <v>0.67934782608695643</v>
+      </c>
+      <c r="J27" s="6">
         <f t="shared" si="12"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K27" s="6" t="str">
         <f t="shared" si="12"/>
@@ -2370,7 +2398,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F28" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -2380,15 +2408,15 @@
       </c>
       <c r="H28" s="6">
         <f t="shared" si="12"/>
-        <v>0.4285714285714286</v>
+        <v>0.51605504587155959</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" si="12"/>
-        <v>7.6923076923076913E-2</v>
-      </c>
-      <c r="J28" s="6" t="str">
+        <v>0.1358695652173913</v>
+      </c>
+      <c r="J28" s="6">
         <f t="shared" si="12"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K28" s="6" t="str">
         <f t="shared" si="12"/>
@@ -2419,14 +2447,14 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="20"/>
       <c r="C29" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D29" s="6">
         <f>10-COUNTBLANK($C$6:$C$15)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="12">
         <f t="shared" si="11"/>
@@ -2435,17 +2463,17 @@
       <c r="G29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="6" t="str">
+      <c r="H29" s="6">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I29" s="6" t="str">
+        <v>0.19724770642201836</v>
+      </c>
+      <c r="I29" s="6">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J29" s="6" t="str">
+        <v>0.18478260869565216</v>
+      </c>
+      <c r="J29" s="6">
         <f t="shared" si="12"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="K29" s="6" t="str">
         <f t="shared" si="12"/>
@@ -2476,13 +2504,13 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C30" s="4" t="s">
         <v>125</v>
       </c>
       <c r="D30" s="6">
         <f>10-COUNTBLANK(H19:$Q$19)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="12">
         <f t="shared" si="11"/>
@@ -2532,7 +2560,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F31" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -2581,7 +2609,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="F32" s="12">
         <f t="shared" si="11"/>
         <v>0</v>
@@ -2841,10 +2869,10 @@
       </c>
     </row>
     <row r="37" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C37" s="43" t="s">
+      <c r="C37" s="45" t="s">
         <v>126</v>
       </c>
-      <c r="D37" s="43"/>
+      <c r="D37" s="45"/>
       <c r="G37" s="4" t="s">
         <v>22</v>
       </c>
@@ -2901,23 +2929,23 @@
       <c r="C39" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="47" t="b">
+      <c r="D39" s="26" t="b">
         <f>AND(D29=2,D30=2,I6=H7,H6=I7)</f>
-        <v>1</v>
-      </c>
-      <c r="G39" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
     </row>
     <row r="40" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C40" s="24" t="s">
@@ -3006,10 +3034,10 @@
       </c>
     </row>
     <row r="42" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="42"/>
+      <c r="D42" s="44"/>
       <c r="F42" s="12">
         <f t="shared" ref="F42:F51" si="25">F6</f>
         <v>0</v>
@@ -3019,15 +3047,15 @@
       </c>
       <c r="H42" s="6">
         <f t="shared" ref="H42:L46" si="26">IF(OR($C6="",H6=""),"",H6*$C6)</f>
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="I42" s="6">
         <f t="shared" si="26"/>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="J42" s="6" t="str">
+        <v>0.375</v>
+      </c>
+      <c r="J42" s="6">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K42" s="6" t="str">
         <f t="shared" si="26"/>
@@ -3075,15 +3103,15 @@
       </c>
       <c r="H43" s="6">
         <f t="shared" si="26"/>
-        <v>0.15000000000000002</v>
+        <v>0.22499999999999998</v>
       </c>
       <c r="I43" s="6">
         <f t="shared" si="26"/>
-        <v>0.05</v>
-      </c>
-      <c r="J43" s="6" t="str">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="J43" s="6">
         <f t="shared" si="26"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K43" s="6" t="str">
         <f t="shared" si="26"/>
@@ -3129,17 +3157,17 @@
       <c r="G44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H44" s="6" t="str">
+      <c r="H44" s="6">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="I44" s="6" t="str">
+        <v>8.6000000000000007E-2</v>
+      </c>
+      <c r="I44" s="6">
         <f t="shared" si="26"/>
-        <v/>
-      </c>
-      <c r="J44" s="6" t="str">
+        <v>0.10200000000000001</v>
+      </c>
+      <c r="J44" s="6">
         <f t="shared" si="26"/>
-        <v/>
+        <v>1.2E-2</v>
       </c>
       <c r="K44" s="6" t="str">
         <f t="shared" si="26"/>
@@ -3230,9 +3258,9 @@
       <c r="C46" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="6" t="str">
         <f>IF(D39,1-D26,"N/A")</f>
-        <v>0.18872187554086683</v>
+        <v>N/A</v>
       </c>
       <c r="F46" s="12">
         <f t="shared" si="25"/>
@@ -3538,19 +3566,19 @@
       </c>
     </row>
     <row r="54" spans="3:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G54" s="26" t="s">
+      <c r="G54" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="26"/>
-      <c r="Q54" s="26"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="28"/>
+      <c r="Q54" s="28"/>
     </row>
     <row r="55" spans="3:17" x14ac:dyDescent="0.25">
       <c r="G55" s="1" t="s">
@@ -3642,15 +3670,15 @@
       </c>
       <c r="H57" s="6">
         <f>IF(H27&lt;&gt;"",IF(H27=0,0,LOG(1/H27,2)),"")</f>
-        <v>0.80735492205760406</v>
+        <v>1.8024000401148395</v>
       </c>
       <c r="I57" s="6">
         <f t="shared" ref="I57:Q57" si="39">IF(I27&lt;&gt;"",IF(I27=0,0,LOG(1/I27,2)),"")</f>
-        <v>0.11547721741993618</v>
-      </c>
-      <c r="J57" s="6" t="str">
+        <v>0.55777767139492607</v>
+      </c>
+      <c r="J57" s="6">
         <f t="shared" si="39"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K57" s="6" t="str">
         <f t="shared" si="39"/>
@@ -3691,15 +3719,15 @@
       </c>
       <c r="H58" s="6">
         <f t="shared" ref="H58:Q66" si="40">IF(H28&lt;&gt;"",IF(H28=0,0,LOG(1/H28,2)),"")</f>
-        <v>1.2223924213364477</v>
+        <v>0.95440313355988937</v>
       </c>
       <c r="I58" s="6">
         <f t="shared" si="40"/>
-        <v>3.7004397181410922</v>
-      </c>
-      <c r="J58" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
+        <v>2.8797057662822882</v>
+      </c>
+      <c r="J58" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
       </c>
       <c r="K58" s="6" t="str">
         <f t="shared" si="40"/>
@@ -3738,17 +3766,17 @@
       <c r="G59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H59" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I59" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J59" s="6" t="str">
-        <f t="shared" si="40"/>
-        <v/>
+      <c r="H59" s="6">
+        <f t="shared" si="40"/>
+        <v>2.3419195700748285</v>
+      </c>
+      <c r="I59" s="6">
+        <f t="shared" si="40"/>
+        <v>2.4360991148066735</v>
+      </c>
+      <c r="J59" s="6">
+        <f t="shared" si="40"/>
+        <v>0</v>
       </c>
       <c r="K59" s="6" t="str">
         <f t="shared" si="40"/>
@@ -4123,19 +4151,19 @@
       </c>
     </row>
     <row r="69" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G69" s="28" t="s">
+      <c r="G69" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="28"/>
-      <c r="M69" s="28"/>
-      <c r="N69" s="28"/>
-      <c r="O69" s="28"/>
-      <c r="P69" s="28"/>
-      <c r="Q69" s="28"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="30"/>
+      <c r="N69" s="30"/>
+      <c r="O69" s="30"/>
+      <c r="P69" s="30"/>
+      <c r="Q69" s="30"/>
     </row>
     <row r="70" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G70" s="7" t="s">
@@ -4178,11 +4206,11 @@
       </c>
       <c r="H71" s="6">
         <f>SUMPRODUCT(H27:H36,H57:H66)</f>
-        <v>0.98522813603425141</v>
+        <v>1.4712059474581771</v>
       </c>
       <c r="I71" s="6">
         <f t="shared" ref="I71:Q71" si="41">SUMPRODUCT(I27:I36,I57:I66)</f>
-        <v>0.39124356362925583</v>
+        <v>1.2203381683959231</v>
       </c>
       <c r="J71" s="6">
         <f t="shared" si="41"/>
@@ -4218,19 +4246,19 @@
       </c>
     </row>
     <row r="74" spans="6:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="G74" s="26" t="s">
+      <c r="G74" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="26"/>
-      <c r="O74" s="26"/>
-      <c r="P74" s="26"/>
-      <c r="Q74" s="26"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="28"/>
+      <c r="Q74" s="28"/>
     </row>
     <row r="75" spans="6:17" x14ac:dyDescent="0.25">
       <c r="G75" s="1" t="s">
@@ -4322,15 +4350,15 @@
       </c>
       <c r="H77" s="6">
         <f>IF(H42="","",IFERROR(LOG(H42/(H$18*$C6),2),0))</f>
-        <v>-0.48542682717024171</v>
+        <v>-0.80240004011483934</v>
       </c>
       <c r="I77" s="6">
         <f t="shared" ref="I77:Q77" si="43">IF(I42="","",IFERROR(LOG(I42/(I$18*$C6),2),0))</f>
-        <v>0.20645087746742624</v>
-      </c>
-      <c r="J77" s="6" t="str">
+        <v>0.44222232860507393</v>
+      </c>
+      <c r="J77" s="6">
         <f t="shared" si="43"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K77" s="6" t="str">
         <f t="shared" si="43"/>
@@ -4371,15 +4399,15 @@
       </c>
       <c r="H78" s="6">
         <f t="shared" ref="H78:Q86" si="45">IF(H43="","",IFERROR(LOG(H43/(H$18*$C7),2),0))</f>
-        <v>1.0995356735509143</v>
+        <v>0.78256246060631673</v>
       </c>
       <c r="I78" s="6">
         <f t="shared" si="45"/>
-        <v>-1.3785116232537302</v>
-      </c>
-      <c r="J78" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
+        <v>-1.1427401721160819</v>
+      </c>
+      <c r="J78" s="6">
+        <f t="shared" si="45"/>
+        <v>0</v>
       </c>
       <c r="K78" s="6" t="str">
         <f t="shared" si="45"/>
@@ -4418,17 +4446,17 @@
       <c r="G79" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H79" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I79" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J79" s="6" t="str">
-        <f t="shared" si="45"/>
-        <v/>
+      <c r="H79" s="6">
+        <f t="shared" si="45"/>
+        <v>-1.9991475187465951E-2</v>
+      </c>
+      <c r="I79" s="6">
+        <f t="shared" si="45"/>
+        <v>-0.11417101991931113</v>
+      </c>
+      <c r="J79" s="6">
+        <f t="shared" si="45"/>
+        <v>2.3219280948873622</v>
       </c>
       <c r="K79" s="6" t="str">
         <f t="shared" si="45"/>
@@ -4803,23 +4831,23 @@
       </c>
     </row>
     <row r="89" spans="3:17" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="C89" s="27" t="s">
+      <c r="C89" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="D89" s="27"/>
-      <c r="G89" s="26" t="s">
+      <c r="D89" s="29"/>
+      <c r="G89" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="H89" s="26"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="26"/>
-      <c r="K89" s="26"/>
-      <c r="L89" s="26"/>
-      <c r="M89" s="26"/>
-      <c r="N89" s="26"/>
-      <c r="O89" s="26"/>
-      <c r="P89" s="26"/>
-      <c r="Q89" s="26"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
+      <c r="J89" s="28"/>
+      <c r="K89" s="28"/>
+      <c r="L89" s="28"/>
+      <c r="M89" s="28"/>
+      <c r="N89" s="28"/>
+      <c r="O89" s="28"/>
+      <c r="P89" s="28"/>
+      <c r="Q89" s="28"/>
     </row>
     <row r="90" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C90" s="4"/>
@@ -4930,9 +4958,9 @@
         <f t="shared" si="48"/>
         <v>0.31127812445913278</v>
       </c>
-      <c r="J92" s="6" t="str">
+      <c r="J92" s="6">
         <f t="shared" si="48"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K92" s="6" t="str">
         <f t="shared" si="48"/>
@@ -4986,9 +5014,9 @@
         <f t="shared" si="48"/>
         <v>0.5</v>
       </c>
-      <c r="J93" s="6" t="str">
+      <c r="J93" s="6">
         <f t="shared" si="48"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K93" s="6" t="str">
         <f t="shared" si="48"/>
@@ -5025,7 +5053,7 @@
       </c>
       <c r="D94" s="6">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1.2625276708040905</v>
       </c>
       <c r="F94" s="12">
         <f t="shared" si="50"/>
@@ -5034,17 +5062,17 @@
       <c r="G94" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H94" s="6" t="str">
+      <c r="H94" s="6">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I94" s="6" t="str">
+        <v>0.52356431708122952</v>
+      </c>
+      <c r="I94" s="6">
         <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J94" s="6" t="str">
+        <v>0.49542973237964683</v>
+      </c>
+      <c r="J94" s="6">
         <f t="shared" si="48"/>
-        <v/>
+        <v>0.2435336213432141</v>
       </c>
       <c r="K94" s="6" t="str">
         <f t="shared" si="48"/>
@@ -5489,33 +5517,38 @@
     <mergeCell ref="E21:H21"/>
   </mergeCells>
   <conditionalFormatting sqref="R6:R15">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37:Q37">
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D36">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D44">
-    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",D43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38 D40">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R18">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5597,13 +5630,13 @@
       </c>
     </row>
     <row r="17" spans="2:46" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
     </row>
     <row r="18" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
@@ -6236,12 +6269,12 @@
     <mergeCell ref="B17:F17"/>
   </mergeCells>
   <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>$F$19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6257,8 +6290,8 @@
   </sheetPr>
   <dimension ref="E11:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
